--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -59481,7 +59481,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5258358</v>
+        <v>5258356</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59493,46 +59493,46 @@
         <v>44786.65625</v>
       </c>
       <c r="F663" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G663" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H663">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K663">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L663">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M663">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N663">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O663">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P663">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q663">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R663">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S663">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T663">
         <v>2.5</v>
@@ -59544,25 +59544,25 @@
         <v>1.975</v>
       </c>
       <c r="W663">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z663">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA663">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB663">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC663">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59570,7 +59570,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>5258356</v>
+        <v>5258358</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59582,46 +59582,46 @@
         <v>44786.65625</v>
       </c>
       <c r="F664" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G664" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H664">
+        <v>3</v>
+      </c>
+      <c r="I664">
         <v>0</v>
       </c>
-      <c r="I664">
-        <v>1</v>
-      </c>
       <c r="J664" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K664">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L664">
+        <v>3.6</v>
+      </c>
+      <c r="M664">
+        <v>3.8</v>
+      </c>
+      <c r="N664">
+        <v>1.909</v>
+      </c>
+      <c r="O664">
+        <v>3.6</v>
+      </c>
+      <c r="P664">
         <v>4</v>
       </c>
-      <c r="M664">
-        <v>5.75</v>
-      </c>
-      <c r="N664">
-        <v>1.5</v>
-      </c>
-      <c r="O664">
-        <v>4</v>
-      </c>
-      <c r="P664">
-        <v>8</v>
-      </c>
       <c r="Q664">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R664">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S664">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T664">
         <v>2.5</v>
@@ -59633,25 +59633,25 @@
         <v>1.975</v>
       </c>
       <c r="W664">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X664">
         <v>-1</v>
       </c>
       <c r="Y664">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z664">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA664">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB664">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC664">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -61973,7 +61973,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>5257872</v>
+        <v>5258366</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61985,76 +61985,76 @@
         <v>44807.65625</v>
       </c>
       <c r="F691" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G691" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691">
+        <v>1</v>
+      </c>
+      <c r="J691" t="s">
+        <v>59</v>
+      </c>
+      <c r="K691">
+        <v>2.5</v>
+      </c>
+      <c r="L691">
+        <v>3.2</v>
+      </c>
+      <c r="M691">
+        <v>2.75</v>
+      </c>
+      <c r="N691">
+        <v>2.7</v>
+      </c>
+      <c r="O691">
+        <v>3.1</v>
+      </c>
+      <c r="P691">
+        <v>2.625</v>
+      </c>
+      <c r="Q691">
         <v>0</v>
       </c>
-      <c r="J691" t="s">
-        <v>58</v>
-      </c>
-      <c r="K691">
-        <v>1.4</v>
-      </c>
-      <c r="L691">
-        <v>4.75</v>
-      </c>
-      <c r="M691">
-        <v>5.75</v>
-      </c>
-      <c r="N691">
-        <v>1.4</v>
-      </c>
-      <c r="O691">
-        <v>4.5</v>
-      </c>
-      <c r="P691">
-        <v>6</v>
-      </c>
-      <c r="Q691">
-        <v>-1.25</v>
-      </c>
       <c r="R691">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S691">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T691">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U691">
+        <v>1.875</v>
+      </c>
+      <c r="V691">
         <v>1.975</v>
       </c>
-      <c r="V691">
-        <v>1.875</v>
-      </c>
       <c r="W691">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X691">
         <v>-1</v>
       </c>
       <c r="Y691">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z691">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA691">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB691">
         <v>-1</v>
       </c>
       <c r="AC691">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="692" spans="1:29">
@@ -62062,7 +62062,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>5258366</v>
+        <v>5257872</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62074,76 +62074,76 @@
         <v>44807.65625</v>
       </c>
       <c r="F692" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G692" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H692">
+        <v>2</v>
+      </c>
+      <c r="I692">
         <v>0</v>
       </c>
-      <c r="I692">
-        <v>1</v>
-      </c>
       <c r="J692" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K692">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L692">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M692">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N692">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O692">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P692">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q692">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R692">
+        <v>1.925</v>
+      </c>
+      <c r="S692">
+        <v>1.925</v>
+      </c>
+      <c r="T692">
+        <v>3</v>
+      </c>
+      <c r="U692">
         <v>1.975</v>
       </c>
-      <c r="S692">
+      <c r="V692">
         <v>1.875</v>
       </c>
-      <c r="T692">
-        <v>2.25</v>
-      </c>
-      <c r="U692">
-        <v>1.875</v>
-      </c>
-      <c r="V692">
-        <v>1.975</v>
-      </c>
       <c r="W692">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X692">
         <v>-1</v>
       </c>
       <c r="Y692">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z692">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA692">
+        <v>-1</v>
+      </c>
+      <c r="AB692">
+        <v>-1</v>
+      </c>
+      <c r="AC692">
         <v>0.875</v>
-      </c>
-      <c r="AB692">
-        <v>-1</v>
-      </c>
-      <c r="AC692">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62240,7 +62240,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5258264</v>
+        <v>5258266</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62252,55 +62252,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F694" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G694" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J694" t="s">
         <v>59</v>
       </c>
       <c r="K694">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L694">
         <v>3.4</v>
       </c>
       <c r="M694">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N694">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O694">
         <v>3.75</v>
       </c>
       <c r="P694">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q694">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R694">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S694">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T694">
         <v>3</v>
       </c>
       <c r="U694">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V694">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W694">
         <v>-1</v>
@@ -62309,19 +62309,19 @@
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="Z694">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA694">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB694">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC694">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62329,7 +62329,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5258266</v>
+        <v>5258264</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62341,55 +62341,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F695" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G695" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J695" t="s">
         <v>59</v>
       </c>
       <c r="K695">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L695">
         <v>3.4</v>
       </c>
       <c r="M695">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N695">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O695">
         <v>3.75</v>
       </c>
       <c r="P695">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="Q695">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R695">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S695">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T695">
         <v>3</v>
       </c>
       <c r="U695">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W695">
         <v>-1</v>
@@ -62398,19 +62398,19 @@
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="Z695">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB695">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC695">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62863,7 +62863,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5258381</v>
+        <v>5258270</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62875,76 +62875,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G701" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H701">
+        <v>2</v>
+      </c>
+      <c r="I701">
+        <v>3</v>
+      </c>
+      <c r="J701" t="s">
+        <v>59</v>
+      </c>
+      <c r="K701">
+        <v>3.8</v>
+      </c>
+      <c r="L701">
+        <v>3.9</v>
+      </c>
+      <c r="M701">
+        <v>1.85</v>
+      </c>
+      <c r="N701">
+        <v>4.2</v>
+      </c>
+      <c r="O701">
+        <v>4.2</v>
+      </c>
+      <c r="P701">
+        <v>1.727</v>
+      </c>
+      <c r="Q701">
+        <v>0.75</v>
+      </c>
+      <c r="R701">
+        <v>1.95</v>
+      </c>
+      <c r="S701">
+        <v>1.9</v>
+      </c>
+      <c r="T701">
+        <v>3</v>
+      </c>
+      <c r="U701">
+        <v>2</v>
+      </c>
+      <c r="V701">
+        <v>1.85</v>
+      </c>
+      <c r="W701">
+        <v>-1</v>
+      </c>
+      <c r="X701">
+        <v>-1</v>
+      </c>
+      <c r="Y701">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z701">
+        <v>-0.5</v>
+      </c>
+      <c r="AA701">
+        <v>0.45</v>
+      </c>
+      <c r="AB701">
         <v>1</v>
       </c>
-      <c r="I701">
-        <v>0</v>
-      </c>
-      <c r="J701" t="s">
-        <v>58</v>
-      </c>
-      <c r="K701">
-        <v>2.625</v>
-      </c>
-      <c r="L701">
-        <v>3.5</v>
-      </c>
-      <c r="M701">
-        <v>2.55</v>
-      </c>
-      <c r="N701">
-        <v>2.55</v>
-      </c>
-      <c r="O701">
-        <v>3.5</v>
-      </c>
-      <c r="P701">
-        <v>2.7</v>
-      </c>
-      <c r="Q701">
-        <v>0</v>
-      </c>
-      <c r="R701">
-        <v>1.85</v>
-      </c>
-      <c r="S701">
-        <v>2</v>
-      </c>
-      <c r="T701">
-        <v>2.5</v>
-      </c>
-      <c r="U701">
-        <v>1.9</v>
-      </c>
-      <c r="V701">
-        <v>1.95</v>
-      </c>
-      <c r="W701">
-        <v>1.55</v>
-      </c>
-      <c r="X701">
-        <v>-1</v>
-      </c>
-      <c r="Y701">
-        <v>-1</v>
-      </c>
-      <c r="Z701">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA701">
-        <v>-1</v>
-      </c>
-      <c r="AB701">
-        <v>-1</v>
-      </c>
       <c r="AC701">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62952,7 +62952,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>5258270</v>
+        <v>5258381</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62964,76 +62964,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F702" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G702" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J702" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K702">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L702">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M702">
+        <v>2.55</v>
+      </c>
+      <c r="N702">
+        <v>2.55</v>
+      </c>
+      <c r="O702">
+        <v>3.5</v>
+      </c>
+      <c r="P702">
+        <v>2.7</v>
+      </c>
+      <c r="Q702">
+        <v>0</v>
+      </c>
+      <c r="R702">
         <v>1.85</v>
       </c>
-      <c r="N702">
-        <v>4.2</v>
-      </c>
-      <c r="O702">
-        <v>4.2</v>
-      </c>
-      <c r="P702">
-        <v>1.727</v>
-      </c>
-      <c r="Q702">
-        <v>0.75</v>
-      </c>
-      <c r="R702">
+      <c r="S702">
+        <v>2</v>
+      </c>
+      <c r="T702">
+        <v>2.5</v>
+      </c>
+      <c r="U702">
+        <v>1.9</v>
+      </c>
+      <c r="V702">
         <v>1.95</v>
       </c>
-      <c r="S702">
-        <v>1.9</v>
-      </c>
-      <c r="T702">
-        <v>3</v>
-      </c>
-      <c r="U702">
-        <v>2</v>
-      </c>
-      <c r="V702">
-        <v>1.85</v>
-      </c>
       <c r="W702">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X702">
         <v>-1</v>
       </c>
       <c r="Y702">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z702">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA702">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB702">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC702">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -64198,7 +64198,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5258392</v>
+        <v>5258394</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64210,10 +64210,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F716" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G716" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H716">
         <v>1</v>
@@ -64225,19 +64225,19 @@
         <v>59</v>
       </c>
       <c r="K716">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="L716">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M716">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N716">
+        <v>3.3</v>
+      </c>
+      <c r="O716">
         <v>3.4</v>
-      </c>
-      <c r="O716">
-        <v>3.3</v>
       </c>
       <c r="P716">
         <v>2</v>
@@ -64246,19 +64246,19 @@
         <v>0.5</v>
       </c>
       <c r="R716">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S716">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T716">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U716">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V716">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W716">
         <v>-1</v>
@@ -64273,13 +64273,13 @@
         <v>-1</v>
       </c>
       <c r="AA716">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB716">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC716">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64287,7 +64287,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>5258394</v>
+        <v>5258392</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64299,10 +64299,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F717" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G717" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -64314,19 +64314,19 @@
         <v>59</v>
       </c>
       <c r="K717">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="L717">
+        <v>3.5</v>
+      </c>
+      <c r="M717">
+        <v>1.833</v>
+      </c>
+      <c r="N717">
+        <v>3.4</v>
+      </c>
+      <c r="O717">
         <v>3.3</v>
-      </c>
-      <c r="M717">
-        <v>2.2</v>
-      </c>
-      <c r="N717">
-        <v>3.3</v>
-      </c>
-      <c r="O717">
-        <v>3.4</v>
       </c>
       <c r="P717">
         <v>2</v>
@@ -64335,19 +64335,19 @@
         <v>0.5</v>
       </c>
       <c r="R717">
+        <v>1.8</v>
+      </c>
+      <c r="S717">
+        <v>2.05</v>
+      </c>
+      <c r="T717">
+        <v>2.5</v>
+      </c>
+      <c r="U717">
+        <v>2</v>
+      </c>
+      <c r="V717">
         <v>1.85</v>
-      </c>
-      <c r="S717">
-        <v>2</v>
-      </c>
-      <c r="T717">
-        <v>2.75</v>
-      </c>
-      <c r="U717">
-        <v>2.025</v>
-      </c>
-      <c r="V717">
-        <v>1.825</v>
       </c>
       <c r="W717">
         <v>-1</v>
@@ -64362,13 +64362,13 @@
         <v>-1</v>
       </c>
       <c r="AA717">
+        <v>1.05</v>
+      </c>
+      <c r="AB717">
         <v>1</v>
       </c>
-      <c r="AB717">
-        <v>0.5125</v>
-      </c>
       <c r="AC717">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -65533,7 +65533,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5258274</v>
+        <v>5258396</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65545,19 +65545,19 @@
         <v>44844.58333333334</v>
       </c>
       <c r="F731" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G731" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H731">
         <v>0</v>
       </c>
       <c r="I731">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J731" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K731">
         <v>1.615</v>
@@ -65566,55 +65566,55 @@
         <v>4</v>
       </c>
       <c r="M731">
+        <v>4.75</v>
+      </c>
+      <c r="N731">
+        <v>1.65</v>
+      </c>
+      <c r="O731">
+        <v>3.6</v>
+      </c>
+      <c r="P731">
         <v>5</v>
       </c>
-      <c r="N731">
-        <v>1.533</v>
-      </c>
-      <c r="O731">
-        <v>4.5</v>
-      </c>
-      <c r="P731">
-        <v>5.5</v>
-      </c>
       <c r="Q731">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R731">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S731">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T731">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U731">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V731">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W731">
         <v>-1</v>
       </c>
       <c r="X731">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y731">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z731">
         <v>-1</v>
       </c>
       <c r="AA731">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB731">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC731">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -65622,7 +65622,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>5258396</v>
+        <v>5258274</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65634,19 +65634,19 @@
         <v>44844.58333333334</v>
       </c>
       <c r="F732" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G732" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H732">
         <v>0</v>
       </c>
       <c r="I732">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J732" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K732">
         <v>1.615</v>
@@ -65655,55 +65655,55 @@
         <v>4</v>
       </c>
       <c r="M732">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N732">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O732">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P732">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q732">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R732">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S732">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T732">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U732">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V732">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W732">
         <v>-1</v>
       </c>
       <c r="X732">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y732">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z732">
         <v>-1</v>
       </c>
       <c r="AA732">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB732">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC732">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="733" spans="1:29">
@@ -70428,7 +70428,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5260003</v>
+        <v>5258429</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70440,34 +70440,34 @@
         <v>44922.45833333334</v>
       </c>
       <c r="F786" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G786" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I786">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J786" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K786">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L786">
         <v>3.6</v>
       </c>
       <c r="M786">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N786">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O786">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P786">
         <v>4</v>
@@ -70476,40 +70476,40 @@
         <v>-0.5</v>
       </c>
       <c r="R786">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S786">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T786">
         <v>2.5</v>
       </c>
       <c r="U786">
+        <v>1.975</v>
+      </c>
+      <c r="V786">
         <v>1.875</v>
       </c>
-      <c r="V786">
-        <v>1.975</v>
-      </c>
       <c r="W786">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X786">
         <v>-1</v>
       </c>
       <c r="Y786">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z786">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA786">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB786">
+        <v>-1</v>
+      </c>
+      <c r="AC786">
         <v>0.875</v>
-      </c>
-      <c r="AC786">
-        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70517,7 +70517,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5258429</v>
+        <v>5260003</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70529,34 +70529,34 @@
         <v>44922.45833333334</v>
       </c>
       <c r="F787" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G787" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I787">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J787" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K787">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L787">
         <v>3.6</v>
       </c>
       <c r="M787">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N787">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O787">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P787">
         <v>4</v>
@@ -70565,40 +70565,40 @@
         <v>-0.5</v>
       </c>
       <c r="R787">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S787">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T787">
         <v>2.5</v>
       </c>
       <c r="U787">
+        <v>1.875</v>
+      </c>
+      <c r="V787">
         <v>1.975</v>
       </c>
-      <c r="V787">
-        <v>1.875</v>
-      </c>
       <c r="W787">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z787">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA787">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB787">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC787">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="788" spans="1:29">
@@ -70695,7 +70695,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5260002</v>
+        <v>5258296</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70707,13 +70707,13 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F789" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G789" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I789">
         <v>1</v>
@@ -70722,43 +70722,43 @@
         <v>58</v>
       </c>
       <c r="K789">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L789">
         <v>3.6</v>
       </c>
       <c r="M789">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N789">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O789">
         <v>3.8</v>
       </c>
       <c r="P789">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q789">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R789">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S789">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T789">
         <v>3</v>
       </c>
       <c r="U789">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V789">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W789">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="X789">
         <v>-1</v>
@@ -70767,16 +70767,16 @@
         <v>-1</v>
       </c>
       <c r="Z789">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA789">
         <v>-1</v>
       </c>
       <c r="AB789">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC789">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -70784,7 +70784,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5258296</v>
+        <v>5260002</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70796,13 +70796,13 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F790" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G790" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H790">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790">
         <v>1</v>
@@ -70811,43 +70811,43 @@
         <v>58</v>
       </c>
       <c r="K790">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L790">
         <v>3.6</v>
       </c>
       <c r="M790">
+        <v>2.4</v>
+      </c>
+      <c r="N790">
         <v>3.2</v>
-      </c>
-      <c r="N790">
-        <v>2</v>
       </c>
       <c r="O790">
         <v>3.8</v>
       </c>
       <c r="P790">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q790">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R790">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S790">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T790">
         <v>3</v>
       </c>
       <c r="U790">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V790">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W790">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X790">
         <v>-1</v>
@@ -70856,16 +70856,16 @@
         <v>-1</v>
       </c>
       <c r="Z790">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA790">
         <v>-1</v>
       </c>
       <c r="AB790">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC790">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -70962,7 +70962,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5258298</v>
+        <v>5258428</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70974,73 +70974,73 @@
         <v>44924.45833333334</v>
       </c>
       <c r="F792" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G792" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I792">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K792">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L792">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M792">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N792">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O792">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P792">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q792">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R792">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S792">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T792">
         <v>2.75</v>
       </c>
       <c r="U792">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V792">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W792">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X792">
         <v>-1</v>
       </c>
       <c r="Y792">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z792">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA792">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB792">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AC792">
         <v>-0.5</v>
@@ -71051,7 +71051,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>5258428</v>
+        <v>5258298</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -71063,73 +71063,73 @@
         <v>44924.45833333334</v>
       </c>
       <c r="F793" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G793" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H793">
+        <v>2</v>
+      </c>
+      <c r="I793">
         <v>1</v>
       </c>
-      <c r="I793">
-        <v>2</v>
-      </c>
       <c r="J793" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K793">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L793">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M793">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="N793">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="O793">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P793">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q793">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R793">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S793">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T793">
         <v>2.75</v>
       </c>
       <c r="U793">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V793">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W793">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X793">
         <v>-1</v>
       </c>
       <c r="Y793">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z793">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA793">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB793">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC793">
         <v>-0.5</v>
@@ -71407,7 +71407,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5258433</v>
+        <v>5258300</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71419,73 +71419,73 @@
         <v>44930.45833333334</v>
       </c>
       <c r="F797" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G797" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I797">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K797">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L797">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M797">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N797">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O797">
         <v>3.4</v>
       </c>
       <c r="P797">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q797">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R797">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S797">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T797">
         <v>3</v>
       </c>
       <c r="U797">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V797">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W797">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA797">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB797">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC797">
         <v>-1</v>
@@ -71496,7 +71496,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5258300</v>
+        <v>5258433</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71508,73 +71508,73 @@
         <v>44930.45833333334</v>
       </c>
       <c r="F798" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G798" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H798">
+        <v>2</v>
+      </c>
+      <c r="I798">
         <v>4</v>
       </c>
-      <c r="I798">
-        <v>1</v>
-      </c>
       <c r="J798" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K798">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L798">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M798">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N798">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O798">
         <v>3.4</v>
       </c>
       <c r="P798">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q798">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R798">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S798">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T798">
         <v>3</v>
       </c>
       <c r="U798">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V798">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W798">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z798">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB798">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC798">
         <v>-1</v>
@@ -71585,7 +71585,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5258430</v>
+        <v>6079161</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71597,76 +71597,76 @@
         <v>44930.58333333334</v>
       </c>
       <c r="F799" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G799" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H799">
         <v>2</v>
       </c>
       <c r="I799">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K799">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L799">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M799">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N799">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O799">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P799">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q799">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R799">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S799">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T799">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V799">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W799">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X799">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y799">
         <v>-1</v>
       </c>
       <c r="Z799">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB799">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC799">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71674,7 +71674,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>6079161</v>
+        <v>5258430</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71686,76 +71686,76 @@
         <v>44930.58333333334</v>
       </c>
       <c r="F800" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G800" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H800">
         <v>2</v>
       </c>
       <c r="I800">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J800" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K800">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L800">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M800">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N800">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O800">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P800">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q800">
+        <v>-1.25</v>
+      </c>
+      <c r="R800">
+        <v>1.9</v>
+      </c>
+      <c r="S800">
+        <v>1.95</v>
+      </c>
+      <c r="T800">
+        <v>3.25</v>
+      </c>
+      <c r="U800">
+        <v>2</v>
+      </c>
+      <c r="V800">
+        <v>1.85</v>
+      </c>
+      <c r="W800">
+        <v>0.444</v>
+      </c>
+      <c r="X800">
+        <v>-1</v>
+      </c>
+      <c r="Y800">
+        <v>-1</v>
+      </c>
+      <c r="Z800">
         <v>-0.5</v>
       </c>
-      <c r="R800">
-        <v>1.975</v>
-      </c>
-      <c r="S800">
-        <v>1.875</v>
-      </c>
-      <c r="T800">
-        <v>2.25</v>
-      </c>
-      <c r="U800">
-        <v>1.8</v>
-      </c>
-      <c r="V800">
-        <v>2.05</v>
-      </c>
-      <c r="W800">
-        <v>-1</v>
-      </c>
-      <c r="X800">
-        <v>2.4</v>
-      </c>
-      <c r="Y800">
-        <v>-1</v>
-      </c>
-      <c r="Z800">
-        <v>-1</v>
-      </c>
       <c r="AA800">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB800">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC800">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71852,7 +71852,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>5260000</v>
+        <v>6079162</v>
       </c>
       <c r="C802" t="s">
         <v>28</v>
@@ -71864,13 +71864,13 @@
         <v>44931.58333333334</v>
       </c>
       <c r="F802" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G802" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H802">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I802">
         <v>0</v>
@@ -71888,34 +71888,34 @@
         <v>5.5</v>
       </c>
       <c r="N802">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O802">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P802">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q802">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R802">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S802">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T802">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U802">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V802">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W802">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
       <c r="X802">
         <v>-1</v>
@@ -71924,16 +71924,16 @@
         <v>-1</v>
       </c>
       <c r="Z802">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA802">
         <v>-1</v>
       </c>
       <c r="AB802">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC802">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="803" spans="1:29">
@@ -71941,7 +71941,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>6079162</v>
+        <v>5260000</v>
       </c>
       <c r="C803" t="s">
         <v>28</v>
@@ -71953,13 +71953,13 @@
         <v>44931.58333333334</v>
       </c>
       <c r="F803" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G803" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H803">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I803">
         <v>0</v>
@@ -71977,34 +71977,34 @@
         <v>5.5</v>
       </c>
       <c r="N803">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="O803">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P803">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q803">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R803">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S803">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T803">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U803">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V803">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W803">
-        <v>0.55</v>
+        <v>0.444</v>
       </c>
       <c r="X803">
         <v>-1</v>
@@ -72013,16 +72013,16 @@
         <v>-1</v>
       </c>
       <c r="Z803">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA803">
         <v>-1</v>
       </c>
       <c r="AB803">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC803">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="804" spans="1:29">
@@ -72653,7 +72653,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>5258301</v>
+        <v>5259999</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72665,76 +72665,76 @@
         <v>44935.58333333334</v>
       </c>
       <c r="F811" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G811" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H811">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K811">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L811">
         <v>3.5</v>
       </c>
       <c r="M811">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N811">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O811">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P811">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q811">
         <v>0.25</v>
       </c>
       <c r="R811">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S811">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T811">
+        <v>2.75</v>
+      </c>
+      <c r="U811">
+        <v>2.025</v>
+      </c>
+      <c r="V811">
+        <v>1.825</v>
+      </c>
+      <c r="W811">
+        <v>-1</v>
+      </c>
+      <c r="X811">
         <v>2.5</v>
       </c>
-      <c r="U811">
-        <v>1.825</v>
-      </c>
-      <c r="V811">
-        <v>2.025</v>
-      </c>
-      <c r="W811">
-        <v>2.1</v>
-      </c>
-      <c r="X811">
-        <v>-1</v>
-      </c>
       <c r="Y811">
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA811">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB811">
+        <v>-1</v>
+      </c>
+      <c r="AC811">
         <v>0.825</v>
-      </c>
-      <c r="AC811">
-        <v>-1</v>
       </c>
     </row>
     <row r="812" spans="1:29">
@@ -72742,7 +72742,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5259999</v>
+        <v>5258301</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72754,76 +72754,76 @@
         <v>44935.58333333334</v>
       </c>
       <c r="F812" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G812" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K812">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L812">
         <v>3.5</v>
       </c>
       <c r="M812">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N812">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O812">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P812">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q812">
         <v>0.25</v>
       </c>
       <c r="R812">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S812">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T812">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U812">
+        <v>1.825</v>
+      </c>
+      <c r="V812">
         <v>2.025</v>
       </c>
-      <c r="V812">
-        <v>1.825</v>
-      </c>
       <c r="W812">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X812">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y812">
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA812">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB812">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC812">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -75412,7 +75412,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>5258311</v>
+        <v>5258454</v>
       </c>
       <c r="C842" t="s">
         <v>28</v>
@@ -75424,13 +75424,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F842" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G842" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H842">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -75439,43 +75439,43 @@
         <v>58</v>
       </c>
       <c r="K842">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L842">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M842">
         <v>3.25</v>
       </c>
       <c r="N842">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O842">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P842">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q842">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R842">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S842">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T842">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U842">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V842">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W842">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X842">
         <v>-1</v>
@@ -75484,13 +75484,13 @@
         <v>-1</v>
       </c>
       <c r="Z842">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA842">
         <v>-1</v>
       </c>
       <c r="AB842">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC842">
         <v>-1</v>
@@ -75501,7 +75501,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>5258454</v>
+        <v>5258311</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75513,13 +75513,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F843" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G843" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H843">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -75528,43 +75528,43 @@
         <v>58</v>
       </c>
       <c r="K843">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L843">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M843">
         <v>3.25</v>
       </c>
       <c r="N843">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O843">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P843">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q843">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R843">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S843">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T843">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U843">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V843">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W843">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X843">
         <v>-1</v>
@@ -75573,13 +75573,13 @@
         <v>-1</v>
       </c>
       <c r="Z843">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA843">
         <v>-1</v>
       </c>
       <c r="AB843">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC843">
         <v>-1</v>
@@ -80841,7 +80841,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>5259978</v>
+        <v>5258347</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80853,76 +80853,76 @@
         <v>45035.45833333334</v>
       </c>
       <c r="F903" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G903" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H903">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J903" t="s">
         <v>57</v>
       </c>
       <c r="K903">
+        <v>2.4</v>
+      </c>
+      <c r="L903">
+        <v>3.4</v>
+      </c>
+      <c r="M903">
+        <v>2.625</v>
+      </c>
+      <c r="N903">
+        <v>2.25</v>
+      </c>
+      <c r="O903">
+        <v>3.75</v>
+      </c>
+      <c r="P903">
+        <v>2.625</v>
+      </c>
+      <c r="Q903">
+        <v>-0.25</v>
+      </c>
+      <c r="R903">
+        <v>2.025</v>
+      </c>
+      <c r="S903">
+        <v>1.825</v>
+      </c>
+      <c r="T903">
+        <v>3</v>
+      </c>
+      <c r="U903">
+        <v>1.975</v>
+      </c>
+      <c r="V903">
+        <v>1.875</v>
+      </c>
+      <c r="W903">
+        <v>-1</v>
+      </c>
+      <c r="X903">
         <v>2.75</v>
       </c>
-      <c r="L903">
-        <v>3.3</v>
-      </c>
-      <c r="M903">
-        <v>2.375</v>
-      </c>
-      <c r="N903">
-        <v>3.2</v>
-      </c>
-      <c r="O903">
-        <v>3.25</v>
-      </c>
-      <c r="P903">
-        <v>2.15</v>
-      </c>
-      <c r="Q903">
-        <v>0.25</v>
-      </c>
-      <c r="R903">
-        <v>1.975</v>
-      </c>
-      <c r="S903">
-        <v>1.875</v>
-      </c>
-      <c r="T903">
-        <v>2.5</v>
-      </c>
-      <c r="U903">
-        <v>2.025</v>
-      </c>
-      <c r="V903">
-        <v>1.825</v>
-      </c>
-      <c r="W903">
-        <v>-1</v>
-      </c>
-      <c r="X903">
-        <v>2.25</v>
-      </c>
       <c r="Y903">
         <v>-1</v>
       </c>
       <c r="Z903">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA903">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB903">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC903">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="904" spans="1:29">
@@ -80930,7 +80930,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>5258347</v>
+        <v>5259978</v>
       </c>
       <c r="C904" t="s">
         <v>28</v>
@@ -80942,76 +80942,76 @@
         <v>45035.45833333334</v>
       </c>
       <c r="F904" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G904" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I904">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J904" t="s">
         <v>57</v>
       </c>
       <c r="K904">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L904">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M904">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N904">
+        <v>3.2</v>
+      </c>
+      <c r="O904">
+        <v>3.25</v>
+      </c>
+      <c r="P904">
+        <v>2.15</v>
+      </c>
+      <c r="Q904">
+        <v>0.25</v>
+      </c>
+      <c r="R904">
+        <v>1.975</v>
+      </c>
+      <c r="S904">
+        <v>1.875</v>
+      </c>
+      <c r="T904">
+        <v>2.5</v>
+      </c>
+      <c r="U904">
+        <v>2.025</v>
+      </c>
+      <c r="V904">
+        <v>1.825</v>
+      </c>
+      <c r="W904">
+        <v>-1</v>
+      </c>
+      <c r="X904">
         <v>2.25</v>
       </c>
-      <c r="O904">
-        <v>3.75</v>
-      </c>
-      <c r="P904">
-        <v>2.625</v>
-      </c>
-      <c r="Q904">
-        <v>-0.25</v>
-      </c>
-      <c r="R904">
-        <v>2.025</v>
-      </c>
-      <c r="S904">
-        <v>1.825</v>
-      </c>
-      <c r="T904">
-        <v>3</v>
-      </c>
-      <c r="U904">
-        <v>1.975</v>
-      </c>
-      <c r="V904">
-        <v>1.875</v>
-      </c>
-      <c r="W904">
-        <v>-1</v>
-      </c>
-      <c r="X904">
-        <v>2.75</v>
-      </c>
       <c r="Y904">
         <v>-1</v>
       </c>
       <c r="Z904">
+        <v>0.4875</v>
+      </c>
+      <c r="AA904">
         <v>-0.5</v>
       </c>
-      <c r="AA904">
-        <v>0.4125</v>
-      </c>
       <c r="AB904">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC904">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="905" spans="1:29">
@@ -90898,7 +90898,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6943907</v>
+        <v>6943906</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90910,76 +90910,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1016" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1016" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1016">
         <v>1</v>
       </c>
       <c r="J1016" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1016">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L1016">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="M1016">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N1016">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O1016">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P1016">
+        <v>8.5</v>
+      </c>
+      <c r="Q1016">
+        <v>-1.5</v>
+      </c>
+      <c r="R1016">
+        <v>1.975</v>
+      </c>
+      <c r="S1016">
+        <v>1.875</v>
+      </c>
+      <c r="T1016">
         <v>3</v>
       </c>
-      <c r="Q1016">
-        <v>-0.25</v>
-      </c>
-      <c r="R1016">
+      <c r="U1016">
+        <v>1.8</v>
+      </c>
+      <c r="V1016">
         <v>2.05</v>
       </c>
-      <c r="S1016">
-        <v>1.75</v>
-      </c>
-      <c r="T1016">
-        <v>2.5</v>
-      </c>
-      <c r="U1016">
-        <v>1.9</v>
-      </c>
-      <c r="V1016">
-        <v>1.95</v>
-      </c>
       <c r="W1016">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1016">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1016">
         <v>-1</v>
       </c>
       <c r="Z1016">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1016">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB1016">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1016">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -90987,7 +90987,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6943906</v>
+        <v>6943907</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -90999,76 +90999,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1017" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G1017" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1017">
         <v>1</v>
       </c>
       <c r="J1017" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1017">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L1017">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1017">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N1017">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O1017">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P1017">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q1017">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1017">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S1017">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T1017">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1017">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1017">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1017">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1017">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1017">
         <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1017">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB1017">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1017">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -97662,7 +97662,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>6943944</v>
+        <v>7471385</v>
       </c>
       <c r="C1092" t="s">
         <v>28</v>
@@ -97674,73 +97674,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F1092" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G1092" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H1092">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1092">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1092" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1092">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L1092">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1092">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N1092">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1092">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1092">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q1092">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1092">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1092">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1092">
         <v>2.5</v>
       </c>
       <c r="U1092">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V1092">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W1092">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1092">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1092">
         <v>-1</v>
       </c>
       <c r="Z1092">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA1092">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1092">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1092">
         <v>-1</v>
@@ -97751,7 +97751,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>7471385</v>
+        <v>6943944</v>
       </c>
       <c r="C1093" t="s">
         <v>28</v>
@@ -97763,73 +97763,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F1093" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G1093" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1093">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1093">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1093" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1093">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L1093">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1093">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N1093">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1093">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1093">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q1093">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1093">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S1093">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T1093">
         <v>2.5</v>
       </c>
       <c r="U1093">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V1093">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W1093">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X1093">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1093">
         <v>-1</v>
       </c>
       <c r="Z1093">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1093">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1093">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC1093">
         <v>-1</v>
@@ -97840,7 +97840,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C1094" t="s">
         <v>28</v>
@@ -97852,73 +97852,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F1094" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1094" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1094">
         <v>3</v>
       </c>
       <c r="I1094">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1094" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1094">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L1094">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M1094">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N1094">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O1094">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1094">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q1094">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1094">
+        <v>1.95</v>
+      </c>
+      <c r="S1094">
         <v>1.9</v>
-      </c>
-      <c r="S1094">
-        <v>1.95</v>
       </c>
       <c r="T1094">
         <v>2.5</v>
       </c>
       <c r="U1094">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V1094">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W1094">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1094">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1094">
         <v>-1</v>
       </c>
       <c r="Z1094">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA1094">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1094">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC1094">
         <v>-1</v>
@@ -97929,7 +97929,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C1095" t="s">
         <v>28</v>
@@ -97941,73 +97941,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F1095" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1095" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1095">
         <v>3</v>
       </c>
       <c r="I1095">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1095" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1095">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L1095">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M1095">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N1095">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O1095">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1095">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q1095">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1095">
+        <v>1.9</v>
+      </c>
+      <c r="S1095">
         <v>1.95</v>
-      </c>
-      <c r="S1095">
-        <v>1.9</v>
       </c>
       <c r="T1095">
         <v>2.5</v>
       </c>
       <c r="U1095">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V1095">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W1095">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X1095">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1095">
         <v>-1</v>
       </c>
       <c r="Z1095">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1095">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1095">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1095">
         <v>-1</v>
@@ -98196,7 +98196,7 @@
         <v>1096</v>
       </c>
       <c r="B1098">
-        <v>6943798</v>
+        <v>6943797</v>
       </c>
       <c r="C1098" t="s">
         <v>28</v>
@@ -98208,55 +98208,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F1098" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1098" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1098" t="s">
         <v>59</v>
       </c>
       <c r="K1098">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="L1098">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M1098">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="N1098">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O1098">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P1098">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q1098">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R1098">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S1098">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T1098">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U1098">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1098">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1098">
         <v>-1</v>
@@ -98265,19 +98265,19 @@
         <v>-1</v>
       </c>
       <c r="Y1098">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Z1098">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1098">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB1098">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1098">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1099" spans="1:29">
@@ -98285,7 +98285,7 @@
         <v>1097</v>
       </c>
       <c r="B1099">
-        <v>6943797</v>
+        <v>6943798</v>
       </c>
       <c r="C1099" t="s">
         <v>28</v>
@@ -98297,55 +98297,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F1099" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1099" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1099" t="s">
         <v>59</v>
       </c>
       <c r="K1099">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="L1099">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1099">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="N1099">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O1099">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P1099">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q1099">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1099">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1099">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1099">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1099">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1099">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1099">
         <v>-1</v>
@@ -98354,19 +98354,19 @@
         <v>-1</v>
       </c>
       <c r="Y1099">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="Z1099">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1099">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB1099">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1099">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100" spans="1:29">
@@ -105405,7 +105405,7 @@
         <v>1177</v>
       </c>
       <c r="B1179">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C1179" t="s">
         <v>28</v>
@@ -105417,76 +105417,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F1179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1179" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179">
         <v>1</v>
       </c>
       <c r="J1179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1179">
+        <v>1.95</v>
+      </c>
+      <c r="L1179">
+        <v>3.4</v>
+      </c>
+      <c r="M1179">
+        <v>3.8</v>
+      </c>
+      <c r="N1179">
+        <v>1.615</v>
+      </c>
+      <c r="O1179">
+        <v>3.8</v>
+      </c>
+      <c r="P1179">
         <v>6</v>
       </c>
-      <c r="L1179">
-        <v>4</v>
-      </c>
-      <c r="M1179">
-        <v>1.5</v>
-      </c>
-      <c r="N1179">
-        <v>6</v>
-      </c>
-      <c r="O1179">
-        <v>4.5</v>
-      </c>
-      <c r="P1179">
-        <v>1.5</v>
-      </c>
       <c r="Q1179">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1179">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S1179">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T1179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W1179">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X1179">
         <v>-1</v>
       </c>
       <c r="Y1179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1179">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA1179">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1180" spans="1:29">
@@ -105494,7 +105494,7 @@
         <v>1178</v>
       </c>
       <c r="B1180">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C1180" t="s">
         <v>28</v>
@@ -105506,76 +105506,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F1180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1180" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180">
         <v>1</v>
       </c>
       <c r="J1180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1180">
+        <v>6</v>
+      </c>
+      <c r="L1180">
+        <v>4</v>
+      </c>
+      <c r="M1180">
+        <v>1.5</v>
+      </c>
+      <c r="N1180">
+        <v>6</v>
+      </c>
+      <c r="O1180">
+        <v>4.5</v>
+      </c>
+      <c r="P1180">
+        <v>1.5</v>
+      </c>
+      <c r="Q1180">
+        <v>1</v>
+      </c>
+      <c r="R1180">
+        <v>2</v>
+      </c>
+      <c r="S1180">
+        <v>1.85</v>
+      </c>
+      <c r="T1180">
+        <v>2.75</v>
+      </c>
+      <c r="U1180">
+        <v>1.9</v>
+      </c>
+      <c r="V1180">
         <v>1.95</v>
       </c>
-      <c r="L1180">
-        <v>3.4</v>
-      </c>
-      <c r="M1180">
-        <v>3.8</v>
-      </c>
-      <c r="N1180">
-        <v>1.615</v>
-      </c>
-      <c r="O1180">
-        <v>3.8</v>
-      </c>
-      <c r="P1180">
-        <v>6</v>
-      </c>
-      <c r="Q1180">
-        <v>-0.75</v>
-      </c>
-      <c r="R1180">
-        <v>1.8</v>
-      </c>
-      <c r="S1180">
-        <v>2.05</v>
-      </c>
-      <c r="T1180">
-        <v>2.5</v>
-      </c>
-      <c r="U1180">
-        <v>1.875</v>
-      </c>
-      <c r="V1180">
-        <v>1.975</v>
-      </c>
       <c r="W1180">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X1180">
         <v>-1</v>
       </c>
       <c r="Y1180">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z1180">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA1180">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB1180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1181" spans="1:29">
@@ -106411,31 +106411,31 @@
         <v>2.4</v>
       </c>
       <c r="N1190">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O1190">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P1190">
+        <v>2.1</v>
+      </c>
+      <c r="Q1190">
+        <v>0.25</v>
+      </c>
+      <c r="R1190">
         <v>1.95</v>
       </c>
-      <c r="Q1190">
-        <v>0.5</v>
-      </c>
-      <c r="R1190">
-        <v>1.825</v>
-      </c>
       <c r="S1190">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T1190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1190">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V1190">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W1190">
         <v>0</v>
@@ -106485,13 +106485,13 @@
         <v>2.7</v>
       </c>
       <c r="N1191">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O1191">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P1191">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q1191">
         <v>0.25</v>
@@ -106506,10 +106506,10 @@
         <v>2.5</v>
       </c>
       <c r="U1191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V1191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W1191">
         <v>0</v>
@@ -106568,13 +106568,13 @@
         <v>15</v>
       </c>
       <c r="Q1192">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R1192">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S1192">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T1192">
         <v>3.5</v>
@@ -106633,7 +106633,7 @@
         <v>4.2</v>
       </c>
       <c r="N1193">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O1193">
         <v>4.333</v>
@@ -106645,19 +106645,19 @@
         <v>-0.75</v>
       </c>
       <c r="R1193">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S1193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T1193">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1193">
+        <v>2.05</v>
+      </c>
+      <c r="V1193">
         <v>1.8</v>
-      </c>
-      <c r="V1193">
-        <v>2.05</v>
       </c>
       <c r="W1193">
         <v>0</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5968" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -555,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1193"/>
+  <dimension ref="A1:AC1189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58324,7 +58324,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>4145546</v>
+        <v>4142553</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58336,58 +58336,58 @@
         <v>44703.54166666666</v>
       </c>
       <c r="F650" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G650" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H650">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J650" t="s">
         <v>58</v>
       </c>
       <c r="K650">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L650">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M650">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N650">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O650">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P650">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q650">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R650">
+        <v>1.95</v>
+      </c>
+      <c r="S650">
+        <v>1.9</v>
+      </c>
+      <c r="T650">
+        <v>3.5</v>
+      </c>
+      <c r="U650">
+        <v>2</v>
+      </c>
+      <c r="V650">
         <v>1.85</v>
       </c>
-      <c r="S650">
-        <v>2</v>
-      </c>
-      <c r="T650">
-        <v>3</v>
-      </c>
-      <c r="U650">
-        <v>1.975</v>
-      </c>
-      <c r="V650">
-        <v>1.875</v>
-      </c>
       <c r="W650">
-        <v>0.6659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X650">
         <v>-1</v>
@@ -58396,13 +58396,13 @@
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA650">
         <v>-1</v>
       </c>
       <c r="AB650">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC650">
         <v>-1</v>
@@ -58413,7 +58413,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>4142553</v>
+        <v>4145546</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58425,58 +58425,58 @@
         <v>44703.54166666666</v>
       </c>
       <c r="F651" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G651" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H651">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
         <v>58</v>
       </c>
       <c r="K651">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L651">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M651">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N651">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O651">
+        <v>3.8</v>
+      </c>
+      <c r="P651">
         <v>4.75</v>
       </c>
-      <c r="P651">
-        <v>5.75</v>
-      </c>
       <c r="Q651">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R651">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S651">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T651">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W651">
-        <v>0.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X651">
         <v>-1</v>
@@ -58485,13 +58485,13 @@
         <v>-1</v>
       </c>
       <c r="Z651">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA651">
         <v>-1</v>
       </c>
       <c r="AB651">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -59481,7 +59481,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5258356</v>
+        <v>5258358</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59493,46 +59493,46 @@
         <v>44786.65625</v>
       </c>
       <c r="F663" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G663" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H663">
+        <v>3</v>
+      </c>
+      <c r="I663">
         <v>0</v>
       </c>
-      <c r="I663">
-        <v>1</v>
-      </c>
       <c r="J663" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K663">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L663">
+        <v>3.6</v>
+      </c>
+      <c r="M663">
+        <v>3.8</v>
+      </c>
+      <c r="N663">
+        <v>1.909</v>
+      </c>
+      <c r="O663">
+        <v>3.6</v>
+      </c>
+      <c r="P663">
         <v>4</v>
       </c>
-      <c r="M663">
-        <v>5.75</v>
-      </c>
-      <c r="N663">
-        <v>1.5</v>
-      </c>
-      <c r="O663">
-        <v>4</v>
-      </c>
-      <c r="P663">
-        <v>8</v>
-      </c>
       <c r="Q663">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R663">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S663">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T663">
         <v>2.5</v>
@@ -59544,25 +59544,25 @@
         <v>1.975</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA663">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC663">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59570,7 +59570,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>5258358</v>
+        <v>5258356</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59582,46 +59582,46 @@
         <v>44786.65625</v>
       </c>
       <c r="F664" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G664" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H664">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J664" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K664">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L664">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M664">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N664">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O664">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P664">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q664">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R664">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S664">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T664">
         <v>2.5</v>
@@ -59633,25 +59633,25 @@
         <v>1.975</v>
       </c>
       <c r="W664">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X664">
         <v>-1</v>
       </c>
       <c r="Y664">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z664">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA664">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB664">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC664">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -61795,7 +61795,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5258267</v>
+        <v>5258365</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61807,46 +61807,46 @@
         <v>44807.55208333334</v>
       </c>
       <c r="F689" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G689" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689">
         <v>0</v>
       </c>
       <c r="J689" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K689">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L689">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M689">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N689">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O689">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P689">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q689">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R689">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S689">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T689">
         <v>2.5</v>
@@ -61858,19 +61858,19 @@
         <v>2.025</v>
       </c>
       <c r="W689">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X689">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y689">
         <v>-1</v>
       </c>
       <c r="Z689">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA689">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB689">
         <v>-1</v>
@@ -61884,7 +61884,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>5258365</v>
+        <v>5258267</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61896,46 +61896,46 @@
         <v>44807.55208333334</v>
       </c>
       <c r="F690" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G690" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690">
         <v>0</v>
       </c>
       <c r="J690" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K690">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L690">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M690">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N690">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O690">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P690">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q690">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R690">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S690">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T690">
         <v>2.5</v>
@@ -61947,19 +61947,19 @@
         <v>2.025</v>
       </c>
       <c r="W690">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X690">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y690">
         <v>-1</v>
       </c>
       <c r="Z690">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA690">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB690">
         <v>-1</v>
@@ -62240,7 +62240,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5258266</v>
+        <v>5258264</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62252,55 +62252,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F694" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G694" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J694" t="s">
         <v>59</v>
       </c>
       <c r="K694">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L694">
         <v>3.4</v>
       </c>
       <c r="M694">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N694">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O694">
         <v>3.75</v>
       </c>
       <c r="P694">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="Q694">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R694">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S694">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T694">
         <v>3</v>
       </c>
       <c r="U694">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V694">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W694">
         <v>-1</v>
@@ -62309,19 +62309,19 @@
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="Z694">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA694">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB694">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC694">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62329,7 +62329,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5258264</v>
+        <v>5258266</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62341,55 +62341,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F695" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G695" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J695" t="s">
         <v>59</v>
       </c>
       <c r="K695">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L695">
         <v>3.4</v>
       </c>
       <c r="M695">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N695">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O695">
         <v>3.75</v>
       </c>
       <c r="P695">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q695">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R695">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S695">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T695">
         <v>3</v>
       </c>
       <c r="U695">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V695">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W695">
         <v>-1</v>
@@ -62398,19 +62398,19 @@
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA695">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC695">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62863,7 +62863,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5258270</v>
+        <v>5258381</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62875,76 +62875,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G701" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J701" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K701">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L701">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M701">
+        <v>2.55</v>
+      </c>
+      <c r="N701">
+        <v>2.55</v>
+      </c>
+      <c r="O701">
+        <v>3.5</v>
+      </c>
+      <c r="P701">
+        <v>2.7</v>
+      </c>
+      <c r="Q701">
+        <v>0</v>
+      </c>
+      <c r="R701">
         <v>1.85</v>
       </c>
-      <c r="N701">
-        <v>4.2</v>
-      </c>
-      <c r="O701">
-        <v>4.2</v>
-      </c>
-      <c r="P701">
-        <v>1.727</v>
-      </c>
-      <c r="Q701">
-        <v>0.75</v>
-      </c>
-      <c r="R701">
+      <c r="S701">
+        <v>2</v>
+      </c>
+      <c r="T701">
+        <v>2.5</v>
+      </c>
+      <c r="U701">
+        <v>1.9</v>
+      </c>
+      <c r="V701">
         <v>1.95</v>
       </c>
-      <c r="S701">
-        <v>1.9</v>
-      </c>
-      <c r="T701">
-        <v>3</v>
-      </c>
-      <c r="U701">
-        <v>2</v>
-      </c>
-      <c r="V701">
-        <v>1.85</v>
-      </c>
       <c r="W701">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X701">
         <v>-1</v>
       </c>
       <c r="Y701">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z701">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA701">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB701">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62952,7 +62952,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>5258381</v>
+        <v>5258270</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62964,76 +62964,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F702" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G702" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I702">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J702" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K702">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L702">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M702">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N702">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O702">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P702">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q702">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R702">
+        <v>1.95</v>
+      </c>
+      <c r="S702">
+        <v>1.9</v>
+      </c>
+      <c r="T702">
+        <v>3</v>
+      </c>
+      <c r="U702">
+        <v>2</v>
+      </c>
+      <c r="V702">
         <v>1.85</v>
       </c>
-      <c r="S702">
-        <v>2</v>
-      </c>
-      <c r="T702">
-        <v>2.5</v>
-      </c>
-      <c r="U702">
-        <v>1.9</v>
-      </c>
-      <c r="V702">
-        <v>1.95</v>
-      </c>
       <c r="W702">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X702">
         <v>-1</v>
       </c>
       <c r="Y702">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z702">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA702">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB702">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC702">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -64198,7 +64198,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5258394</v>
+        <v>5258392</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64210,10 +64210,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F716" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G716" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H716">
         <v>1</v>
@@ -64225,19 +64225,19 @@
         <v>59</v>
       </c>
       <c r="K716">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="L716">
+        <v>3.5</v>
+      </c>
+      <c r="M716">
+        <v>1.833</v>
+      </c>
+      <c r="N716">
+        <v>3.4</v>
+      </c>
+      <c r="O716">
         <v>3.3</v>
-      </c>
-      <c r="M716">
-        <v>2.2</v>
-      </c>
-      <c r="N716">
-        <v>3.3</v>
-      </c>
-      <c r="O716">
-        <v>3.4</v>
       </c>
       <c r="P716">
         <v>2</v>
@@ -64246,20 +64246,20 @@
         <v>0.5</v>
       </c>
       <c r="R716">
+        <v>1.8</v>
+      </c>
+      <c r="S716">
+        <v>2.05</v>
+      </c>
+      <c r="T716">
+        <v>2.5</v>
+      </c>
+      <c r="U716">
+        <v>2</v>
+      </c>
+      <c r="V716">
         <v>1.85</v>
       </c>
-      <c r="S716">
-        <v>2</v>
-      </c>
-      <c r="T716">
-        <v>2.75</v>
-      </c>
-      <c r="U716">
-        <v>2.025</v>
-      </c>
-      <c r="V716">
-        <v>1.825</v>
-      </c>
       <c r="W716">
         <v>-1</v>
       </c>
@@ -64273,13 +64273,13 @@
         <v>-1</v>
       </c>
       <c r="AA716">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB716">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AC716">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64287,7 +64287,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>5258392</v>
+        <v>5258394</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64299,10 +64299,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F717" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G717" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -64314,19 +64314,19 @@
         <v>59</v>
       </c>
       <c r="K717">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="L717">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M717">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N717">
+        <v>3.3</v>
+      </c>
+      <c r="O717">
         <v>3.4</v>
-      </c>
-      <c r="O717">
-        <v>3.3</v>
       </c>
       <c r="P717">
         <v>2</v>
@@ -64335,19 +64335,19 @@
         <v>0.5</v>
       </c>
       <c r="R717">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S717">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T717">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U717">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V717">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W717">
         <v>-1</v>
@@ -64362,13 +64362,13 @@
         <v>-1</v>
       </c>
       <c r="AA717">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB717">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC717">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -65533,7 +65533,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5258396</v>
+        <v>5258274</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65545,19 +65545,19 @@
         <v>44844.58333333334</v>
       </c>
       <c r="F731" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G731" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H731">
         <v>0</v>
       </c>
       <c r="I731">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J731" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K731">
         <v>1.615</v>
@@ -65566,55 +65566,55 @@
         <v>4</v>
       </c>
       <c r="M731">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N731">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O731">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P731">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q731">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R731">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S731">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T731">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U731">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V731">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W731">
         <v>-1</v>
       </c>
       <c r="X731">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y731">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z731">
         <v>-1</v>
       </c>
       <c r="AA731">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB731">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC731">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -65622,7 +65622,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>5258274</v>
+        <v>5258396</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65634,19 +65634,19 @@
         <v>44844.58333333334</v>
       </c>
       <c r="F732" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G732" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H732">
         <v>0</v>
       </c>
       <c r="I732">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J732" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K732">
         <v>1.615</v>
@@ -65655,55 +65655,55 @@
         <v>4</v>
       </c>
       <c r="M732">
+        <v>4.75</v>
+      </c>
+      <c r="N732">
+        <v>1.65</v>
+      </c>
+      <c r="O732">
+        <v>3.6</v>
+      </c>
+      <c r="P732">
         <v>5</v>
       </c>
-      <c r="N732">
-        <v>1.533</v>
-      </c>
-      <c r="O732">
-        <v>4.5</v>
-      </c>
-      <c r="P732">
-        <v>5.5</v>
-      </c>
       <c r="Q732">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R732">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S732">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T732">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U732">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V732">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W732">
         <v>-1</v>
       </c>
       <c r="X732">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y732">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z732">
         <v>-1</v>
       </c>
       <c r="AA732">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB732">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC732">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="733" spans="1:29">
@@ -66334,7 +66334,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5258398</v>
+        <v>5257876</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66346,76 +66346,76 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F740" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G740" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H740">
+        <v>0</v>
+      </c>
+      <c r="I740">
         <v>3</v>
       </c>
-      <c r="I740">
-        <v>0</v>
-      </c>
       <c r="J740" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K740">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L740">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M740">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N740">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O740">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P740">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q740">
+        <v>0.5</v>
+      </c>
+      <c r="R740">
+        <v>1.925</v>
+      </c>
+      <c r="S740">
+        <v>1.925</v>
+      </c>
+      <c r="T740">
+        <v>2.75</v>
+      </c>
+      <c r="U740">
+        <v>1.95</v>
+      </c>
+      <c r="V740">
+        <v>1.9</v>
+      </c>
+      <c r="W740">
+        <v>-1</v>
+      </c>
+      <c r="X740">
+        <v>-1</v>
+      </c>
+      <c r="Y740">
+        <v>0.8</v>
+      </c>
+      <c r="Z740">
+        <v>-1</v>
+      </c>
+      <c r="AA740">
+        <v>0.925</v>
+      </c>
+      <c r="AB740">
+        <v>0.475</v>
+      </c>
+      <c r="AC740">
         <v>-0.5</v>
-      </c>
-      <c r="R740">
-        <v>2.05</v>
-      </c>
-      <c r="S740">
-        <v>1.8</v>
-      </c>
-      <c r="T740">
-        <v>2.25</v>
-      </c>
-      <c r="U740">
-        <v>2.05</v>
-      </c>
-      <c r="V740">
-        <v>1.8</v>
-      </c>
-      <c r="W740">
-        <v>1.05</v>
-      </c>
-      <c r="X740">
-        <v>-1</v>
-      </c>
-      <c r="Y740">
-        <v>-1</v>
-      </c>
-      <c r="Z740">
-        <v>1.05</v>
-      </c>
-      <c r="AA740">
-        <v>-1</v>
-      </c>
-      <c r="AB740">
-        <v>1.05</v>
-      </c>
-      <c r="AC740">
-        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66423,7 +66423,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5257876</v>
+        <v>5258398</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66435,76 +66435,76 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F741" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G741" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H741">
+        <v>3</v>
+      </c>
+      <c r="I741">
         <v>0</v>
       </c>
-      <c r="I741">
-        <v>3</v>
-      </c>
       <c r="J741" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K741">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L741">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M741">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N741">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O741">
+        <v>3.2</v>
+      </c>
+      <c r="P741">
         <v>3.75</v>
       </c>
-      <c r="P741">
+      <c r="Q741">
+        <v>-0.5</v>
+      </c>
+      <c r="R741">
+        <v>2.05</v>
+      </c>
+      <c r="S741">
         <v>1.8</v>
       </c>
-      <c r="Q741">
-        <v>0.5</v>
-      </c>
-      <c r="R741">
-        <v>1.925</v>
-      </c>
-      <c r="S741">
-        <v>1.925</v>
-      </c>
       <c r="T741">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U741">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V741">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W741">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X741">
         <v>-1</v>
       </c>
       <c r="Y741">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z741">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA741">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB741">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC741">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -68737,7 +68737,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5257878</v>
+        <v>5258420</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68749,76 +68749,76 @@
         <v>44872.58333333334</v>
       </c>
       <c r="F767" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G767" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I767">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J767" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K767">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="L767">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M767">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="N767">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="O767">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P767">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q767">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R767">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S767">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T767">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V767">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W767">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X767">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y767">
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA767">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC767">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68826,7 +68826,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>5258420</v>
+        <v>5257878</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68838,76 +68838,76 @@
         <v>44872.58333333334</v>
       </c>
       <c r="F768" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G768" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H768">
+        <v>1</v>
+      </c>
+      <c r="I768">
+        <v>0</v>
+      </c>
+      <c r="J768" t="s">
+        <v>58</v>
+      </c>
+      <c r="K768">
+        <v>1.533</v>
+      </c>
+      <c r="L768">
+        <v>4.2</v>
+      </c>
+      <c r="M768">
+        <v>5.75</v>
+      </c>
+      <c r="N768">
+        <v>1.333</v>
+      </c>
+      <c r="O768">
+        <v>5.25</v>
+      </c>
+      <c r="P768">
+        <v>8.5</v>
+      </c>
+      <c r="Q768">
+        <v>-1.5</v>
+      </c>
+      <c r="R768">
+        <v>1.925</v>
+      </c>
+      <c r="S768">
+        <v>1.925</v>
+      </c>
+      <c r="T768">
         <v>3</v>
       </c>
-      <c r="I768">
-        <v>3</v>
-      </c>
-      <c r="J768" t="s">
-        <v>57</v>
-      </c>
-      <c r="K768">
-        <v>4.333</v>
-      </c>
-      <c r="L768">
-        <v>3.4</v>
-      </c>
-      <c r="M768">
-        <v>1.833</v>
-      </c>
-      <c r="N768">
-        <v>4.333</v>
-      </c>
-      <c r="O768">
-        <v>3.5</v>
-      </c>
-      <c r="P768">
-        <v>1.833</v>
-      </c>
-      <c r="Q768">
-        <v>0.5</v>
-      </c>
-      <c r="R768">
-        <v>2.05</v>
-      </c>
-      <c r="S768">
-        <v>1.8</v>
-      </c>
-      <c r="T768">
-        <v>2.25</v>
-      </c>
       <c r="U768">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V768">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W768">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X768">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y768">
         <v>-1</v>
       </c>
       <c r="Z768">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA768">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB768">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -70161,7 +70161,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5258295</v>
+        <v>5258293</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70173,76 +70173,76 @@
         <v>44920.41666666666</v>
       </c>
       <c r="F783" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G783" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
         <v>57</v>
       </c>
       <c r="K783">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L783">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M783">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N783">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="O783">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P783">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q783">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R783">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S783">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T783">
         <v>3</v>
       </c>
       <c r="U783">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V783">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA783">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC783">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70250,7 +70250,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>5258293</v>
+        <v>5258295</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70262,76 +70262,76 @@
         <v>44920.41666666666</v>
       </c>
       <c r="F784" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G784" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I784">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J784" t="s">
         <v>57</v>
       </c>
       <c r="K784">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L784">
+        <v>3.8</v>
+      </c>
+      <c r="M784">
+        <v>4.333</v>
+      </c>
+      <c r="N784">
+        <v>1.75</v>
+      </c>
+      <c r="O784">
         <v>3.75</v>
       </c>
-      <c r="M784">
-        <v>1.95</v>
-      </c>
-      <c r="N784">
-        <v>4.2</v>
-      </c>
-      <c r="O784">
-        <v>4.2</v>
-      </c>
       <c r="P784">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q784">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R784">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S784">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T784">
         <v>3</v>
       </c>
       <c r="U784">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V784">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y784">
         <v>-1</v>
       </c>
       <c r="Z784">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB784">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC784">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70962,7 +70962,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5258428</v>
+        <v>5258298</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70974,73 +70974,73 @@
         <v>44924.45833333334</v>
       </c>
       <c r="F792" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G792" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I792">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J792" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K792">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L792">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M792">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="N792">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="O792">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P792">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q792">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R792">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S792">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T792">
         <v>2.75</v>
       </c>
       <c r="U792">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V792">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W792">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X792">
         <v>-1</v>
       </c>
       <c r="Y792">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z792">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA792">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB792">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC792">
         <v>-0.5</v>
@@ -71051,7 +71051,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>5258298</v>
+        <v>5258428</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -71063,73 +71063,73 @@
         <v>44924.45833333334</v>
       </c>
       <c r="F793" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G793" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I793">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J793" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K793">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L793">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M793">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N793">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O793">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P793">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q793">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R793">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S793">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T793">
         <v>2.75</v>
       </c>
       <c r="U793">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V793">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W793">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X793">
         <v>-1</v>
       </c>
       <c r="Y793">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z793">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA793">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB793">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AC793">
         <v>-0.5</v>
@@ -71407,7 +71407,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5258300</v>
+        <v>5258433</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71419,73 +71419,73 @@
         <v>44930.45833333334</v>
       </c>
       <c r="F797" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G797" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H797">
+        <v>2</v>
+      </c>
+      <c r="I797">
         <v>4</v>
       </c>
-      <c r="I797">
-        <v>1</v>
-      </c>
       <c r="J797" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K797">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L797">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M797">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N797">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O797">
         <v>3.4</v>
       </c>
       <c r="P797">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q797">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R797">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S797">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T797">
         <v>3</v>
       </c>
       <c r="U797">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V797">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W797">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z797">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA797">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB797">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC797">
         <v>-1</v>
@@ -71496,7 +71496,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5258433</v>
+        <v>5258300</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71508,73 +71508,73 @@
         <v>44930.45833333334</v>
       </c>
       <c r="F798" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G798" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I798">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J798" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K798">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L798">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M798">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N798">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O798">
         <v>3.4</v>
       </c>
       <c r="P798">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q798">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R798">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S798">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T798">
         <v>3</v>
       </c>
       <c r="U798">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V798">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W798">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA798">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB798">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC798">
         <v>-1</v>
@@ -71852,7 +71852,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>6079162</v>
+        <v>5260000</v>
       </c>
       <c r="C802" t="s">
         <v>28</v>
@@ -71864,13 +71864,13 @@
         <v>44931.58333333334</v>
       </c>
       <c r="F802" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G802" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H802">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I802">
         <v>0</v>
@@ -71888,34 +71888,34 @@
         <v>5.5</v>
       </c>
       <c r="N802">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="O802">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P802">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q802">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R802">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S802">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T802">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U802">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V802">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W802">
-        <v>0.55</v>
+        <v>0.444</v>
       </c>
       <c r="X802">
         <v>-1</v>
@@ -71924,16 +71924,16 @@
         <v>-1</v>
       </c>
       <c r="Z802">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA802">
         <v>-1</v>
       </c>
       <c r="AB802">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC802">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803" spans="1:29">
@@ -71941,7 +71941,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>5260000</v>
+        <v>6079162</v>
       </c>
       <c r="C803" t="s">
         <v>28</v>
@@ -71953,13 +71953,13 @@
         <v>44931.58333333334</v>
       </c>
       <c r="F803" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G803" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H803">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I803">
         <v>0</v>
@@ -71977,34 +71977,34 @@
         <v>5.5</v>
       </c>
       <c r="N803">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O803">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P803">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q803">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R803">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S803">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T803">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U803">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V803">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W803">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
       <c r="X803">
         <v>-1</v>
@@ -72013,16 +72013,16 @@
         <v>-1</v>
       </c>
       <c r="Z803">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA803">
         <v>-1</v>
       </c>
       <c r="AB803">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC803">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="804" spans="1:29">
@@ -72653,7 +72653,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>5259999</v>
+        <v>5258301</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72665,76 +72665,76 @@
         <v>44935.58333333334</v>
       </c>
       <c r="F811" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G811" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I811">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J811" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K811">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L811">
         <v>3.5</v>
       </c>
       <c r="M811">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N811">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O811">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P811">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q811">
         <v>0.25</v>
       </c>
       <c r="R811">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S811">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T811">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U811">
+        <v>1.825</v>
+      </c>
+      <c r="V811">
         <v>2.025</v>
       </c>
-      <c r="V811">
-        <v>1.825</v>
-      </c>
       <c r="W811">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X811">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y811">
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA811">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB811">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC811">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812" spans="1:29">
@@ -72742,7 +72742,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5258301</v>
+        <v>5259999</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72754,76 +72754,76 @@
         <v>44935.58333333334</v>
       </c>
       <c r="F812" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G812" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H812">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I812">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J812" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K812">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L812">
         <v>3.5</v>
       </c>
       <c r="M812">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N812">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O812">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P812">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q812">
         <v>0.25</v>
       </c>
       <c r="R812">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S812">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T812">
+        <v>2.75</v>
+      </c>
+      <c r="U812">
+        <v>2.025</v>
+      </c>
+      <c r="V812">
+        <v>1.825</v>
+      </c>
+      <c r="W812">
+        <v>-1</v>
+      </c>
+      <c r="X812">
         <v>2.5</v>
       </c>
-      <c r="U812">
-        <v>1.825</v>
-      </c>
-      <c r="V812">
-        <v>2.025</v>
-      </c>
-      <c r="W812">
-        <v>2.1</v>
-      </c>
-      <c r="X812">
-        <v>-1</v>
-      </c>
       <c r="Y812">
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA812">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB812">
+        <v>-1</v>
+      </c>
+      <c r="AC812">
         <v>0.825</v>
-      </c>
-      <c r="AC812">
-        <v>-1</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -75412,7 +75412,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>5258454</v>
+        <v>5258311</v>
       </c>
       <c r="C842" t="s">
         <v>28</v>
@@ -75424,13 +75424,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F842" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G842" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H842">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -75439,43 +75439,43 @@
         <v>58</v>
       </c>
       <c r="K842">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L842">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M842">
         <v>3.25</v>
       </c>
       <c r="N842">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O842">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P842">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q842">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R842">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S842">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T842">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U842">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V842">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W842">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X842">
         <v>-1</v>
@@ -75484,13 +75484,13 @@
         <v>-1</v>
       </c>
       <c r="Z842">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA842">
         <v>-1</v>
       </c>
       <c r="AB842">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC842">
         <v>-1</v>
@@ -75501,7 +75501,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>5258311</v>
+        <v>5258454</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75513,13 +75513,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F843" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G843" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H843">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -75528,43 +75528,43 @@
         <v>58</v>
       </c>
       <c r="K843">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L843">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M843">
         <v>3.25</v>
       </c>
       <c r="N843">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O843">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P843">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q843">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R843">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S843">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T843">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U843">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V843">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W843">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X843">
         <v>-1</v>
@@ -75573,13 +75573,13 @@
         <v>-1</v>
       </c>
       <c r="Z843">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA843">
         <v>-1</v>
       </c>
       <c r="AB843">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC843">
         <v>-1</v>
@@ -80040,7 +80040,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>5258344</v>
+        <v>5258488</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80052,58 +80052,58 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F894" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G894" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H894">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I894">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J894" t="s">
         <v>58</v>
       </c>
       <c r="K894">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L894">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="M894">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="N894">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O894">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P894">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q894">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R894">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S894">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T894">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U894">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V894">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W894">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X894">
         <v>-1</v>
@@ -80112,13 +80112,13 @@
         <v>-1</v>
       </c>
       <c r="Z894">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA894">
         <v>-1</v>
       </c>
       <c r="AB894">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC894">
         <v>-1</v>
@@ -80129,7 +80129,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5258488</v>
+        <v>5258344</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80141,58 +80141,58 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F895" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G895" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H895">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I895">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J895" t="s">
         <v>58</v>
       </c>
       <c r="K895">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L895">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M895">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N895">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O895">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P895">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q895">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R895">
+        <v>1.975</v>
+      </c>
+      <c r="S895">
+        <v>1.875</v>
+      </c>
+      <c r="T895">
+        <v>2.75</v>
+      </c>
+      <c r="U895">
+        <v>1.95</v>
+      </c>
+      <c r="V895">
         <v>1.9</v>
       </c>
-      <c r="S895">
-        <v>1.95</v>
-      </c>
-      <c r="T895">
-        <v>3.75</v>
-      </c>
-      <c r="U895">
-        <v>1.925</v>
-      </c>
-      <c r="V895">
-        <v>1.925</v>
-      </c>
       <c r="W895">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X895">
         <v>-1</v>
@@ -80201,13 +80201,13 @@
         <v>-1</v>
       </c>
       <c r="Z895">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA895">
         <v>-1</v>
       </c>
       <c r="AB895">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC895">
         <v>-1</v>
@@ -80841,7 +80841,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>5258347</v>
+        <v>5259978</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80853,76 +80853,76 @@
         <v>45035.45833333334</v>
       </c>
       <c r="F903" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G903" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I903">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J903" t="s">
         <v>57</v>
       </c>
       <c r="K903">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L903">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M903">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N903">
+        <v>3.2</v>
+      </c>
+      <c r="O903">
+        <v>3.25</v>
+      </c>
+      <c r="P903">
+        <v>2.15</v>
+      </c>
+      <c r="Q903">
+        <v>0.25</v>
+      </c>
+      <c r="R903">
+        <v>1.975</v>
+      </c>
+      <c r="S903">
+        <v>1.875</v>
+      </c>
+      <c r="T903">
+        <v>2.5</v>
+      </c>
+      <c r="U903">
+        <v>2.025</v>
+      </c>
+      <c r="V903">
+        <v>1.825</v>
+      </c>
+      <c r="W903">
+        <v>-1</v>
+      </c>
+      <c r="X903">
         <v>2.25</v>
       </c>
-      <c r="O903">
-        <v>3.75</v>
-      </c>
-      <c r="P903">
-        <v>2.625</v>
-      </c>
-      <c r="Q903">
-        <v>-0.25</v>
-      </c>
-      <c r="R903">
-        <v>2.025</v>
-      </c>
-      <c r="S903">
-        <v>1.825</v>
-      </c>
-      <c r="T903">
-        <v>3</v>
-      </c>
-      <c r="U903">
-        <v>1.975</v>
-      </c>
-      <c r="V903">
-        <v>1.875</v>
-      </c>
-      <c r="W903">
-        <v>-1</v>
-      </c>
-      <c r="X903">
-        <v>2.75</v>
-      </c>
       <c r="Y903">
         <v>-1</v>
       </c>
       <c r="Z903">
+        <v>0.4875</v>
+      </c>
+      <c r="AA903">
         <v>-0.5</v>
       </c>
-      <c r="AA903">
-        <v>0.4125</v>
-      </c>
       <c r="AB903">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC903">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="904" spans="1:29">
@@ -80930,7 +80930,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>5259978</v>
+        <v>5258347</v>
       </c>
       <c r="C904" t="s">
         <v>28</v>
@@ -80942,76 +80942,76 @@
         <v>45035.45833333334</v>
       </c>
       <c r="F904" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G904" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H904">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J904" t="s">
         <v>57</v>
       </c>
       <c r="K904">
+        <v>2.4</v>
+      </c>
+      <c r="L904">
+        <v>3.4</v>
+      </c>
+      <c r="M904">
+        <v>2.625</v>
+      </c>
+      <c r="N904">
+        <v>2.25</v>
+      </c>
+      <c r="O904">
+        <v>3.75</v>
+      </c>
+      <c r="P904">
+        <v>2.625</v>
+      </c>
+      <c r="Q904">
+        <v>-0.25</v>
+      </c>
+      <c r="R904">
+        <v>2.025</v>
+      </c>
+      <c r="S904">
+        <v>1.825</v>
+      </c>
+      <c r="T904">
+        <v>3</v>
+      </c>
+      <c r="U904">
+        <v>1.975</v>
+      </c>
+      <c r="V904">
+        <v>1.875</v>
+      </c>
+      <c r="W904">
+        <v>-1</v>
+      </c>
+      <c r="X904">
         <v>2.75</v>
       </c>
-      <c r="L904">
-        <v>3.3</v>
-      </c>
-      <c r="M904">
-        <v>2.375</v>
-      </c>
-      <c r="N904">
-        <v>3.2</v>
-      </c>
-      <c r="O904">
-        <v>3.25</v>
-      </c>
-      <c r="P904">
-        <v>2.15</v>
-      </c>
-      <c r="Q904">
-        <v>0.25</v>
-      </c>
-      <c r="R904">
-        <v>1.975</v>
-      </c>
-      <c r="S904">
-        <v>1.875</v>
-      </c>
-      <c r="T904">
-        <v>2.5</v>
-      </c>
-      <c r="U904">
-        <v>2.025</v>
-      </c>
-      <c r="V904">
-        <v>1.825</v>
-      </c>
-      <c r="W904">
-        <v>-1</v>
-      </c>
-      <c r="X904">
-        <v>2.25</v>
-      </c>
       <c r="Y904">
         <v>-1</v>
       </c>
       <c r="Z904">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA904">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB904">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC904">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="905" spans="1:29">
@@ -90898,7 +90898,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6943906</v>
+        <v>6943907</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90910,76 +90910,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1016" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G1016" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1016">
         <v>1</v>
       </c>
       <c r="J1016" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1016">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L1016">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1016">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N1016">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O1016">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P1016">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q1016">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1016">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S1016">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T1016">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1016">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1016">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1016">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1016">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1016">
         <v>-1</v>
       </c>
       <c r="Z1016">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1016">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB1016">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1016">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -90987,7 +90987,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6943907</v>
+        <v>6943906</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -90999,76 +90999,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1017" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1017" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1017">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1017">
         <v>1</v>
       </c>
       <c r="J1017" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1017">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L1017">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="M1017">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N1017">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O1017">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P1017">
+        <v>8.5</v>
+      </c>
+      <c r="Q1017">
+        <v>-1.5</v>
+      </c>
+      <c r="R1017">
+        <v>1.975</v>
+      </c>
+      <c r="S1017">
+        <v>1.875</v>
+      </c>
+      <c r="T1017">
         <v>3</v>
       </c>
-      <c r="Q1017">
-        <v>-0.25</v>
-      </c>
-      <c r="R1017">
+      <c r="U1017">
+        <v>1.8</v>
+      </c>
+      <c r="V1017">
         <v>2.05</v>
       </c>
-      <c r="S1017">
-        <v>1.75</v>
-      </c>
-      <c r="T1017">
-        <v>2.5</v>
-      </c>
-      <c r="U1017">
-        <v>1.9</v>
-      </c>
-      <c r="V1017">
-        <v>1.95</v>
-      </c>
       <c r="W1017">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1017">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1017">
         <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1017">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB1017">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1017">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -97662,7 +97662,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>7471385</v>
+        <v>6943944</v>
       </c>
       <c r="C1092" t="s">
         <v>28</v>
@@ -97674,73 +97674,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F1092" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G1092" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1092">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1092">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1092" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1092">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L1092">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1092">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N1092">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1092">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1092">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q1092">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1092">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S1092">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T1092">
         <v>2.5</v>
       </c>
       <c r="U1092">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V1092">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W1092">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X1092">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1092">
         <v>-1</v>
       </c>
       <c r="Z1092">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1092">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1092">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC1092">
         <v>-1</v>
@@ -97751,7 +97751,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>6943944</v>
+        <v>7471385</v>
       </c>
       <c r="C1093" t="s">
         <v>28</v>
@@ -97763,73 +97763,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F1093" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G1093" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H1093">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1093">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1093" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1093">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L1093">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1093">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N1093">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1093">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1093">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q1093">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1093">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1093">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1093">
         <v>2.5</v>
       </c>
       <c r="U1093">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V1093">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W1093">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1093">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1093">
         <v>-1</v>
       </c>
       <c r="Z1093">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA1093">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1093">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1093">
         <v>-1</v>
@@ -98196,7 +98196,7 @@
         <v>1096</v>
       </c>
       <c r="B1098">
-        <v>6943797</v>
+        <v>6943798</v>
       </c>
       <c r="C1098" t="s">
         <v>28</v>
@@ -98208,55 +98208,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F1098" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1098" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1098" t="s">
         <v>59</v>
       </c>
       <c r="K1098">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="L1098">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1098">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="N1098">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O1098">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P1098">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q1098">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1098">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1098">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1098">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1098">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1098">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1098">
         <v>-1</v>
@@ -98265,19 +98265,19 @@
         <v>-1</v>
       </c>
       <c r="Y1098">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="Z1098">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1098">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB1098">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1098">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099" spans="1:29">
@@ -98285,7 +98285,7 @@
         <v>1097</v>
       </c>
       <c r="B1099">
-        <v>6943798</v>
+        <v>6943797</v>
       </c>
       <c r="C1099" t="s">
         <v>28</v>
@@ -98297,55 +98297,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F1099" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1099" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1099" t="s">
         <v>59</v>
       </c>
       <c r="K1099">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="L1099">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M1099">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="N1099">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O1099">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P1099">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q1099">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R1099">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S1099">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T1099">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U1099">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1099">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1099">
         <v>-1</v>
@@ -98354,19 +98354,19 @@
         <v>-1</v>
       </c>
       <c r="Y1099">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Z1099">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1099">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB1099">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1099">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1100" spans="1:29">
@@ -99442,7 +99442,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>7559194</v>
+        <v>7559193</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99454,34 +99454,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F1112" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G1112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1112">
         <v>1</v>
       </c>
       <c r="J1112" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1112">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L1112">
         <v>3.5</v>
       </c>
       <c r="M1112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N1112">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O1112">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1112">
         <v>3.5</v>
@@ -99490,40 +99490,40 @@
         <v>-0.5</v>
       </c>
       <c r="R1112">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1112">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V1112">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W1112">
         <v>-1</v>
       </c>
       <c r="X1112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1112">
         <v>-1</v>
       </c>
       <c r="AA1112">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB1112">
         <v>-1</v>
       </c>
       <c r="AC1112">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1113" spans="1:29">
@@ -99531,7 +99531,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>7559193</v>
+        <v>7559194</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99543,34 +99543,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F1113" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G1113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1113">
         <v>1</v>
       </c>
       <c r="J1113" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1113">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L1113">
         <v>3.5</v>
       </c>
       <c r="M1113">
+        <v>3.2</v>
+      </c>
+      <c r="N1113">
+        <v>2.05</v>
+      </c>
+      <c r="O1113">
         <v>3.5</v>
-      </c>
-      <c r="N1113">
-        <v>2</v>
-      </c>
-      <c r="O1113">
-        <v>3.6</v>
       </c>
       <c r="P1113">
         <v>3.5</v>
@@ -99579,40 +99579,40 @@
         <v>-0.5</v>
       </c>
       <c r="R1113">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S1113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T1113">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V1113">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W1113">
         <v>-1</v>
       </c>
       <c r="X1113">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z1113">
         <v>-1</v>
       </c>
       <c r="AA1113">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB1113">
         <v>-1</v>
       </c>
       <c r="AC1113">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -99976,7 +99976,7 @@
         <v>1116</v>
       </c>
       <c r="B1118">
-        <v>6943964</v>
+        <v>6943961</v>
       </c>
       <c r="C1118" t="s">
         <v>28</v>
@@ -99988,61 +99988,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F1118" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G1118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1118">
         <v>0</v>
       </c>
       <c r="J1118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1118">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L1118">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M1118">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N1118">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O1118">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P1118">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q1118">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R1118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S1118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U1118">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V1118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W1118">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X1118">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1118">
         <v>-1</v>
@@ -100051,13 +100051,13 @@
         <v>-1</v>
       </c>
       <c r="AA1118">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB1118">
         <v>-1</v>
       </c>
       <c r="AC1118">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1119" spans="1:29">
@@ -100065,7 +100065,7 @@
         <v>1117</v>
       </c>
       <c r="B1119">
-        <v>6943961</v>
+        <v>6943964</v>
       </c>
       <c r="C1119" t="s">
         <v>28</v>
@@ -100077,61 +100077,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F1119" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G1119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1119">
         <v>0</v>
       </c>
       <c r="J1119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1119">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L1119">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M1119">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N1119">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O1119">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P1119">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q1119">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1119">
+        <v>2</v>
+      </c>
+      <c r="S1119">
+        <v>1.85</v>
+      </c>
+      <c r="T1119">
+        <v>2.75</v>
+      </c>
+      <c r="U1119">
+        <v>1.875</v>
+      </c>
+      <c r="V1119">
         <v>1.975</v>
       </c>
-      <c r="S1119">
-        <v>1.875</v>
-      </c>
-      <c r="T1119">
-        <v>3.25</v>
-      </c>
-      <c r="U1119">
-        <v>1.9</v>
-      </c>
-      <c r="V1119">
-        <v>1.95</v>
-      </c>
       <c r="W1119">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X1119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1119">
         <v>-1</v>
@@ -100140,13 +100140,13 @@
         <v>-1</v>
       </c>
       <c r="AA1119">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1119">
         <v>-1</v>
       </c>
       <c r="AC1119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1120" spans="1:29">
@@ -100332,7 +100332,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C1122" t="s">
         <v>28</v>
@@ -100344,76 +100344,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F1122" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G1122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1122">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L1122">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M1122">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N1122">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O1122">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P1122">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q1122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1122">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V1122">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W1122">
         <v>-1</v>
       </c>
       <c r="X1122">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y1122">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1122">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1123" spans="1:29">
@@ -100421,7 +100421,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100433,76 +100433,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1123" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1123">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L1123">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M1123">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N1123">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O1123">
+        <v>3.8</v>
+      </c>
+      <c r="P1123">
+        <v>4.5</v>
+      </c>
+      <c r="Q1123">
+        <v>-1</v>
+      </c>
+      <c r="R1123">
+        <v>2.05</v>
+      </c>
+      <c r="S1123">
+        <v>1.8</v>
+      </c>
+      <c r="T1123">
+        <v>2.75</v>
+      </c>
+      <c r="U1123">
+        <v>1.85</v>
+      </c>
+      <c r="V1123">
+        <v>2</v>
+      </c>
+      <c r="W1123">
+        <v>-1</v>
+      </c>
+      <c r="X1123">
+        <v>-1</v>
+      </c>
+      <c r="Y1123">
         <v>3.5</v>
       </c>
-      <c r="P1123">
-        <v>2.875</v>
-      </c>
-      <c r="Q1123">
-        <v>-0.25</v>
-      </c>
-      <c r="R1123">
-        <v>1.925</v>
-      </c>
-      <c r="S1123">
-        <v>1.925</v>
-      </c>
-      <c r="T1123">
-        <v>2.5</v>
-      </c>
-      <c r="U1123">
-        <v>2.025</v>
-      </c>
-      <c r="V1123">
-        <v>1.825</v>
-      </c>
-      <c r="W1123">
-        <v>-1</v>
-      </c>
-      <c r="X1123">
-        <v>2.5</v>
-      </c>
-      <c r="Y1123">
-        <v>-1</v>
-      </c>
       <c r="Z1123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1123">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB1123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -101044,7 +101044,7 @@
         <v>1128</v>
       </c>
       <c r="B1130">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C1130" t="s">
         <v>28</v>
@@ -101056,73 +101056,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F1130" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G1130" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H1130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1130">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L1130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N1130">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O1130">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P1130">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q1130">
         <v>0</v>
       </c>
       <c r="R1130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S1130">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T1130">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1130">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V1130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W1130">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X1130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y1130">
         <v>-1</v>
       </c>
       <c r="Z1130">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1130">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC1130">
         <v>-1</v>
@@ -101133,7 +101133,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101145,73 +101145,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G1131" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1131">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L1131">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N1131">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O1131">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P1131">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q1131">
         <v>0</v>
       </c>
       <c r="R1131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S1131">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T1131">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U1131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V1131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W1131">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X1131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y1131">
         <v>-1</v>
       </c>
       <c r="Z1131">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1131">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1131">
         <v>-1</v>
@@ -101222,7 +101222,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101234,76 +101234,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G1132" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H1132">
         <v>1</v>
       </c>
       <c r="I1132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1132" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1132">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L1132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1132">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N1132">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O1132">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P1132">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q1132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R1132">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S1132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T1132">
         <v>2.5</v>
       </c>
       <c r="U1132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V1132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W1132">
         <v>-1</v>
       </c>
       <c r="X1132">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1132">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1132">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA1132">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101311,7 +101311,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101323,76 +101323,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G1133" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H1133">
         <v>1</v>
       </c>
       <c r="I1133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1133">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L1133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1133">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N1133">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O1133">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P1133">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q1133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1133">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S1133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T1133">
         <v>2.5</v>
       </c>
       <c r="U1133">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V1133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W1133">
         <v>-1</v>
       </c>
       <c r="X1133">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1133">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1133">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA1133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -102468,7 +102468,7 @@
         <v>1144</v>
       </c>
       <c r="B1146">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C1146" t="s">
         <v>28</v>
@@ -102480,56 +102480,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F1146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1146">
         <v>0</v>
       </c>
       <c r="I1146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1146" t="s">
         <v>59</v>
       </c>
       <c r="K1146">
+        <v>2.625</v>
+      </c>
+      <c r="L1146">
+        <v>3.6</v>
+      </c>
+      <c r="M1146">
+        <v>2.4</v>
+      </c>
+      <c r="N1146">
         <v>2.375</v>
-      </c>
-      <c r="L1146">
-        <v>3.5</v>
-      </c>
-      <c r="M1146">
-        <v>2.75</v>
-      </c>
-      <c r="N1146">
-        <v>2.25</v>
       </c>
       <c r="O1146">
         <v>3.6</v>
       </c>
       <c r="P1146">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q1146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S1146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T1146">
         <v>2.75</v>
       </c>
       <c r="U1146">
+        <v>1.975</v>
+      </c>
+      <c r="V1146">
         <v>1.875</v>
       </c>
-      <c r="V1146">
-        <v>1.975</v>
-      </c>
       <c r="W1146">
         <v>-1</v>
       </c>
@@ -102537,19 +102537,19 @@
         <v>-1</v>
       </c>
       <c r="Y1146">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z1146">
         <v>-1</v>
       </c>
       <c r="AA1146">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB1146">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1147" spans="1:29">
@@ -102557,7 +102557,7 @@
         <v>1145</v>
       </c>
       <c r="B1147">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C1147" t="s">
         <v>28</v>
@@ -102569,56 +102569,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F1147" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1147">
         <v>0</v>
       </c>
       <c r="I1147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1147" t="s">
         <v>59</v>
       </c>
       <c r="K1147">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L1147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1147">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N1147">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O1147">
         <v>3.6</v>
       </c>
       <c r="P1147">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q1147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S1147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T1147">
         <v>2.75</v>
       </c>
       <c r="U1147">
+        <v>1.875</v>
+      </c>
+      <c r="V1147">
         <v>1.975</v>
       </c>
-      <c r="V1147">
-        <v>1.875</v>
-      </c>
       <c r="W1147">
         <v>-1</v>
       </c>
@@ -102626,19 +102626,19 @@
         <v>-1</v>
       </c>
       <c r="Y1147">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z1147">
         <v>-1</v>
       </c>
       <c r="AA1147">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1147">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC1147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1148" spans="1:29">
@@ -103180,7 +103180,7 @@
         <v>1152</v>
       </c>
       <c r="B1154">
-        <v>6943809</v>
+        <v>6944072</v>
       </c>
       <c r="C1154" t="s">
         <v>28</v>
@@ -103192,40 +103192,40 @@
         <v>45304.3125</v>
       </c>
       <c r="F1154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1154" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1154">
         <v>1</v>
       </c>
       <c r="J1154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1154">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L1154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1154">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N1154">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O1154">
         <v>3.4</v>
       </c>
       <c r="P1154">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q1154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1154">
         <v>2.025</v>
@@ -103237,31 +103237,31 @@
         <v>2.5</v>
       </c>
       <c r="U1154">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V1154">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W1154">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X1154">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1154">
         <v>-1</v>
       </c>
       <c r="Z1154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1155" spans="1:29">
@@ -103269,7 +103269,7 @@
         <v>1153</v>
       </c>
       <c r="B1155">
-        <v>6944072</v>
+        <v>6943809</v>
       </c>
       <c r="C1155" t="s">
         <v>28</v>
@@ -103281,40 +103281,40 @@
         <v>45304.3125</v>
       </c>
       <c r="F1155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1155" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H1155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1155">
         <v>1</v>
       </c>
       <c r="J1155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1155">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L1155">
+        <v>3.6</v>
+      </c>
+      <c r="M1155">
         <v>3.5</v>
       </c>
-      <c r="M1155">
-        <v>3.2</v>
-      </c>
       <c r="N1155">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O1155">
         <v>3.4</v>
       </c>
       <c r="P1155">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q1155">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1155">
         <v>2.025</v>
@@ -103326,31 +103326,31 @@
         <v>2.5</v>
       </c>
       <c r="U1155">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V1155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W1155">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X1155">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1155">
         <v>-1</v>
       </c>
       <c r="Z1155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA1155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1155">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1156" spans="1:29">
@@ -105405,7 +105405,7 @@
         <v>1177</v>
       </c>
       <c r="B1179">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C1179" t="s">
         <v>28</v>
@@ -105417,76 +105417,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F1179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1179" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179">
         <v>1</v>
       </c>
       <c r="J1179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1179">
+        <v>6</v>
+      </c>
+      <c r="L1179">
+        <v>4</v>
+      </c>
+      <c r="M1179">
+        <v>1.5</v>
+      </c>
+      <c r="N1179">
+        <v>6</v>
+      </c>
+      <c r="O1179">
+        <v>4.5</v>
+      </c>
+      <c r="P1179">
+        <v>1.5</v>
+      </c>
+      <c r="Q1179">
+        <v>1</v>
+      </c>
+      <c r="R1179">
+        <v>2</v>
+      </c>
+      <c r="S1179">
+        <v>1.85</v>
+      </c>
+      <c r="T1179">
+        <v>2.75</v>
+      </c>
+      <c r="U1179">
+        <v>1.9</v>
+      </c>
+      <c r="V1179">
         <v>1.95</v>
       </c>
-      <c r="L1179">
-        <v>3.4</v>
-      </c>
-      <c r="M1179">
-        <v>3.8</v>
-      </c>
-      <c r="N1179">
-        <v>1.615</v>
-      </c>
-      <c r="O1179">
-        <v>3.8</v>
-      </c>
-      <c r="P1179">
-        <v>6</v>
-      </c>
-      <c r="Q1179">
-        <v>-0.75</v>
-      </c>
-      <c r="R1179">
-        <v>1.8</v>
-      </c>
-      <c r="S1179">
-        <v>2.05</v>
-      </c>
-      <c r="T1179">
-        <v>2.5</v>
-      </c>
-      <c r="U1179">
-        <v>1.875</v>
-      </c>
-      <c r="V1179">
-        <v>1.975</v>
-      </c>
       <c r="W1179">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X1179">
         <v>-1</v>
       </c>
       <c r="Y1179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z1179">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA1179">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB1179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1180" spans="1:29">
@@ -105494,7 +105494,7 @@
         <v>1178</v>
       </c>
       <c r="B1180">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C1180" t="s">
         <v>28</v>
@@ -105506,76 +105506,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F1180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1180" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180">
         <v>1</v>
       </c>
       <c r="J1180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1180">
+        <v>1.95</v>
+      </c>
+      <c r="L1180">
+        <v>3.4</v>
+      </c>
+      <c r="M1180">
+        <v>3.8</v>
+      </c>
+      <c r="N1180">
+        <v>1.615</v>
+      </c>
+      <c r="O1180">
+        <v>3.8</v>
+      </c>
+      <c r="P1180">
         <v>6</v>
       </c>
-      <c r="L1180">
-        <v>4</v>
-      </c>
-      <c r="M1180">
-        <v>1.5</v>
-      </c>
-      <c r="N1180">
-        <v>6</v>
-      </c>
-      <c r="O1180">
-        <v>4.5</v>
-      </c>
-      <c r="P1180">
-        <v>1.5</v>
-      </c>
       <c r="Q1180">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1180">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S1180">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T1180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W1180">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X1180">
         <v>-1</v>
       </c>
       <c r="Y1180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1180">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA1180">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1181" spans="1:29">
@@ -106377,302 +106377,6 @@
       </c>
       <c r="AC1189">
         <v>0.425</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:29">
-      <c r="A1190" s="1">
-        <v>1188</v>
-      </c>
-      <c r="B1190">
-        <v>6944591</v>
-      </c>
-      <c r="C1190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1190" s="2">
-        <v>45320.45833333334</v>
-      </c>
-      <c r="F1190" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1190" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1190">
-        <v>2.75</v>
-      </c>
-      <c r="L1190">
-        <v>3.5</v>
-      </c>
-      <c r="M1190">
-        <v>2.4</v>
-      </c>
-      <c r="N1190">
-        <v>3.4</v>
-      </c>
-      <c r="O1190">
-        <v>3.4</v>
-      </c>
-      <c r="P1190">
-        <v>2.1</v>
-      </c>
-      <c r="Q1190">
-        <v>0.25</v>
-      </c>
-      <c r="R1190">
-        <v>1.95</v>
-      </c>
-      <c r="S1190">
-        <v>1.9</v>
-      </c>
-      <c r="T1190">
-        <v>2.25</v>
-      </c>
-      <c r="U1190">
-        <v>1.875</v>
-      </c>
-      <c r="V1190">
-        <v>1.975</v>
-      </c>
-      <c r="W1190">
-        <v>0</v>
-      </c>
-      <c r="X1190">
-        <v>0</v>
-      </c>
-      <c r="Y1190">
-        <v>0</v>
-      </c>
-      <c r="Z1190">
-        <v>0</v>
-      </c>
-      <c r="AA1190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:29">
-      <c r="A1191" s="1">
-        <v>1189</v>
-      </c>
-      <c r="B1191">
-        <v>7741868</v>
-      </c>
-      <c r="C1191" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1191" s="2">
-        <v>45320.45833333334</v>
-      </c>
-      <c r="F1191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1191" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1191">
-        <v>2.45</v>
-      </c>
-      <c r="L1191">
-        <v>3.5</v>
-      </c>
-      <c r="M1191">
-        <v>2.7</v>
-      </c>
-      <c r="N1191">
-        <v>3</v>
-      </c>
-      <c r="O1191">
-        <v>3.3</v>
-      </c>
-      <c r="P1191">
-        <v>2.375</v>
-      </c>
-      <c r="Q1191">
-        <v>0.25</v>
-      </c>
-      <c r="R1191">
-        <v>1.8</v>
-      </c>
-      <c r="S1191">
-        <v>2.05</v>
-      </c>
-      <c r="T1191">
-        <v>2.5</v>
-      </c>
-      <c r="U1191">
-        <v>1.975</v>
-      </c>
-      <c r="V1191">
-        <v>1.875</v>
-      </c>
-      <c r="W1191">
-        <v>0</v>
-      </c>
-      <c r="X1191">
-        <v>0</v>
-      </c>
-      <c r="Y1191">
-        <v>0</v>
-      </c>
-      <c r="Z1191">
-        <v>0</v>
-      </c>
-      <c r="AA1191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:29">
-      <c r="A1192" s="1">
-        <v>1190</v>
-      </c>
-      <c r="B1192">
-        <v>6944077</v>
-      </c>
-      <c r="C1192" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1192" s="2">
-        <v>45320.58333333334</v>
-      </c>
-      <c r="F1192" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1192" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1192">
-        <v>1.2</v>
-      </c>
-      <c r="L1192">
-        <v>8</v>
-      </c>
-      <c r="M1192">
-        <v>11</v>
-      </c>
-      <c r="N1192">
-        <v>1.142</v>
-      </c>
-      <c r="O1192">
-        <v>9</v>
-      </c>
-      <c r="P1192">
-        <v>15</v>
-      </c>
-      <c r="Q1192">
-        <v>-2.25</v>
-      </c>
-      <c r="R1192">
-        <v>2.025</v>
-      </c>
-      <c r="S1192">
-        <v>1.825</v>
-      </c>
-      <c r="T1192">
-        <v>3.5</v>
-      </c>
-      <c r="U1192">
-        <v>2.025</v>
-      </c>
-      <c r="V1192">
-        <v>1.825</v>
-      </c>
-      <c r="W1192">
-        <v>0</v>
-      </c>
-      <c r="X1192">
-        <v>0</v>
-      </c>
-      <c r="Y1192">
-        <v>0</v>
-      </c>
-      <c r="Z1192">
-        <v>0</v>
-      </c>
-      <c r="AA1192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:29">
-      <c r="A1193" s="1">
-        <v>1191</v>
-      </c>
-      <c r="B1193">
-        <v>6944078</v>
-      </c>
-      <c r="C1193" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1193" s="2">
-        <v>45320.58333333334</v>
-      </c>
-      <c r="F1193" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1193" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1193">
-        <v>1.727</v>
-      </c>
-      <c r="L1193">
-        <v>4</v>
-      </c>
-      <c r="M1193">
-        <v>4.2</v>
-      </c>
-      <c r="N1193">
-        <v>1.7</v>
-      </c>
-      <c r="O1193">
-        <v>4.333</v>
-      </c>
-      <c r="P1193">
-        <v>4.2</v>
-      </c>
-      <c r="Q1193">
-        <v>-0.75</v>
-      </c>
-      <c r="R1193">
-        <v>1.875</v>
-      </c>
-      <c r="S1193">
-        <v>1.975</v>
-      </c>
-      <c r="T1193">
-        <v>3</v>
-      </c>
-      <c r="U1193">
-        <v>2.05</v>
-      </c>
-      <c r="V1193">
-        <v>1.8</v>
-      </c>
-      <c r="W1193">
-        <v>0</v>
-      </c>
-      <c r="X1193">
-        <v>0</v>
-      </c>
-      <c r="Y1193">
-        <v>0</v>
-      </c>
-      <c r="Z1193">
-        <v>0</v>
-      </c>
-      <c r="AA1193">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -57790,7 +57790,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>4149717</v>
+        <v>4145547</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57802,76 +57802,76 @@
         <v>44702.41666666666</v>
       </c>
       <c r="F644" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G644" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H644">
         <v>2</v>
       </c>
       <c r="I644">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J644" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K644">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L644">
         <v>3.6</v>
       </c>
       <c r="M644">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N644">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O644">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P644">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q644">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R644">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S644">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T644">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U644">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V644">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W644">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X644">
         <v>-1</v>
       </c>
       <c r="Y644">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z644">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA644">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB644">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC644">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -57879,7 +57879,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>4145547</v>
+        <v>4149717</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57891,76 +57891,76 @@
         <v>44702.41666666666</v>
       </c>
       <c r="F645" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G645" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H645">
         <v>2</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J645" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K645">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L645">
         <v>3.6</v>
       </c>
       <c r="M645">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N645">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O645">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P645">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q645">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R645">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S645">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T645">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U645">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V645">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W645">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X645">
         <v>-1</v>
       </c>
       <c r="Y645">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z645">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA645">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB645">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC645">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -62240,7 +62240,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5258264</v>
+        <v>5258266</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62252,55 +62252,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F694" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G694" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J694" t="s">
         <v>59</v>
       </c>
       <c r="K694">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L694">
         <v>3.4</v>
       </c>
       <c r="M694">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N694">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O694">
         <v>3.75</v>
       </c>
       <c r="P694">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q694">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R694">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S694">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T694">
         <v>3</v>
       </c>
       <c r="U694">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V694">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W694">
         <v>-1</v>
@@ -62309,19 +62309,19 @@
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="Z694">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA694">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB694">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC694">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62329,7 +62329,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5258266</v>
+        <v>5258264</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62341,55 +62341,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F695" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G695" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J695" t="s">
         <v>59</v>
       </c>
       <c r="K695">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L695">
         <v>3.4</v>
       </c>
       <c r="M695">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N695">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O695">
         <v>3.75</v>
       </c>
       <c r="P695">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="Q695">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R695">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S695">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T695">
         <v>3</v>
       </c>
       <c r="U695">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W695">
         <v>-1</v>
@@ -62398,19 +62398,19 @@
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="Z695">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB695">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC695">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62863,7 +62863,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5258381</v>
+        <v>5258270</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62875,76 +62875,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G701" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I701">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J701" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K701">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L701">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M701">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N701">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O701">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P701">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q701">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R701">
+        <v>1.95</v>
+      </c>
+      <c r="S701">
+        <v>1.9</v>
+      </c>
+      <c r="T701">
+        <v>3</v>
+      </c>
+      <c r="U701">
+        <v>2</v>
+      </c>
+      <c r="V701">
         <v>1.85</v>
       </c>
-      <c r="S701">
-        <v>2</v>
-      </c>
-      <c r="T701">
-        <v>2.5</v>
-      </c>
-      <c r="U701">
-        <v>1.9</v>
-      </c>
-      <c r="V701">
-        <v>1.95</v>
-      </c>
       <c r="W701">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X701">
         <v>-1</v>
       </c>
       <c r="Y701">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z701">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA701">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB701">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC701">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62952,7 +62952,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>5258270</v>
+        <v>5258381</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62964,76 +62964,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F702" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G702" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J702" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K702">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L702">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M702">
+        <v>2.55</v>
+      </c>
+      <c r="N702">
+        <v>2.55</v>
+      </c>
+      <c r="O702">
+        <v>3.5</v>
+      </c>
+      <c r="P702">
+        <v>2.7</v>
+      </c>
+      <c r="Q702">
+        <v>0</v>
+      </c>
+      <c r="R702">
         <v>1.85</v>
       </c>
-      <c r="N702">
-        <v>4.2</v>
-      </c>
-      <c r="O702">
-        <v>4.2</v>
-      </c>
-      <c r="P702">
-        <v>1.727</v>
-      </c>
-      <c r="Q702">
-        <v>0.75</v>
-      </c>
-      <c r="R702">
+      <c r="S702">
+        <v>2</v>
+      </c>
+      <c r="T702">
+        <v>2.5</v>
+      </c>
+      <c r="U702">
+        <v>1.9</v>
+      </c>
+      <c r="V702">
         <v>1.95</v>
       </c>
-      <c r="S702">
-        <v>1.9</v>
-      </c>
-      <c r="T702">
-        <v>3</v>
-      </c>
-      <c r="U702">
-        <v>2</v>
-      </c>
-      <c r="V702">
-        <v>1.85</v>
-      </c>
       <c r="W702">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X702">
         <v>-1</v>
       </c>
       <c r="Y702">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z702">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA702">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB702">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC702">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -64198,7 +64198,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5258392</v>
+        <v>5258394</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64210,10 +64210,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F716" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G716" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H716">
         <v>1</v>
@@ -64225,19 +64225,19 @@
         <v>59</v>
       </c>
       <c r="K716">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="L716">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M716">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N716">
+        <v>3.3</v>
+      </c>
+      <c r="O716">
         <v>3.4</v>
-      </c>
-      <c r="O716">
-        <v>3.3</v>
       </c>
       <c r="P716">
         <v>2</v>
@@ -64246,19 +64246,19 @@
         <v>0.5</v>
       </c>
       <c r="R716">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S716">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T716">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U716">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V716">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W716">
         <v>-1</v>
@@ -64273,13 +64273,13 @@
         <v>-1</v>
       </c>
       <c r="AA716">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB716">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC716">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64287,7 +64287,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>5258394</v>
+        <v>5258392</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64299,10 +64299,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F717" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G717" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -64314,19 +64314,19 @@
         <v>59</v>
       </c>
       <c r="K717">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="L717">
+        <v>3.5</v>
+      </c>
+      <c r="M717">
+        <v>1.833</v>
+      </c>
+      <c r="N717">
+        <v>3.4</v>
+      </c>
+      <c r="O717">
         <v>3.3</v>
-      </c>
-      <c r="M717">
-        <v>2.2</v>
-      </c>
-      <c r="N717">
-        <v>3.3</v>
-      </c>
-      <c r="O717">
-        <v>3.4</v>
       </c>
       <c r="P717">
         <v>2</v>
@@ -64335,20 +64335,20 @@
         <v>0.5</v>
       </c>
       <c r="R717">
+        <v>1.8</v>
+      </c>
+      <c r="S717">
+        <v>2.05</v>
+      </c>
+      <c r="T717">
+        <v>2.5</v>
+      </c>
+      <c r="U717">
+        <v>2</v>
+      </c>
+      <c r="V717">
         <v>1.85</v>
       </c>
-      <c r="S717">
-        <v>2</v>
-      </c>
-      <c r="T717">
-        <v>2.75</v>
-      </c>
-      <c r="U717">
-        <v>2.025</v>
-      </c>
-      <c r="V717">
-        <v>1.825</v>
-      </c>
       <c r="W717">
         <v>-1</v>
       </c>
@@ -64362,13 +64362,13 @@
         <v>-1</v>
       </c>
       <c r="AA717">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB717">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AC717">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -64465,7 +64465,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5258272</v>
+        <v>5258391</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64477,76 +64477,76 @@
         <v>44836.35416666666</v>
       </c>
       <c r="F719" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G719" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H719">
         <v>1</v>
       </c>
       <c r="I719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J719" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K719">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L719">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M719">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N719">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O719">
         <v>3.4</v>
       </c>
       <c r="P719">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q719">
         <v>-0.5</v>
       </c>
       <c r="R719">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S719">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T719">
         <v>2.5</v>
       </c>
       <c r="U719">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V719">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y719">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z719">
         <v>-1</v>
       </c>
       <c r="AA719">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB719">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC719">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64554,7 +64554,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>5258391</v>
+        <v>5258272</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64566,76 +64566,76 @@
         <v>44836.35416666666</v>
       </c>
       <c r="F720" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G720" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H720">
         <v>1</v>
       </c>
       <c r="I720">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J720" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K720">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L720">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M720">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N720">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O720">
         <v>3.4</v>
       </c>
       <c r="P720">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q720">
         <v>-0.5</v>
       </c>
       <c r="R720">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S720">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T720">
         <v>2.5</v>
       </c>
       <c r="U720">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V720">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W720">
         <v>-1</v>
       </c>
       <c r="X720">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y720">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z720">
         <v>-1</v>
       </c>
       <c r="AA720">
+        <v>0.825</v>
+      </c>
+      <c r="AB720">
+        <v>-1</v>
+      </c>
+      <c r="AC720">
         <v>0.95</v>
-      </c>
-      <c r="AB720">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC720">
-        <v>-1</v>
       </c>
     </row>
     <row r="721" spans="1:29">
@@ -66334,7 +66334,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5257876</v>
+        <v>5258398</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66346,76 +66346,76 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F740" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G740" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H740">
+        <v>3</v>
+      </c>
+      <c r="I740">
         <v>0</v>
       </c>
-      <c r="I740">
-        <v>3</v>
-      </c>
       <c r="J740" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K740">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L740">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M740">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N740">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O740">
+        <v>3.2</v>
+      </c>
+      <c r="P740">
         <v>3.75</v>
       </c>
-      <c r="P740">
+      <c r="Q740">
+        <v>-0.5</v>
+      </c>
+      <c r="R740">
+        <v>2.05</v>
+      </c>
+      <c r="S740">
         <v>1.8</v>
       </c>
-      <c r="Q740">
-        <v>0.5</v>
-      </c>
-      <c r="R740">
-        <v>1.925</v>
-      </c>
-      <c r="S740">
-        <v>1.925</v>
-      </c>
       <c r="T740">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U740">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V740">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W740">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X740">
         <v>-1</v>
       </c>
       <c r="Y740">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z740">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA740">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB740">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC740">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66423,7 +66423,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5258398</v>
+        <v>5257876</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66435,76 +66435,76 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F741" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G741" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H741">
+        <v>0</v>
+      </c>
+      <c r="I741">
         <v>3</v>
       </c>
-      <c r="I741">
-        <v>0</v>
-      </c>
       <c r="J741" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K741">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L741">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M741">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N741">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O741">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P741">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q741">
+        <v>0.5</v>
+      </c>
+      <c r="R741">
+        <v>1.925</v>
+      </c>
+      <c r="S741">
+        <v>1.925</v>
+      </c>
+      <c r="T741">
+        <v>2.75</v>
+      </c>
+      <c r="U741">
+        <v>1.95</v>
+      </c>
+      <c r="V741">
+        <v>1.9</v>
+      </c>
+      <c r="W741">
+        <v>-1</v>
+      </c>
+      <c r="X741">
+        <v>-1</v>
+      </c>
+      <c r="Y741">
+        <v>0.8</v>
+      </c>
+      <c r="Z741">
+        <v>-1</v>
+      </c>
+      <c r="AA741">
+        <v>0.925</v>
+      </c>
+      <c r="AB741">
+        <v>0.475</v>
+      </c>
+      <c r="AC741">
         <v>-0.5</v>
-      </c>
-      <c r="R741">
-        <v>2.05</v>
-      </c>
-      <c r="S741">
-        <v>1.8</v>
-      </c>
-      <c r="T741">
-        <v>2.25</v>
-      </c>
-      <c r="U741">
-        <v>2.05</v>
-      </c>
-      <c r="V741">
-        <v>1.8</v>
-      </c>
-      <c r="W741">
-        <v>1.05</v>
-      </c>
-      <c r="X741">
-        <v>-1</v>
-      </c>
-      <c r="Y741">
-        <v>-1</v>
-      </c>
-      <c r="Z741">
-        <v>1.05</v>
-      </c>
-      <c r="AA741">
-        <v>-1</v>
-      </c>
-      <c r="AB741">
-        <v>1.05</v>
-      </c>
-      <c r="AC741">
-        <v>-1</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -69627,7 +69627,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5258424</v>
+        <v>5260005</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69639,55 +69639,55 @@
         <v>44918.58333333334</v>
       </c>
       <c r="F777" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G777" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I777">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J777" t="s">
         <v>59</v>
       </c>
       <c r="K777">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L777">
         <v>3.75</v>
       </c>
       <c r="M777">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N777">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O777">
         <v>3.5</v>
       </c>
       <c r="P777">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q777">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R777">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S777">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T777">
         <v>2.5</v>
       </c>
       <c r="U777">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V777">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W777">
         <v>-1</v>
@@ -69696,19 +69696,19 @@
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="Z777">
         <v>-1</v>
       </c>
       <c r="AA777">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB777">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC777">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -69716,7 +69716,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5260005</v>
+        <v>5258424</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69728,55 +69728,55 @@
         <v>44918.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G778" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J778" t="s">
         <v>59</v>
       </c>
       <c r="K778">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L778">
         <v>3.75</v>
       </c>
       <c r="M778">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N778">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O778">
         <v>3.5</v>
       </c>
       <c r="P778">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q778">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R778">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S778">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T778">
         <v>2.5</v>
       </c>
       <c r="U778">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V778">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W778">
         <v>-1</v>
@@ -69785,19 +69785,19 @@
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="Z778">
         <v>-1</v>
       </c>
       <c r="AA778">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB778">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC778">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -70161,7 +70161,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5258293</v>
+        <v>5258295</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70173,76 +70173,76 @@
         <v>44920.41666666666</v>
       </c>
       <c r="F783" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G783" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J783" t="s">
         <v>57</v>
       </c>
       <c r="K783">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L783">
+        <v>3.8</v>
+      </c>
+      <c r="M783">
+        <v>4.333</v>
+      </c>
+      <c r="N783">
+        <v>1.75</v>
+      </c>
+      <c r="O783">
         <v>3.75</v>
       </c>
-      <c r="M783">
-        <v>1.95</v>
-      </c>
-      <c r="N783">
-        <v>4.2</v>
-      </c>
-      <c r="O783">
-        <v>4.2</v>
-      </c>
       <c r="P783">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q783">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R783">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S783">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T783">
         <v>3</v>
       </c>
       <c r="U783">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V783">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA783">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB783">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC783">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70250,7 +70250,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>5258295</v>
+        <v>5258293</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70262,76 +70262,76 @@
         <v>44920.41666666666</v>
       </c>
       <c r="F784" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G784" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J784" t="s">
         <v>57</v>
       </c>
       <c r="K784">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L784">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M784">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N784">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="O784">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P784">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q784">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R784">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S784">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T784">
         <v>3</v>
       </c>
       <c r="U784">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V784">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y784">
         <v>-1</v>
       </c>
       <c r="Z784">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA784">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB784">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC784">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70428,7 +70428,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5258429</v>
+        <v>5260003</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70440,34 +70440,34 @@
         <v>44922.45833333334</v>
       </c>
       <c r="F786" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G786" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J786" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K786">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L786">
         <v>3.6</v>
       </c>
       <c r="M786">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N786">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O786">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P786">
         <v>4</v>
@@ -70476,40 +70476,40 @@
         <v>-0.5</v>
       </c>
       <c r="R786">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S786">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T786">
         <v>2.5</v>
       </c>
       <c r="U786">
+        <v>1.875</v>
+      </c>
+      <c r="V786">
         <v>1.975</v>
       </c>
-      <c r="V786">
-        <v>1.875</v>
-      </c>
       <c r="W786">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X786">
         <v>-1</v>
       </c>
       <c r="Y786">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z786">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA786">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB786">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC786">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70517,7 +70517,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5260003</v>
+        <v>5258429</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70529,34 +70529,34 @@
         <v>44922.45833333334</v>
       </c>
       <c r="F787" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G787" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I787">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J787" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K787">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L787">
         <v>3.6</v>
       </c>
       <c r="M787">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N787">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O787">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P787">
         <v>4</v>
@@ -70565,40 +70565,40 @@
         <v>-0.5</v>
       </c>
       <c r="R787">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S787">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T787">
         <v>2.5</v>
       </c>
       <c r="U787">
+        <v>1.975</v>
+      </c>
+      <c r="V787">
         <v>1.875</v>
       </c>
-      <c r="V787">
-        <v>1.975</v>
-      </c>
       <c r="W787">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z787">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA787">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB787">
+        <v>-1</v>
+      </c>
+      <c r="AC787">
         <v>0.875</v>
-      </c>
-      <c r="AC787">
-        <v>-1</v>
       </c>
     </row>
     <row r="788" spans="1:29">
@@ -71585,7 +71585,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>6079161</v>
+        <v>5258430</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71597,76 +71597,76 @@
         <v>44930.58333333334</v>
       </c>
       <c r="F799" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G799" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H799">
         <v>2</v>
       </c>
       <c r="I799">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K799">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L799">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M799">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N799">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O799">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P799">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q799">
+        <v>-1.25</v>
+      </c>
+      <c r="R799">
+        <v>1.9</v>
+      </c>
+      <c r="S799">
+        <v>1.95</v>
+      </c>
+      <c r="T799">
+        <v>3.25</v>
+      </c>
+      <c r="U799">
+        <v>2</v>
+      </c>
+      <c r="V799">
+        <v>1.85</v>
+      </c>
+      <c r="W799">
+        <v>0.444</v>
+      </c>
+      <c r="X799">
+        <v>-1</v>
+      </c>
+      <c r="Y799">
+        <v>-1</v>
+      </c>
+      <c r="Z799">
         <v>-0.5</v>
       </c>
-      <c r="R799">
-        <v>1.975</v>
-      </c>
-      <c r="S799">
-        <v>1.875</v>
-      </c>
-      <c r="T799">
-        <v>2.25</v>
-      </c>
-      <c r="U799">
-        <v>1.8</v>
-      </c>
-      <c r="V799">
-        <v>2.05</v>
-      </c>
-      <c r="W799">
-        <v>-1</v>
-      </c>
-      <c r="X799">
-        <v>2.4</v>
-      </c>
-      <c r="Y799">
-        <v>-1</v>
-      </c>
-      <c r="Z799">
-        <v>-1</v>
-      </c>
       <c r="AA799">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB799">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC799">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71674,7 +71674,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5258430</v>
+        <v>6079161</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71686,76 +71686,76 @@
         <v>44930.58333333334</v>
       </c>
       <c r="F800" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G800" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H800">
         <v>2</v>
       </c>
       <c r="I800">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J800" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K800">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L800">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M800">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N800">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O800">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P800">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q800">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R800">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S800">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T800">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U800">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V800">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W800">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X800">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y800">
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA800">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB800">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC800">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -72653,7 +72653,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>5258301</v>
+        <v>5259999</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72665,76 +72665,76 @@
         <v>44935.58333333334</v>
       </c>
       <c r="F811" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G811" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H811">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K811">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L811">
         <v>3.5</v>
       </c>
       <c r="M811">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N811">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O811">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P811">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q811">
         <v>0.25</v>
       </c>
       <c r="R811">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S811">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T811">
+        <v>2.75</v>
+      </c>
+      <c r="U811">
+        <v>2.025</v>
+      </c>
+      <c r="V811">
+        <v>1.825</v>
+      </c>
+      <c r="W811">
+        <v>-1</v>
+      </c>
+      <c r="X811">
         <v>2.5</v>
       </c>
-      <c r="U811">
-        <v>1.825</v>
-      </c>
-      <c r="V811">
-        <v>2.025</v>
-      </c>
-      <c r="W811">
-        <v>2.1</v>
-      </c>
-      <c r="X811">
-        <v>-1</v>
-      </c>
       <c r="Y811">
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA811">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB811">
+        <v>-1</v>
+      </c>
+      <c r="AC811">
         <v>0.825</v>
-      </c>
-      <c r="AC811">
-        <v>-1</v>
       </c>
     </row>
     <row r="812" spans="1:29">
@@ -72742,7 +72742,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5259999</v>
+        <v>5258301</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72754,76 +72754,76 @@
         <v>44935.58333333334</v>
       </c>
       <c r="F812" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G812" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K812">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L812">
         <v>3.5</v>
       </c>
       <c r="M812">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N812">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O812">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P812">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q812">
         <v>0.25</v>
       </c>
       <c r="R812">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S812">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T812">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U812">
+        <v>1.825</v>
+      </c>
+      <c r="V812">
         <v>2.025</v>
       </c>
-      <c r="V812">
-        <v>1.825</v>
-      </c>
       <c r="W812">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X812">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y812">
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA812">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB812">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC812">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -75412,7 +75412,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>5258311</v>
+        <v>5258454</v>
       </c>
       <c r="C842" t="s">
         <v>28</v>
@@ -75424,13 +75424,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F842" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G842" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H842">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -75439,43 +75439,43 @@
         <v>58</v>
       </c>
       <c r="K842">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L842">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M842">
         <v>3.25</v>
       </c>
       <c r="N842">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O842">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P842">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q842">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R842">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S842">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T842">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U842">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V842">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W842">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X842">
         <v>-1</v>
@@ -75484,13 +75484,13 @@
         <v>-1</v>
       </c>
       <c r="Z842">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA842">
         <v>-1</v>
       </c>
       <c r="AB842">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC842">
         <v>-1</v>
@@ -75501,7 +75501,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>5258454</v>
+        <v>5258311</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75513,13 +75513,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F843" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G843" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H843">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -75528,43 +75528,43 @@
         <v>58</v>
       </c>
       <c r="K843">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L843">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M843">
         <v>3.25</v>
       </c>
       <c r="N843">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O843">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P843">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q843">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R843">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S843">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T843">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U843">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V843">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W843">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X843">
         <v>-1</v>
@@ -75573,13 +75573,13 @@
         <v>-1</v>
       </c>
       <c r="Z843">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA843">
         <v>-1</v>
       </c>
       <c r="AB843">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC843">
         <v>-1</v>
@@ -80040,7 +80040,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>5258488</v>
+        <v>5258344</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80052,58 +80052,58 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F894" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G894" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H894">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I894">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J894" t="s">
         <v>58</v>
       </c>
       <c r="K894">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L894">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M894">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N894">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O894">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P894">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q894">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R894">
+        <v>1.975</v>
+      </c>
+      <c r="S894">
+        <v>1.875</v>
+      </c>
+      <c r="T894">
+        <v>2.75</v>
+      </c>
+      <c r="U894">
+        <v>1.95</v>
+      </c>
+      <c r="V894">
         <v>1.9</v>
       </c>
-      <c r="S894">
-        <v>1.95</v>
-      </c>
-      <c r="T894">
-        <v>3.75</v>
-      </c>
-      <c r="U894">
-        <v>1.925</v>
-      </c>
-      <c r="V894">
-        <v>1.925</v>
-      </c>
       <c r="W894">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X894">
         <v>-1</v>
@@ -80112,13 +80112,13 @@
         <v>-1</v>
       </c>
       <c r="Z894">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA894">
         <v>-1</v>
       </c>
       <c r="AB894">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC894">
         <v>-1</v>
@@ -80129,7 +80129,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5258344</v>
+        <v>5258488</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80141,58 +80141,58 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F895" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G895" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H895">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J895" t="s">
         <v>58</v>
       </c>
       <c r="K895">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L895">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="M895">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="N895">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O895">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P895">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q895">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R895">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S895">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T895">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U895">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V895">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W895">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X895">
         <v>-1</v>
@@ -80201,13 +80201,13 @@
         <v>-1</v>
       </c>
       <c r="Z895">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA895">
         <v>-1</v>
       </c>
       <c r="AB895">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC895">
         <v>-1</v>
@@ -97840,7 +97840,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C1094" t="s">
         <v>28</v>
@@ -97852,73 +97852,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F1094" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1094" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1094">
         <v>3</v>
       </c>
       <c r="I1094">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1094" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1094">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L1094">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M1094">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N1094">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O1094">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1094">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q1094">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1094">
+        <v>1.9</v>
+      </c>
+      <c r="S1094">
         <v>1.95</v>
-      </c>
-      <c r="S1094">
-        <v>1.9</v>
       </c>
       <c r="T1094">
         <v>2.5</v>
       </c>
       <c r="U1094">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V1094">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W1094">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X1094">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1094">
         <v>-1</v>
       </c>
       <c r="Z1094">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1094">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1094">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1094">
         <v>-1</v>
@@ -97929,7 +97929,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C1095" t="s">
         <v>28</v>
@@ -97941,73 +97941,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F1095" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1095" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1095">
         <v>3</v>
       </c>
       <c r="I1095">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1095" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1095">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L1095">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M1095">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N1095">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O1095">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1095">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q1095">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1095">
+        <v>1.95</v>
+      </c>
+      <c r="S1095">
         <v>1.9</v>
-      </c>
-      <c r="S1095">
-        <v>1.95</v>
       </c>
       <c r="T1095">
         <v>2.5</v>
       </c>
       <c r="U1095">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V1095">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W1095">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1095">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1095">
         <v>-1</v>
       </c>
       <c r="Z1095">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA1095">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1095">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC1095">
         <v>-1</v>
@@ -100154,7 +100154,7 @@
         <v>1118</v>
       </c>
       <c r="B1120">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C1120" t="s">
         <v>28</v>
@@ -100166,76 +100166,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F1120" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G1120" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I1120">
         <v>1</v>
       </c>
       <c r="J1120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L1120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1120">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N1120">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O1120">
+        <v>3.6</v>
+      </c>
+      <c r="P1120">
         <v>3.2</v>
       </c>
-      <c r="P1120">
-        <v>3.1</v>
-      </c>
       <c r="Q1120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1120">
+        <v>1.975</v>
+      </c>
+      <c r="S1120">
         <v>1.875</v>
       </c>
-      <c r="S1120">
-        <v>1.975</v>
-      </c>
       <c r="T1120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1120">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V1120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W1120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1120">
         <v>-1</v>
       </c>
       <c r="Z1120">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1120">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB1120">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC1120">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121" spans="1:29">
@@ -100243,7 +100243,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -100255,76 +100255,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F1121" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G1121" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H1121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I1121">
         <v>1</v>
       </c>
       <c r="J1121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L1121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1121">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N1121">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O1121">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1121">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q1121">
+        <v>-0.25</v>
+      </c>
+      <c r="R1121">
+        <v>1.875</v>
+      </c>
+      <c r="S1121">
+        <v>1.975</v>
+      </c>
+      <c r="T1121">
+        <v>2.25</v>
+      </c>
+      <c r="U1121">
+        <v>2</v>
+      </c>
+      <c r="V1121">
+        <v>1.85</v>
+      </c>
+      <c r="W1121">
+        <v>-1</v>
+      </c>
+      <c r="X1121">
+        <v>2.2</v>
+      </c>
+      <c r="Y1121">
+        <v>-1</v>
+      </c>
+      <c r="Z1121">
         <v>-0.5</v>
       </c>
-      <c r="R1121">
-        <v>1.975</v>
-      </c>
-      <c r="S1121">
-        <v>1.875</v>
-      </c>
-      <c r="T1121">
-        <v>2.75</v>
-      </c>
-      <c r="U1121">
-        <v>1.8</v>
-      </c>
-      <c r="V1121">
-        <v>2.05</v>
-      </c>
-      <c r="W1121">
-        <v>0.909</v>
-      </c>
-      <c r="X1121">
-        <v>-1</v>
-      </c>
-      <c r="Y1121">
-        <v>-1</v>
-      </c>
-      <c r="Z1121">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA1121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB1121">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1121">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1122" spans="1:29">

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -62863,7 +62863,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5258270</v>
+        <v>5258381</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62875,76 +62875,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G701" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J701" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K701">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L701">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M701">
+        <v>2.55</v>
+      </c>
+      <c r="N701">
+        <v>2.55</v>
+      </c>
+      <c r="O701">
+        <v>3.5</v>
+      </c>
+      <c r="P701">
+        <v>2.7</v>
+      </c>
+      <c r="Q701">
+        <v>0</v>
+      </c>
+      <c r="R701">
         <v>1.85</v>
       </c>
-      <c r="N701">
-        <v>4.2</v>
-      </c>
-      <c r="O701">
-        <v>4.2</v>
-      </c>
-      <c r="P701">
-        <v>1.727</v>
-      </c>
-      <c r="Q701">
-        <v>0.75</v>
-      </c>
-      <c r="R701">
+      <c r="S701">
+        <v>2</v>
+      </c>
+      <c r="T701">
+        <v>2.5</v>
+      </c>
+      <c r="U701">
+        <v>1.9</v>
+      </c>
+      <c r="V701">
         <v>1.95</v>
       </c>
-      <c r="S701">
-        <v>1.9</v>
-      </c>
-      <c r="T701">
-        <v>3</v>
-      </c>
-      <c r="U701">
-        <v>2</v>
-      </c>
-      <c r="V701">
-        <v>1.85</v>
-      </c>
       <c r="W701">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X701">
         <v>-1</v>
       </c>
       <c r="Y701">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z701">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA701">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB701">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62952,7 +62952,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>5258381</v>
+        <v>5258270</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62964,76 +62964,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F702" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G702" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I702">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J702" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K702">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L702">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M702">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N702">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O702">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P702">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q702">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R702">
+        <v>1.95</v>
+      </c>
+      <c r="S702">
+        <v>1.9</v>
+      </c>
+      <c r="T702">
+        <v>3</v>
+      </c>
+      <c r="U702">
+        <v>2</v>
+      </c>
+      <c r="V702">
         <v>1.85</v>
       </c>
-      <c r="S702">
-        <v>2</v>
-      </c>
-      <c r="T702">
-        <v>2.5</v>
-      </c>
-      <c r="U702">
-        <v>1.9</v>
-      </c>
-      <c r="V702">
-        <v>1.95</v>
-      </c>
       <c r="W702">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X702">
         <v>-1</v>
       </c>
       <c r="Y702">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z702">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA702">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB702">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC702">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -63575,7 +63575,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>5260019</v>
+        <v>5258385</v>
       </c>
       <c r="C709" t="s">
         <v>28</v>
@@ -63587,76 +63587,76 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F709" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G709" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J709" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K709">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L709">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M709">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N709">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O709">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P709">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q709">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R709">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S709">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T709">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U709">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V709">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W709">
         <v>-1</v>
       </c>
       <c r="X709">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y709">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z709">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA709">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB709">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AC709">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="710" spans="1:29">
@@ -63664,7 +63664,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>5258385</v>
+        <v>5260019</v>
       </c>
       <c r="C710" t="s">
         <v>28</v>
@@ -63676,76 +63676,76 @@
         <v>44821.58333333334</v>
       </c>
       <c r="F710" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G710" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710">
+        <v>2</v>
+      </c>
+      <c r="J710" t="s">
+        <v>57</v>
+      </c>
+      <c r="K710">
+        <v>4.75</v>
+      </c>
+      <c r="L710">
+        <v>4</v>
+      </c>
+      <c r="M710">
+        <v>1.666</v>
+      </c>
+      <c r="N710">
+        <v>7</v>
+      </c>
+      <c r="O710">
+        <v>4.75</v>
+      </c>
+      <c r="P710">
+        <v>1.4</v>
+      </c>
+      <c r="Q710">
+        <v>1.25</v>
+      </c>
+      <c r="R710">
+        <v>1.925</v>
+      </c>
+      <c r="S710">
+        <v>1.925</v>
+      </c>
+      <c r="T710">
         <v>3</v>
       </c>
-      <c r="J710" t="s">
-        <v>59</v>
-      </c>
-      <c r="K710">
-        <v>2.15</v>
-      </c>
-      <c r="L710">
+      <c r="U710">
+        <v>1.925</v>
+      </c>
+      <c r="V710">
+        <v>1.925</v>
+      </c>
+      <c r="W710">
+        <v>-1</v>
+      </c>
+      <c r="X710">
         <v>3.75</v>
       </c>
-      <c r="M710">
-        <v>3.1</v>
-      </c>
-      <c r="N710">
-        <v>2.7</v>
-      </c>
-      <c r="O710">
-        <v>3.75</v>
-      </c>
-      <c r="P710">
-        <v>2.45</v>
-      </c>
-      <c r="Q710">
-        <v>0</v>
-      </c>
-      <c r="R710">
-        <v>2.025</v>
-      </c>
-      <c r="S710">
-        <v>1.825</v>
-      </c>
-      <c r="T710">
-        <v>2.75</v>
-      </c>
-      <c r="U710">
-        <v>1.85</v>
-      </c>
-      <c r="V710">
-        <v>2</v>
-      </c>
-      <c r="W710">
-        <v>-1</v>
-      </c>
-      <c r="X710">
-        <v>-1</v>
-      </c>
       <c r="Y710">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z710">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA710">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB710">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AC710">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711" spans="1:29">
@@ -69627,7 +69627,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5260005</v>
+        <v>5258424</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69639,55 +69639,55 @@
         <v>44918.58333333334</v>
       </c>
       <c r="F777" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G777" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J777" t="s">
         <v>59</v>
       </c>
       <c r="K777">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L777">
         <v>3.75</v>
       </c>
       <c r="M777">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N777">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O777">
         <v>3.5</v>
       </c>
       <c r="P777">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q777">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S777">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T777">
         <v>2.5</v>
       </c>
       <c r="U777">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V777">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W777">
         <v>-1</v>
@@ -69696,19 +69696,19 @@
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="Z777">
         <v>-1</v>
       </c>
       <c r="AA777">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB777">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC777">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -69716,7 +69716,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5258424</v>
+        <v>5260005</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69728,55 +69728,55 @@
         <v>44918.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G778" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I778">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J778" t="s">
         <v>59</v>
       </c>
       <c r="K778">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L778">
         <v>3.75</v>
       </c>
       <c r="M778">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N778">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O778">
         <v>3.5</v>
       </c>
       <c r="P778">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q778">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R778">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S778">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T778">
         <v>2.5</v>
       </c>
       <c r="U778">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V778">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W778">
         <v>-1</v>
@@ -69785,19 +69785,19 @@
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="Z778">
         <v>-1</v>
       </c>
       <c r="AA778">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB778">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC778">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -70161,7 +70161,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5258295</v>
+        <v>5258293</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70173,76 +70173,76 @@
         <v>44920.41666666666</v>
       </c>
       <c r="F783" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G783" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
         <v>57</v>
       </c>
       <c r="K783">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L783">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M783">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N783">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="O783">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P783">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q783">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R783">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S783">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T783">
         <v>3</v>
       </c>
       <c r="U783">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V783">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA783">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC783">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70250,7 +70250,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>5258293</v>
+        <v>5258295</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70262,76 +70262,76 @@
         <v>44920.41666666666</v>
       </c>
       <c r="F784" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G784" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I784">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J784" t="s">
         <v>57</v>
       </c>
       <c r="K784">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L784">
+        <v>3.8</v>
+      </c>
+      <c r="M784">
+        <v>4.333</v>
+      </c>
+      <c r="N784">
+        <v>1.75</v>
+      </c>
+      <c r="O784">
         <v>3.75</v>
       </c>
-      <c r="M784">
-        <v>1.95</v>
-      </c>
-      <c r="N784">
-        <v>4.2</v>
-      </c>
-      <c r="O784">
-        <v>4.2</v>
-      </c>
       <c r="P784">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q784">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R784">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S784">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T784">
         <v>3</v>
       </c>
       <c r="U784">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V784">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y784">
         <v>-1</v>
       </c>
       <c r="Z784">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB784">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC784">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70695,7 +70695,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5258296</v>
+        <v>5260002</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70707,13 +70707,13 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F789" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G789" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H789">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789">
         <v>1</v>
@@ -70722,43 +70722,43 @@
         <v>58</v>
       </c>
       <c r="K789">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L789">
         <v>3.6</v>
       </c>
       <c r="M789">
+        <v>2.4</v>
+      </c>
+      <c r="N789">
         <v>3.2</v>
-      </c>
-      <c r="N789">
-        <v>2</v>
       </c>
       <c r="O789">
         <v>3.8</v>
       </c>
       <c r="P789">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q789">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R789">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S789">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T789">
         <v>3</v>
       </c>
       <c r="U789">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V789">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W789">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X789">
         <v>-1</v>
@@ -70767,16 +70767,16 @@
         <v>-1</v>
       </c>
       <c r="Z789">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA789">
         <v>-1</v>
       </c>
       <c r="AB789">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC789">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -70784,7 +70784,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5260002</v>
+        <v>5258296</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70796,13 +70796,13 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F790" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G790" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I790">
         <v>1</v>
@@ -70811,43 +70811,43 @@
         <v>58</v>
       </c>
       <c r="K790">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L790">
         <v>3.6</v>
       </c>
       <c r="M790">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N790">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O790">
         <v>3.8</v>
       </c>
       <c r="P790">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q790">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R790">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S790">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T790">
         <v>3</v>
       </c>
       <c r="U790">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V790">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W790">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="X790">
         <v>-1</v>
@@ -70856,16 +70856,16 @@
         <v>-1</v>
       </c>
       <c r="Z790">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA790">
         <v>-1</v>
       </c>
       <c r="AB790">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC790">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -71585,7 +71585,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5258430</v>
+        <v>6079161</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71597,76 +71597,76 @@
         <v>44930.58333333334</v>
       </c>
       <c r="F799" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G799" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H799">
         <v>2</v>
       </c>
       <c r="I799">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K799">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L799">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M799">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N799">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O799">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P799">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q799">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R799">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S799">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T799">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V799">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W799">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X799">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y799">
         <v>-1</v>
       </c>
       <c r="Z799">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB799">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC799">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71674,7 +71674,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>6079161</v>
+        <v>5258430</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71686,76 +71686,76 @@
         <v>44930.58333333334</v>
       </c>
       <c r="F800" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G800" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H800">
         <v>2</v>
       </c>
       <c r="I800">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J800" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K800">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L800">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M800">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N800">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O800">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P800">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q800">
+        <v>-1.25</v>
+      </c>
+      <c r="R800">
+        <v>1.9</v>
+      </c>
+      <c r="S800">
+        <v>1.95</v>
+      </c>
+      <c r="T800">
+        <v>3.25</v>
+      </c>
+      <c r="U800">
+        <v>2</v>
+      </c>
+      <c r="V800">
+        <v>1.85</v>
+      </c>
+      <c r="W800">
+        <v>0.444</v>
+      </c>
+      <c r="X800">
+        <v>-1</v>
+      </c>
+      <c r="Y800">
+        <v>-1</v>
+      </c>
+      <c r="Z800">
         <v>-0.5</v>
       </c>
-      <c r="R800">
-        <v>1.975</v>
-      </c>
-      <c r="S800">
-        <v>1.875</v>
-      </c>
-      <c r="T800">
-        <v>2.25</v>
-      </c>
-      <c r="U800">
-        <v>1.8</v>
-      </c>
-      <c r="V800">
-        <v>2.05</v>
-      </c>
-      <c r="W800">
-        <v>-1</v>
-      </c>
-      <c r="X800">
-        <v>2.4</v>
-      </c>
-      <c r="Y800">
-        <v>-1</v>
-      </c>
-      <c r="Z800">
-        <v>-1</v>
-      </c>
       <c r="AA800">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB800">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC800">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -73098,7 +73098,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>5258304</v>
+        <v>5258441</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73110,49 +73110,49 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F816" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G816" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I816">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J816" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K816">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L816">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M816">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N816">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O816">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P816">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q816">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R816">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S816">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T816">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U816">
         <v>1.825</v>
@@ -73161,19 +73161,19 @@
         <v>2.025</v>
       </c>
       <c r="W816">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X816">
         <v>-1</v>
       </c>
       <c r="Y816">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA816">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB816">
         <v>0.825</v>
@@ -73187,7 +73187,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>5258441</v>
+        <v>5258304</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73199,49 +73199,49 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F817" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G817" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H817">
+        <v>1</v>
+      </c>
+      <c r="I817">
+        <v>2</v>
+      </c>
+      <c r="J817" t="s">
+        <v>59</v>
+      </c>
+      <c r="K817">
         <v>3</v>
       </c>
-      <c r="I817">
-        <v>1</v>
-      </c>
-      <c r="J817" t="s">
-        <v>58</v>
-      </c>
-      <c r="K817">
-        <v>1.727</v>
-      </c>
       <c r="L817">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M817">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N817">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O817">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P817">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q817">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R817">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S817">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T817">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U817">
         <v>1.825</v>
@@ -73250,19 +73250,19 @@
         <v>2.025</v>
       </c>
       <c r="W817">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X817">
         <v>-1</v>
       </c>
       <c r="Y817">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z817">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA817">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB817">
         <v>0.825</v>
@@ -75412,7 +75412,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>5258454</v>
+        <v>5258311</v>
       </c>
       <c r="C842" t="s">
         <v>28</v>
@@ -75424,13 +75424,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F842" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G842" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H842">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -75439,43 +75439,43 @@
         <v>58</v>
       </c>
       <c r="K842">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L842">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M842">
         <v>3.25</v>
       </c>
       <c r="N842">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O842">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P842">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q842">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R842">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S842">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T842">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U842">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V842">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W842">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X842">
         <v>-1</v>
@@ -75484,13 +75484,13 @@
         <v>-1</v>
       </c>
       <c r="Z842">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA842">
         <v>-1</v>
       </c>
       <c r="AB842">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC842">
         <v>-1</v>
@@ -75501,7 +75501,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>5258311</v>
+        <v>5258454</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75513,13 +75513,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F843" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G843" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H843">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -75528,43 +75528,43 @@
         <v>58</v>
       </c>
       <c r="K843">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L843">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M843">
         <v>3.25</v>
       </c>
       <c r="N843">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O843">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P843">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q843">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R843">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S843">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T843">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U843">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V843">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W843">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X843">
         <v>-1</v>
@@ -75573,13 +75573,13 @@
         <v>-1</v>
       </c>
       <c r="Z843">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA843">
         <v>-1</v>
       </c>
       <c r="AB843">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC843">
         <v>-1</v>
@@ -80040,7 +80040,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>5258344</v>
+        <v>5258488</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80052,58 +80052,58 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F894" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G894" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H894">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I894">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J894" t="s">
         <v>58</v>
       </c>
       <c r="K894">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L894">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="M894">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="N894">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O894">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P894">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q894">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R894">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S894">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T894">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U894">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V894">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W894">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X894">
         <v>-1</v>
@@ -80112,13 +80112,13 @@
         <v>-1</v>
       </c>
       <c r="Z894">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA894">
         <v>-1</v>
       </c>
       <c r="AB894">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC894">
         <v>-1</v>
@@ -80129,7 +80129,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5258488</v>
+        <v>5258344</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80141,58 +80141,58 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F895" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G895" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H895">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I895">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J895" t="s">
         <v>58</v>
       </c>
       <c r="K895">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L895">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M895">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N895">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O895">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P895">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q895">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R895">
+        <v>1.975</v>
+      </c>
+      <c r="S895">
+        <v>1.875</v>
+      </c>
+      <c r="T895">
+        <v>2.75</v>
+      </c>
+      <c r="U895">
+        <v>1.95</v>
+      </c>
+      <c r="V895">
         <v>1.9</v>
       </c>
-      <c r="S895">
-        <v>1.95</v>
-      </c>
-      <c r="T895">
-        <v>3.75</v>
-      </c>
-      <c r="U895">
-        <v>1.925</v>
-      </c>
-      <c r="V895">
-        <v>1.925</v>
-      </c>
       <c r="W895">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X895">
         <v>-1</v>
@@ -80201,13 +80201,13 @@
         <v>-1</v>
       </c>
       <c r="Z895">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA895">
         <v>-1</v>
       </c>
       <c r="AB895">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC895">
         <v>-1</v>
@@ -83956,7 +83956,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>5494987</v>
+        <v>5505393</v>
       </c>
       <c r="C938" t="s">
         <v>28</v>
@@ -83968,76 +83968,76 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F938" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G938" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J938" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K938">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L938">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M938">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N938">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O938">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P938">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q938">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R938">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S938">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T938">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U938">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V938">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W938">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X938">
         <v>-1</v>
       </c>
       <c r="Y938">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z938">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA938">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB938">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC938">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="939" spans="1:29">
@@ -84045,7 +84045,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5505393</v>
+        <v>5494987</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84057,76 +84057,76 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F939" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G939" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H939">
+        <v>2</v>
+      </c>
+      <c r="I939">
         <v>0</v>
       </c>
-      <c r="I939">
-        <v>4</v>
-      </c>
       <c r="J939" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K939">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L939">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M939">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N939">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O939">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P939">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q939">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R939">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S939">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T939">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U939">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V939">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W939">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X939">
         <v>-1</v>
       </c>
       <c r="Y939">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z939">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA939">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB939">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC939">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84490,7 +84490,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>5549121</v>
+        <v>5534729</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84502,13 +84502,13 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F944" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G944" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I944">
         <v>0</v>
@@ -84517,43 +84517,43 @@
         <v>58</v>
       </c>
       <c r="K944">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L944">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M944">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N944">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O944">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P944">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q944">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R944">
+        <v>1.975</v>
+      </c>
+      <c r="S944">
         <v>1.875</v>
       </c>
-      <c r="S944">
+      <c r="T944">
+        <v>3.25</v>
+      </c>
+      <c r="U944">
+        <v>1.875</v>
+      </c>
+      <c r="V944">
         <v>1.975</v>
       </c>
-      <c r="T944">
-        <v>2.75</v>
-      </c>
-      <c r="U944">
-        <v>1.975</v>
-      </c>
-      <c r="V944">
-        <v>1.875</v>
-      </c>
       <c r="W944">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X944">
         <v>-1</v>
@@ -84562,7 +84562,7 @@
         <v>-1</v>
       </c>
       <c r="Z944">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA944">
         <v>-1</v>
@@ -84571,7 +84571,7 @@
         <v>-1</v>
       </c>
       <c r="AC944">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84579,7 +84579,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5534729</v>
+        <v>5544866</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84591,76 +84591,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F945" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G945" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J945" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K945">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L945">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M945">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="N945">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O945">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P945">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q945">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R945">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S945">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T945">
         <v>3.25</v>
       </c>
       <c r="U945">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V945">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W945">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X945">
         <v>-1</v>
       </c>
       <c r="Y945">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z945">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA945">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB945">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC945">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84668,7 +84668,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>5544866</v>
+        <v>5549121</v>
       </c>
       <c r="C946" t="s">
         <v>28</v>
@@ -84680,76 +84680,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F946" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G946" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H946">
         <v>1</v>
       </c>
       <c r="I946">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J946" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K946">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="L946">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M946">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N946">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O946">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P946">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q946">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R946">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S946">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T946">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U946">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V946">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W946">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X946">
         <v>-1</v>
       </c>
       <c r="Y946">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z946">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA946">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB946">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC946">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="947" spans="1:29">
@@ -84757,7 +84757,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>5544376</v>
+        <v>5540566</v>
       </c>
       <c r="C947" t="s">
         <v>28</v>
@@ -84769,55 +84769,55 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F947" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G947" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J947" t="s">
         <v>59</v>
       </c>
       <c r="K947">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L947">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M947">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N947">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O947">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P947">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q947">
         <v>0</v>
       </c>
       <c r="R947">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S947">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T947">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U947">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V947">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W947">
         <v>-1</v>
@@ -84826,19 +84826,19 @@
         <v>-1</v>
       </c>
       <c r="Y947">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z947">
         <v>-1</v>
       </c>
       <c r="AA947">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB947">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC947">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:29">
@@ -84846,7 +84846,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>5544377</v>
+        <v>5544378</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84858,76 +84858,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F948" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G948" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I948">
+        <v>0</v>
+      </c>
+      <c r="J948" t="s">
+        <v>58</v>
+      </c>
+      <c r="K948">
+        <v>2.1</v>
+      </c>
+      <c r="L948">
+        <v>3.9</v>
+      </c>
+      <c r="M948">
         <v>3</v>
       </c>
-      <c r="J948" t="s">
-        <v>59</v>
-      </c>
-      <c r="K948">
-        <v>2.25</v>
-      </c>
-      <c r="L948">
-        <v>3.6</v>
-      </c>
-      <c r="M948">
-        <v>2.8</v>
-      </c>
       <c r="N948">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O948">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P948">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q948">
         <v>-0.25</v>
       </c>
       <c r="R948">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S948">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T948">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U948">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V948">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W948">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X948">
         <v>-1</v>
       </c>
       <c r="Y948">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z948">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA948">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB948">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC948">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -84935,7 +84935,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>5540566</v>
+        <v>5544377</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84947,55 +84947,55 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F949" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G949" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I949">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J949" t="s">
         <v>59</v>
       </c>
       <c r="K949">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L949">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M949">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N949">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O949">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P949">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q949">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R949">
+        <v>1.95</v>
+      </c>
+      <c r="S949">
         <v>1.9</v>
       </c>
-      <c r="S949">
-        <v>1.95</v>
-      </c>
       <c r="T949">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U949">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V949">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W949">
         <v>-1</v>
@@ -85004,19 +85004,19 @@
         <v>-1</v>
       </c>
       <c r="Y949">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z949">
         <v>-1</v>
       </c>
       <c r="AA949">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB949">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC949">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950" spans="1:29">
@@ -85024,7 +85024,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5544378</v>
+        <v>5544376</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85036,76 +85036,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F950" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G950" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H950">
         <v>2</v>
       </c>
       <c r="I950">
+        <v>4</v>
+      </c>
+      <c r="J950" t="s">
+        <v>59</v>
+      </c>
+      <c r="K950">
+        <v>2.7</v>
+      </c>
+      <c r="L950">
+        <v>3.5</v>
+      </c>
+      <c r="M950">
+        <v>2.4</v>
+      </c>
+      <c r="N950">
+        <v>2.45</v>
+      </c>
+      <c r="O950">
+        <v>4</v>
+      </c>
+      <c r="P950">
+        <v>2.55</v>
+      </c>
+      <c r="Q950">
         <v>0</v>
       </c>
-      <c r="J950" t="s">
-        <v>58</v>
-      </c>
-      <c r="K950">
-        <v>2.1</v>
-      </c>
-      <c r="L950">
-        <v>3.9</v>
-      </c>
-      <c r="M950">
+      <c r="R950">
+        <v>1.875</v>
+      </c>
+      <c r="S950">
+        <v>1.975</v>
+      </c>
+      <c r="T950">
         <v>3</v>
       </c>
-      <c r="N950">
-        <v>2.2</v>
-      </c>
-      <c r="O950">
-        <v>4.2</v>
-      </c>
-      <c r="P950">
-        <v>2.7</v>
-      </c>
-      <c r="Q950">
-        <v>-0.25</v>
-      </c>
-      <c r="R950">
-        <v>2.025</v>
-      </c>
-      <c r="S950">
-        <v>1.825</v>
-      </c>
-      <c r="T950">
-        <v>3.25</v>
-      </c>
       <c r="U950">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V950">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W950">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X950">
         <v>-1</v>
       </c>
       <c r="Y950">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z950">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA950">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB950">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC950">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -85736,7 +85736,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5611973</v>
+        <v>5611974</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85748,76 +85748,76 @@
         <v>45083.45833333334</v>
       </c>
       <c r="F958" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H958">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K958">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L958">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M958">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N958">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O958">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P958">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q958">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R958">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S958">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T958">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U958">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V958">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W958">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA958">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB958">
         <v>-1</v>
       </c>
       <c r="AC958">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -85825,7 +85825,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>5611974</v>
+        <v>5611973</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85837,76 +85837,76 @@
         <v>45083.45833333334</v>
       </c>
       <c r="F959" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G959" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I959">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J959" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K959">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L959">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M959">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N959">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O959">
+        <v>3.8</v>
+      </c>
+      <c r="P959">
+        <v>2.45</v>
+      </c>
+      <c r="Q959">
+        <v>0</v>
+      </c>
+      <c r="R959">
+        <v>1.925</v>
+      </c>
+      <c r="S959">
+        <v>1.925</v>
+      </c>
+      <c r="T959">
         <v>3.5</v>
       </c>
-      <c r="P959">
-        <v>3.6</v>
-      </c>
-      <c r="Q959">
-        <v>-0.5</v>
-      </c>
-      <c r="R959">
-        <v>1.95</v>
-      </c>
-      <c r="S959">
-        <v>1.9</v>
-      </c>
-      <c r="T959">
-        <v>2.75</v>
-      </c>
       <c r="U959">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V959">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W959">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X959">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y959">
         <v>-1</v>
       </c>
       <c r="Z959">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA959">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB959">
         <v>-1</v>
       </c>
       <c r="AC959">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -86003,7 +86003,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>5608342</v>
+        <v>5611970</v>
       </c>
       <c r="C961" t="s">
         <v>28</v>
@@ -86015,73 +86015,73 @@
         <v>45084.58333333334</v>
       </c>
       <c r="F961" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G961" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H961">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I961">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J961" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K961">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L961">
+        <v>4.2</v>
+      </c>
+      <c r="M961">
         <v>4.5</v>
       </c>
-      <c r="M961">
-        <v>6.5</v>
-      </c>
       <c r="N961">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O961">
+        <v>5.25</v>
+      </c>
+      <c r="P961">
         <v>6</v>
-      </c>
-      <c r="P961">
-        <v>7</v>
       </c>
       <c r="Q961">
         <v>-1.5</v>
       </c>
       <c r="R961">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S961">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T961">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U961">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V961">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W961">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X961">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y961">
         <v>-1</v>
       </c>
       <c r="Z961">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA961">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB961">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC961">
         <v>-1</v>
@@ -86181,7 +86181,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>5615571</v>
+        <v>5608342</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86193,76 +86193,76 @@
         <v>45084.58333333334</v>
       </c>
       <c r="F963" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G963" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I963">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J963" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K963">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L963">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M963">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N963">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O963">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P963">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q963">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R963">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S963">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T963">
         <v>3.5</v>
       </c>
       <c r="U963">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V963">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W963">
         <v>-1</v>
       </c>
       <c r="X963">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y963">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z963">
         <v>-1</v>
       </c>
       <c r="AA963">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB963">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC963">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -86270,7 +86270,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>5611970</v>
+        <v>5615571</v>
       </c>
       <c r="C964" t="s">
         <v>28</v>
@@ -86282,76 +86282,76 @@
         <v>45084.58333333334</v>
       </c>
       <c r="F964" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G964" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H964">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I964">
+        <v>2</v>
+      </c>
+      <c r="J964" t="s">
+        <v>59</v>
+      </c>
+      <c r="K964">
+        <v>2.3</v>
+      </c>
+      <c r="L964">
+        <v>3.9</v>
+      </c>
+      <c r="M964">
+        <v>2.5</v>
+      </c>
+      <c r="N964">
+        <v>2.3</v>
+      </c>
+      <c r="O964">
+        <v>3.8</v>
+      </c>
+      <c r="P964">
+        <v>2.4</v>
+      </c>
+      <c r="Q964">
         <v>0</v>
       </c>
-      <c r="J964" t="s">
-        <v>58</v>
-      </c>
-      <c r="K964">
-        <v>1.571</v>
-      </c>
-      <c r="L964">
-        <v>4.2</v>
-      </c>
-      <c r="M964">
-        <v>4.5</v>
-      </c>
-      <c r="N964">
-        <v>1.333</v>
-      </c>
-      <c r="O964">
-        <v>5.25</v>
-      </c>
-      <c r="P964">
-        <v>6</v>
-      </c>
-      <c r="Q964">
-        <v>-1.5</v>
-      </c>
       <c r="R964">
+        <v>1.875</v>
+      </c>
+      <c r="S964">
         <v>1.975</v>
       </c>
-      <c r="S964">
-        <v>1.875</v>
-      </c>
       <c r="T964">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U964">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V964">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W964">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X964">
         <v>-1</v>
       </c>
       <c r="Y964">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z964">
+        <v>-1</v>
+      </c>
+      <c r="AA964">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA964">
-        <v>-1</v>
-      </c>
       <c r="AB964">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC964">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:29">
@@ -86448,7 +86448,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>6944036</v>
+        <v>6943599</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86460,76 +86460,76 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F966" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G966" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H966">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I966">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J966" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K966">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L966">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M966">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N966">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O966">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P966">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q966">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R966">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S966">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T966">
         <v>2.75</v>
       </c>
       <c r="U966">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V966">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W966">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X966">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y966">
         <v>-1</v>
       </c>
       <c r="Z966">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA966">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB966">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC966">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:29">
@@ -86537,7 +86537,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6943599</v>
+        <v>6944036</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86549,76 +86549,76 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F967" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G967" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I967">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J967" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K967">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L967">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M967">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N967">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O967">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P967">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q967">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R967">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S967">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T967">
         <v>2.75</v>
       </c>
       <c r="U967">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V967">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W967">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X967">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y967">
         <v>-1</v>
       </c>
       <c r="Z967">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA967">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB967">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC967">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="968" spans="1:29">
@@ -87516,7 +87516,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>6943881</v>
+        <v>6944038</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87528,76 +87528,76 @@
         <v>45157.65625</v>
       </c>
       <c r="F978" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G978" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978">
         <v>0</v>
       </c>
       <c r="J978" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K978">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L978">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M978">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N978">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O978">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P978">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q978">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R978">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S978">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T978">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U978">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V978">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W978">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X978">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y978">
         <v>-1</v>
       </c>
       <c r="Z978">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA978">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB978">
         <v>-1</v>
       </c>
       <c r="AC978">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="979" spans="1:29">
@@ -87605,7 +87605,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>6944038</v>
+        <v>6943881</v>
       </c>
       <c r="C979" t="s">
         <v>28</v>
@@ -87617,76 +87617,76 @@
         <v>45157.65625</v>
       </c>
       <c r="F979" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G979" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979">
         <v>0</v>
       </c>
       <c r="J979" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K979">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L979">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M979">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N979">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O979">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P979">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q979">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R979">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S979">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T979">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U979">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V979">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W979">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X979">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y979">
         <v>-1</v>
       </c>
       <c r="Z979">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA979">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB979">
         <v>-1</v>
       </c>
       <c r="AC979">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="980" spans="1:29">
@@ -90898,7 +90898,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6943907</v>
+        <v>6943906</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90910,76 +90910,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1016" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1016" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1016">
         <v>1</v>
       </c>
       <c r="J1016" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1016">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L1016">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="M1016">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N1016">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O1016">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P1016">
+        <v>8.5</v>
+      </c>
+      <c r="Q1016">
+        <v>-1.5</v>
+      </c>
+      <c r="R1016">
+        <v>1.975</v>
+      </c>
+      <c r="S1016">
+        <v>1.875</v>
+      </c>
+      <c r="T1016">
         <v>3</v>
       </c>
-      <c r="Q1016">
-        <v>-0.25</v>
-      </c>
-      <c r="R1016">
+      <c r="U1016">
+        <v>1.8</v>
+      </c>
+      <c r="V1016">
         <v>2.05</v>
       </c>
-      <c r="S1016">
-        <v>1.75</v>
-      </c>
-      <c r="T1016">
-        <v>2.5</v>
-      </c>
-      <c r="U1016">
-        <v>1.9</v>
-      </c>
-      <c r="V1016">
-        <v>1.95</v>
-      </c>
       <c r="W1016">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1016">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1016">
         <v>-1</v>
       </c>
       <c r="Z1016">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1016">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB1016">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1016">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -90987,7 +90987,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6943906</v>
+        <v>6943907</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -90999,76 +90999,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1017" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G1017" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1017">
         <v>1</v>
       </c>
       <c r="J1017" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1017">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L1017">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1017">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N1017">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O1017">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P1017">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q1017">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1017">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S1017">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T1017">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1017">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1017">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1017">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1017">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1017">
         <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1017">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB1017">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1017">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -93924,7 +93924,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6943922</v>
+        <v>6943789</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93936,61 +93936,61 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F1050" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1050" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H1050">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1050">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1050" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1050">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L1050">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M1050">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N1050">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="O1050">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1050">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="Q1050">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1050">
+        <v>1.9</v>
+      </c>
+      <c r="S1050">
+        <v>1.95</v>
+      </c>
+      <c r="T1050">
+        <v>2.5</v>
+      </c>
+      <c r="U1050">
         <v>2.025</v>
       </c>
-      <c r="S1050">
+      <c r="V1050">
         <v>1.825</v>
       </c>
-      <c r="T1050">
-        <v>3.5</v>
-      </c>
-      <c r="U1050">
-        <v>2</v>
-      </c>
-      <c r="V1050">
-        <v>1.85</v>
-      </c>
       <c r="W1050">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1050">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1050">
         <v>-1</v>
@@ -93999,13 +93999,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA1050">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB1050">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94013,7 +94013,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6943789</v>
+        <v>6943922</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94025,61 +94025,61 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F1051" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G1051" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1051">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1051" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1051">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L1051">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M1051">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="N1051">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="O1051">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P1051">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="Q1051">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R1051">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1051">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T1051">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U1051">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V1051">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W1051">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X1051">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1051">
         <v>-1</v>
@@ -94088,13 +94088,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA1051">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB1051">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC1051">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -96060,7 +96060,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>6943937</v>
+        <v>7437408</v>
       </c>
       <c r="C1074" t="s">
         <v>28</v>
@@ -96072,73 +96072,73 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F1074" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G1074" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1074" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1074">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L1074">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M1074">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N1074">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O1074">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P1074">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q1074">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1074">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S1074">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T1074">
         <v>2.5</v>
       </c>
       <c r="U1074">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V1074">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W1074">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1074">
         <v>-1</v>
       </c>
       <c r="Y1074">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z1074">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1074">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1074">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC1074">
         <v>-1</v>
@@ -96149,7 +96149,7 @@
         <v>1073</v>
       </c>
       <c r="B1075">
-        <v>7437408</v>
+        <v>6943937</v>
       </c>
       <c r="C1075" t="s">
         <v>28</v>
@@ -96161,73 +96161,73 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F1075" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G1075" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1075" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1075">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L1075">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M1075">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N1075">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O1075">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1075">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="Q1075">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1075">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S1075">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T1075">
         <v>2.5</v>
       </c>
       <c r="U1075">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1075">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W1075">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X1075">
         <v>-1</v>
       </c>
       <c r="Y1075">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z1075">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1075">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB1075">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC1075">
         <v>-1</v>
@@ -100154,7 +100154,7 @@
         <v>1118</v>
       </c>
       <c r="B1120">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C1120" t="s">
         <v>28</v>
@@ -100166,76 +100166,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F1120" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G1120" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H1120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I1120">
         <v>1</v>
       </c>
       <c r="J1120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L1120">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1120">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N1120">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O1120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1120">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q1120">
+        <v>-0.25</v>
+      </c>
+      <c r="R1120">
+        <v>1.875</v>
+      </c>
+      <c r="S1120">
+        <v>1.975</v>
+      </c>
+      <c r="T1120">
+        <v>2.25</v>
+      </c>
+      <c r="U1120">
+        <v>2</v>
+      </c>
+      <c r="V1120">
+        <v>1.85</v>
+      </c>
+      <c r="W1120">
+        <v>-1</v>
+      </c>
+      <c r="X1120">
+        <v>2.2</v>
+      </c>
+      <c r="Y1120">
+        <v>-1</v>
+      </c>
+      <c r="Z1120">
         <v>-0.5</v>
       </c>
-      <c r="R1120">
-        <v>1.975</v>
-      </c>
-      <c r="S1120">
-        <v>1.875</v>
-      </c>
-      <c r="T1120">
-        <v>2.75</v>
-      </c>
-      <c r="U1120">
-        <v>1.8</v>
-      </c>
-      <c r="V1120">
-        <v>2.05</v>
-      </c>
-      <c r="W1120">
-        <v>0.909</v>
-      </c>
-      <c r="X1120">
-        <v>-1</v>
-      </c>
-      <c r="Y1120">
-        <v>-1</v>
-      </c>
-      <c r="Z1120">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA1120">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB1120">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1120">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1121" spans="1:29">
@@ -100243,7 +100243,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -100255,76 +100255,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F1121" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G1121" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I1121">
         <v>1</v>
       </c>
       <c r="J1121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L1121">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1121">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N1121">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O1121">
+        <v>3.6</v>
+      </c>
+      <c r="P1121">
         <v>3.2</v>
       </c>
-      <c r="P1121">
-        <v>3.1</v>
-      </c>
       <c r="Q1121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1121">
+        <v>1.975</v>
+      </c>
+      <c r="S1121">
         <v>1.875</v>
       </c>
-      <c r="S1121">
-        <v>1.975</v>
-      </c>
       <c r="T1121">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V1121">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W1121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1121">
         <v>-1</v>
       </c>
       <c r="Z1121">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB1121">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC1121">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1122" spans="1:29">
@@ -100332,7 +100332,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C1122" t="s">
         <v>28</v>
@@ -100344,76 +100344,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F1122" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1122" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1122">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L1122">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M1122">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N1122">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O1122">
+        <v>3.8</v>
+      </c>
+      <c r="P1122">
+        <v>4.5</v>
+      </c>
+      <c r="Q1122">
+        <v>-1</v>
+      </c>
+      <c r="R1122">
+        <v>2.05</v>
+      </c>
+      <c r="S1122">
+        <v>1.8</v>
+      </c>
+      <c r="T1122">
+        <v>2.75</v>
+      </c>
+      <c r="U1122">
+        <v>1.85</v>
+      </c>
+      <c r="V1122">
+        <v>2</v>
+      </c>
+      <c r="W1122">
+        <v>-1</v>
+      </c>
+      <c r="X1122">
+        <v>-1</v>
+      </c>
+      <c r="Y1122">
         <v>3.5</v>
       </c>
-      <c r="P1122">
-        <v>2.875</v>
-      </c>
-      <c r="Q1122">
-        <v>-0.25</v>
-      </c>
-      <c r="R1122">
-        <v>1.925</v>
-      </c>
-      <c r="S1122">
-        <v>1.925</v>
-      </c>
-      <c r="T1122">
-        <v>2.5</v>
-      </c>
-      <c r="U1122">
-        <v>2.025</v>
-      </c>
-      <c r="V1122">
-        <v>1.825</v>
-      </c>
-      <c r="W1122">
-        <v>-1</v>
-      </c>
-      <c r="X1122">
-        <v>2.5</v>
-      </c>
-      <c r="Y1122">
-        <v>-1</v>
-      </c>
       <c r="Z1122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1122">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB1122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1123" spans="1:29">
@@ -100421,7 +100421,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100433,76 +100433,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G1123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1123">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L1123">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M1123">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N1123">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O1123">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P1123">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q1123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1123">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1123">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V1123">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W1123">
         <v>-1</v>
       </c>
       <c r="X1123">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y1123">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1123">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -102468,7 +102468,7 @@
         <v>1144</v>
       </c>
       <c r="B1146">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C1146" t="s">
         <v>28</v>
@@ -102480,56 +102480,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F1146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1146">
         <v>0</v>
       </c>
       <c r="I1146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1146" t="s">
         <v>59</v>
       </c>
       <c r="K1146">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L1146">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1146">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N1146">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O1146">
         <v>3.6</v>
       </c>
       <c r="P1146">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q1146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S1146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T1146">
         <v>2.75</v>
       </c>
       <c r="U1146">
+        <v>1.875</v>
+      </c>
+      <c r="V1146">
         <v>1.975</v>
       </c>
-      <c r="V1146">
-        <v>1.875</v>
-      </c>
       <c r="W1146">
         <v>-1</v>
       </c>
@@ -102537,19 +102537,19 @@
         <v>-1</v>
       </c>
       <c r="Y1146">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z1146">
         <v>-1</v>
       </c>
       <c r="AA1146">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1146">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC1146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1147" spans="1:29">
@@ -102557,7 +102557,7 @@
         <v>1145</v>
       </c>
       <c r="B1147">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C1147" t="s">
         <v>28</v>
@@ -102569,56 +102569,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F1147" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1147">
         <v>0</v>
       </c>
       <c r="I1147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1147" t="s">
         <v>59</v>
       </c>
       <c r="K1147">
+        <v>2.625</v>
+      </c>
+      <c r="L1147">
+        <v>3.6</v>
+      </c>
+      <c r="M1147">
+        <v>2.4</v>
+      </c>
+      <c r="N1147">
         <v>2.375</v>
-      </c>
-      <c r="L1147">
-        <v>3.5</v>
-      </c>
-      <c r="M1147">
-        <v>2.75</v>
-      </c>
-      <c r="N1147">
-        <v>2.25</v>
       </c>
       <c r="O1147">
         <v>3.6</v>
       </c>
       <c r="P1147">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q1147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S1147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T1147">
         <v>2.75</v>
       </c>
       <c r="U1147">
+        <v>1.975</v>
+      </c>
+      <c r="V1147">
         <v>1.875</v>
       </c>
-      <c r="V1147">
-        <v>1.975</v>
-      </c>
       <c r="W1147">
         <v>-1</v>
       </c>
@@ -102626,19 +102626,19 @@
         <v>-1</v>
       </c>
       <c r="Y1147">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z1147">
         <v>-1</v>
       </c>
       <c r="AA1147">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB1147">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1148" spans="1:29">
@@ -103180,7 +103180,7 @@
         <v>1152</v>
       </c>
       <c r="B1154">
-        <v>6944072</v>
+        <v>6943809</v>
       </c>
       <c r="C1154" t="s">
         <v>28</v>
@@ -103192,40 +103192,40 @@
         <v>45304.3125</v>
       </c>
       <c r="F1154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1154" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H1154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1154">
         <v>1</v>
       </c>
       <c r="J1154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1154">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L1154">
+        <v>3.6</v>
+      </c>
+      <c r="M1154">
         <v>3.5</v>
       </c>
-      <c r="M1154">
-        <v>3.2</v>
-      </c>
       <c r="N1154">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O1154">
         <v>3.4</v>
       </c>
       <c r="P1154">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q1154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1154">
         <v>2.025</v>
@@ -103237,31 +103237,31 @@
         <v>2.5</v>
       </c>
       <c r="U1154">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V1154">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W1154">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X1154">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1154">
         <v>-1</v>
       </c>
       <c r="Z1154">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA1154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1155" spans="1:29">
@@ -103269,7 +103269,7 @@
         <v>1153</v>
       </c>
       <c r="B1155">
-        <v>6943809</v>
+        <v>6944072</v>
       </c>
       <c r="C1155" t="s">
         <v>28</v>
@@ -103281,40 +103281,40 @@
         <v>45304.3125</v>
       </c>
       <c r="F1155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1155" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1155">
         <v>1</v>
       </c>
       <c r="J1155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1155">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L1155">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1155">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N1155">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O1155">
         <v>3.4</v>
       </c>
       <c r="P1155">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q1155">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1155">
         <v>2.025</v>
@@ -103326,31 +103326,31 @@
         <v>2.5</v>
       </c>
       <c r="U1155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V1155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W1155">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X1155">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1155">
         <v>-1</v>
       </c>
       <c r="Z1155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1155">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1156" spans="1:29">

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -58324,7 +58324,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>4145546</v>
+        <v>4142553</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58336,58 +58336,58 @@
         <v>44703.54166666666</v>
       </c>
       <c r="F650" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G650" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H650">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J650" t="s">
         <v>58</v>
       </c>
       <c r="K650">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L650">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M650">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N650">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O650">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P650">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q650">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R650">
+        <v>1.95</v>
+      </c>
+      <c r="S650">
+        <v>1.9</v>
+      </c>
+      <c r="T650">
+        <v>3.5</v>
+      </c>
+      <c r="U650">
+        <v>2</v>
+      </c>
+      <c r="V650">
         <v>1.85</v>
       </c>
-      <c r="S650">
-        <v>2</v>
-      </c>
-      <c r="T650">
-        <v>3</v>
-      </c>
-      <c r="U650">
-        <v>1.975</v>
-      </c>
-      <c r="V650">
-        <v>1.875</v>
-      </c>
       <c r="W650">
-        <v>0.6659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X650">
         <v>-1</v>
@@ -58396,13 +58396,13 @@
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA650">
         <v>-1</v>
       </c>
       <c r="AB650">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC650">
         <v>-1</v>
@@ -58413,7 +58413,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>4142553</v>
+        <v>4145546</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58425,58 +58425,58 @@
         <v>44703.54166666666</v>
       </c>
       <c r="F651" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G651" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H651">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
         <v>58</v>
       </c>
       <c r="K651">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L651">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M651">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N651">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O651">
+        <v>3.8</v>
+      </c>
+      <c r="P651">
         <v>4.75</v>
       </c>
-      <c r="P651">
-        <v>5.75</v>
-      </c>
       <c r="Q651">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R651">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S651">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T651">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W651">
-        <v>0.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X651">
         <v>-1</v>
@@ -58485,13 +58485,13 @@
         <v>-1</v>
       </c>
       <c r="Z651">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA651">
         <v>-1</v>
       </c>
       <c r="AB651">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -59481,7 +59481,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5258356</v>
+        <v>5258358</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59493,46 +59493,46 @@
         <v>44786.65625</v>
       </c>
       <c r="F663" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G663" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H663">
+        <v>3</v>
+      </c>
+      <c r="I663">
         <v>0</v>
       </c>
-      <c r="I663">
-        <v>1</v>
-      </c>
       <c r="J663" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K663">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L663">
+        <v>3.6</v>
+      </c>
+      <c r="M663">
+        <v>3.8</v>
+      </c>
+      <c r="N663">
+        <v>1.909</v>
+      </c>
+      <c r="O663">
+        <v>3.6</v>
+      </c>
+      <c r="P663">
         <v>4</v>
       </c>
-      <c r="M663">
-        <v>5.75</v>
-      </c>
-      <c r="N663">
-        <v>1.5</v>
-      </c>
-      <c r="O663">
-        <v>4</v>
-      </c>
-      <c r="P663">
-        <v>8</v>
-      </c>
       <c r="Q663">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R663">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S663">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T663">
         <v>2.5</v>
@@ -59544,25 +59544,25 @@
         <v>1.975</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA663">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC663">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59570,7 +59570,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>5258358</v>
+        <v>5258356</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59582,46 +59582,46 @@
         <v>44786.65625</v>
       </c>
       <c r="F664" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G664" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H664">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J664" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K664">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L664">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M664">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N664">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O664">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P664">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q664">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R664">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S664">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T664">
         <v>2.5</v>
@@ -59633,25 +59633,25 @@
         <v>1.975</v>
       </c>
       <c r="W664">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X664">
         <v>-1</v>
       </c>
       <c r="Y664">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z664">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA664">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB664">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC664">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -61795,7 +61795,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5258365</v>
+        <v>5258267</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61807,46 +61807,46 @@
         <v>44807.55208333334</v>
       </c>
       <c r="F689" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G689" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689">
         <v>0</v>
       </c>
       <c r="J689" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K689">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L689">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M689">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N689">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O689">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P689">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q689">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R689">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S689">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T689">
         <v>2.5</v>
@@ -61858,19 +61858,19 @@
         <v>2.025</v>
       </c>
       <c r="W689">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X689">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y689">
         <v>-1</v>
       </c>
       <c r="Z689">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA689">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB689">
         <v>-1</v>
@@ -61884,7 +61884,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>5258267</v>
+        <v>5258365</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61896,46 +61896,46 @@
         <v>44807.55208333334</v>
       </c>
       <c r="F690" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690">
         <v>0</v>
       </c>
       <c r="J690" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K690">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L690">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M690">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N690">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O690">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P690">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q690">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R690">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S690">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T690">
         <v>2.5</v>
@@ -61947,19 +61947,19 @@
         <v>2.025</v>
       </c>
       <c r="W690">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X690">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y690">
         <v>-1</v>
       </c>
       <c r="Z690">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA690">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB690">
         <v>-1</v>
@@ -62240,7 +62240,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5258266</v>
+        <v>5258264</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62252,55 +62252,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F694" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G694" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J694" t="s">
         <v>59</v>
       </c>
       <c r="K694">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L694">
         <v>3.4</v>
       </c>
       <c r="M694">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N694">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O694">
         <v>3.75</v>
       </c>
       <c r="P694">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="Q694">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R694">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S694">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T694">
         <v>3</v>
       </c>
       <c r="U694">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V694">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W694">
         <v>-1</v>
@@ -62309,19 +62309,19 @@
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>0.615</v>
+        <v>3.333</v>
       </c>
       <c r="Z694">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA694">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB694">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC694">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62329,7 +62329,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5258264</v>
+        <v>5258266</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62341,55 +62341,55 @@
         <v>44808.65625</v>
       </c>
       <c r="F695" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G695" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J695" t="s">
         <v>59</v>
       </c>
       <c r="K695">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L695">
         <v>3.4</v>
       </c>
       <c r="M695">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N695">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O695">
         <v>3.75</v>
       </c>
       <c r="P695">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q695">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R695">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S695">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T695">
         <v>3</v>
       </c>
       <c r="U695">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V695">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W695">
         <v>-1</v>
@@ -62398,19 +62398,19 @@
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA695">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC695">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62863,7 +62863,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5258270</v>
+        <v>5258381</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62875,76 +62875,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G701" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J701" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K701">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L701">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M701">
+        <v>2.55</v>
+      </c>
+      <c r="N701">
+        <v>2.55</v>
+      </c>
+      <c r="O701">
+        <v>3.5</v>
+      </c>
+      <c r="P701">
+        <v>2.7</v>
+      </c>
+      <c r="Q701">
+        <v>0</v>
+      </c>
+      <c r="R701">
         <v>1.85</v>
       </c>
-      <c r="N701">
-        <v>4.2</v>
-      </c>
-      <c r="O701">
-        <v>4.2</v>
-      </c>
-      <c r="P701">
-        <v>1.727</v>
-      </c>
-      <c r="Q701">
-        <v>0.75</v>
-      </c>
-      <c r="R701">
+      <c r="S701">
+        <v>2</v>
+      </c>
+      <c r="T701">
+        <v>2.5</v>
+      </c>
+      <c r="U701">
+        <v>1.9</v>
+      </c>
+      <c r="V701">
         <v>1.95</v>
       </c>
-      <c r="S701">
-        <v>1.9</v>
-      </c>
-      <c r="T701">
-        <v>3</v>
-      </c>
-      <c r="U701">
-        <v>2</v>
-      </c>
-      <c r="V701">
-        <v>1.85</v>
-      </c>
       <c r="W701">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X701">
         <v>-1</v>
       </c>
       <c r="Y701">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z701">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA701">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB701">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62952,7 +62952,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>5258381</v>
+        <v>5258270</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62964,76 +62964,76 @@
         <v>44815.58333333334</v>
       </c>
       <c r="F702" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G702" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H702">
+        <v>2</v>
+      </c>
+      <c r="I702">
+        <v>3</v>
+      </c>
+      <c r="J702" t="s">
+        <v>59</v>
+      </c>
+      <c r="K702">
+        <v>3.8</v>
+      </c>
+      <c r="L702">
+        <v>3.9</v>
+      </c>
+      <c r="M702">
+        <v>1.85</v>
+      </c>
+      <c r="N702">
+        <v>4.2</v>
+      </c>
+      <c r="O702">
+        <v>4.2</v>
+      </c>
+      <c r="P702">
+        <v>1.727</v>
+      </c>
+      <c r="Q702">
+        <v>0.75</v>
+      </c>
+      <c r="R702">
+        <v>1.95</v>
+      </c>
+      <c r="S702">
+        <v>1.9</v>
+      </c>
+      <c r="T702">
+        <v>3</v>
+      </c>
+      <c r="U702">
+        <v>2</v>
+      </c>
+      <c r="V702">
+        <v>1.85</v>
+      </c>
+      <c r="W702">
+        <v>-1</v>
+      </c>
+      <c r="X702">
+        <v>-1</v>
+      </c>
+      <c r="Y702">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z702">
+        <v>-0.5</v>
+      </c>
+      <c r="AA702">
+        <v>0.45</v>
+      </c>
+      <c r="AB702">
         <v>1</v>
       </c>
-      <c r="I702">
-        <v>0</v>
-      </c>
-      <c r="J702" t="s">
-        <v>58</v>
-      </c>
-      <c r="K702">
-        <v>2.625</v>
-      </c>
-      <c r="L702">
-        <v>3.5</v>
-      </c>
-      <c r="M702">
-        <v>2.55</v>
-      </c>
-      <c r="N702">
-        <v>2.55</v>
-      </c>
-      <c r="O702">
-        <v>3.5</v>
-      </c>
-      <c r="P702">
-        <v>2.7</v>
-      </c>
-      <c r="Q702">
-        <v>0</v>
-      </c>
-      <c r="R702">
-        <v>1.85</v>
-      </c>
-      <c r="S702">
-        <v>2</v>
-      </c>
-      <c r="T702">
-        <v>2.5</v>
-      </c>
-      <c r="U702">
-        <v>1.9</v>
-      </c>
-      <c r="V702">
-        <v>1.95</v>
-      </c>
-      <c r="W702">
-        <v>1.55</v>
-      </c>
-      <c r="X702">
-        <v>-1</v>
-      </c>
-      <c r="Y702">
-        <v>-1</v>
-      </c>
-      <c r="Z702">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA702">
-        <v>-1</v>
-      </c>
-      <c r="AB702">
-        <v>-1</v>
-      </c>
       <c r="AC702">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -64198,7 +64198,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5258394</v>
+        <v>5258392</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64210,10 +64210,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F716" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G716" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H716">
         <v>1</v>
@@ -64225,19 +64225,19 @@
         <v>59</v>
       </c>
       <c r="K716">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="L716">
+        <v>3.5</v>
+      </c>
+      <c r="M716">
+        <v>1.833</v>
+      </c>
+      <c r="N716">
+        <v>3.4</v>
+      </c>
+      <c r="O716">
         <v>3.3</v>
-      </c>
-      <c r="M716">
-        <v>2.2</v>
-      </c>
-      <c r="N716">
-        <v>3.3</v>
-      </c>
-      <c r="O716">
-        <v>3.4</v>
       </c>
       <c r="P716">
         <v>2</v>
@@ -64246,19 +64246,19 @@
         <v>0.5</v>
       </c>
       <c r="R716">
+        <v>1.8</v>
+      </c>
+      <c r="S716">
+        <v>2.05</v>
+      </c>
+      <c r="T716">
+        <v>2.5</v>
+      </c>
+      <c r="U716">
+        <v>2</v>
+      </c>
+      <c r="V716">
         <v>1.85</v>
-      </c>
-      <c r="S716">
-        <v>2</v>
-      </c>
-      <c r="T716">
-        <v>2.75</v>
-      </c>
-      <c r="U716">
-        <v>2.025</v>
-      </c>
-      <c r="V716">
-        <v>1.825</v>
       </c>
       <c r="W716">
         <v>-1</v>
@@ -64273,13 +64273,13 @@
         <v>-1</v>
       </c>
       <c r="AA716">
+        <v>1.05</v>
+      </c>
+      <c r="AB716">
         <v>1</v>
       </c>
-      <c r="AB716">
-        <v>0.5125</v>
-      </c>
       <c r="AC716">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64287,7 +64287,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>5258392</v>
+        <v>5258394</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64299,10 +64299,10 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F717" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G717" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -64314,19 +64314,19 @@
         <v>59</v>
       </c>
       <c r="K717">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="L717">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M717">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N717">
+        <v>3.3</v>
+      </c>
+      <c r="O717">
         <v>3.4</v>
-      </c>
-      <c r="O717">
-        <v>3.3</v>
       </c>
       <c r="P717">
         <v>2</v>
@@ -64335,19 +64335,19 @@
         <v>0.5</v>
       </c>
       <c r="R717">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S717">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T717">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U717">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V717">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W717">
         <v>-1</v>
@@ -64362,13 +64362,13 @@
         <v>-1</v>
       </c>
       <c r="AA717">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB717">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC717">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -66334,7 +66334,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5258398</v>
+        <v>5257876</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66346,76 +66346,76 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F740" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G740" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H740">
+        <v>0</v>
+      </c>
+      <c r="I740">
         <v>3</v>
       </c>
-      <c r="I740">
-        <v>0</v>
-      </c>
       <c r="J740" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K740">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L740">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M740">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N740">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O740">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P740">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q740">
+        <v>0.5</v>
+      </c>
+      <c r="R740">
+        <v>1.925</v>
+      </c>
+      <c r="S740">
+        <v>1.925</v>
+      </c>
+      <c r="T740">
+        <v>2.75</v>
+      </c>
+      <c r="U740">
+        <v>1.95</v>
+      </c>
+      <c r="V740">
+        <v>1.9</v>
+      </c>
+      <c r="W740">
+        <v>-1</v>
+      </c>
+      <c r="X740">
+        <v>-1</v>
+      </c>
+      <c r="Y740">
+        <v>0.8</v>
+      </c>
+      <c r="Z740">
+        <v>-1</v>
+      </c>
+      <c r="AA740">
+        <v>0.925</v>
+      </c>
+      <c r="AB740">
+        <v>0.475</v>
+      </c>
+      <c r="AC740">
         <v>-0.5</v>
-      </c>
-      <c r="R740">
-        <v>2.05</v>
-      </c>
-      <c r="S740">
-        <v>1.8</v>
-      </c>
-      <c r="T740">
-        <v>2.25</v>
-      </c>
-      <c r="U740">
-        <v>2.05</v>
-      </c>
-      <c r="V740">
-        <v>1.8</v>
-      </c>
-      <c r="W740">
-        <v>1.05</v>
-      </c>
-      <c r="X740">
-        <v>-1</v>
-      </c>
-      <c r="Y740">
-        <v>-1</v>
-      </c>
-      <c r="Z740">
-        <v>1.05</v>
-      </c>
-      <c r="AA740">
-        <v>-1</v>
-      </c>
-      <c r="AB740">
-        <v>1.05</v>
-      </c>
-      <c r="AC740">
-        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66423,7 +66423,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5257876</v>
+        <v>5258398</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66435,76 +66435,76 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F741" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G741" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H741">
+        <v>3</v>
+      </c>
+      <c r="I741">
         <v>0</v>
       </c>
-      <c r="I741">
-        <v>3</v>
-      </c>
       <c r="J741" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K741">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L741">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M741">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N741">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O741">
+        <v>3.2</v>
+      </c>
+      <c r="P741">
         <v>3.75</v>
       </c>
-      <c r="P741">
+      <c r="Q741">
+        <v>-0.5</v>
+      </c>
+      <c r="R741">
+        <v>2.05</v>
+      </c>
+      <c r="S741">
         <v>1.8</v>
       </c>
-      <c r="Q741">
-        <v>0.5</v>
-      </c>
-      <c r="R741">
-        <v>1.925</v>
-      </c>
-      <c r="S741">
-        <v>1.925</v>
-      </c>
       <c r="T741">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U741">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V741">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W741">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X741">
         <v>-1</v>
       </c>
       <c r="Y741">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z741">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA741">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB741">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC741">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -75768,7 +75768,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>5259991</v>
+        <v>5258453</v>
       </c>
       <c r="C846" t="s">
         <v>28</v>
@@ -75780,76 +75780,76 @@
         <v>44959.45833333334</v>
       </c>
       <c r="F846" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G846" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H846">
+        <v>1</v>
+      </c>
+      <c r="I846">
         <v>0</v>
       </c>
-      <c r="I846">
-        <v>1</v>
-      </c>
       <c r="J846" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K846">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="L846">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M846">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N846">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O846">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P846">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q846">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R846">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S846">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T846">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U846">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V846">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W846">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X846">
         <v>-1</v>
       </c>
       <c r="Y846">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z846">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA846">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB846">
         <v>-1</v>
       </c>
       <c r="AC846">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="847" spans="1:29">
@@ -75857,7 +75857,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>5258453</v>
+        <v>5259991</v>
       </c>
       <c r="C847" t="s">
         <v>28</v>
@@ -75869,76 +75869,76 @@
         <v>44959.45833333334</v>
       </c>
       <c r="F847" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G847" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H847">
+        <v>0</v>
+      </c>
+      <c r="I847">
         <v>1</v>
       </c>
-      <c r="I847">
-        <v>0</v>
-      </c>
       <c r="J847" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K847">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L847">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M847">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N847">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O847">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P847">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q847">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R847">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S847">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T847">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U847">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V847">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W847">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X847">
         <v>-1</v>
       </c>
       <c r="Y847">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z847">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA847">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB847">
         <v>-1</v>
       </c>
       <c r="AC847">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="848" spans="1:29">
@@ -80841,7 +80841,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>5259978</v>
+        <v>5258347</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80853,76 +80853,76 @@
         <v>45035.45833333334</v>
       </c>
       <c r="F903" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G903" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H903">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J903" t="s">
         <v>57</v>
       </c>
       <c r="K903">
+        <v>2.4</v>
+      </c>
+      <c r="L903">
+        <v>3.4</v>
+      </c>
+      <c r="M903">
+        <v>2.625</v>
+      </c>
+      <c r="N903">
+        <v>2.25</v>
+      </c>
+      <c r="O903">
+        <v>3.75</v>
+      </c>
+      <c r="P903">
+        <v>2.625</v>
+      </c>
+      <c r="Q903">
+        <v>-0.25</v>
+      </c>
+      <c r="R903">
+        <v>2.025</v>
+      </c>
+      <c r="S903">
+        <v>1.825</v>
+      </c>
+      <c r="T903">
+        <v>3</v>
+      </c>
+      <c r="U903">
+        <v>1.975</v>
+      </c>
+      <c r="V903">
+        <v>1.875</v>
+      </c>
+      <c r="W903">
+        <v>-1</v>
+      </c>
+      <c r="X903">
         <v>2.75</v>
       </c>
-      <c r="L903">
-        <v>3.3</v>
-      </c>
-      <c r="M903">
-        <v>2.375</v>
-      </c>
-      <c r="N903">
-        <v>3.2</v>
-      </c>
-      <c r="O903">
-        <v>3.25</v>
-      </c>
-      <c r="P903">
-        <v>2.15</v>
-      </c>
-      <c r="Q903">
-        <v>0.25</v>
-      </c>
-      <c r="R903">
-        <v>1.975</v>
-      </c>
-      <c r="S903">
-        <v>1.875</v>
-      </c>
-      <c r="T903">
-        <v>2.5</v>
-      </c>
-      <c r="U903">
-        <v>2.025</v>
-      </c>
-      <c r="V903">
-        <v>1.825</v>
-      </c>
-      <c r="W903">
-        <v>-1</v>
-      </c>
-      <c r="X903">
-        <v>2.25</v>
-      </c>
       <c r="Y903">
         <v>-1</v>
       </c>
       <c r="Z903">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA903">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB903">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC903">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="904" spans="1:29">
@@ -80930,7 +80930,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>5258347</v>
+        <v>5259978</v>
       </c>
       <c r="C904" t="s">
         <v>28</v>
@@ -80942,76 +80942,76 @@
         <v>45035.45833333334</v>
       </c>
       <c r="F904" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G904" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I904">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J904" t="s">
         <v>57</v>
       </c>
       <c r="K904">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L904">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M904">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N904">
+        <v>3.2</v>
+      </c>
+      <c r="O904">
+        <v>3.25</v>
+      </c>
+      <c r="P904">
+        <v>2.15</v>
+      </c>
+      <c r="Q904">
+        <v>0.25</v>
+      </c>
+      <c r="R904">
+        <v>1.975</v>
+      </c>
+      <c r="S904">
+        <v>1.875</v>
+      </c>
+      <c r="T904">
+        <v>2.5</v>
+      </c>
+      <c r="U904">
+        <v>2.025</v>
+      </c>
+      <c r="V904">
+        <v>1.825</v>
+      </c>
+      <c r="W904">
+        <v>-1</v>
+      </c>
+      <c r="X904">
         <v>2.25</v>
       </c>
-      <c r="O904">
-        <v>3.75</v>
-      </c>
-      <c r="P904">
-        <v>2.625</v>
-      </c>
-      <c r="Q904">
-        <v>-0.25</v>
-      </c>
-      <c r="R904">
-        <v>2.025</v>
-      </c>
-      <c r="S904">
-        <v>1.825</v>
-      </c>
-      <c r="T904">
-        <v>3</v>
-      </c>
-      <c r="U904">
-        <v>1.975</v>
-      </c>
-      <c r="V904">
-        <v>1.875</v>
-      </c>
-      <c r="W904">
-        <v>-1</v>
-      </c>
-      <c r="X904">
-        <v>2.75</v>
-      </c>
       <c r="Y904">
         <v>-1</v>
       </c>
       <c r="Z904">
+        <v>0.4875</v>
+      </c>
+      <c r="AA904">
         <v>-0.5</v>
       </c>
-      <c r="AA904">
-        <v>0.4125</v>
-      </c>
       <c r="AB904">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC904">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="905" spans="1:29">
@@ -90275,7 +90275,7 @@
         <v>1007</v>
       </c>
       <c r="B1009">
-        <v>6943898</v>
+        <v>6943901</v>
       </c>
       <c r="C1009" t="s">
         <v>28</v>
@@ -90287,76 +90287,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F1009" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G1009" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1009">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1009" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1009">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L1009">
         <v>3.3</v>
       </c>
       <c r="M1009">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N1009">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O1009">
         <v>3.4</v>
       </c>
       <c r="P1009">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q1009">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1009">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S1009">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T1009">
         <v>2.5</v>
       </c>
       <c r="U1009">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V1009">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W1009">
         <v>-1</v>
       </c>
       <c r="X1009">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1009">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z1009">
         <v>-1</v>
       </c>
       <c r="AA1009">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB1009">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1009">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010" spans="1:29">
@@ -90364,7 +90364,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>6943901</v>
+        <v>6943898</v>
       </c>
       <c r="C1010" t="s">
         <v>28</v>
@@ -90376,76 +90376,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F1010" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G1010" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1010">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1010" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1010">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L1010">
         <v>3.3</v>
       </c>
       <c r="M1010">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N1010">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O1010">
         <v>3.4</v>
       </c>
       <c r="P1010">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q1010">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1010">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S1010">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T1010">
         <v>2.5</v>
       </c>
       <c r="U1010">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V1010">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W1010">
         <v>-1</v>
       </c>
       <c r="X1010">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1010">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1010">
         <v>-1</v>
       </c>
       <c r="AA1010">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB1010">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1010">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1011" spans="1:29">
@@ -90898,7 +90898,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6943906</v>
+        <v>6943907</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90910,76 +90910,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1016" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G1016" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1016">
         <v>1</v>
       </c>
       <c r="J1016" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1016">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L1016">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1016">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N1016">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O1016">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P1016">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q1016">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1016">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S1016">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T1016">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1016">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1016">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1016">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1016">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1016">
         <v>-1</v>
       </c>
       <c r="Z1016">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1016">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB1016">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1016">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -90987,7 +90987,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6943907</v>
+        <v>6943906</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -90999,76 +90999,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F1017" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G1017" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1017">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1017">
         <v>1</v>
       </c>
       <c r="J1017" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1017">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L1017">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="M1017">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N1017">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O1017">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P1017">
+        <v>8.5</v>
+      </c>
+      <c r="Q1017">
+        <v>-1.5</v>
+      </c>
+      <c r="R1017">
+        <v>1.975</v>
+      </c>
+      <c r="S1017">
+        <v>1.875</v>
+      </c>
+      <c r="T1017">
         <v>3</v>
       </c>
-      <c r="Q1017">
-        <v>-0.25</v>
-      </c>
-      <c r="R1017">
+      <c r="U1017">
+        <v>1.8</v>
+      </c>
+      <c r="V1017">
         <v>2.05</v>
       </c>
-      <c r="S1017">
-        <v>1.75</v>
-      </c>
-      <c r="T1017">
-        <v>2.5</v>
-      </c>
-      <c r="U1017">
-        <v>1.9</v>
-      </c>
-      <c r="V1017">
-        <v>1.95</v>
-      </c>
       <c r="W1017">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1017">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1017">
         <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1017">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB1017">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1017">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -93924,7 +93924,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6943922</v>
+        <v>6943789</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93936,61 +93936,61 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F1050" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1050" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H1050">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1050">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1050" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1050">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L1050">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M1050">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N1050">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="O1050">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1050">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="Q1050">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1050">
+        <v>1.9</v>
+      </c>
+      <c r="S1050">
+        <v>1.95</v>
+      </c>
+      <c r="T1050">
+        <v>2.5</v>
+      </c>
+      <c r="U1050">
         <v>2.025</v>
       </c>
-      <c r="S1050">
+      <c r="V1050">
         <v>1.825</v>
       </c>
-      <c r="T1050">
-        <v>3.5</v>
-      </c>
-      <c r="U1050">
-        <v>2</v>
-      </c>
-      <c r="V1050">
-        <v>1.85</v>
-      </c>
       <c r="W1050">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1050">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1050">
         <v>-1</v>
@@ -93999,13 +93999,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA1050">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB1050">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94013,7 +94013,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6943789</v>
+        <v>6943922</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94025,61 +94025,61 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F1051" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G1051" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1051">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1051" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1051">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L1051">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M1051">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="N1051">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="O1051">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P1051">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="Q1051">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R1051">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1051">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T1051">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U1051">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V1051">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W1051">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X1051">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1051">
         <v>-1</v>
@@ -94088,13 +94088,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA1051">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB1051">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC1051">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -95882,7 +95882,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>6944053</v>
+        <v>6944055</v>
       </c>
       <c r="C1072" t="s">
         <v>28</v>
@@ -95894,13 +95894,13 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F1072" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1072" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1072">
         <v>0</v>
@@ -95909,43 +95909,43 @@
         <v>58</v>
       </c>
       <c r="K1072">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L1072">
+        <v>3.3</v>
+      </c>
+      <c r="M1072">
+        <v>2.75</v>
+      </c>
+      <c r="N1072">
+        <v>2.15</v>
+      </c>
+      <c r="O1072">
+        <v>3.3</v>
+      </c>
+      <c r="P1072">
         <v>3.4</v>
       </c>
-      <c r="M1072">
-        <v>3.1</v>
-      </c>
-      <c r="N1072">
-        <v>1.95</v>
-      </c>
-      <c r="O1072">
-        <v>3.5</v>
-      </c>
-      <c r="P1072">
-        <v>3.8</v>
-      </c>
       <c r="Q1072">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1072">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S1072">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T1072">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1072">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V1072">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W1072">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X1072">
         <v>-1</v>
@@ -95954,7 +95954,7 @@
         <v>-1</v>
       </c>
       <c r="Z1072">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA1072">
         <v>-1</v>
@@ -95963,7 +95963,7 @@
         <v>-1</v>
       </c>
       <c r="AC1072">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1073" spans="1:29">
@@ -95971,7 +95971,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>6944055</v>
+        <v>6944053</v>
       </c>
       <c r="C1073" t="s">
         <v>28</v>
@@ -95983,13 +95983,13 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F1073" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1073" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1073">
         <v>0</v>
@@ -95998,43 +95998,43 @@
         <v>58</v>
       </c>
       <c r="K1073">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L1073">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1073">
+        <v>3.1</v>
+      </c>
+      <c r="N1073">
+        <v>1.95</v>
+      </c>
+      <c r="O1073">
+        <v>3.5</v>
+      </c>
+      <c r="P1073">
+        <v>3.8</v>
+      </c>
+      <c r="Q1073">
+        <v>-0.5</v>
+      </c>
+      <c r="R1073">
+        <v>1.95</v>
+      </c>
+      <c r="S1073">
+        <v>1.9</v>
+      </c>
+      <c r="T1073">
         <v>2.75</v>
       </c>
-      <c r="N1073">
-        <v>2.15</v>
-      </c>
-      <c r="O1073">
-        <v>3.3</v>
-      </c>
-      <c r="P1073">
-        <v>3.4</v>
-      </c>
-      <c r="Q1073">
-        <v>-0.25</v>
-      </c>
-      <c r="R1073">
-        <v>1.8</v>
-      </c>
-      <c r="S1073">
-        <v>2.05</v>
-      </c>
-      <c r="T1073">
-        <v>2.5</v>
-      </c>
       <c r="U1073">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V1073">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W1073">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X1073">
         <v>-1</v>
@@ -96043,7 +96043,7 @@
         <v>-1</v>
       </c>
       <c r="Z1073">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA1073">
         <v>-1</v>
@@ -96052,7 +96052,7 @@
         <v>-1</v>
       </c>
       <c r="AC1073">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1074" spans="1:29">
@@ -97662,7 +97662,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>6943944</v>
+        <v>7471385</v>
       </c>
       <c r="C1092" t="s">
         <v>28</v>
@@ -97674,73 +97674,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F1092" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G1092" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H1092">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1092">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1092" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1092">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L1092">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1092">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N1092">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1092">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1092">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q1092">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1092">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1092">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1092">
         <v>2.5</v>
       </c>
       <c r="U1092">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V1092">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W1092">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1092">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1092">
         <v>-1</v>
       </c>
       <c r="Z1092">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA1092">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1092">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1092">
         <v>-1</v>
@@ -97751,7 +97751,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>7471385</v>
+        <v>6943944</v>
       </c>
       <c r="C1093" t="s">
         <v>28</v>
@@ -97763,73 +97763,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F1093" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G1093" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1093">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1093">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1093" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1093">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L1093">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1093">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N1093">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1093">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1093">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q1093">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1093">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S1093">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T1093">
         <v>2.5</v>
       </c>
       <c r="U1093">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V1093">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W1093">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X1093">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1093">
         <v>-1</v>
       </c>
       <c r="Z1093">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1093">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1093">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC1093">
         <v>-1</v>
@@ -97840,7 +97840,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C1094" t="s">
         <v>28</v>
@@ -97852,73 +97852,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F1094" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1094" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1094">
         <v>3</v>
       </c>
       <c r="I1094">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1094" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1094">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L1094">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M1094">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N1094">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O1094">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1094">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q1094">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1094">
+        <v>1.95</v>
+      </c>
+      <c r="S1094">
         <v>1.9</v>
-      </c>
-      <c r="S1094">
-        <v>1.95</v>
       </c>
       <c r="T1094">
         <v>2.5</v>
       </c>
       <c r="U1094">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V1094">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W1094">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1094">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1094">
         <v>-1</v>
       </c>
       <c r="Z1094">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA1094">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1094">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC1094">
         <v>-1</v>
@@ -97929,7 +97929,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C1095" t="s">
         <v>28</v>
@@ -97941,73 +97941,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F1095" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1095" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1095">
         <v>3</v>
       </c>
       <c r="I1095">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1095" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1095">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L1095">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M1095">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N1095">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O1095">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1095">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q1095">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1095">
+        <v>1.9</v>
+      </c>
+      <c r="S1095">
         <v>1.95</v>
-      </c>
-      <c r="S1095">
-        <v>1.9</v>
       </c>
       <c r="T1095">
         <v>2.5</v>
       </c>
       <c r="U1095">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V1095">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W1095">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X1095">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1095">
         <v>-1</v>
       </c>
       <c r="Z1095">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1095">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1095">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1095">
         <v>-1</v>
@@ -98196,7 +98196,7 @@
         <v>1096</v>
       </c>
       <c r="B1098">
-        <v>6943798</v>
+        <v>6943797</v>
       </c>
       <c r="C1098" t="s">
         <v>28</v>
@@ -98208,55 +98208,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F1098" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1098" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1098" t="s">
         <v>59</v>
       </c>
       <c r="K1098">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="L1098">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M1098">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="N1098">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O1098">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P1098">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q1098">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R1098">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S1098">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T1098">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U1098">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1098">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1098">
         <v>-1</v>
@@ -98265,19 +98265,19 @@
         <v>-1</v>
       </c>
       <c r="Y1098">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Z1098">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1098">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB1098">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1098">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1099" spans="1:29">
@@ -98285,7 +98285,7 @@
         <v>1097</v>
       </c>
       <c r="B1099">
-        <v>6943797</v>
+        <v>6943798</v>
       </c>
       <c r="C1099" t="s">
         <v>28</v>
@@ -98297,55 +98297,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F1099" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1099" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1099" t="s">
         <v>59</v>
       </c>
       <c r="K1099">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="L1099">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1099">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="N1099">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O1099">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P1099">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q1099">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1099">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1099">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1099">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1099">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1099">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1099">
         <v>-1</v>
@@ -98354,19 +98354,19 @@
         <v>-1</v>
       </c>
       <c r="Y1099">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="Z1099">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1099">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB1099">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1099">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100" spans="1:29">
@@ -99442,7 +99442,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>7559194</v>
+        <v>7559193</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99454,34 +99454,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F1112" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G1112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1112">
         <v>1</v>
       </c>
       <c r="J1112" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1112">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L1112">
         <v>3.5</v>
       </c>
       <c r="M1112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N1112">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O1112">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1112">
         <v>3.5</v>
@@ -99490,40 +99490,40 @@
         <v>-0.5</v>
       </c>
       <c r="R1112">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1112">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V1112">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W1112">
         <v>-1</v>
       </c>
       <c r="X1112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1112">
         <v>-1</v>
       </c>
       <c r="AA1112">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB1112">
         <v>-1</v>
       </c>
       <c r="AC1112">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1113" spans="1:29">
@@ -99531,7 +99531,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>7559193</v>
+        <v>7559194</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99543,34 +99543,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F1113" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G1113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1113">
         <v>1</v>
       </c>
       <c r="J1113" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1113">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L1113">
         <v>3.5</v>
       </c>
       <c r="M1113">
+        <v>3.2</v>
+      </c>
+      <c r="N1113">
+        <v>2.05</v>
+      </c>
+      <c r="O1113">
         <v>3.5</v>
-      </c>
-      <c r="N1113">
-        <v>2</v>
-      </c>
-      <c r="O1113">
-        <v>3.6</v>
       </c>
       <c r="P1113">
         <v>3.5</v>
@@ -99579,40 +99579,40 @@
         <v>-0.5</v>
       </c>
       <c r="R1113">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S1113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T1113">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V1113">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W1113">
         <v>-1</v>
       </c>
       <c r="X1113">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z1113">
         <v>-1</v>
       </c>
       <c r="AA1113">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB1113">
         <v>-1</v>
       </c>
       <c r="AC1113">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -105049,7 +105049,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>6943988</v>
+        <v>6943814</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -105061,76 +105061,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F1175" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G1175" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1175">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L1175">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M1175">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N1175">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O1175">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P1175">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q1175">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S1175">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T1175">
         <v>3</v>
       </c>
       <c r="U1175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W1175">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1175">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y1175">
         <v>-1</v>
       </c>
       <c r="Z1175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1175">
+        <v>-1</v>
+      </c>
+      <c r="AB1175">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB1175">
-        <v>-1</v>
-      </c>
       <c r="AC1175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1176" spans="1:29">
@@ -105138,7 +105138,7 @@
         <v>1174</v>
       </c>
       <c r="B1176">
-        <v>6943814</v>
+        <v>6943988</v>
       </c>
       <c r="C1176" t="s">
         <v>28</v>
@@ -105150,76 +105150,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F1176" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G1176" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H1176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1176" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1176">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L1176">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M1176">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N1176">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O1176">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P1176">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q1176">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S1176">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T1176">
         <v>3</v>
       </c>
       <c r="U1176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W1176">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1176">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y1176">
         <v>-1</v>
       </c>
       <c r="Z1176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1177" spans="1:29">
@@ -105227,7 +105227,7 @@
         <v>1175</v>
       </c>
       <c r="B1177">
-        <v>6943989</v>
+        <v>6943992</v>
       </c>
       <c r="C1177" t="s">
         <v>28</v>
@@ -105239,76 +105239,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F1177" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1177" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1177">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L1177">
         <v>3.2</v>
       </c>
       <c r="M1177">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N1177">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O1177">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P1177">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q1177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1177">
         <v>2.25</v>
       </c>
       <c r="U1177">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V1177">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W1177">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1177">
         <v>-1</v>
       </c>
       <c r="Z1177">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA1177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1177">
         <v>-0.5</v>
       </c>
       <c r="AC1177">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1178" spans="1:29">
@@ -105316,7 +105316,7 @@
         <v>1176</v>
       </c>
       <c r="B1178">
-        <v>6943992</v>
+        <v>6943989</v>
       </c>
       <c r="C1178" t="s">
         <v>28</v>
@@ -105328,76 +105328,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F1178" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1178" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1178">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L1178">
         <v>3.2</v>
       </c>
       <c r="M1178">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N1178">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O1178">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P1178">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q1178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S1178">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T1178">
         <v>2.25</v>
       </c>
       <c r="U1178">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V1178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W1178">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1178">
         <v>-1</v>
       </c>
       <c r="Z1178">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA1178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1178">
         <v>-0.5</v>
       </c>
       <c r="AC1178">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="1179" spans="1:29">
@@ -105405,7 +105405,7 @@
         <v>1177</v>
       </c>
       <c r="B1179">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C1179" t="s">
         <v>28</v>
@@ -105417,76 +105417,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F1179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1179" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179">
         <v>1</v>
       </c>
       <c r="J1179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1179">
+        <v>6</v>
+      </c>
+      <c r="L1179">
+        <v>4</v>
+      </c>
+      <c r="M1179">
+        <v>1.5</v>
+      </c>
+      <c r="N1179">
+        <v>6</v>
+      </c>
+      <c r="O1179">
+        <v>4.5</v>
+      </c>
+      <c r="P1179">
+        <v>1.5</v>
+      </c>
+      <c r="Q1179">
+        <v>1</v>
+      </c>
+      <c r="R1179">
+        <v>2</v>
+      </c>
+      <c r="S1179">
+        <v>1.85</v>
+      </c>
+      <c r="T1179">
+        <v>2.75</v>
+      </c>
+      <c r="U1179">
+        <v>1.9</v>
+      </c>
+      <c r="V1179">
         <v>1.95</v>
       </c>
-      <c r="L1179">
-        <v>3.4</v>
-      </c>
-      <c r="M1179">
-        <v>3.8</v>
-      </c>
-      <c r="N1179">
-        <v>1.615</v>
-      </c>
-      <c r="O1179">
-        <v>3.8</v>
-      </c>
-      <c r="P1179">
-        <v>6</v>
-      </c>
-      <c r="Q1179">
-        <v>-0.75</v>
-      </c>
-      <c r="R1179">
-        <v>1.8</v>
-      </c>
-      <c r="S1179">
-        <v>2.05</v>
-      </c>
-      <c r="T1179">
-        <v>2.5</v>
-      </c>
-      <c r="U1179">
-        <v>1.875</v>
-      </c>
-      <c r="V1179">
-        <v>1.975</v>
-      </c>
       <c r="W1179">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X1179">
         <v>-1</v>
       </c>
       <c r="Y1179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z1179">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA1179">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB1179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1180" spans="1:29">
@@ -105494,7 +105494,7 @@
         <v>1178</v>
       </c>
       <c r="B1180">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C1180" t="s">
         <v>28</v>
@@ -105506,76 +105506,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F1180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1180" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180">
         <v>1</v>
       </c>
       <c r="J1180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1180">
+        <v>1.95</v>
+      </c>
+      <c r="L1180">
+        <v>3.4</v>
+      </c>
+      <c r="M1180">
+        <v>3.8</v>
+      </c>
+      <c r="N1180">
+        <v>1.615</v>
+      </c>
+      <c r="O1180">
+        <v>3.8</v>
+      </c>
+      <c r="P1180">
         <v>6</v>
       </c>
-      <c r="L1180">
-        <v>4</v>
-      </c>
-      <c r="M1180">
-        <v>1.5</v>
-      </c>
-      <c r="N1180">
-        <v>6</v>
-      </c>
-      <c r="O1180">
-        <v>4.5</v>
-      </c>
-      <c r="P1180">
-        <v>1.5</v>
-      </c>
       <c r="Q1180">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1180">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S1180">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T1180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V1180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W1180">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X1180">
         <v>-1</v>
       </c>
       <c r="Y1180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1180">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA1180">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1181" spans="1:29">
@@ -105672,7 +105672,7 @@
         <v>1180</v>
       </c>
       <c r="B1182">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C1182" t="s">
         <v>28</v>
@@ -105684,58 +105684,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F1182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1182" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H1182">
+        <v>3</v>
+      </c>
+      <c r="I1182">
         <v>1</v>
-      </c>
-      <c r="I1182">
-        <v>0</v>
       </c>
       <c r="J1182" t="s">
         <v>58</v>
       </c>
       <c r="K1182">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L1182">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M1182">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N1182">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O1182">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P1182">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q1182">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R1182">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S1182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T1182">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U1182">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V1182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W1182">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X1182">
         <v>-1</v>
@@ -105744,16 +105744,16 @@
         <v>-1</v>
       </c>
       <c r="Z1182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA1182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1182">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC1182">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1183" spans="1:29">
@@ -105761,7 +105761,7 @@
         <v>1181</v>
       </c>
       <c r="B1183">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C1183" t="s">
         <v>28</v>
@@ -105773,58 +105773,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F1183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1183" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H1183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1183" t="s">
         <v>58</v>
       </c>
       <c r="K1183">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L1183">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M1183">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N1183">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O1183">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P1183">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q1183">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1183">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S1183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T1183">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1183">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V1183">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W1183">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X1183">
         <v>-1</v>
@@ -105833,16 +105833,16 @@
         <v>-1</v>
       </c>
       <c r="Z1183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1183">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC1183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1184" spans="1:29">
@@ -106384,7 +106384,7 @@
         <v>1188</v>
       </c>
       <c r="B1190">
-        <v>6944002</v>
+        <v>6943999</v>
       </c>
       <c r="C1190" t="s">
         <v>28</v>
@@ -106396,31 +106396,31 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F1190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1190" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K1190">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L1190">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M1190">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N1190">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O1190">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P1190">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q1190">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1190">
         <v>2.05</v>
@@ -106432,10 +106432,10 @@
         <v>2.25</v>
       </c>
       <c r="U1190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V1190">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W1190">
         <v>0</v>
@@ -106458,7 +106458,7 @@
         <v>1189</v>
       </c>
       <c r="B1191">
-        <v>6943999</v>
+        <v>6944002</v>
       </c>
       <c r="C1191" t="s">
         <v>28</v>
@@ -106470,46 +106470,46 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F1191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1191" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K1191">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L1191">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M1191">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N1191">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O1191">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1191">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q1191">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1191">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S1191">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T1191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V1191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W1191">
         <v>0</v>
@@ -106571,19 +106571,19 @@
         <v>1</v>
       </c>
       <c r="R1192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T1192">
         <v>2.75</v>
       </c>
       <c r="U1192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V1192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W1192">
         <v>0</v>
@@ -106633,13 +106633,13 @@
         <v>4</v>
       </c>
       <c r="N1193">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O1193">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P1193">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q1193">
         <v>-0.5</v>
@@ -106654,10 +106654,10 @@
         <v>2.5</v>
       </c>
       <c r="U1193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V1193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W1193">
         <v>0</v>
@@ -106719,10 +106719,10 @@
         <v>-1</v>
       </c>
       <c r="R1194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S1194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T1194">
         <v>2.75</v>
@@ -106802,10 +106802,10 @@
         <v>2.5</v>
       </c>
       <c r="U1195">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V1195">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -106867,10 +106867,10 @@
         <v>1</v>
       </c>
       <c r="R1196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S1196">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T1196">
         <v>2.75</v>
@@ -106950,10 +106950,10 @@
         <v>2.75</v>
       </c>
       <c r="U1197">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V1197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W1197">
         <v>0</v>
@@ -107012,13 +107012,13 @@
         <v>2.75</v>
       </c>
       <c r="Q1198">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1198">
+        <v>2.1</v>
+      </c>
+      <c r="S1198">
         <v>1.775</v>
-      </c>
-      <c r="S1198">
-        <v>2.1</v>
       </c>
       <c r="T1198">
         <v>2.75</v>
@@ -107089,19 +107089,19 @@
         <v>-0.5</v>
       </c>
       <c r="R1199">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S1199">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T1199">
         <v>2.5</v>
       </c>
       <c r="U1199">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V1199">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W1199">
         <v>0</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -115,19 +115,19 @@
     <t>Kasimpasa</t>
   </si>
   <si>
-    <t>Konyaspor</t>
+    <t>Galatasaray</t>
   </si>
   <si>
-    <t>Galatasaray</t>
+    <t>Konyaspor</t>
   </si>
   <si>
     <t>Gazisehir Gaziantep FK</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
+    <t>Adana Demirspor</t>
   </si>
   <si>
-    <t>Adana Demirspor</t>
+    <t>Trabzonspor</t>
   </si>
   <si>
     <t>Hatayspor</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC430"/>
+  <dimension ref="A1:AC428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6079161</v>
+        <v>5258430</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
+        <v>1.9</v>
+      </c>
+      <c r="S6">
+        <v>1.95</v>
+      </c>
+      <c r="T6">
+        <v>3.25</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>1.85</v>
+      </c>
+      <c r="W6">
+        <v>0.444</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="R6">
-        <v>1.975</v>
-      </c>
-      <c r="S6">
-        <v>1.875</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.8</v>
-      </c>
-      <c r="V6">
-        <v>2.05</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.4</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5258430</v>
+        <v>6079161</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W7">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6079162</v>
+        <v>5260000</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,10 +1272,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1293,34 +1293,34 @@
         <v>5.5</v>
       </c>
       <c r="N9">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
-        <v>0.55</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1329,16 +1329,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5260000</v>
+        <v>6079162</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,10 +1361,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1382,34 +1382,34 @@
         <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1418,16 +1418,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2073,7 +2073,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2337,7 +2337,7 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2515,7 +2515,7 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2693,7 +2693,7 @@
         <v>44940.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -3049,7 +3049,7 @@
         <v>44946.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3227,7 +3227,7 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3583,7 +3583,7 @@
         <v>44948.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3672,7 +3672,7 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3942,7 +3942,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5258447</v>
+        <v>5259994</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,73 +4206,73 @@
         <v>44954.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
+        <v>1.9</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.9</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5259994</v>
+        <v>5258447</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,73 +4295,73 @@
         <v>44954.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>5.25</v>
+      </c>
+      <c r="L43">
+        <v>3.8</v>
+      </c>
+      <c r="M43">
+        <v>1.6</v>
+      </c>
+      <c r="N43">
+        <v>7</v>
+      </c>
+      <c r="O43">
+        <v>4.5</v>
+      </c>
+      <c r="P43">
+        <v>1.4</v>
+      </c>
+      <c r="Q43">
+        <v>1.25</v>
+      </c>
+      <c r="R43">
+        <v>1.875</v>
+      </c>
+      <c r="S43">
+        <v>1.975</v>
+      </c>
+      <c r="T43">
         <v>3</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>3.5</v>
-      </c>
-      <c r="M43">
-        <v>3.6</v>
-      </c>
-      <c r="N43">
-        <v>1.85</v>
-      </c>
-      <c r="O43">
-        <v>3.5</v>
-      </c>
-      <c r="P43">
-        <v>4.2</v>
-      </c>
-      <c r="Q43">
-        <v>-0.5</v>
-      </c>
-      <c r="R43">
-        <v>1.825</v>
-      </c>
-      <c r="S43">
-        <v>2.025</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
       <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.9</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4476,7 +4476,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5258311</v>
+        <v>5258454</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,13 +4829,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4844,43 +4844,43 @@
         <v>53</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
         <v>3.25</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4889,13 +4889,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5258454</v>
+        <v>5258311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,13 +4918,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4933,43 +4933,43 @@
         <v>53</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
         <v>3.25</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4978,13 +4978,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5007,7 +5007,7 @@
         <v>44958.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5096,7 +5096,7 @@
         <v>44958.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5259991</v>
+        <v>5258453</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,76 +5185,76 @@
         <v>44959.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N53">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P53">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5258453</v>
+        <v>5259991</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>44959.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N54">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>44959.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -5897,10 +5897,10 @@
         <v>44962.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6078,7 +6078,7 @@
         <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6167,7 +6167,7 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6520,7 +6520,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6698,7 +6698,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>42</v>
@@ -7143,7 +7143,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7321,10 +7321,10 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
         <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7588,10 +7588,10 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>33</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
@@ -8211,7 +8211,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -8389,10 +8389,10 @@
         <v>45017.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8834,7 +8834,7 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -9015,7 +9015,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9546,7 +9546,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9724,7 +9724,7 @@
         <v>45031.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9991,7 +9991,7 @@
         <v>45032.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -10083,7 +10083,7 @@
         <v>45</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10525,10 +10525,10 @@
         <v>45035.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10706,7 +10706,7 @@
         <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10884,7 +10884,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10970,7 +10970,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
         <v>31</v>
@@ -11059,7 +11059,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11593,10 +11593,10 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11863,7 +11863,7 @@
         <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12127,7 +12127,7 @@
         <v>45052.625</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>45</v>
@@ -12305,7 +12305,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12483,7 +12483,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12572,7 +12572,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5466052</v>
+        <v>5510228</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,7 +12750,7 @@
         <v>45062.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
         <v>34</v>
@@ -12759,40 +12759,40 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>52</v>
       </c>
       <c r="K138">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L138">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N138">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="O138">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
         <v>1.825</v>
@@ -12807,19 +12807,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.25</v>
+        <v>1.875</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC138">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5510228</v>
+        <v>5466052</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,7 +12839,7 @@
         <v>45062.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>52</v>
       </c>
       <c r="K139">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M139">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N139">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U139">
         <v>1.825</v>
@@ -12896,19 +12896,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.875</v>
+        <v>0.25</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13020,7 +13020,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13198,7 +13198,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13373,7 +13373,7 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>47</v>
@@ -13729,7 +13729,7 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13818,7 +13818,7 @@
         <v>45068.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5540566</v>
+        <v>5549121</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K151">
+        <v>2.2</v>
+      </c>
+      <c r="L151">
         <v>3.4</v>
       </c>
-      <c r="L151">
-        <v>4</v>
-      </c>
       <c r="M151">
+        <v>3.1</v>
+      </c>
+      <c r="N151">
         <v>1.909</v>
       </c>
-      <c r="N151">
-        <v>2.25</v>
-      </c>
       <c r="O151">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5544377</v>
+        <v>5544378</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>53</v>
+      </c>
+      <c r="K152">
+        <v>2.1</v>
+      </c>
+      <c r="L152">
+        <v>3.9</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>2.25</v>
-      </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>2.8</v>
-      </c>
       <c r="N152">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14088,7 +14088,7 @@
         <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5534729</v>
+        <v>5544377</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,76 +14174,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N154">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O154">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.9</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
         <v>1.975</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.875</v>
       </c>
-      <c r="T154">
-        <v>3.25</v>
-      </c>
-      <c r="U154">
-        <v>1.875</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
       <c r="W154">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB154">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
       <c r="AC154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5549121</v>
+        <v>5540566</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,76 +14263,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>52</v>
+      </c>
+      <c r="K155">
+        <v>3.4</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>1.909</v>
+      </c>
+      <c r="N155">
+        <v>2.25</v>
+      </c>
+      <c r="O155">
+        <v>4.333</v>
+      </c>
+      <c r="P155">
+        <v>2.25</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>1.9</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>3.5</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>1.25</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>0.95</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>1</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155" t="s">
-        <v>53</v>
-      </c>
-      <c r="K155">
-        <v>2.2</v>
-      </c>
-      <c r="L155">
-        <v>3.4</v>
-      </c>
-      <c r="M155">
-        <v>3.1</v>
-      </c>
-      <c r="N155">
-        <v>1.909</v>
-      </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
-      <c r="P155">
-        <v>3.8</v>
-      </c>
-      <c r="Q155">
-        <v>-0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.875</v>
-      </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.975</v>
-      </c>
-      <c r="V155">
-        <v>1.875</v>
-      </c>
-      <c r="W155">
-        <v>0.909</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.875</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5544378</v>
+        <v>5544376</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156" t="s">
+        <v>52</v>
+      </c>
+      <c r="K156">
+        <v>2.7</v>
+      </c>
+      <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>2.4</v>
+      </c>
+      <c r="N156">
+        <v>2.45</v>
+      </c>
+      <c r="O156">
+        <v>4</v>
+      </c>
+      <c r="P156">
+        <v>2.55</v>
+      </c>
+      <c r="Q156">
         <v>0</v>
       </c>
-      <c r="J156" t="s">
-        <v>53</v>
-      </c>
-      <c r="K156">
-        <v>2.1</v>
-      </c>
-      <c r="L156">
-        <v>3.9</v>
-      </c>
-      <c r="M156">
+      <c r="R156">
+        <v>1.875</v>
+      </c>
+      <c r="S156">
+        <v>1.975</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="N156">
-        <v>2.2</v>
-      </c>
-      <c r="O156">
-        <v>4.2</v>
-      </c>
-      <c r="P156">
-        <v>2.7</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>2.025</v>
-      </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>3.25</v>
-      </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z156">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5544376</v>
+        <v>5534729</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,49 +14441,49 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K157">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M157">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N157">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
         <v>1.875</v>
       </c>
-      <c r="S157">
-        <v>1.975</v>
-      </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
         <v>1.875</v>
@@ -14492,25 +14492,25 @@
         <v>1.975</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB157">
-        <v>0.875</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14530,7 +14530,7 @@
         <v>45080.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>40</v>
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5603423</v>
+        <v>5569871</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,76 +14619,76 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K159">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N159">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O159">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5569871</v>
+        <v>5575890</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,10 +14708,10 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14723,25 +14723,25 @@
         <v>52</v>
       </c>
       <c r="K160">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N160">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
         <v>2.025</v>
@@ -14750,13 +14750,13 @@
         <v>1.825</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14765,7 +14765,7 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="Z160">
         <v>-1</v>
@@ -14777,7 +14777,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5575890</v>
+        <v>5579165</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,56 +14797,56 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J161" t="s">
         <v>52</v>
       </c>
       <c r="K161">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M161">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="N161">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R161">
+        <v>1.9</v>
+      </c>
+      <c r="S161">
+        <v>1.95</v>
+      </c>
+      <c r="T161">
+        <v>3.25</v>
+      </c>
+      <c r="U161">
         <v>2.025</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.825</v>
       </c>
-      <c r="T161">
-        <v>3</v>
-      </c>
-      <c r="U161">
-        <v>1.9</v>
-      </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5579165</v>
+        <v>5579166</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,56 +14886,56 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
         <v>52</v>
       </c>
       <c r="K162">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="L162">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="Q162">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>3.75</v>
+      </c>
+      <c r="U162">
+        <v>1.95</v>
+      </c>
+      <c r="V162">
         <v>1.9</v>
       </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
-      <c r="T162">
-        <v>3.25</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.825</v>
-      </c>
       <c r="W162">
         <v>-1</v>
       </c>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
+        <v>1</v>
+      </c>
+      <c r="AB162">
         <v>0.95</v>
-      </c>
-      <c r="AB162">
-        <v>1.025</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5579166</v>
+        <v>5603423</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,43 +14978,43 @@
         <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K163">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N163">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P163">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
         <v>3.75</v>
@@ -15026,19 +15026,19 @@
         <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0.95</v>
@@ -15064,7 +15064,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15334,7 +15334,7 @@
         <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15423,7 +15423,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5608342</v>
+        <v>5611970</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,73 +15509,73 @@
         <v>45084.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L169">
+        <v>4.2</v>
+      </c>
+      <c r="M169">
         <v>4.5</v>
       </c>
-      <c r="M169">
-        <v>6.5</v>
-      </c>
       <c r="N169">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O169">
+        <v>5.25</v>
+      </c>
+      <c r="P169">
         <v>6</v>
-      </c>
-      <c r="P169">
-        <v>7</v>
       </c>
       <c r="Q169">
         <v>-1.5</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X169">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5611970</v>
+        <v>5608342</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,73 +15598,73 @@
         <v>45084.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L170">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M170">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N170">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q170">
         <v>-1.5</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB170">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15776,7 +15776,7 @@
         <v>45149.625</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943599</v>
+        <v>6944036</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6944036</v>
+        <v>6943599</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16135,7 +16135,7 @@
         <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>45151.65625</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>49</v>
@@ -16758,7 +16758,7 @@
         <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17022,10 +17022,10 @@
         <v>45157.65625</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17381,7 +17381,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>45163.625</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
         <v>35</v>
@@ -17734,7 +17734,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
         <v>49</v>
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6943778</v>
+        <v>6943888</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,49 +17912,49 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>2.875</v>
+      </c>
+      <c r="N196">
+        <v>2.25</v>
+      </c>
+      <c r="O196">
         <v>3.4</v>
       </c>
-      <c r="M196">
-        <v>2.8</v>
-      </c>
-      <c r="N196">
-        <v>2.5</v>
-      </c>
-      <c r="O196">
-        <v>3.3</v>
-      </c>
       <c r="P196">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.925</v>
@@ -17963,25 +17963,25 @@
         <v>1.925</v>
       </c>
       <c r="W196">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
         <v>0.925</v>
-      </c>
-      <c r="AC196">
-        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6943888</v>
+        <v>6943778</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,49 +18001,49 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K197">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
         <v>1.925</v>
@@ -18052,25 +18052,25 @@
         <v>1.925</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18182,7 +18182,7 @@
         <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6943780</v>
+        <v>6943893</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,76 +18357,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K201">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
         <v>3.4</v>
       </c>
       <c r="P201">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6943893</v>
+        <v>6943780</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18446,76 +18446,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K202">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N202">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O202">
         <v>3.4</v>
       </c>
       <c r="P202">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
         <v>1.925</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>1.925</v>
       </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA202">
+        <v>-0</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.925</v>
-      </c>
-      <c r="AB202">
-        <v>-1</v>
-      </c>
-      <c r="AC202">
-        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18627,7 +18627,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18805,7 +18805,7 @@
         <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18980,7 +18980,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
         <v>49</v>
@@ -19158,7 +19158,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>50</v>
@@ -19247,7 +19247,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
         <v>48</v>
@@ -19603,7 +19603,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
         <v>39</v>
@@ -20140,7 +20140,7 @@
         <v>44</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20407,7 +20407,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20585,7 +20585,7 @@
         <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20674,7 +20674,7 @@
         <v>38</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20763,7 +20763,7 @@
         <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20849,7 +20849,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
         <v>39</v>
@@ -21294,7 +21294,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
         <v>48</v>
@@ -21383,7 +21383,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
         <v>41</v>
@@ -21650,7 +21650,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
         <v>45</v>
@@ -21739,7 +21739,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>39</v>
@@ -21917,10 +21917,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F241" t="s">
+        <v>36</v>
+      </c>
+      <c r="G241" t="s">
         <v>37</v>
-      </c>
-      <c r="G241" t="s">
-        <v>36</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         <v>30</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22721,7 +22721,7 @@
         <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6943920</v>
+        <v>6943790</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H252">
         <v>1</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.65</v>
+        <v>1.666</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N252">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O252">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P252">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T252">
         <v>2.5</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6943790</v>
+        <v>6943920</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G253" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H253">
         <v>1</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K253">
-        <v>1.666</v>
+        <v>2.65</v>
       </c>
       <c r="L253">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N253">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O253">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T253">
         <v>2.5</v>
       </c>
       <c r="U253">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA253">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23074,7 +23074,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G254" t="s">
         <v>39</v>
@@ -23507,7 +23507,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6943921</v>
+        <v>6944051</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23519,13 +23519,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G259" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23534,43 +23534,43 @@
         <v>53</v>
       </c>
       <c r="K259">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L259">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M259">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N259">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O259">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P259">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q259">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
         <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V259">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23579,16 +23579,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23596,7 +23596,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6944051</v>
+        <v>6943921</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23608,13 +23608,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F260" t="s">
+        <v>40</v>
+      </c>
+      <c r="G260" t="s">
         <v>36</v>
       </c>
-      <c r="G260" t="s">
-        <v>45</v>
-      </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -23623,43 +23623,43 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M260">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N260">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O260">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P260">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q260">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T260">
         <v>2.75</v>
       </c>
       <c r="U260">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W260">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="X260">
         <v>-1</v>
@@ -23668,16 +23668,16 @@
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6943928</v>
+        <v>6944052</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F264" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G264" t="s">
         <v>33</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K264">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L264">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M264">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N264">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="O264">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P264">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
         <v>1.975</v>
       </c>
-      <c r="S264">
-        <v>1.875</v>
-      </c>
       <c r="T264">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U264">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z264">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6944052</v>
+        <v>6943928</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,76 +24053,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
         <v>34</v>
       </c>
       <c r="H265">
+        <v>3</v>
+      </c>
+      <c r="I265">
         <v>0</v>
       </c>
-      <c r="I265">
-        <v>1</v>
-      </c>
       <c r="J265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K265">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="L265">
+        <v>3.75</v>
+      </c>
+      <c r="M265">
         <v>4.2</v>
       </c>
-      <c r="M265">
-        <v>1.55</v>
-      </c>
       <c r="N265">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="O265">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P265">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q265">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R265">
+        <v>1.975</v>
+      </c>
+      <c r="S265">
         <v>1.875</v>
       </c>
-      <c r="S265">
-        <v>1.975</v>
-      </c>
       <c r="T265">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24145,7 +24145,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G271" t="s">
         <v>32</v>
@@ -24857,7 +24857,7 @@
         <v>43</v>
       </c>
       <c r="G274" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -24946,7 +24946,7 @@
         <v>47</v>
       </c>
       <c r="G275" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25121,7 +25121,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G277" t="s">
         <v>40</v>
@@ -25477,10 +25477,10 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -25925,7 +25925,7 @@
         <v>38</v>
       </c>
       <c r="G286" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26278,7 +26278,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G290" t="s">
         <v>43</v>
@@ -26545,7 +26545,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G293" t="s">
         <v>32</v>
@@ -26634,7 +26634,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G294" t="s">
         <v>45</v>
@@ -26726,7 +26726,7 @@
         <v>31</v>
       </c>
       <c r="G295" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -27067,7 +27067,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6943944</v>
+        <v>7471385</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27079,73 +27079,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K299">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L299">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M299">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N299">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O299">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P299">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q299">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S299">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T299">
         <v>2.5</v>
       </c>
       <c r="U299">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X299">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA299">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7471385</v>
+        <v>6943944</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27168,73 +27168,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H300">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J300" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K300">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L300">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M300">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N300">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O300">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P300">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R300">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S300">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T300">
         <v>2.5</v>
       </c>
       <c r="U300">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V300">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB300">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27245,7 +27245,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27257,73 +27257,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H301">
         <v>3</v>
       </c>
       <c r="I301">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K301">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L301">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M301">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N301">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O301">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q301">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
+        <v>1.9</v>
+      </c>
+      <c r="S301">
         <v>1.95</v>
-      </c>
-      <c r="S301">
-        <v>1.9</v>
       </c>
       <c r="T301">
         <v>2.5</v>
       </c>
       <c r="U301">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V301">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X301">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC301">
         <v>-1</v>
@@ -27334,7 +27334,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27346,73 +27346,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G302" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H302">
         <v>3</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J302" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K302">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L302">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N302">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P302">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R302">
+        <v>1.95</v>
+      </c>
+      <c r="S302">
         <v>1.9</v>
-      </c>
-      <c r="S302">
-        <v>1.95</v>
       </c>
       <c r="T302">
         <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V302">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W302">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB302">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27438,7 +27438,7 @@
         <v>45</v>
       </c>
       <c r="G303" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27613,7 +27613,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F305" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G305" t="s">
         <v>50</v>
@@ -27705,7 +27705,7 @@
         <v>48</v>
       </c>
       <c r="G306" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
         <v>31</v>
@@ -28147,10 +28147,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28773,7 +28773,7 @@
         <v>35</v>
       </c>
       <c r="G318" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28859,7 +28859,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G319" t="s">
         <v>47</v>
@@ -29129,7 +29129,7 @@
         <v>46</v>
       </c>
       <c r="G322" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29218,7 +29218,7 @@
         <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -29393,7 +29393,7 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F325" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G325" t="s">
         <v>40</v>
@@ -29559,7 +29559,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29571,76 +29571,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F327" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G327" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I327">
         <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K327">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L327">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M327">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N327">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O327">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P327">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q327">
+        <v>-0.25</v>
+      </c>
+      <c r="R327">
+        <v>1.875</v>
+      </c>
+      <c r="S327">
+        <v>1.975</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
+        <v>2</v>
+      </c>
+      <c r="V327">
+        <v>1.85</v>
+      </c>
+      <c r="W327">
+        <v>-1</v>
+      </c>
+      <c r="X327">
+        <v>2.2</v>
+      </c>
+      <c r="Y327">
+        <v>-1</v>
+      </c>
+      <c r="Z327">
         <v>-0.5</v>
       </c>
-      <c r="R327">
-        <v>1.975</v>
-      </c>
-      <c r="S327">
-        <v>1.875</v>
-      </c>
-      <c r="T327">
-        <v>2.75</v>
-      </c>
-      <c r="U327">
-        <v>1.8</v>
-      </c>
-      <c r="V327">
-        <v>2.05</v>
-      </c>
-      <c r="W327">
-        <v>0.909</v>
-      </c>
-      <c r="X327">
-        <v>-1</v>
-      </c>
-      <c r="Y327">
-        <v>-1</v>
-      </c>
-      <c r="Z327">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA327">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB327">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29648,7 +29648,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29660,76 +29660,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F328" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I328">
         <v>1</v>
       </c>
       <c r="J328" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K328">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L328">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M328">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N328">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O328">
+        <v>3.6</v>
+      </c>
+      <c r="P328">
         <v>3.2</v>
       </c>
-      <c r="P328">
-        <v>3.1</v>
-      </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R328">
+        <v>1.975</v>
+      </c>
+      <c r="S328">
         <v>1.875</v>
       </c>
-      <c r="S328">
-        <v>1.975</v>
-      </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V328">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W328">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X328">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA328">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC328">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -30105,7 +30105,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G333" t="s">
         <v>44</v>
@@ -30194,7 +30194,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G334" t="s">
         <v>31</v>
@@ -30283,7 +30283,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="F335" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G335" t="s">
         <v>30</v>
@@ -30375,7 +30375,7 @@
         <v>43</v>
       </c>
       <c r="G336" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>44</v>
       </c>
       <c r="G345" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31265,7 +31265,7 @@
         <v>41</v>
       </c>
       <c r="G346" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -31618,10 +31618,10 @@
         <v>45298.54166666666</v>
       </c>
       <c r="F350" t="s">
+        <v>33</v>
+      </c>
+      <c r="G350" t="s">
         <v>34</v>
-      </c>
-      <c r="G350" t="s">
-        <v>33</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7589565</v>
+        <v>7589564</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,76 +31707,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F351" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G351" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
         <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K351">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L351">
         <v>3.5</v>
       </c>
       <c r="M351">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N351">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P351">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R351">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S351">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T351">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U351">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V351">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB351">
         <v>-1</v>
       </c>
       <c r="AC351">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7589564</v>
+        <v>7589565</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,76 +31796,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F352" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G352" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K352">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L352">
         <v>3.5</v>
       </c>
       <c r="M352">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N352">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O352">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U352">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V352">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y352">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32241,7 +32241,7 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G357" t="s">
         <v>46</v>
@@ -32333,7 +32333,7 @@
         <v>43</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H358">
         <v>7</v>
@@ -32422,7 +32422,7 @@
         <v>47</v>
       </c>
       <c r="G359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>1</v>
@@ -32508,7 +32508,7 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G360" t="s">
         <v>50</v>
@@ -32956,7 +32956,7 @@
         <v>49</v>
       </c>
       <c r="G365" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -33045,7 +33045,7 @@
         <v>46</v>
       </c>
       <c r="G366" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -33134,7 +33134,7 @@
         <v>30</v>
       </c>
       <c r="G367" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33398,7 +33398,7 @@
         <v>45306.58333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
         <v>31</v>
@@ -33843,7 +33843,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="F375" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G375" t="s">
         <v>41</v>
@@ -34021,7 +34021,7 @@
         <v>45312.41666666666</v>
       </c>
       <c r="F377" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G377" t="s">
         <v>30</v>
@@ -34199,10 +34199,10 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>39</v>
       </c>
       <c r="G382" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H382">
         <v>0</v>
@@ -34632,7 +34632,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6943989</v>
+        <v>6943992</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34644,76 +34644,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G384" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K384">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L384">
         <v>3.2</v>
       </c>
       <c r="M384">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N384">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O384">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P384">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q384">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S384">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V384">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W384">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X384">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y384">
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA384">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB384">
         <v>-0.5</v>
       </c>
       <c r="AC384">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34721,7 +34721,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6943992</v>
+        <v>6943989</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34733,76 +34733,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G385" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K385">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L385">
         <v>3.2</v>
       </c>
       <c r="M385">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N385">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O385">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P385">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q385">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S385">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T385">
         <v>2.25</v>
       </c>
       <c r="U385">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V385">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W385">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X385">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA385">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB385">
         <v>-0.5</v>
       </c>
       <c r="AC385">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34810,7 +34810,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34822,76 +34822,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F386" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G386" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386">
         <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K386">
+        <v>6</v>
+      </c>
+      <c r="L386">
+        <v>4</v>
+      </c>
+      <c r="M386">
+        <v>1.5</v>
+      </c>
+      <c r="N386">
+        <v>6</v>
+      </c>
+      <c r="O386">
+        <v>4.5</v>
+      </c>
+      <c r="P386">
+        <v>1.5</v>
+      </c>
+      <c r="Q386">
+        <v>1</v>
+      </c>
+      <c r="R386">
+        <v>2</v>
+      </c>
+      <c r="S386">
+        <v>1.85</v>
+      </c>
+      <c r="T386">
+        <v>2.75</v>
+      </c>
+      <c r="U386">
+        <v>1.9</v>
+      </c>
+      <c r="V386">
         <v>1.95</v>
       </c>
-      <c r="L386">
-        <v>3.4</v>
-      </c>
-      <c r="M386">
-        <v>3.8</v>
-      </c>
-      <c r="N386">
-        <v>1.615</v>
-      </c>
-      <c r="O386">
-        <v>3.8</v>
-      </c>
-      <c r="P386">
-        <v>6</v>
-      </c>
-      <c r="Q386">
-        <v>-0.75</v>
-      </c>
-      <c r="R386">
-        <v>1.8</v>
-      </c>
-      <c r="S386">
-        <v>2.05</v>
-      </c>
-      <c r="T386">
-        <v>2.5</v>
-      </c>
-      <c r="U386">
-        <v>1.875</v>
-      </c>
-      <c r="V386">
-        <v>1.975</v>
-      </c>
       <c r="W386">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z386">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA386">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB386">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34899,7 +34899,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34911,76 +34911,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F387" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G387" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387">
         <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K387">
+        <v>1.95</v>
+      </c>
+      <c r="L387">
+        <v>3.4</v>
+      </c>
+      <c r="M387">
+        <v>3.8</v>
+      </c>
+      <c r="N387">
+        <v>1.615</v>
+      </c>
+      <c r="O387">
+        <v>3.8</v>
+      </c>
+      <c r="P387">
         <v>6</v>
       </c>
-      <c r="L387">
-        <v>4</v>
-      </c>
-      <c r="M387">
-        <v>1.5</v>
-      </c>
-      <c r="N387">
-        <v>6</v>
-      </c>
-      <c r="O387">
-        <v>4.5</v>
-      </c>
-      <c r="P387">
-        <v>1.5</v>
-      </c>
       <c r="Q387">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R387">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S387">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T387">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U387">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V387">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X387">
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA387">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC387">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35077,7 +35077,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35089,58 +35089,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F389" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G389" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H389">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>53</v>
       </c>
       <c r="K389">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L389">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M389">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N389">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O389">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P389">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q389">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R389">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S389">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T389">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V389">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X389">
         <v>-1</v>
@@ -35149,16 +35149,16 @@
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA389">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC389">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35166,7 +35166,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35178,58 +35178,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F390" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G390" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H390">
+        <v>3</v>
+      </c>
+      <c r="I390">
         <v>1</v>
-      </c>
-      <c r="I390">
-        <v>0</v>
       </c>
       <c r="J390" t="s">
         <v>53</v>
       </c>
       <c r="K390">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L390">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M390">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N390">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O390">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P390">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q390">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R390">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S390">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T390">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U390">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V390">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W390">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35238,16 +35238,16 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB390">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC390">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35356,7 +35356,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F392" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G392" t="s">
         <v>38</v>
@@ -35445,7 +35445,7 @@
         <v>45319.3125</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G393" t="s">
         <v>44</v>
@@ -35979,7 +35979,7 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G399" t="s">
         <v>32</v>
@@ -36068,7 +36068,7 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F400" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G400" t="s">
         <v>35</v>
@@ -36145,7 +36145,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6944002</v>
+        <v>6943999</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36157,76 +36157,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F401" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G401" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H401">
+        <v>3</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401" t="s">
+        <v>53</v>
+      </c>
+      <c r="K401">
+        <v>2.4</v>
+      </c>
+      <c r="L401">
+        <v>3.2</v>
+      </c>
+      <c r="M401">
+        <v>3</v>
+      </c>
+      <c r="N401">
+        <v>2.7</v>
+      </c>
+      <c r="O401">
+        <v>3.1</v>
+      </c>
+      <c r="P401">
+        <v>2.6</v>
+      </c>
+      <c r="Q401">
         <v>0</v>
       </c>
-      <c r="I401">
-        <v>0</v>
-      </c>
-      <c r="J401" t="s">
-        <v>51</v>
-      </c>
-      <c r="K401">
-        <v>2.1</v>
-      </c>
-      <c r="L401">
-        <v>3.4</v>
-      </c>
-      <c r="M401">
-        <v>3.4</v>
-      </c>
-      <c r="N401">
-        <v>1.909</v>
-      </c>
-      <c r="O401">
-        <v>3.5</v>
-      </c>
-      <c r="P401">
-        <v>4</v>
-      </c>
-      <c r="Q401">
-        <v>-0.5</v>
-      </c>
       <c r="R401">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S401">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T401">
         <v>2.25</v>
       </c>
       <c r="U401">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V401">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X401">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA401">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB401">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC401">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36234,7 +36234,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6943999</v>
+        <v>6944002</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36246,76 +36246,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G402" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K402">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L402">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M402">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N402">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O402">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P402">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q402">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R402">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S402">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T402">
         <v>2.25</v>
       </c>
       <c r="U402">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V402">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W402">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB402">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC402">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36338,7 +36338,7 @@
         <v>50</v>
       </c>
       <c r="G403" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H403">
         <v>0</v>
@@ -36427,7 +36427,7 @@
         <v>49</v>
       </c>
       <c r="G404" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -36783,7 +36783,7 @@
         <v>48</v>
       </c>
       <c r="G408" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H408">
         <v>2</v>
@@ -36961,7 +36961,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H410">
         <v>2</v>
@@ -37047,7 +37047,7 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F411" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G411" t="s">
         <v>32</v>
@@ -37225,7 +37225,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G413" t="s">
         <v>44</v>
@@ -37492,7 +37492,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F416" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G416" t="s">
         <v>41</v>
@@ -37670,7 +37670,7 @@
         <v>45334.45833333334</v>
       </c>
       <c r="F418" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G418" t="s">
         <v>38</v>
@@ -37747,7 +37747,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7790196</v>
+        <v>6944007</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37759,76 +37759,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F419" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G419" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419">
         <v>0</v>
       </c>
       <c r="J419" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K419">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L419">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M419">
+        <v>2.1</v>
+      </c>
+      <c r="N419">
+        <v>3.2</v>
+      </c>
+      <c r="O419">
+        <v>3.6</v>
+      </c>
+      <c r="P419">
+        <v>2.15</v>
+      </c>
+      <c r="Q419">
+        <v>0.25</v>
+      </c>
+      <c r="R419">
+        <v>1.975</v>
+      </c>
+      <c r="S419">
+        <v>1.875</v>
+      </c>
+      <c r="T419">
         <v>2.75</v>
       </c>
-      <c r="N419">
-        <v>2.05</v>
-      </c>
-      <c r="O419">
-        <v>3.3</v>
-      </c>
-      <c r="P419">
-        <v>3.6</v>
-      </c>
-      <c r="Q419">
-        <v>-0.25</v>
-      </c>
-      <c r="R419">
-        <v>1.775</v>
-      </c>
-      <c r="S419">
-        <v>2.1</v>
-      </c>
-      <c r="T419">
-        <v>2.25</v>
-      </c>
       <c r="U419">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V419">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W419">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X419">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37836,7 +37836,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6944007</v>
+        <v>7790196</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37848,76 +37848,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F420" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G420" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420">
         <v>0</v>
       </c>
       <c r="J420" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K420">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L420">
+        <v>3.4</v>
+      </c>
+      <c r="M420">
+        <v>2.75</v>
+      </c>
+      <c r="N420">
+        <v>2.05</v>
+      </c>
+      <c r="O420">
+        <v>3.3</v>
+      </c>
+      <c r="P420">
         <v>3.6</v>
       </c>
-      <c r="M420">
+      <c r="Q420">
+        <v>-0.25</v>
+      </c>
+      <c r="R420">
+        <v>1.775</v>
+      </c>
+      <c r="S420">
         <v>2.1</v>
       </c>
-      <c r="N420">
-        <v>3.2</v>
-      </c>
-      <c r="O420">
-        <v>3.6</v>
-      </c>
-      <c r="P420">
-        <v>2.15</v>
-      </c>
-      <c r="Q420">
-        <v>0.25</v>
-      </c>
-      <c r="R420">
-        <v>1.975</v>
-      </c>
-      <c r="S420">
-        <v>1.875</v>
-      </c>
       <c r="T420">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U420">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V420">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W420">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X420">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA420">
+        <v>-1</v>
+      </c>
+      <c r="AB420">
         <v>-0.5</v>
       </c>
-      <c r="AB420">
-        <v>-1</v>
-      </c>
       <c r="AC420">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -38014,7 +38014,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7820180</v>
+        <v>6944012</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38023,49 +38023,49 @@
         <v>28</v>
       </c>
       <c r="E422" s="2">
-        <v>45339.3125</v>
+        <v>45339.54166666666</v>
       </c>
       <c r="F422" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G422" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K422">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="L422">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M422">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="N422">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O422">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P422">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="Q422">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R422">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S422">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T422">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U422">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V422">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W422">
         <v>0</v>
@@ -38088,7 +38088,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6944013</v>
+        <v>6944010</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38097,34 +38097,34 @@
         <v>28</v>
       </c>
       <c r="E423" s="2">
-        <v>45339.41666666666</v>
+        <v>45340.3125</v>
       </c>
       <c r="F423" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G423" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K423">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L423">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M423">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N423">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O423">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P423">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q423">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R423">
         <v>2</v>
@@ -38133,13 +38133,13 @@
         <v>1.85</v>
       </c>
       <c r="T423">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U423">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V423">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W423">
         <v>0</v>
@@ -38162,7 +38162,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6944012</v>
+        <v>6943820</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38171,43 +38171,43 @@
         <v>28</v>
       </c>
       <c r="E424" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F424" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G424" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K424">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L424">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M424">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="N424">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="O424">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P424">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Q424">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S424">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U424">
         <v>1.85</v>
@@ -38236,7 +38236,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6944010</v>
+        <v>6943821</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38245,40 +38245,40 @@
         <v>28</v>
       </c>
       <c r="E425" s="2">
-        <v>45340.3125</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F425" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G425" t="s">
         <v>37</v>
       </c>
       <c r="K425">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L425">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M425">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N425">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O425">
         <v>3.6</v>
       </c>
       <c r="P425">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q425">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R425">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S425">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T425">
         <v>2.5</v>
@@ -38310,7 +38310,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6943820</v>
+        <v>6944087</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38319,49 +38319,49 @@
         <v>28</v>
       </c>
       <c r="E426" s="2">
-        <v>45340.41666666666</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F426" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G426" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K426">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="L426">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M426">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="N426">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O426">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P426">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R426">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S426">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T426">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U426">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V426">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W426">
         <v>0</v>
@@ -38384,7 +38384,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>6943821</v>
+        <v>6944086</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38393,34 +38393,34 @@
         <v>28</v>
       </c>
       <c r="E427" s="2">
-        <v>45340.41666666666</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F427" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G427" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K427">
+        <v>1.8</v>
+      </c>
+      <c r="L427">
         <v>3.6</v>
       </c>
-      <c r="L427">
-        <v>3.5</v>
-      </c>
       <c r="M427">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N427">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O427">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P427">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q427">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R427">
         <v>1.925</v>
@@ -38429,13 +38429,13 @@
         <v>1.925</v>
       </c>
       <c r="T427">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U427">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V427">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W427">
         <v>0</v>
@@ -38458,7 +38458,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>6944087</v>
+        <v>6944014</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38467,49 +38467,49 @@
         <v>28</v>
       </c>
       <c r="E428" s="2">
-        <v>45340.54166666666</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F428" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G428" t="s">
         <v>34</v>
       </c>
       <c r="K428">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="L428">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M428">
+        <v>5</v>
+      </c>
+      <c r="N428">
         <v>1.533</v>
       </c>
-      <c r="N428">
+      <c r="O428">
+        <v>4.2</v>
+      </c>
+      <c r="P428">
         <v>6</v>
       </c>
-      <c r="O428">
-        <v>4.5</v>
-      </c>
-      <c r="P428">
-        <v>1.5</v>
-      </c>
       <c r="Q428">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R428">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S428">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T428">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U428">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V428">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W428">
         <v>0</v>
@@ -38524,154 +38524,6 @@
         <v>0</v>
       </c>
       <c r="AA428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:29">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="B429">
-        <v>6944086</v>
-      </c>
-      <c r="C429" t="s">
-        <v>28</v>
-      </c>
-      <c r="D429" t="s">
-        <v>28</v>
-      </c>
-      <c r="E429" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F429" t="s">
-        <v>44</v>
-      </c>
-      <c r="G429" t="s">
-        <v>31</v>
-      </c>
-      <c r="K429">
-        <v>1.8</v>
-      </c>
-      <c r="L429">
-        <v>3.6</v>
-      </c>
-      <c r="M429">
-        <v>4.333</v>
-      </c>
-      <c r="N429">
-        <v>1.727</v>
-      </c>
-      <c r="O429">
-        <v>3.8</v>
-      </c>
-      <c r="P429">
-        <v>4.75</v>
-      </c>
-      <c r="Q429">
-        <v>-0.75</v>
-      </c>
-      <c r="R429">
-        <v>1.95</v>
-      </c>
-      <c r="S429">
-        <v>1.9</v>
-      </c>
-      <c r="T429">
-        <v>2.5</v>
-      </c>
-      <c r="U429">
-        <v>1.85</v>
-      </c>
-      <c r="V429">
-        <v>2</v>
-      </c>
-      <c r="W429">
-        <v>0</v>
-      </c>
-      <c r="X429">
-        <v>0</v>
-      </c>
-      <c r="Y429">
-        <v>0</v>
-      </c>
-      <c r="Z429">
-        <v>0</v>
-      </c>
-      <c r="AA429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:29">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430">
-        <v>6944014</v>
-      </c>
-      <c r="C430" t="s">
-        <v>28</v>
-      </c>
-      <c r="D430" t="s">
-        <v>28</v>
-      </c>
-      <c r="E430" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F430" t="s">
-        <v>39</v>
-      </c>
-      <c r="G430" t="s">
-        <v>33</v>
-      </c>
-      <c r="K430">
-        <v>1.615</v>
-      </c>
-      <c r="L430">
-        <v>4</v>
-      </c>
-      <c r="M430">
-        <v>5</v>
-      </c>
-      <c r="N430">
-        <v>1.533</v>
-      </c>
-      <c r="O430">
-        <v>4.2</v>
-      </c>
-      <c r="P430">
-        <v>6</v>
-      </c>
-      <c r="Q430">
-        <v>-1</v>
-      </c>
-      <c r="R430">
-        <v>1.875</v>
-      </c>
-      <c r="S430">
-        <v>1.975</v>
-      </c>
-      <c r="T430">
-        <v>2.75</v>
-      </c>
-      <c r="U430">
-        <v>1.925</v>
-      </c>
-      <c r="V430">
-        <v>1.925</v>
-      </c>
-      <c r="W430">
-        <v>0</v>
-      </c>
-      <c r="X430">
-        <v>0</v>
-      </c>
-      <c r="Y430">
-        <v>0</v>
-      </c>
-      <c r="Z430">
-        <v>0</v>
-      </c>
-      <c r="AA430">
         <v>0</v>
       </c>
     </row>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -115,19 +115,19 @@
     <t>Kasimpasa</t>
   </si>
   <si>
-    <t>Galatasaray</t>
+    <t>Konyaspor</t>
   </si>
   <si>
-    <t>Konyaspor</t>
+    <t>Galatasaray</t>
   </si>
   <si>
     <t>Gazisehir Gaziantep FK</t>
   </si>
   <si>
-    <t>Adana Demirspor</t>
+    <t>Trabzonspor</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
+    <t>Adana Demirspor</t>
   </si>
   <si>
     <t>Hatayspor</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC428"/>
+  <dimension ref="A1:AC427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5258430</v>
+        <v>6079161</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W6">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6079161</v>
+        <v>5258430</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.95</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1.85</v>
+      </c>
+      <c r="W7">
+        <v>0.444</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
         <v>-0.5</v>
       </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.8</v>
-      </c>
-      <c r="V7">
-        <v>2.05</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>2.4</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>-1</v>
-      </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5260000</v>
+        <v>6079162</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,10 +1272,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1293,34 +1293,34 @@
         <v>5.5</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1329,16 +1329,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6079162</v>
+        <v>5260000</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,10 +1361,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1382,34 +1382,34 @@
         <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U10">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
-        <v>0.55</v>
+        <v>0.444</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1418,16 +1418,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2073,7 +2073,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2337,7 +2337,7 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2515,7 +2515,7 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2693,7 +2693,7 @@
         <v>44940.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -3049,7 +3049,7 @@
         <v>44946.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3227,7 +3227,7 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3583,7 +3583,7 @@
         <v>44948.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3672,7 +3672,7 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3942,7 +3942,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5259994</v>
+        <v>5258447</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,73 +4206,73 @@
         <v>44954.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>5.25</v>
+      </c>
+      <c r="L42">
+        <v>3.8</v>
+      </c>
+      <c r="M42">
+        <v>1.6</v>
+      </c>
+      <c r="N42">
+        <v>7</v>
+      </c>
+      <c r="O42">
+        <v>4.5</v>
+      </c>
+      <c r="P42">
+        <v>1.4</v>
+      </c>
+      <c r="Q42">
+        <v>1.25</v>
+      </c>
+      <c r="R42">
+        <v>1.875</v>
+      </c>
+      <c r="S42">
+        <v>1.975</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>3.5</v>
-      </c>
-      <c r="M42">
-        <v>3.6</v>
-      </c>
-      <c r="N42">
-        <v>1.85</v>
-      </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>4.2</v>
-      </c>
-      <c r="Q42">
-        <v>-0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.825</v>
-      </c>
-      <c r="S42">
-        <v>2.025</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.9</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5258447</v>
+        <v>5259994</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,73 +4295,73 @@
         <v>44954.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="N43">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.9</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.9</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4476,7 +4476,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5258454</v>
+        <v>5258311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,13 +4829,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4844,43 +4844,43 @@
         <v>53</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
         <v>3.25</v>
       </c>
       <c r="N49">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4889,13 +4889,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5258311</v>
+        <v>5258454</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,13 +4918,13 @@
         <v>44958.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4933,43 +4933,43 @@
         <v>53</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
         <v>3.25</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4978,13 +4978,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5007,7 +5007,7 @@
         <v>44958.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5096,7 +5096,7 @@
         <v>44958.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5258453</v>
+        <v>5259991</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,76 +5185,76 @@
         <v>44959.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K53">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N53">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5259991</v>
+        <v>5258453</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>44959.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N54">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>44959.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -5897,10 +5897,10 @@
         <v>44962.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6078,7 +6078,7 @@
         <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6167,7 +6167,7 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6520,7 +6520,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6698,7 +6698,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>42</v>
@@ -7143,7 +7143,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7321,10 +7321,10 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
         <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7588,10 +7588,10 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
         <v>34</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
@@ -8211,7 +8211,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -8389,10 +8389,10 @@
         <v>45017.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8834,7 +8834,7 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -9015,7 +9015,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9546,7 +9546,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9724,7 +9724,7 @@
         <v>45031.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9991,7 +9991,7 @@
         <v>45032.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -10083,7 +10083,7 @@
         <v>45</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10525,10 +10525,10 @@
         <v>45035.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10706,7 +10706,7 @@
         <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10884,7 +10884,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10970,7 +10970,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>31</v>
@@ -11059,7 +11059,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11593,10 +11593,10 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11863,7 +11863,7 @@
         <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12127,7 +12127,7 @@
         <v>45052.625</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
         <v>45</v>
@@ -12305,7 +12305,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12483,7 +12483,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12572,7 +12572,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12753,7 +12753,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12842,7 +12842,7 @@
         <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13198,7 +13198,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13373,7 +13373,7 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>47</v>
@@ -13729,7 +13729,7 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13818,7 +13818,7 @@
         <v>45068.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13910,7 +13910,7 @@
         <v>47</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14266,7 +14266,7 @@
         <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14355,7 +14355,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14530,7 +14530,7 @@
         <v>45080.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>40</v>
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5569871</v>
+        <v>5603423</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,76 +14619,76 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>4.75</v>
+      </c>
+      <c r="N159">
+        <v>1.363</v>
+      </c>
+      <c r="O159">
+        <v>5.25</v>
+      </c>
+      <c r="P159">
+        <v>6.5</v>
+      </c>
+      <c r="Q159">
+        <v>-1.5</v>
+      </c>
+      <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.925</v>
+      </c>
+      <c r="T159">
         <v>3.75</v>
       </c>
-      <c r="M159">
-        <v>2.625</v>
-      </c>
-      <c r="N159">
-        <v>2.625</v>
-      </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
-      <c r="P159">
-        <v>2.375</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>2.025</v>
-      </c>
-      <c r="S159">
-        <v>1.825</v>
-      </c>
-      <c r="T159">
-        <v>3.25</v>
-      </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5575890</v>
+        <v>5569871</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,10 +14708,10 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14723,25 +14723,25 @@
         <v>52</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N160">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
         <v>2.025</v>
@@ -14750,13 +14750,13 @@
         <v>1.825</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14765,7 +14765,7 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z160">
         <v>-1</v>
@@ -14777,7 +14777,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5579165</v>
+        <v>5575890</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,56 +14797,56 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>52</v>
       </c>
       <c r="K161">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="N161">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
         <v>1.9</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="T161">
-        <v>3.25</v>
-      </c>
-      <c r="U161">
-        <v>2.025</v>
-      </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
+        <v>0.825</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.95</v>
-      </c>
-      <c r="AB161">
-        <v>1.025</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5579166</v>
+        <v>5579165</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,55 +14886,55 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J162" t="s">
         <v>52</v>
       </c>
       <c r="K162">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M162">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="N162">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P162">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5603423</v>
+        <v>5579166</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,43 +14978,43 @@
         <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163" t="s">
+        <v>52</v>
+      </c>
+      <c r="K163">
+        <v>1.75</v>
+      </c>
+      <c r="L163">
+        <v>3.75</v>
+      </c>
+      <c r="M163">
+        <v>4</v>
+      </c>
+      <c r="N163">
+        <v>1.5</v>
+      </c>
+      <c r="O163">
+        <v>4.5</v>
+      </c>
+      <c r="P163">
         <v>5</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-      <c r="J163" t="s">
-        <v>53</v>
-      </c>
-      <c r="K163">
-        <v>1.615</v>
-      </c>
-      <c r="L163">
-        <v>4</v>
-      </c>
-      <c r="M163">
-        <v>4.75</v>
-      </c>
-      <c r="N163">
-        <v>1.363</v>
-      </c>
-      <c r="O163">
-        <v>5.25</v>
-      </c>
-      <c r="P163">
-        <v>6.5</v>
-      </c>
       <c r="Q163">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T163">
         <v>3.75</v>
@@ -15026,19 +15026,19 @@
         <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB163">
         <v>0.95</v>
@@ -15064,7 +15064,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15334,7 +15334,7 @@
         <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15423,7 +15423,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15601,7 +15601,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>3</v>
@@ -15776,7 +15776,7 @@
         <v>45149.625</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15954,7 +15954,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
         <v>46</v>
@@ -16135,7 +16135,7 @@
         <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>45151.65625</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
         <v>49</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6944037</v>
+        <v>6943878</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45152.625</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>52</v>
+      </c>
+      <c r="K180">
+        <v>3.8</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>1.75</v>
+      </c>
+      <c r="N180">
+        <v>5.25</v>
+      </c>
+      <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>1.55</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>1.925</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
+        <v>1.825</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.55</v>
+      </c>
+      <c r="Z180">
         <v>0</v>
       </c>
-      <c r="J180" t="s">
-        <v>53</v>
-      </c>
-      <c r="K180">
-        <v>2.7</v>
-      </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
-      <c r="M180">
-        <v>2.375</v>
-      </c>
-      <c r="N180">
-        <v>2.8</v>
-      </c>
-      <c r="O180">
-        <v>3.4</v>
-      </c>
-      <c r="P180">
-        <v>2.375</v>
-      </c>
-      <c r="Q180">
-        <v>0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.775</v>
-      </c>
-      <c r="S180">
-        <v>2.1</v>
-      </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>1.875</v>
-      </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
-      <c r="W180">
-        <v>1.8</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6943878</v>
+        <v>6944037</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45152.625</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="N181">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6943881</v>
+        <v>6944038</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45157.65625</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N185">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X185">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA185">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6944038</v>
+        <v>6943881</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45157.65625</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N186">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17381,7 +17381,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>45163.625</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>35</v>
@@ -17734,7 +17734,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>49</v>
@@ -18182,7 +18182,7 @@
         <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6943893</v>
+        <v>6943780</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,76 +18357,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K201">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O201">
         <v>3.4</v>
       </c>
       <c r="P201">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
         <v>1.925</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
-      <c r="U201">
-        <v>2.025</v>
-      </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA201">
+        <v>-0</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.925</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6943780</v>
+        <v>6943893</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18446,76 +18446,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M202">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
         <v>3.4</v>
       </c>
       <c r="P202">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18627,7 +18627,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18805,7 +18805,7 @@
         <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18980,7 +18980,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
         <v>49</v>
@@ -19158,7 +19158,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>50</v>
@@ -19247,7 +19247,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
         <v>48</v>
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6944044</v>
+        <v>6943899</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H214">
         <v>3</v>
       </c>
       <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214">
         <v>3</v>
-      </c>
-      <c r="J214" t="s">
-        <v>51</v>
-      </c>
-      <c r="K214">
-        <v>2.1</v>
       </c>
       <c r="L214">
         <v>3.4</v>
       </c>
       <c r="M214">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.925</v>
+      </c>
+      <c r="S214">
+        <v>1.925</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
+        <v>1.925</v>
+      </c>
+      <c r="V214">
+        <v>1.925</v>
+      </c>
+      <c r="W214">
+        <v>2.1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.925</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.4625</v>
+      </c>
+      <c r="AC214">
         <v>-0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.95</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>2</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>2.3</v>
-      </c>
-      <c r="Y214">
-        <v>-1</v>
-      </c>
-      <c r="Z214">
-        <v>-1</v>
-      </c>
-      <c r="AA214">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB214">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6943899</v>
+        <v>6944044</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
         <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6943901</v>
+        <v>6943898</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,76 +19692,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
         <v>3.3</v>
       </c>
       <c r="M216">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N216">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O216">
         <v>3.4</v>
       </c>
       <c r="P216">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y216">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19769,7 +19769,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6943898</v>
+        <v>6943901</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19781,76 +19781,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
         <v>3.3</v>
       </c>
       <c r="M217">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N217">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O217">
         <v>3.4</v>
       </c>
       <c r="P217">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20140,7 +20140,7 @@
         <v>44</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20407,7 +20407,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20585,7 +20585,7 @@
         <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20674,7 +20674,7 @@
         <v>38</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20763,7 +20763,7 @@
         <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20849,7 +20849,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
         <v>39</v>
@@ -21294,7 +21294,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
         <v>48</v>
@@ -21383,7 +21383,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
         <v>41</v>
@@ -21650,7 +21650,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
         <v>45</v>
@@ -21739,7 +21739,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
         <v>39</v>
@@ -21917,10 +21917,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F241" t="s">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
         <v>36</v>
-      </c>
-      <c r="G241" t="s">
-        <v>37</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         <v>30</v>
       </c>
       <c r="G246" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22721,7 +22721,7 @@
         <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6943790</v>
+        <v>6943920</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H252">
         <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>1.666</v>
+        <v>2.65</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N252">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.5</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA252">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6943920</v>
+        <v>6943790</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H253">
         <v>1</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.65</v>
+        <v>1.666</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M253">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N253">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P253">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T253">
         <v>2.5</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W253">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23074,7 +23074,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G254" t="s">
         <v>39</v>
@@ -23507,7 +23507,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6944051</v>
+        <v>6943921</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23519,13 +23519,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F259" t="s">
+        <v>40</v>
+      </c>
+      <c r="G259" t="s">
         <v>37</v>
       </c>
-      <c r="G259" t="s">
-        <v>45</v>
-      </c>
       <c r="H259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23534,43 +23534,43 @@
         <v>53</v>
       </c>
       <c r="K259">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M259">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N259">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O259">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P259">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q259">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R259">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T259">
         <v>2.75</v>
       </c>
       <c r="U259">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23579,16 +23579,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA259">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23596,7 +23596,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6943921</v>
+        <v>6944051</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23608,13 +23608,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -23623,43 +23623,43 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L260">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N260">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O260">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P260">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q260">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S260">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V260">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X260">
         <v>-1</v>
@@ -23668,16 +23668,16 @@
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23967,7 +23967,7 @@
         <v>49</v>
       </c>
       <c r="G264" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24053,10 +24053,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H265">
         <v>3</v>
@@ -24145,7 +24145,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G271" t="s">
         <v>32</v>
@@ -24857,7 +24857,7 @@
         <v>43</v>
       </c>
       <c r="G274" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -24946,7 +24946,7 @@
         <v>47</v>
       </c>
       <c r="G275" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25121,7 +25121,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
         <v>40</v>
@@ -25477,10 +25477,10 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -25925,7 +25925,7 @@
         <v>38</v>
       </c>
       <c r="G286" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26278,7 +26278,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
         <v>43</v>
@@ -26545,7 +26545,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
         <v>32</v>
@@ -26634,7 +26634,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G294" t="s">
         <v>45</v>
@@ -26726,7 +26726,7 @@
         <v>31</v>
       </c>
       <c r="G295" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -27171,7 +27171,7 @@
         <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H300">
         <v>3</v>
@@ -27438,7 +27438,7 @@
         <v>45</v>
       </c>
       <c r="G303" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6943798</v>
+        <v>6943797</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,55 +27613,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G305" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>52</v>
       </c>
       <c r="K305">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="L305">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M305">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="N305">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="O305">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P305">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S305">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
         <v>-1</v>
@@ -27670,19 +27670,19 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA305">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6943797</v>
+        <v>6943798</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,55 +27702,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F306" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G306" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J306" t="s">
         <v>52</v>
       </c>
       <c r="K306">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="L306">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M306">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="N306">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O306">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P306">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q306">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S306">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T306">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27759,19 +27759,19 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="Z306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27880,7 +27880,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G308" t="s">
         <v>31</v>
@@ -28147,10 +28147,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28773,7 +28773,7 @@
         <v>35</v>
       </c>
       <c r="G318" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28859,7 +28859,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
         <v>47</v>
@@ -29129,7 +29129,7 @@
         <v>46</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29218,7 +29218,7 @@
         <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6943961</v>
+        <v>6943964</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,61 +29393,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F325" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G325" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
         <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K325">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L325">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M325">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N325">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O325">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P325">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q325">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
+        <v>2</v>
+      </c>
+      <c r="S325">
+        <v>1.85</v>
+      </c>
+      <c r="T325">
+        <v>2.75</v>
+      </c>
+      <c r="U325">
+        <v>1.875</v>
+      </c>
+      <c r="V325">
         <v>1.975</v>
       </c>
-      <c r="S325">
-        <v>1.875</v>
-      </c>
-      <c r="T325">
-        <v>3.25</v>
-      </c>
-      <c r="U325">
-        <v>1.9</v>
-      </c>
-      <c r="V325">
-        <v>1.95</v>
-      </c>
       <c r="W325">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y325">
         <v>-1</v>
@@ -29456,13 +29456,13 @@
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB325">
         <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6943964</v>
+        <v>6943961</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,61 +29482,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>0</v>
       </c>
       <c r="J326" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K326">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L326">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M326">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N326">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O326">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P326">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R326">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S326">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T326">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U326">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W326">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X326">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
         <v>-1</v>
@@ -29545,13 +29545,13 @@
         <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB326">
         <v>-1</v>
       </c>
       <c r="AC326">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29574,7 +29574,7 @@
         <v>50</v>
       </c>
       <c r="G327" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G329" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J329" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K329">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M329">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N329">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O329">
+        <v>3.8</v>
+      </c>
+      <c r="P329">
+        <v>4.5</v>
+      </c>
+      <c r="Q329">
+        <v>-1</v>
+      </c>
+      <c r="R329">
+        <v>2.05</v>
+      </c>
+      <c r="S329">
+        <v>1.8</v>
+      </c>
+      <c r="T329">
+        <v>2.75</v>
+      </c>
+      <c r="U329">
+        <v>1.85</v>
+      </c>
+      <c r="V329">
+        <v>2</v>
+      </c>
+      <c r="W329">
+        <v>-1</v>
+      </c>
+      <c r="X329">
+        <v>-1</v>
+      </c>
+      <c r="Y329">
         <v>3.5</v>
       </c>
-      <c r="P329">
-        <v>2.875</v>
-      </c>
-      <c r="Q329">
-        <v>-0.25</v>
-      </c>
-      <c r="R329">
-        <v>1.925</v>
-      </c>
-      <c r="S329">
-        <v>1.925</v>
-      </c>
-      <c r="T329">
-        <v>2.5</v>
-      </c>
-      <c r="U329">
-        <v>2.025</v>
-      </c>
-      <c r="V329">
-        <v>1.825</v>
-      </c>
-      <c r="W329">
-        <v>-1</v>
-      </c>
-      <c r="X329">
-        <v>2.5</v>
-      </c>
-      <c r="Y329">
-        <v>-1</v>
-      </c>
       <c r="Z329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC329">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,76 +29838,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K330">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L330">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M330">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N330">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O330">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P330">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T330">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y330">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA330">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB330">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30105,7 +30105,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G333" t="s">
         <v>44</v>
@@ -30194,7 +30194,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
         <v>31</v>
@@ -30283,7 +30283,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="F335" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G335" t="s">
         <v>30</v>
@@ -30375,7 +30375,7 @@
         <v>43</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,73 +30461,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K337">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M337">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N337">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O337">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P337">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q337">
         <v>0</v>
       </c>
       <c r="R337">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S337">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T337">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U337">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V337">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W337">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB337">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC337">
         <v>-1</v>
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,73 +30550,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F338" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G338" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K338">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L338">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M338">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N338">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O338">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P338">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q338">
         <v>0</v>
       </c>
       <c r="R338">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S338">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T338">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U338">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V338">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X338">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA338">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC338">
         <v>-1</v>
@@ -30627,7 +30627,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30639,76 +30639,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F339" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G339" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H339">
         <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J339" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K339">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L339">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M339">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N339">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O339">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P339">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q339">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R339">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S339">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T339">
         <v>2.5</v>
       </c>
       <c r="U339">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V339">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y339">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA339">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB339">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30716,7 +30716,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30728,76 +30728,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G340" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H340">
         <v>1</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K340">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L340">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M340">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N340">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O340">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P340">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R340">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S340">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T340">
         <v>2.5</v>
       </c>
       <c r="U340">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V340">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z340">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC340">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30894,7 +30894,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30906,76 +30906,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F342" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G342" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K342">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L342">
+        <v>3.5</v>
+      </c>
+      <c r="M342">
         <v>4</v>
       </c>
-      <c r="M342">
-        <v>4.5</v>
-      </c>
       <c r="N342">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O342">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P342">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q342">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R342">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S342">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T342">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U342">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V342">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y342">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB342">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC342">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30983,7 +30983,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30995,76 +30995,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F343" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G343" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J343" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K343">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L343">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M343">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N343">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P343">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q343">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R343">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S343">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T343">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U343">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V343">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W343">
         <v>-1</v>
       </c>
       <c r="X343">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC343">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31176,7 +31176,7 @@
         <v>44</v>
       </c>
       <c r="G345" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31265,7 +31265,7 @@
         <v>41</v>
       </c>
       <c r="G346" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -31618,10 +31618,10 @@
         <v>45298.54166666666</v>
       </c>
       <c r="F350" t="s">
+        <v>34</v>
+      </c>
+      <c r="G350" t="s">
         <v>33</v>
-      </c>
-      <c r="G350" t="s">
-        <v>34</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -31695,7 +31695,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7589564</v>
+        <v>7589565</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31707,76 +31707,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F351" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G351" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
         <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K351">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L351">
         <v>3.5</v>
       </c>
       <c r="M351">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N351">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O351">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T351">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U351">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V351">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y351">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB351">
         <v>-1</v>
       </c>
       <c r="AC351">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31784,7 +31784,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7589565</v>
+        <v>7589564</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31796,76 +31796,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F352" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G352" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K352">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L352">
         <v>3.5</v>
       </c>
       <c r="M352">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N352">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P352">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V352">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32051,7 +32051,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7589559</v>
+        <v>7589561</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32063,76 +32063,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K355">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L355">
         <v>3.5</v>
       </c>
       <c r="M355">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N355">
         <v>2.1</v>
       </c>
       <c r="O355">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P355">
         <v>3.4</v>
       </c>
       <c r="Q355">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U355">
+        <v>1.975</v>
+      </c>
+      <c r="V355">
         <v>1.875</v>
       </c>
-      <c r="V355">
-        <v>1.975</v>
-      </c>
       <c r="W355">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X355">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA355">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32140,7 +32140,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7589561</v>
+        <v>7589559</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32152,76 +32152,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G356" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H356">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K356">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L356">
         <v>3.5</v>
       </c>
       <c r="M356">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N356">
         <v>2.1</v>
       </c>
       <c r="O356">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P356">
         <v>3.4</v>
       </c>
       <c r="Q356">
+        <v>-0.25</v>
+      </c>
+      <c r="R356">
+        <v>1.825</v>
+      </c>
+      <c r="S356">
+        <v>2.025</v>
+      </c>
+      <c r="T356">
+        <v>2.25</v>
+      </c>
+      <c r="U356">
+        <v>1.875</v>
+      </c>
+      <c r="V356">
+        <v>1.975</v>
+      </c>
+      <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
+        <v>2.4</v>
+      </c>
+      <c r="Y356">
+        <v>-1</v>
+      </c>
+      <c r="Z356">
         <v>-0.5</v>
       </c>
-      <c r="R356">
-        <v>2</v>
-      </c>
-      <c r="S356">
-        <v>1.85</v>
-      </c>
-      <c r="T356">
-        <v>2.5</v>
-      </c>
-      <c r="U356">
-        <v>1.975</v>
-      </c>
-      <c r="V356">
-        <v>1.875</v>
-      </c>
-      <c r="W356">
-        <v>1.1</v>
-      </c>
-      <c r="X356">
-        <v>-1</v>
-      </c>
-      <c r="Y356">
-        <v>-1</v>
-      </c>
-      <c r="Z356">
-        <v>1</v>
-      </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB356">
+        <v>-1</v>
+      </c>
+      <c r="AC356">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC356">
-        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32229,7 +32229,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7589558</v>
+        <v>7589566</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32241,73 +32241,73 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G357" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K357">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L357">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M357">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="N357">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O357">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P357">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="Q357">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R357">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S357">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T357">
         <v>3.25</v>
       </c>
       <c r="U357">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V357">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W357">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X357">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA357">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB357">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC357">
         <v>-1</v>
@@ -32318,7 +32318,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7589566</v>
+        <v>7589558</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32330,73 +32330,73 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F358" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G358" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H358">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J358" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K358">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L358">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M358">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="N358">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O358">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P358">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="Q358">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R358">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S358">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T358">
         <v>3.25</v>
       </c>
       <c r="U358">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V358">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W358">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X358">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y358">
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB358">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC358">
         <v>-1</v>
@@ -32422,7 +32422,7 @@
         <v>47</v>
       </c>
       <c r="G359" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H359">
         <v>1</v>
@@ -32508,7 +32508,7 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G360" t="s">
         <v>50</v>
@@ -32956,7 +32956,7 @@
         <v>49</v>
       </c>
       <c r="G365" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -33045,7 +33045,7 @@
         <v>46</v>
       </c>
       <c r="G366" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -33134,7 +33134,7 @@
         <v>30</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33398,7 +33398,7 @@
         <v>45306.58333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G370" t="s">
         <v>31</v>
@@ -33843,7 +33843,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="F375" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G375" t="s">
         <v>41</v>
@@ -34021,7 +34021,7 @@
         <v>45312.41666666666</v>
       </c>
       <c r="F377" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G377" t="s">
         <v>30</v>
@@ -34199,10 +34199,10 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G379" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>39</v>
       </c>
       <c r="G382" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H382">
         <v>0</v>
@@ -34632,7 +34632,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6943992</v>
+        <v>6943989</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34644,76 +34644,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G384" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K384">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L384">
         <v>3.2</v>
       </c>
       <c r="M384">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N384">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O384">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P384">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S384">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V384">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W384">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X384">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y384">
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA384">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB384">
         <v>-0.5</v>
       </c>
       <c r="AC384">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34721,7 +34721,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6943989</v>
+        <v>6943992</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34733,76 +34733,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G385" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K385">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L385">
         <v>3.2</v>
       </c>
       <c r="M385">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N385">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O385">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P385">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R385">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S385">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T385">
         <v>2.25</v>
       </c>
       <c r="U385">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V385">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W385">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X385">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB385">
         <v>-0.5</v>
       </c>
       <c r="AC385">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34810,7 +34810,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34822,76 +34822,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F386" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G386" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386">
         <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K386">
+        <v>1.95</v>
+      </c>
+      <c r="L386">
+        <v>3.4</v>
+      </c>
+      <c r="M386">
+        <v>3.8</v>
+      </c>
+      <c r="N386">
+        <v>1.615</v>
+      </c>
+      <c r="O386">
+        <v>3.8</v>
+      </c>
+      <c r="P386">
         <v>6</v>
       </c>
-      <c r="L386">
-        <v>4</v>
-      </c>
-      <c r="M386">
-        <v>1.5</v>
-      </c>
-      <c r="N386">
-        <v>6</v>
-      </c>
-      <c r="O386">
-        <v>4.5</v>
-      </c>
-      <c r="P386">
-        <v>1.5</v>
-      </c>
       <c r="Q386">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R386">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S386">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T386">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA386">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC386">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34899,7 +34899,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34911,76 +34911,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F387" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G387" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387">
         <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K387">
+        <v>6</v>
+      </c>
+      <c r="L387">
+        <v>4</v>
+      </c>
+      <c r="M387">
+        <v>1.5</v>
+      </c>
+      <c r="N387">
+        <v>6</v>
+      </c>
+      <c r="O387">
+        <v>4.5</v>
+      </c>
+      <c r="P387">
+        <v>1.5</v>
+      </c>
+      <c r="Q387">
+        <v>1</v>
+      </c>
+      <c r="R387">
+        <v>2</v>
+      </c>
+      <c r="S387">
+        <v>1.85</v>
+      </c>
+      <c r="T387">
+        <v>2.75</v>
+      </c>
+      <c r="U387">
+        <v>1.9</v>
+      </c>
+      <c r="V387">
         <v>1.95</v>
       </c>
-      <c r="L387">
-        <v>3.4</v>
-      </c>
-      <c r="M387">
-        <v>3.8</v>
-      </c>
-      <c r="N387">
-        <v>1.615</v>
-      </c>
-      <c r="O387">
-        <v>3.8</v>
-      </c>
-      <c r="P387">
-        <v>6</v>
-      </c>
-      <c r="Q387">
-        <v>-0.75</v>
-      </c>
-      <c r="R387">
-        <v>1.8</v>
-      </c>
-      <c r="S387">
-        <v>2.05</v>
-      </c>
-      <c r="T387">
-        <v>2.5</v>
-      </c>
-      <c r="U387">
-        <v>1.875</v>
-      </c>
-      <c r="V387">
-        <v>1.975</v>
-      </c>
       <c r="W387">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X387">
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z387">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA387">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB387">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35077,7 +35077,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35089,58 +35089,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F389" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G389" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H389">
+        <v>3</v>
+      </c>
+      <c r="I389">
         <v>1</v>
-      </c>
-      <c r="I389">
-        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>53</v>
       </c>
       <c r="K389">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L389">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M389">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N389">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O389">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P389">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q389">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R389">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S389">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T389">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U389">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W389">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X389">
         <v>-1</v>
@@ -35149,16 +35149,16 @@
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB389">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC389">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35166,7 +35166,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35178,58 +35178,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G390" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H390">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" t="s">
         <v>53</v>
       </c>
       <c r="K390">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L390">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M390">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N390">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O390">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P390">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q390">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S390">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T390">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U390">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V390">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W390">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35238,16 +35238,16 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA390">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC390">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35356,7 +35356,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F392" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G392" t="s">
         <v>38</v>
@@ -35445,7 +35445,7 @@
         <v>45319.3125</v>
       </c>
       <c r="F393" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G393" t="s">
         <v>44</v>
@@ -35967,7 +35967,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>6944078</v>
+        <v>6944077</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35979,76 +35979,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G399" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H399">
         <v>2</v>
       </c>
       <c r="I399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J399" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K399">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L399">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M399">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N399">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O399">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="P399">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Q399">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R399">
+        <v>1.975</v>
+      </c>
+      <c r="S399">
+        <v>1.875</v>
+      </c>
+      <c r="T399">
+        <v>3.5</v>
+      </c>
+      <c r="U399">
         <v>1.925</v>
       </c>
-      <c r="S399">
+      <c r="V399">
         <v>1.925</v>
       </c>
-      <c r="T399">
-        <v>3</v>
-      </c>
-      <c r="U399">
-        <v>1.975</v>
-      </c>
-      <c r="V399">
-        <v>1.875</v>
-      </c>
       <c r="W399">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X399">
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
+        <v>0.875</v>
+      </c>
+      <c r="AB399">
+        <v>-1</v>
+      </c>
+      <c r="AC399">
         <v>0.925</v>
-      </c>
-      <c r="AB399">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC399">
-        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36056,7 +36056,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>6944077</v>
+        <v>6944078</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36068,76 +36068,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G400" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H400">
         <v>2</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J400" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K400">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L400">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M400">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N400">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O400">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="P400">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q400">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R400">
+        <v>1.925</v>
+      </c>
+      <c r="S400">
+        <v>1.925</v>
+      </c>
+      <c r="T400">
+        <v>3</v>
+      </c>
+      <c r="U400">
         <v>1.975</v>
       </c>
-      <c r="S400">
+      <c r="V400">
         <v>1.875</v>
       </c>
-      <c r="T400">
-        <v>3.5</v>
-      </c>
-      <c r="U400">
-        <v>1.925</v>
-      </c>
-      <c r="V400">
-        <v>1.925</v>
-      </c>
       <c r="W400">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X400">
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB400">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC400">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36145,7 +36145,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6943999</v>
+        <v>6944002</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36157,76 +36157,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F401" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G401" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J401" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K401">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L401">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M401">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N401">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O401">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P401">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q401">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R401">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S401">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T401">
         <v>2.25</v>
       </c>
       <c r="U401">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V401">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W401">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA401">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB401">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC401">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36234,7 +36234,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6944002</v>
+        <v>6943999</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36246,76 +36246,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G402" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H402">
+        <v>3</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402" t="s">
+        <v>53</v>
+      </c>
+      <c r="K402">
+        <v>2.4</v>
+      </c>
+      <c r="L402">
+        <v>3.2</v>
+      </c>
+      <c r="M402">
+        <v>3</v>
+      </c>
+      <c r="N402">
+        <v>2.7</v>
+      </c>
+      <c r="O402">
+        <v>3.1</v>
+      </c>
+      <c r="P402">
+        <v>2.6</v>
+      </c>
+      <c r="Q402">
         <v>0</v>
       </c>
-      <c r="I402">
-        <v>0</v>
-      </c>
-      <c r="J402" t="s">
-        <v>51</v>
-      </c>
-      <c r="K402">
-        <v>2.1</v>
-      </c>
-      <c r="L402">
-        <v>3.4</v>
-      </c>
-      <c r="M402">
-        <v>3.4</v>
-      </c>
-      <c r="N402">
-        <v>1.909</v>
-      </c>
-      <c r="O402">
-        <v>3.5</v>
-      </c>
-      <c r="P402">
-        <v>4</v>
-      </c>
-      <c r="Q402">
-        <v>-0.5</v>
-      </c>
       <c r="R402">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S402">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T402">
         <v>2.25</v>
       </c>
       <c r="U402">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V402">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W402">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X402">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA402">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB402">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC402">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36338,7 +36338,7 @@
         <v>50</v>
       </c>
       <c r="G403" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H403">
         <v>0</v>
@@ -36427,7 +36427,7 @@
         <v>49</v>
       </c>
       <c r="G404" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -36783,7 +36783,7 @@
         <v>48</v>
       </c>
       <c r="G408" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H408">
         <v>2</v>
@@ -36961,7 +36961,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H410">
         <v>2</v>
@@ -37047,7 +37047,7 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F411" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G411" t="s">
         <v>32</v>
@@ -37225,7 +37225,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G413" t="s">
         <v>44</v>
@@ -37391,7 +37391,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6943620</v>
+        <v>6944008</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37403,76 +37403,76 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F415" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G415" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H415">
         <v>1</v>
       </c>
       <c r="I415">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K415">
+        <v>2.55</v>
+      </c>
+      <c r="L415">
+        <v>3.3</v>
+      </c>
+      <c r="M415">
+        <v>2.7</v>
+      </c>
+      <c r="N415">
         <v>2.8</v>
-      </c>
-      <c r="L415">
-        <v>3.2</v>
-      </c>
-      <c r="M415">
-        <v>2.55</v>
-      </c>
-      <c r="N415">
-        <v>3.4</v>
       </c>
       <c r="O415">
         <v>3.1</v>
       </c>
       <c r="P415">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q415">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R415">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S415">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U415">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V415">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W415">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X415">
         <v>-1</v>
       </c>
       <c r="Y415">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA415">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB415">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37480,7 +37480,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6944008</v>
+        <v>6943620</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37492,76 +37492,76 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F416" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G416" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H416">
         <v>1</v>
       </c>
       <c r="I416">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J416" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K416">
+        <v>2.8</v>
+      </c>
+      <c r="L416">
+        <v>3.2</v>
+      </c>
+      <c r="M416">
         <v>2.55</v>
       </c>
-      <c r="L416">
-        <v>3.3</v>
-      </c>
-      <c r="M416">
-        <v>2.7</v>
-      </c>
       <c r="N416">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O416">
         <v>3.1</v>
       </c>
       <c r="P416">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q416">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R416">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S416">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T416">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U416">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V416">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W416">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z416">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC416">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37670,7 +37670,7 @@
         <v>45334.45833333334</v>
       </c>
       <c r="F418" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G418" t="s">
         <v>38</v>
@@ -38014,7 +38014,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>6944012</v>
+        <v>6944010</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38023,43 +38023,43 @@
         <v>28</v>
       </c>
       <c r="E422" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.3125</v>
       </c>
       <c r="F422" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G422" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K422">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="L422">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M422">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="N422">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="O422">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P422">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q422">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R422">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S422">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T422">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U422">
         <v>2.025</v>
@@ -38088,7 +38088,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6944010</v>
+        <v>6943821</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38097,40 +38097,40 @@
         <v>28</v>
       </c>
       <c r="E423" s="2">
-        <v>45340.3125</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F423" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G423" t="s">
         <v>36</v>
       </c>
       <c r="K423">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L423">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M423">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N423">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O423">
         <v>3.6</v>
       </c>
       <c r="P423">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q423">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R423">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S423">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T423">
         <v>2.5</v>
@@ -38201,19 +38201,19 @@
         <v>0</v>
       </c>
       <c r="R424">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S424">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T424">
         <v>2.25</v>
       </c>
       <c r="U424">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W424">
         <v>0</v>
@@ -38236,7 +38236,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6943821</v>
+        <v>6944087</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38245,40 +38245,40 @@
         <v>28</v>
       </c>
       <c r="E425" s="2">
-        <v>45340.41666666666</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F425" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K425">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L425">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M425">
+        <v>1.533</v>
+      </c>
+      <c r="N425">
+        <v>6</v>
+      </c>
+      <c r="O425">
+        <v>4.5</v>
+      </c>
+      <c r="P425">
+        <v>1.5</v>
+      </c>
+      <c r="Q425">
+        <v>1</v>
+      </c>
+      <c r="R425">
         <v>1.95</v>
       </c>
-      <c r="N425">
-        <v>3.1</v>
-      </c>
-      <c r="O425">
-        <v>3.6</v>
-      </c>
-      <c r="P425">
-        <v>2.2</v>
-      </c>
-      <c r="Q425">
-        <v>0.25</v>
-      </c>
-      <c r="R425">
-        <v>1.925</v>
-      </c>
       <c r="S425">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T425">
         <v>2.5</v>
@@ -38310,7 +38310,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6944087</v>
+        <v>6944086</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38319,49 +38319,49 @@
         <v>28</v>
       </c>
       <c r="E426" s="2">
-        <v>45340.54166666666</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F426" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G426" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K426">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="L426">
+        <v>3.6</v>
+      </c>
+      <c r="M426">
         <v>4.333</v>
       </c>
-      <c r="M426">
-        <v>1.533</v>
-      </c>
       <c r="N426">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O426">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P426">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q426">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R426">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S426">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T426">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U426">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V426">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W426">
         <v>0</v>
@@ -38384,7 +38384,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38396,46 +38396,46 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F427" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G427" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K427">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L427">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M427">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N427">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O427">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P427">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q427">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R427">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S427">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T427">
         <v>2.75</v>
       </c>
       <c r="U427">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W427">
         <v>0</v>
@@ -38450,80 +38450,6 @@
         <v>0</v>
       </c>
       <c r="AA427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:29">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="B428">
-        <v>6944014</v>
-      </c>
-      <c r="C428" t="s">
-        <v>28</v>
-      </c>
-      <c r="D428" t="s">
-        <v>28</v>
-      </c>
-      <c r="E428" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F428" t="s">
-        <v>39</v>
-      </c>
-      <c r="G428" t="s">
-        <v>34</v>
-      </c>
-      <c r="K428">
-        <v>1.615</v>
-      </c>
-      <c r="L428">
-        <v>4</v>
-      </c>
-      <c r="M428">
-        <v>5</v>
-      </c>
-      <c r="N428">
-        <v>1.533</v>
-      </c>
-      <c r="O428">
-        <v>4.2</v>
-      </c>
-      <c r="P428">
-        <v>6</v>
-      </c>
-      <c r="Q428">
-        <v>-1</v>
-      </c>
-      <c r="R428">
-        <v>1.875</v>
-      </c>
-      <c r="S428">
-        <v>1.975</v>
-      </c>
-      <c r="T428">
-        <v>2.75</v>
-      </c>
-      <c r="U428">
-        <v>1.925</v>
-      </c>
-      <c r="V428">
-        <v>1.925</v>
-      </c>
-      <c r="W428">
-        <v>0</v>
-      </c>
-      <c r="X428">
-        <v>0</v>
-      </c>
-      <c r="Y428">
-        <v>0</v>
-      </c>
-      <c r="Z428">
-        <v>0</v>
-      </c>
-      <c r="AA428">
         <v>0</v>
       </c>
     </row>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -34454,7 +34454,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6943988</v>
+        <v>6943814</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34466,76 +34466,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F382" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G382" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J382" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K382">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M382">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N382">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O382">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P382">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q382">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S382">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T382">
         <v>3</v>
       </c>
       <c r="U382">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V382">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W382">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X382">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA382">
+        <v>-1</v>
+      </c>
+      <c r="AB382">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB382">
-        <v>-1</v>
-      </c>
       <c r="AC382">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34543,7 +34543,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6943814</v>
+        <v>6943988</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34555,76 +34555,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F383" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G383" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H383">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J383" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K383">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L383">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M383">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N383">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O383">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P383">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q383">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R383">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S383">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
         <v>3</v>
       </c>
       <c r="U383">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V383">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W383">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X383">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y383">
         <v>-1</v>
       </c>
       <c r="Z383">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB383">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -35077,7 +35077,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35089,58 +35089,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F389" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G389" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H389">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>53</v>
       </c>
       <c r="K389">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L389">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M389">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N389">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O389">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P389">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q389">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R389">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S389">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T389">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V389">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X389">
         <v>-1</v>
@@ -35149,16 +35149,16 @@
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA389">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC389">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35166,7 +35166,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35178,58 +35178,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F390" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G390" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H390">
+        <v>3</v>
+      </c>
+      <c r="I390">
         <v>1</v>
-      </c>
-      <c r="I390">
-        <v>0</v>
       </c>
       <c r="J390" t="s">
         <v>53</v>
       </c>
       <c r="K390">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L390">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M390">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N390">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O390">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P390">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q390">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R390">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S390">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T390">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U390">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V390">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W390">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35238,16 +35238,16 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB390">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC390">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -39299,19 +39299,19 @@
         <v>-0.25</v>
       </c>
       <c r="R436">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S436">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T436">
         <v>2.5</v>
       </c>
       <c r="U436">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V436">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W436">
         <v>0</v>
@@ -39382,10 +39382,10 @@
         <v>2.75</v>
       </c>
       <c r="U437">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V437">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W437">
         <v>0</v>
@@ -39456,10 +39456,10 @@
         <v>2.5</v>
       </c>
       <c r="U438">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V438">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W438">
         <v>0</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -112,13 +112,13 @@
     <t>Kasimpasa</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
     <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
   </si>
   <si>
     <t>Galatasaray</t>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5603423</v>
+        <v>5579166</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,43 +916,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>1.75</v>
+      </c>
+      <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5">
-        <v>1.615</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4.75</v>
-      </c>
-      <c r="N5">
-        <v>1.363</v>
-      </c>
-      <c r="O5">
-        <v>5.25</v>
-      </c>
-      <c r="P5">
-        <v>6.5</v>
-      </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>3.75</v>
@@ -964,19 +964,19 @@
         <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0.95</v>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5579166</v>
+        <v>5575890</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,53 +1005,53 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
       <c r="K6">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U6">
+        <v>1.9</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="V6">
-        <v>1.9</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
@@ -1059,19 +1059,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.95</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5575890</v>
+        <v>5603423</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.9</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>45149.625</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2248,7 +2248,7 @@
         <v>45150.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -2426,7 +2426,7 @@
         <v>45151.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>47</v>
@@ -2785,7 +2785,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
@@ -4117,7 +4117,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -4387,7 +4387,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943893</v>
+        <v>6943780</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.875</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
         <v>1.925</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
-      <c r="U45">
-        <v>2.025</v>
-      </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
+        <v>-0</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.925</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943780</v>
+        <v>6943893</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7134050</v>
+        <v>6944042</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,76 +4651,76 @@
         <v>45171.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47">
+        <v>4.75</v>
+      </c>
+      <c r="L47">
+        <v>4.2</v>
+      </c>
+      <c r="M47">
+        <v>1.55</v>
+      </c>
+      <c r="N47">
+        <v>5.25</v>
+      </c>
+      <c r="O47">
+        <v>4.5</v>
+      </c>
+      <c r="P47">
+        <v>1.45</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>1.85</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>0.45</v>
+      </c>
+      <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47">
-        <v>1.85</v>
-      </c>
-      <c r="L47">
-        <v>3.8</v>
-      </c>
-      <c r="M47">
-        <v>3.4</v>
-      </c>
-      <c r="N47">
-        <v>1.8</v>
-      </c>
-      <c r="O47">
-        <v>3.8</v>
-      </c>
-      <c r="P47">
-        <v>3.6</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.825</v>
-      </c>
-      <c r="S47">
-        <v>2.025</v>
-      </c>
-      <c r="T47">
-        <v>2.5</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>2.025</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>2.8</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>-1</v>
-      </c>
-      <c r="AA47">
-        <v>1.025</v>
-      </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6944042</v>
+        <v>7134050</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,76 +4740,76 @@
         <v>45171.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L48">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M48">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y48">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4921,7 +4921,7 @@
         <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5096,7 +5096,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>49</v>
@@ -5274,7 +5274,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>43</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6943899</v>
+        <v>6944044</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,76 +5630,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6944044</v>
+        <v>6943899</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,76 +5719,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59">
         <v>3</v>
-      </c>
-      <c r="J59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59">
-        <v>2.1</v>
       </c>
       <c r="L59">
         <v>3.4</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
+        <v>0.25</v>
+      </c>
+      <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
+        <v>1.925</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
+        <v>1.925</v>
+      </c>
+      <c r="V59">
+        <v>1.925</v>
+      </c>
+      <c r="W59">
+        <v>2.1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>0.925</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
+        <v>0.4625</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.9</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>2.3</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB59">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6434,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6612,7 +6612,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6790,7 +6790,7 @@
         <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7321,7 +7321,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -7766,7 +7766,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>45</v>
@@ -7944,7 +7944,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8122,10 +8122,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8923,7 +8923,7 @@
         <v>45220.3125</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>47</v>
@@ -9635,7 +9635,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>45</v>
@@ -9727,7 +9727,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9905,7 +9905,7 @@
         <v>48</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943928</v>
+        <v>6944052</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N108">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6944052</v>
+        <v>6943928</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
         <v>4.2</v>
       </c>
-      <c r="M109">
-        <v>1.55</v>
-      </c>
       <c r="N109">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="O109">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q109">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
         <v>1.875</v>
       </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10261,7 +10261,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11062,7 +11062,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6944053</v>
+        <v>6944055</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,13 +11415,13 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11430,43 +11430,43 @@
         <v>53</v>
       </c>
       <c r="K123">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
+        <v>3.3</v>
+      </c>
+      <c r="M123">
+        <v>2.75</v>
+      </c>
+      <c r="N123">
+        <v>2.15</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3.1</v>
-      </c>
-      <c r="N123">
-        <v>1.95</v>
-      </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
-      <c r="P123">
-        <v>3.8</v>
-      </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11475,7 +11475,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11484,7 +11484,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6944055</v>
+        <v>6944053</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,13 +11504,13 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11519,43 +11519,43 @@
         <v>53</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
+        <v>3.1</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
+        <v>3.5</v>
+      </c>
+      <c r="P124">
+        <v>3.8</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.95</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
         <v>2.75</v>
       </c>
-      <c r="N124">
-        <v>2.15</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
-      <c r="P124">
-        <v>3.4</v>
-      </c>
-      <c r="Q124">
-        <v>-0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11564,7 +11564,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11573,7 +11573,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7437408</v>
+        <v>6943937</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,73 +11593,73 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11670,7 +11670,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6943937</v>
+        <v>7437408</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11682,73 +11682,73 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N126">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11774,7 +11774,7 @@
         <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -12394,7 +12394,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6944060</v>
+        <v>6943945</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>0</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
         <v>3.4</v>
       </c>
-      <c r="M136">
-        <v>3.2</v>
-      </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
         <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6943945</v>
+        <v>6944060</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137">
+        <v>2.2</v>
+      </c>
+      <c r="L137">
+        <v>3.4</v>
+      </c>
+      <c r="M137">
+        <v>3.2</v>
+      </c>
+      <c r="N137">
         <v>2.05</v>
       </c>
-      <c r="L137">
-        <v>3.5</v>
-      </c>
-      <c r="M137">
+      <c r="O137">
         <v>3.4</v>
       </c>
-      <c r="N137">
-        <v>2.1</v>
-      </c>
-      <c r="O137">
-        <v>3.5</v>
-      </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12839,10 +12839,10 @@
         <v>45256.3125</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,73 +13373,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K145">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
         <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,73 +13462,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13729,7 +13729,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>50</v>
@@ -13996,10 +13996,10 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14797,7 +14797,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>43</v>
@@ -14889,7 +14889,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7559194</v>
+        <v>7559193</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,34 +14975,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
         <v>3.5</v>
@@ -15011,40 +15011,40 @@
         <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7559193</v>
+        <v>7559194</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,34 +15064,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
+        <v>3.2</v>
+      </c>
+      <c r="N164">
+        <v>2.05</v>
+      </c>
+      <c r="O164">
         <v>3.5</v>
-      </c>
-      <c r="N164">
-        <v>2</v>
-      </c>
-      <c r="O164">
-        <v>3.6</v>
       </c>
       <c r="P164">
         <v>3.5</v>
@@ -15100,40 +15100,40 @@
         <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15245,7 +15245,7 @@
         <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15334,7 +15334,7 @@
         <v>49</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>45280.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943961</v>
+        <v>6943964</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,61 +15509,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L169">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q169">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.85</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.875</v>
+      </c>
+      <c r="V169">
         <v>1.975</v>
       </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
-      <c r="T169">
-        <v>3.25</v>
-      </c>
-      <c r="U169">
-        <v>1.9</v>
-      </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
       <c r="W169">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y169">
         <v>-1</v>
@@ -15572,13 +15572,13 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943964</v>
+        <v>6943961</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,61 +15598,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N170">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P170">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -15661,13 +15661,13 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>1.85</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>2.2</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
         <v>-0.5</v>
       </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
-      <c r="S171">
-        <v>1.875</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.8</v>
-      </c>
-      <c r="V171">
-        <v>2.05</v>
-      </c>
-      <c r="W171">
-        <v>0.909</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB171">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
+        <v>3.6</v>
+      </c>
+      <c r="P172">
         <v>3.2</v>
       </c>
-      <c r="P172">
-        <v>3.1</v>
-      </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
         <v>1.875</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>38</v>
@@ -16313,7 +16313,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16399,7 +16399,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>46</v>
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,73 +16577,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N181">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q181">
         <v>0</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,73 +16666,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q182">
         <v>0</v>
       </c>
       <c r="R182">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N183">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O183">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z183">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y184">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA184">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
         <v>4</v>
       </c>
-      <c r="M186">
-        <v>4.5</v>
-      </c>
       <c r="N186">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17292,7 +17292,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6944070</v>
+        <v>6943807</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45297.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L190">
         <v>3.4</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N190">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P190">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.825</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
-      <c r="AC190">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6943807</v>
+        <v>6944070</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45297.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
       <c r="J191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K191">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L191">
         <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N191">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O191">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z191">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17556,7 +17556,7 @@
         <v>45298.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>36</v>
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7589559</v>
+        <v>7589561</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,76 +18179,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N199">
         <v>2.1</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
         <v>3.4</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
         <v>1.875</v>
       </c>
-      <c r="V199">
-        <v>1.975</v>
-      </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,7 +18256,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7589561</v>
+        <v>7589559</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18268,76 +18268,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K200">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L200">
         <v>3.5</v>
       </c>
       <c r="M200">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N200">
         <v>2.1</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
         <v>3.4</v>
       </c>
       <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.875</v>
+      </c>
+      <c r="V200">
+        <v>1.975</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2.4</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
         <v>-0.5</v>
       </c>
-      <c r="R200">
-        <v>2</v>
-      </c>
-      <c r="S200">
-        <v>1.85</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
-      <c r="W200">
-        <v>1.1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>1</v>
-      </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18446,7 +18446,7 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18624,7 +18624,7 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
         <v>50</v>
@@ -18983,7 +18983,7 @@
         <v>47</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6943980</v>
+        <v>6943810</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>45305.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L211">
         <v>3.4</v>
       </c>
       <c r="M211">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N211">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O211">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
+        <v>1.825</v>
+      </c>
+      <c r="V211">
         <v>2.025</v>
       </c>
-      <c r="V211">
-        <v>1.825</v>
-      </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X211">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA211">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6943810</v>
+        <v>6943980</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>45305.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L212">
         <v>3.4</v>
       </c>
       <c r="M212">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>2.025</v>
-      </c>
       <c r="W212">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB212">
         <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.5125</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19517,7 +19517,7 @@
         <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19959,7 +19959,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20315,7 +20315,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
         <v>35</v>
@@ -20404,7 +20404,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
         <v>41</v>
@@ -20585,7 +20585,7 @@
         <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -21119,7 +21119,7 @@
         <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21297,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21472,7 +21472,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
         <v>48</v>
@@ -21917,7 +21917,7 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -22083,7 +22083,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6944078</v>
+        <v>6944077</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22095,76 +22095,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M243">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N243">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O243">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="P243">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Q243">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R243">
+        <v>1.975</v>
+      </c>
+      <c r="S243">
+        <v>1.875</v>
+      </c>
+      <c r="T243">
+        <v>3.5</v>
+      </c>
+      <c r="U243">
         <v>1.925</v>
       </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.925</v>
       </c>
-      <c r="T243">
-        <v>3</v>
-      </c>
-      <c r="U243">
-        <v>1.975</v>
-      </c>
-      <c r="V243">
-        <v>1.875</v>
-      </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
+        <v>0.875</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
         <v>0.925</v>
-      </c>
-      <c r="AB243">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC243">
-        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22172,7 +22172,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6944077</v>
+        <v>6944078</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22184,76 +22184,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K244">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L244">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N244">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O244">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="P244">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q244">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R244">
+        <v>1.925</v>
+      </c>
+      <c r="S244">
+        <v>1.925</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
         <v>1.975</v>
       </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.875</v>
       </c>
-      <c r="T244">
-        <v>3.5</v>
-      </c>
-      <c r="U244">
-        <v>1.925</v>
-      </c>
-      <c r="V244">
-        <v>1.925</v>
-      </c>
       <c r="W244">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22261,7 +22261,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6943999</v>
+        <v>6944002</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22273,76 +22273,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K245">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L245">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N245">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O245">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB245">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6944002</v>
+        <v>6943999</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,76 +22362,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G246" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246" t="s">
+        <v>53</v>
+      </c>
+      <c r="K246">
+        <v>2.4</v>
+      </c>
+      <c r="L246">
+        <v>3.2</v>
+      </c>
+      <c r="M246">
+        <v>3</v>
+      </c>
+      <c r="N246">
+        <v>2.7</v>
+      </c>
+      <c r="O246">
+        <v>3.1</v>
+      </c>
+      <c r="P246">
+        <v>2.6</v>
+      </c>
+      <c r="Q246">
         <v>0</v>
       </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-      <c r="J246" t="s">
-        <v>51</v>
-      </c>
-      <c r="K246">
-        <v>2.1</v>
-      </c>
-      <c r="L246">
-        <v>3.4</v>
-      </c>
-      <c r="M246">
-        <v>3.4</v>
-      </c>
-      <c r="N246">
-        <v>1.909</v>
-      </c>
-      <c r="O246">
-        <v>3.5</v>
-      </c>
-      <c r="P246">
-        <v>4</v>
-      </c>
-      <c r="Q246">
-        <v>-0.5</v>
-      </c>
       <c r="R246">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X246">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA246">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC246">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22810,7 +22810,7 @@
         <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -22899,7 +22899,7 @@
         <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23077,7 +23077,7 @@
         <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -23163,7 +23163,7 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>31</v>
@@ -23786,7 +23786,7 @@
         <v>45334.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G262" t="s">
         <v>48</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7790196</v>
+        <v>6944007</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K263">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L263">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
+        <v>2.1</v>
+      </c>
+      <c r="N263">
+        <v>3.2</v>
+      </c>
+      <c r="O263">
+        <v>3.6</v>
+      </c>
+      <c r="P263">
+        <v>2.15</v>
+      </c>
+      <c r="Q263">
+        <v>0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.975</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
         <v>2.75</v>
       </c>
-      <c r="N263">
-        <v>2.05</v>
-      </c>
-      <c r="O263">
-        <v>3.3</v>
-      </c>
-      <c r="P263">
-        <v>3.6</v>
-      </c>
-      <c r="Q263">
-        <v>-0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.775</v>
-      </c>
-      <c r="S263">
-        <v>2.1</v>
-      </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6944007</v>
+        <v>7790196</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K264">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L264">
+        <v>3.4</v>
+      </c>
+      <c r="M264">
+        <v>2.75</v>
+      </c>
+      <c r="N264">
+        <v>2.05</v>
+      </c>
+      <c r="O264">
+        <v>3.3</v>
+      </c>
+      <c r="P264">
         <v>3.6</v>
       </c>
-      <c r="M264">
+      <c r="Q264">
+        <v>-0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.775</v>
+      </c>
+      <c r="S264">
         <v>2.1</v>
       </c>
-      <c r="N264">
-        <v>3.2</v>
-      </c>
-      <c r="O264">
-        <v>3.6</v>
-      </c>
-      <c r="P264">
-        <v>2.15</v>
-      </c>
-      <c r="Q264">
-        <v>0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.975</v>
-      </c>
-      <c r="S264">
-        <v>1.875</v>
-      </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
         <v>-0.5</v>
       </c>
-      <c r="AB264">
-        <v>-1</v>
-      </c>
       <c r="AC264">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24412,7 +24412,7 @@
         <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>3</v>
@@ -24501,7 +24501,7 @@
         <v>43</v>
       </c>
       <c r="G270" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K273">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L273">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N273">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O273">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P273">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q273">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R273">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S273">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6944014</v>
+        <v>6944086</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,76 +24854,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H274">
         <v>2</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N274">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O274">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P274">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S274">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>1.875</v>
+      </c>
+      <c r="V274">
+        <v>1.975</v>
+      </c>
+      <c r="W274">
+        <v>-1</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
         <v>2.75</v>
       </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
-      <c r="V274">
-        <v>1.85</v>
-      </c>
-      <c r="W274">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X274">
-        <v>-1</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
       <c r="Z274">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25032,7 +25032,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25477,10 +25477,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F281" t="s">
+        <v>34</v>
+      </c>
+      <c r="G281" t="s">
         <v>32</v>
-      </c>
-      <c r="G281" t="s">
-        <v>33</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -26014,7 +26014,7 @@
         <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -26456,7 +26456,7 @@
         <v>45355.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G292" t="s">
         <v>37</v>
@@ -26548,7 +26548,7 @@
         <v>45</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H293">
         <v>3</v>
@@ -26904,7 +26904,7 @@
         <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -26990,7 +26990,7 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
         <v>37</v>
@@ -27168,7 +27168,7 @@
         <v>45361.3125</v>
       </c>
       <c r="F300" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27794,7 +27794,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28058,7 +28058,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G310" t="s">
         <v>36</v>
@@ -28414,7 +28414,7 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
         <v>44</v>
@@ -28876,7 +28876,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K320">
         <v>1.25</v>
@@ -28947,7 +28947,7 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G321" t="s">
         <v>31</v>
@@ -29024,7 +29024,7 @@
         <v>29</v>
       </c>
       <c r="G322" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K322">
         <v>3.5</v>
@@ -29196,10 +29196,10 @@
         <v>0</v>
       </c>
       <c r="R324">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T324">
         <v>2.5</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -112,13 +112,13 @@
     <t>Kasimpasa</t>
   </si>
   <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
     <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
   </si>
   <si>
     <t>Galatasaray</t>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5579166</v>
+        <v>5603423</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,43 +916,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>3.75</v>
@@ -964,19 +964,19 @@
         <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>0.95</v>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5575890</v>
+        <v>5579166</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,53 +1005,53 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
       <c r="K6">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.9</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
@@ -1059,19 +1059,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5603423</v>
+        <v>5575890</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N7">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U7">
+        <v>1.9</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.95</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>45149.625</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2248,7 +2248,7 @@
         <v>45150.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -2426,7 +2426,7 @@
         <v>45151.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>47</v>
@@ -2785,7 +2785,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943888</v>
+        <v>6943778</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,49 +4028,49 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
         <v>1.925</v>
@@ -4079,25 +4079,25 @@
         <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6943778</v>
+        <v>6943888</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,49 +4117,49 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
+        <v>2.875</v>
+      </c>
+      <c r="N41">
+        <v>2.25</v>
+      </c>
+      <c r="O41">
         <v>3.4</v>
       </c>
-      <c r="M41">
-        <v>2.8</v>
-      </c>
-      <c r="N41">
-        <v>2.5</v>
-      </c>
-      <c r="O41">
-        <v>3.3</v>
-      </c>
       <c r="P41">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
         <v>1.925</v>
@@ -4168,25 +4168,25 @@
         <v>1.925</v>
       </c>
       <c r="W41">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.925</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943780</v>
+        <v>6943893</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943893</v>
+        <v>6943780</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
+        <v>1.975</v>
+      </c>
+      <c r="S46">
+        <v>1.875</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
         <v>1.925</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-      <c r="U46">
-        <v>2.025</v>
-      </c>
-      <c r="V46">
-        <v>1.825</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
+        <v>-0</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.925</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4743,7 +4743,7 @@
         <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4921,7 +4921,7 @@
         <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5096,7 +5096,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>49</v>
@@ -5274,7 +5274,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>43</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6944044</v>
+        <v>6943899</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,76 +5630,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58">
         <v>3</v>
-      </c>
-      <c r="J58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58">
-        <v>2.1</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q58">
+        <v>0.25</v>
+      </c>
+      <c r="R58">
+        <v>1.925</v>
+      </c>
+      <c r="S58">
+        <v>1.925</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.925</v>
+      </c>
+      <c r="V58">
+        <v>1.925</v>
+      </c>
+      <c r="W58">
+        <v>2.1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
+        <v>0.925</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
+        <v>0.4625</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.9</v>
-      </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>2.3</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
-      <c r="AA58">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB58">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6943899</v>
+        <v>6944044</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,76 +5719,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB59">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6434,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6612,7 +6612,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6790,7 +6790,7 @@
         <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7321,7 +7321,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -7766,7 +7766,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>45</v>
@@ -7944,7 +7944,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8122,10 +8122,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
         <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8923,7 +8923,7 @@
         <v>45220.3125</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>47</v>
@@ -9635,7 +9635,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>45</v>
@@ -9727,7 +9727,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9905,7 +9905,7 @@
         <v>48</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10261,7 +10261,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6943924</v>
+        <v>6943792</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10347,76 +10347,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111" t="s">
+        <v>52</v>
+      </c>
+      <c r="K111">
+        <v>8</v>
+      </c>
+      <c r="L111">
+        <v>5.25</v>
+      </c>
+      <c r="M111">
+        <v>1.333</v>
+      </c>
+      <c r="N111">
+        <v>8.5</v>
+      </c>
+      <c r="O111">
+        <v>5.5</v>
+      </c>
+      <c r="P111">
+        <v>1.3</v>
+      </c>
+      <c r="Q111">
+        <v>1.75</v>
+      </c>
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.3</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>53</v>
-      </c>
-      <c r="K111">
-        <v>2.2</v>
-      </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>2.05</v>
-      </c>
-      <c r="O111">
-        <v>3.4</v>
-      </c>
-      <c r="P111">
-        <v>3.6</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>2.1</v>
-      </c>
-      <c r="S111">
-        <v>1.775</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
-      <c r="W111">
-        <v>1.05</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>1.1</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6943792</v>
+        <v>6943924</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10436,76 +10436,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>5</v>
-      </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K112">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q112">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>1.775</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
         <v>1.85</v>
       </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="T112">
-        <v>3.25</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>1</v>
-      </c>
-      <c r="AB112">
-        <v>0.925</v>
-      </c>
-      <c r="AC112">
-        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10973,7 +10973,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11062,7 +11062,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11504,7 +11504,7 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>45</v>
@@ -11593,7 +11593,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -11774,7 +11774,7 @@
         <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6943938</v>
+        <v>6943608</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,10 +12216,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12231,43 +12231,43 @@
         <v>53</v>
       </c>
       <c r="K132">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
+        <v>4.75</v>
+      </c>
+      <c r="N132">
+        <v>1.615</v>
+      </c>
+      <c r="O132">
+        <v>3.75</v>
+      </c>
+      <c r="P132">
         <v>5.5</v>
-      </c>
-      <c r="N132">
-        <v>1.7</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
-      <c r="P132">
-        <v>4.333</v>
       </c>
       <c r="Q132">
         <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,7 +12276,7 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AA132">
         <v>-0.5</v>
@@ -12285,7 +12285,7 @@
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6943608</v>
+        <v>6943938</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,10 +12305,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12320,43 +12320,43 @@
         <v>53</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L133">
+        <v>4.2</v>
+      </c>
+      <c r="M133">
+        <v>5.5</v>
+      </c>
+      <c r="N133">
+        <v>1.7</v>
+      </c>
+      <c r="O133">
         <v>3.6</v>
       </c>
-      <c r="M133">
-        <v>4.75</v>
-      </c>
-      <c r="N133">
-        <v>1.615</v>
-      </c>
-      <c r="O133">
-        <v>3.75</v>
-      </c>
       <c r="P133">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q133">
         <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12365,7 +12365,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AA133">
         <v>-0.5</v>
@@ -12374,7 +12374,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6943945</v>
+        <v>6944060</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K136">
+        <v>2.2</v>
+      </c>
+      <c r="L136">
+        <v>3.4</v>
+      </c>
+      <c r="M136">
+        <v>3.2</v>
+      </c>
+      <c r="N136">
         <v>2.05</v>
       </c>
-      <c r="L136">
-        <v>3.5</v>
-      </c>
-      <c r="M136">
+      <c r="O136">
         <v>3.4</v>
       </c>
-      <c r="N136">
-        <v>2.1</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6944060</v>
+        <v>6943945</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>0</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
       <c r="J137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
         <v>3.4</v>
       </c>
-      <c r="M137">
-        <v>3.2</v>
-      </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
         <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12839,10 +12839,10 @@
         <v>45256.3125</v>
       </c>
       <c r="F139" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
         <v>33</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,73 +13373,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L145">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
         <v>1.9</v>
-      </c>
-      <c r="S145">
-        <v>1.95</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,73 +13462,73 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="N146">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13729,7 +13729,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>50</v>
@@ -13996,10 +13996,10 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
         <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>33</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14797,7 +14797,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>43</v>
@@ -14889,7 +14889,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15245,7 +15245,7 @@
         <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15334,7 +15334,7 @@
         <v>49</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>45280.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943964</v>
+        <v>6943961</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,61 +15509,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N169">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
@@ -15572,13 +15572,13 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943961</v>
+        <v>6943964</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,61 +15598,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
         <v>1.975</v>
       </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>3.25</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
       <c r="W170">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -15661,13 +15661,13 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O171">
+        <v>3.6</v>
+      </c>
+      <c r="P171">
         <v>3.2</v>
       </c>
-      <c r="P171">
-        <v>3.1</v>
-      </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
         <v>1.875</v>
       </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>1.85</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>2.2</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
         <v>-0.5</v>
       </c>
-      <c r="R172">
-        <v>1.975</v>
-      </c>
-      <c r="S172">
-        <v>1.875</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
-      <c r="V172">
-        <v>2.05</v>
-      </c>
-      <c r="W172">
-        <v>0.909</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N173">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O173">
+        <v>3.8</v>
+      </c>
+      <c r="P173">
+        <v>4.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>1.8</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>3.5</v>
       </c>
-      <c r="P173">
-        <v>2.875</v>
-      </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.925</v>
-      </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>2.025</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.5</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
         <v>38</v>
@@ -16313,7 +16313,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16399,7 +16399,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>46</v>
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N183">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y183">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA183">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P184">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z184">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P186">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L187">
+        <v>3.5</v>
+      </c>
+      <c r="M187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>4.5</v>
-      </c>
       <c r="N187">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17292,7 +17292,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6943807</v>
+        <v>6944070</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45297.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K190">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L190">
         <v>3.4</v>
       </c>
       <c r="M190">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6944070</v>
+        <v>6943807</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45297.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
       <c r="J191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K191">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L191">
         <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P191">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.825</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17556,7 +17556,7 @@
         <v>45298.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
         <v>36</v>
@@ -18182,7 +18182,7 @@
         <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7589566</v>
+        <v>7589558</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,73 +18357,73 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H201">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K201">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L201">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M201">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="N201">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P201">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="Q201">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
         <v>3.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB201">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18434,7 +18434,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7589558</v>
+        <v>7589566</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18446,73 +18446,73 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K202">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L202">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M202">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="N202">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O202">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P202">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T202">
         <v>3.25</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X202">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18624,7 +18624,7 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
         <v>50</v>
@@ -18983,7 +18983,7 @@
         <v>47</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6943810</v>
+        <v>6943980</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>45305.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L211">
         <v>3.4</v>
       </c>
       <c r="M211">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N211">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q211">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="V211">
-        <v>2.025</v>
-      </c>
       <c r="W211">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB211">
         <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.5125</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6943980</v>
+        <v>6943810</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>45305.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
         <v>3.4</v>
       </c>
       <c r="M212">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N212">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
         <v>2.025</v>
       </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X212">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA212">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19517,7 +19517,7 @@
         <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19959,7 +19959,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20315,7 +20315,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
         <v>35</v>
@@ -20404,7 +20404,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>41</v>
@@ -20585,7 +20585,7 @@
         <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20926,7 +20926,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20938,76 +20938,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K230">
+        <v>1.95</v>
+      </c>
+      <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>3.8</v>
+      </c>
+      <c r="N230">
+        <v>1.615</v>
+      </c>
+      <c r="O230">
+        <v>3.8</v>
+      </c>
+      <c r="P230">
         <v>6</v>
       </c>
-      <c r="L230">
-        <v>4</v>
-      </c>
-      <c r="M230">
-        <v>1.5</v>
-      </c>
-      <c r="N230">
-        <v>6</v>
-      </c>
-      <c r="O230">
-        <v>4.5</v>
-      </c>
-      <c r="P230">
-        <v>1.5</v>
-      </c>
       <c r="Q230">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21015,7 +21015,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21027,76 +21027,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K231">
+        <v>6</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>1.5</v>
+      </c>
+      <c r="N231">
+        <v>6</v>
+      </c>
+      <c r="O231">
+        <v>4.5</v>
+      </c>
+      <c r="P231">
+        <v>1.5</v>
+      </c>
+      <c r="Q231">
+        <v>1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.85</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.9</v>
+      </c>
+      <c r="V231">
         <v>1.95</v>
       </c>
-      <c r="L231">
-        <v>3.4</v>
-      </c>
-      <c r="M231">
-        <v>3.8</v>
-      </c>
-      <c r="N231">
-        <v>1.615</v>
-      </c>
-      <c r="O231">
-        <v>3.8</v>
-      </c>
-      <c r="P231">
-        <v>6</v>
-      </c>
-      <c r="Q231">
-        <v>-0.75</v>
-      </c>
-      <c r="R231">
-        <v>1.8</v>
-      </c>
-      <c r="S231">
-        <v>2.05</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>1.875</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
       <c r="W231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z231">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21119,7 +21119,7 @@
         <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,58 +21205,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>53</v>
       </c>
       <c r="K233">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L233">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N233">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O233">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21265,16 +21265,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,58 +21294,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
         <v>1</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>53</v>
       </c>
       <c r="K234">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M234">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N234">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,16 +21354,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21472,7 +21472,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
         <v>48</v>
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7741868</v>
+        <v>6944591</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,10 +21917,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21932,61 +21932,61 @@
         <v>51</v>
       </c>
       <c r="K241">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L241">
         <v>3.5</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N241">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P241">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q241">
         <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S241">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA241">
         <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC241">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6944591</v>
+        <v>7741868</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,10 +22006,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G242" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22021,61 +22021,61 @@
         <v>51</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L242">
         <v>3.5</v>
       </c>
       <c r="M242">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N242">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q242">
         <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="AA242">
         <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,7 +22083,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6944077</v>
+        <v>6944078</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22095,76 +22095,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K243">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L243">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M243">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N243">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O243">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="P243">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q243">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
         <v>1.975</v>
       </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.875</v>
       </c>
-      <c r="T243">
-        <v>3.5</v>
-      </c>
-      <c r="U243">
-        <v>1.925</v>
-      </c>
-      <c r="V243">
-        <v>1.925</v>
-      </c>
       <c r="W243">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC243">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22172,7 +22172,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6944078</v>
+        <v>6944077</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22184,76 +22184,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K244">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M244">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N244">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O244">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="P244">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Q244">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R244">
+        <v>1.975</v>
+      </c>
+      <c r="S244">
+        <v>1.875</v>
+      </c>
+      <c r="T244">
+        <v>3.5</v>
+      </c>
+      <c r="U244">
         <v>1.925</v>
       </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.925</v>
       </c>
-      <c r="T244">
-        <v>3</v>
-      </c>
-      <c r="U244">
-        <v>1.975</v>
-      </c>
-      <c r="V244">
-        <v>1.875</v>
-      </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
+        <v>0.875</v>
+      </c>
+      <c r="AB244">
+        <v>-1</v>
+      </c>
+      <c r="AC244">
         <v>0.925</v>
-      </c>
-      <c r="AB244">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC244">
-        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6944001</v>
+        <v>6944079</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,76 +22718,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M250">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="N250">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O250">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="Q250">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
         <v>1.975</v>
       </c>
-      <c r="S250">
-        <v>1.875</v>
-      </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y250">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6944079</v>
+        <v>6944001</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" t="s">
+        <v>52</v>
+      </c>
+      <c r="K251">
+        <v>5.5</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>1.571</v>
+      </c>
+      <c r="N251">
+        <v>6</v>
+      </c>
+      <c r="O251">
+        <v>4.2</v>
+      </c>
+      <c r="P251">
+        <v>1.533</v>
+      </c>
+      <c r="Q251">
         <v>1</v>
       </c>
-      <c r="I251">
-        <v>1</v>
-      </c>
-      <c r="J251" t="s">
-        <v>51</v>
-      </c>
-      <c r="K251">
-        <v>2.2</v>
-      </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.1</v>
-      </c>
-      <c r="N251">
-        <v>2.15</v>
-      </c>
-      <c r="O251">
-        <v>3.5</v>
-      </c>
-      <c r="P251">
-        <v>3.3</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
       <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
         <v>1.875</v>
       </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22899,7 +22899,7 @@
         <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23077,7 +23077,7 @@
         <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -23163,7 +23163,7 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
         <v>31</v>
@@ -23786,7 +23786,7 @@
         <v>45334.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
         <v>48</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6944007</v>
+        <v>7790196</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L263">
+        <v>3.4</v>
+      </c>
+      <c r="M263">
+        <v>2.75</v>
+      </c>
+      <c r="N263">
+        <v>2.05</v>
+      </c>
+      <c r="O263">
+        <v>3.3</v>
+      </c>
+      <c r="P263">
         <v>3.6</v>
       </c>
-      <c r="M263">
+      <c r="Q263">
+        <v>-0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.775</v>
+      </c>
+      <c r="S263">
         <v>2.1</v>
       </c>
-      <c r="N263">
-        <v>3.2</v>
-      </c>
-      <c r="O263">
-        <v>3.6</v>
-      </c>
-      <c r="P263">
-        <v>2.15</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.975</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>-0.5</v>
       </c>
-      <c r="AB263">
-        <v>-1</v>
-      </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7790196</v>
+        <v>6944007</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
+        <v>2.1</v>
+      </c>
+      <c r="N264">
+        <v>3.2</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
+        <v>2.15</v>
+      </c>
+      <c r="Q264">
+        <v>0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.975</v>
+      </c>
+      <c r="S264">
+        <v>1.875</v>
+      </c>
+      <c r="T264">
         <v>2.75</v>
       </c>
-      <c r="N264">
-        <v>2.05</v>
-      </c>
-      <c r="O264">
-        <v>3.3</v>
-      </c>
-      <c r="P264">
-        <v>3.6</v>
-      </c>
-      <c r="Q264">
-        <v>-0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.775</v>
-      </c>
-      <c r="S264">
-        <v>2.1</v>
-      </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24412,7 +24412,7 @@
         <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H269">
         <v>3</v>
@@ -24501,7 +24501,7 @@
         <v>43</v>
       </c>
       <c r="G270" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -24857,7 +24857,7 @@
         <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -25032,7 +25032,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25477,10 +25477,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -26014,7 +26014,7 @@
         <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -26456,7 +26456,7 @@
         <v>45355.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G292" t="s">
         <v>37</v>
@@ -26548,7 +26548,7 @@
         <v>45</v>
       </c>
       <c r="G293" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H293">
         <v>3</v>
@@ -26904,7 +26904,7 @@
         <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -26990,7 +26990,7 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G298" t="s">
         <v>37</v>
@@ -27168,7 +27168,7 @@
         <v>45361.3125</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27794,7 +27794,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28058,7 +28058,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G310" t="s">
         <v>36</v>
@@ -28414,7 +28414,7 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
         <v>44</v>
@@ -28530,19 +28530,19 @@
         <v>0.5</v>
       </c>
       <c r="R315">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
         <v>2.75</v>
       </c>
       <c r="U315">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28678,10 +28678,10 @@
         <v>-2</v>
       </c>
       <c r="R317">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S317">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T317">
         <v>3.25</v>
@@ -28861,7 +28861,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7083168</v>
+        <v>7054700</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28873,46 +28873,46 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F320" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G320" t="s">
         <v>32</v>
       </c>
       <c r="K320">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L320">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M320">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="N320">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O320">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q320">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R320">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S320">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T320">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28947,7 +28947,7 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G321" t="s">
         <v>31</v>
@@ -29009,7 +29009,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7054700</v>
+        <v>7083168</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29021,46 +29021,46 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F322" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G322" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K322">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L322">
+        <v>6</v>
+      </c>
+      <c r="M322">
+        <v>8.5</v>
+      </c>
+      <c r="N322">
+        <v>1.25</v>
+      </c>
+      <c r="O322">
+        <v>6</v>
+      </c>
+      <c r="P322">
+        <v>8.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.75</v>
+      </c>
+      <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
+        <v>1.875</v>
+      </c>
+      <c r="T322">
         <v>3.25</v>
       </c>
-      <c r="M322">
-        <v>2.05</v>
-      </c>
-      <c r="N322">
-        <v>3.5</v>
-      </c>
-      <c r="O322">
-        <v>3.25</v>
-      </c>
-      <c r="P322">
-        <v>2.05</v>
-      </c>
-      <c r="Q322">
-        <v>0.25</v>
-      </c>
-      <c r="R322">
-        <v>2.05</v>
-      </c>
-      <c r="S322">
-        <v>1.8</v>
-      </c>
-      <c r="T322">
-        <v>2.25</v>
-      </c>
       <c r="U322">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29122,10 +29122,10 @@
         <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T323">
         <v>2.5</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC324"/>
+  <dimension ref="A1:AC320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O171">
+        <v>3.6</v>
+      </c>
+      <c r="P171">
         <v>3.2</v>
       </c>
-      <c r="P171">
-        <v>3.1</v>
-      </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
         <v>1.875</v>
       </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>1.85</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>2.2</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
         <v>-0.5</v>
       </c>
-      <c r="R172">
-        <v>1.975</v>
-      </c>
-      <c r="S172">
-        <v>1.875</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
-      <c r="V172">
-        <v>2.05</v>
-      </c>
-      <c r="W172">
-        <v>0.909</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,73 +16577,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N181">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q181">
         <v>0</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,73 +16666,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q182">
         <v>0</v>
       </c>
       <c r="R182">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
         <v>4</v>
       </c>
-      <c r="M186">
-        <v>4.5</v>
-      </c>
       <c r="N186">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,56 +18001,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J197" t="s">
         <v>52</v>
       </c>
       <c r="K197">
+        <v>2.625</v>
+      </c>
+      <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>2.4</v>
+      </c>
+      <c r="N197">
         <v>2.375</v>
-      </c>
-      <c r="L197">
-        <v>3.5</v>
-      </c>
-      <c r="M197">
-        <v>2.75</v>
-      </c>
-      <c r="N197">
-        <v>2.25</v>
       </c>
       <c r="O197">
         <v>3.6</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
         <v>2.75</v>
       </c>
       <c r="U197">
+        <v>1.975</v>
+      </c>
+      <c r="V197">
         <v>1.875</v>
       </c>
-      <c r="V197">
-        <v>1.975</v>
-      </c>
       <c r="W197">
         <v>-1</v>
       </c>
@@ -18058,19 +18058,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,56 +18090,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
         <v>52</v>
       </c>
       <c r="K198">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N198">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O198">
         <v>3.6</v>
       </c>
       <c r="P198">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
+        <v>1.875</v>
+      </c>
+      <c r="V198">
         <v>1.975</v>
       </c>
-      <c r="V198">
-        <v>1.875</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
@@ -18147,19 +18147,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,58 +21205,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>53</v>
       </c>
       <c r="K233">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M233">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N233">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O233">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R233">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21265,16 +21265,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,58 +21294,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>53</v>
       </c>
       <c r="K234">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L234">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N234">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O234">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P234">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,16 +21354,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6944591</v>
+        <v>7741868</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,10 +21917,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21932,61 +21932,61 @@
         <v>51</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L241">
         <v>3.5</v>
       </c>
       <c r="M241">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O241">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q241">
         <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="AA241">
         <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7741868</v>
+        <v>6944591</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,10 +22006,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22021,61 +22021,61 @@
         <v>51</v>
       </c>
       <c r="K242">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L242">
         <v>3.5</v>
       </c>
       <c r="M242">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N242">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O242">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q242">
         <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V242">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA242">
         <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC242">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6944079</v>
+        <v>6944001</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,76 +22718,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G250" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="L250">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M250">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="N250">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P250">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R250">
+        <v>1.975</v>
+      </c>
+      <c r="S250">
         <v>1.875</v>
       </c>
-      <c r="S250">
-        <v>1.975</v>
-      </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6944001</v>
+        <v>6944079</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K251">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="N251">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O251">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
+        <v>1.875</v>
+      </c>
+      <c r="S251">
         <v>1.975</v>
       </c>
-      <c r="S251">
-        <v>1.875</v>
-      </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7790196</v>
+        <v>6944007</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K263">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L263">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
+        <v>2.1</v>
+      </c>
+      <c r="N263">
+        <v>3.2</v>
+      </c>
+      <c r="O263">
+        <v>3.6</v>
+      </c>
+      <c r="P263">
+        <v>2.15</v>
+      </c>
+      <c r="Q263">
+        <v>0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.975</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
         <v>2.75</v>
       </c>
-      <c r="N263">
-        <v>2.05</v>
-      </c>
-      <c r="O263">
-        <v>3.3</v>
-      </c>
-      <c r="P263">
-        <v>3.6</v>
-      </c>
-      <c r="Q263">
-        <v>-0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.775</v>
-      </c>
-      <c r="S263">
-        <v>2.1</v>
-      </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6944007</v>
+        <v>7790196</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K264">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L264">
+        <v>3.4</v>
+      </c>
+      <c r="M264">
+        <v>2.75</v>
+      </c>
+      <c r="N264">
+        <v>2.05</v>
+      </c>
+      <c r="O264">
+        <v>3.3</v>
+      </c>
+      <c r="P264">
         <v>3.6</v>
       </c>
-      <c r="M264">
+      <c r="Q264">
+        <v>-0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.775</v>
+      </c>
+      <c r="S264">
         <v>2.1</v>
       </c>
-      <c r="N264">
-        <v>3.2</v>
-      </c>
-      <c r="O264">
-        <v>3.6</v>
-      </c>
-      <c r="P264">
-        <v>2.15</v>
-      </c>
-      <c r="Q264">
-        <v>0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.975</v>
-      </c>
-      <c r="S264">
-        <v>1.875</v>
-      </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
         <v>-0.5</v>
       </c>
-      <c r="AB264">
-        <v>-1</v>
-      </c>
       <c r="AC264">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6944014</v>
+        <v>6944086</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G273" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K273">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M273">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N273">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O273">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P273">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q273">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R273">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S273">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T273">
+        <v>2.5</v>
+      </c>
+      <c r="U273">
+        <v>1.875</v>
+      </c>
+      <c r="V273">
+        <v>1.975</v>
+      </c>
+      <c r="W273">
+        <v>-1</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
         <v>2.75</v>
       </c>
-      <c r="U273">
-        <v>2</v>
-      </c>
-      <c r="V273">
-        <v>1.85</v>
-      </c>
-      <c r="W273">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X273">
-        <v>-1</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
       <c r="Z273">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC273">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,76 +24854,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H274">
         <v>2</v>
       </c>
       <c r="I274">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K274">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L274">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M274">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O274">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P274">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R274">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U274">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6944018</v>
+        <v>6944017</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,34 +25477,34 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G281" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L281">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N281">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O281">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P281">
         <v>4.2</v>
@@ -25513,40 +25513,40 @@
         <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6944017</v>
+        <v>6944018</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25566,34 +25566,34 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K282">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L282">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M282">
+        <v>4.75</v>
+      </c>
+      <c r="N282">
+        <v>1.8</v>
+      </c>
+      <c r="O282">
         <v>3.8</v>
-      </c>
-      <c r="N282">
-        <v>1.909</v>
-      </c>
-      <c r="O282">
-        <v>3.5</v>
       </c>
       <c r="P282">
         <v>4.2</v>
@@ -25602,40 +25602,40 @@
         <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X282">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -28847,7 +28847,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7065026</v>
+        <v>7061065</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28856,49 +28856,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45385.45833333334</v>
+        <v>45386.60416666666</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G319" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K319">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L319">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M319">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N319">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O319">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P319">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q319">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S319">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V319">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28921,7 +28921,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7083168</v>
+        <v>7070428</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28930,49 +28930,49 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45385.60416666666</v>
+        <v>45386.60416666666</v>
       </c>
       <c r="F320" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G320" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K320">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L320">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M320">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N320">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O320">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q320">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R320">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S320">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T320">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
         <v>1.9</v>
-      </c>
-      <c r="V320">
-        <v>1.95</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28987,302 +28987,6 @@
         <v>0</v>
       </c>
       <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>7061067</v>
-      </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
-        <v>45385.60416666666</v>
-      </c>
-      <c r="F321" t="s">
-        <v>31</v>
-      </c>
-      <c r="G321" t="s">
-        <v>32</v>
-      </c>
-      <c r="K321">
-        <v>2.1</v>
-      </c>
-      <c r="L321">
-        <v>3.75</v>
-      </c>
-      <c r="M321">
-        <v>3</v>
-      </c>
-      <c r="N321">
-        <v>2.15</v>
-      </c>
-      <c r="O321">
-        <v>3.75</v>
-      </c>
-      <c r="P321">
-        <v>3.1</v>
-      </c>
-      <c r="Q321">
-        <v>-0.25</v>
-      </c>
-      <c r="R321">
-        <v>1.875</v>
-      </c>
-      <c r="S321">
-        <v>1.975</v>
-      </c>
-      <c r="T321">
-        <v>3</v>
-      </c>
-      <c r="U321">
-        <v>1.875</v>
-      </c>
-      <c r="V321">
-        <v>1.975</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>7054700</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45385.60416666666</v>
-      </c>
-      <c r="F322" t="s">
-        <v>29</v>
-      </c>
-      <c r="G322" t="s">
-        <v>34</v>
-      </c>
-      <c r="K322">
-        <v>3.5</v>
-      </c>
-      <c r="L322">
-        <v>3.25</v>
-      </c>
-      <c r="M322">
-        <v>2.05</v>
-      </c>
-      <c r="N322">
-        <v>3.5</v>
-      </c>
-      <c r="O322">
-        <v>3.4</v>
-      </c>
-      <c r="P322">
-        <v>2.1</v>
-      </c>
-      <c r="Q322">
-        <v>0.25</v>
-      </c>
-      <c r="R322">
-        <v>2.025</v>
-      </c>
-      <c r="S322">
-        <v>1.825</v>
-      </c>
-      <c r="T322">
-        <v>2.25</v>
-      </c>
-      <c r="U322">
-        <v>1.875</v>
-      </c>
-      <c r="V322">
-        <v>1.975</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>7061065</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45386.60416666666</v>
-      </c>
-      <c r="F323" t="s">
-        <v>50</v>
-      </c>
-      <c r="G323" t="s">
-        <v>43</v>
-      </c>
-      <c r="K323">
-        <v>1.8</v>
-      </c>
-      <c r="L323">
-        <v>3.6</v>
-      </c>
-      <c r="M323">
-        <v>4</v>
-      </c>
-      <c r="N323">
-        <v>1.85</v>
-      </c>
-      <c r="O323">
-        <v>3.5</v>
-      </c>
-      <c r="P323">
-        <v>4.333</v>
-      </c>
-      <c r="Q323">
-        <v>-0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.9</v>
-      </c>
-      <c r="S323">
-        <v>1.95</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.95</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>7070428</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45386.60416666666</v>
-      </c>
-      <c r="F324" t="s">
-        <v>38</v>
-      </c>
-      <c r="G324" t="s">
-        <v>40</v>
-      </c>
-      <c r="K324">
-        <v>2.625</v>
-      </c>
-      <c r="L324">
-        <v>3.1</v>
-      </c>
-      <c r="M324">
-        <v>2.625</v>
-      </c>
-      <c r="N324">
-        <v>2.55</v>
-      </c>
-      <c r="O324">
-        <v>3.3</v>
-      </c>
-      <c r="P324">
-        <v>2.8</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="R324">
-        <v>1.825</v>
-      </c>
-      <c r="S324">
-        <v>2.025</v>
-      </c>
-      <c r="T324">
-        <v>2.5</v>
-      </c>
-      <c r="U324">
-        <v>1.925</v>
-      </c>
-      <c r="V324">
-        <v>1.925</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
         <v>0</v>
       </c>
     </row>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC320"/>
+  <dimension ref="A1:AC318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>1.85</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>2.2</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
         <v>-0.5</v>
       </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
-      <c r="S171">
-        <v>1.875</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.8</v>
-      </c>
-      <c r="V171">
-        <v>2.05</v>
-      </c>
-      <c r="W171">
-        <v>0.909</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB171">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
+        <v>3.6</v>
+      </c>
+      <c r="P172">
         <v>3.2</v>
       </c>
-      <c r="P172">
-        <v>3.1</v>
-      </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
         <v>1.875</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,73 +16577,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N181">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
         <v>0</v>
       </c>
       <c r="R181">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,73 +16666,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N182">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q182">
         <v>0</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P186">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L187">
+        <v>3.5</v>
+      </c>
+      <c r="M187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>4.5</v>
-      </c>
       <c r="N187">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,56 +18001,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
         <v>52</v>
       </c>
       <c r="K197">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N197">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O197">
         <v>3.6</v>
       </c>
       <c r="P197">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
         <v>2.75</v>
       </c>
       <c r="U197">
+        <v>1.875</v>
+      </c>
+      <c r="V197">
         <v>1.975</v>
       </c>
-      <c r="V197">
-        <v>1.875</v>
-      </c>
       <c r="W197">
         <v>-1</v>
       </c>
@@ -18058,19 +18058,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB197">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,56 +18090,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J198" t="s">
         <v>52</v>
       </c>
       <c r="K198">
+        <v>2.625</v>
+      </c>
+      <c r="L198">
+        <v>3.6</v>
+      </c>
+      <c r="M198">
+        <v>2.4</v>
+      </c>
+      <c r="N198">
         <v>2.375</v>
-      </c>
-      <c r="L198">
-        <v>3.5</v>
-      </c>
-      <c r="M198">
-        <v>2.75</v>
-      </c>
-      <c r="N198">
-        <v>2.25</v>
       </c>
       <c r="O198">
         <v>3.6</v>
       </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
         <v>1.875</v>
       </c>
-      <c r="V198">
-        <v>1.975</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
@@ -18147,19 +18147,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB198">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,58 +21205,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>53</v>
       </c>
       <c r="K233">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L233">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N233">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O233">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21265,16 +21265,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,58 +21294,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>53</v>
       </c>
       <c r="K234">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M234">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N234">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,16 +21354,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7741868</v>
+        <v>6944591</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,10 +21917,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21932,61 +21932,61 @@
         <v>51</v>
       </c>
       <c r="K241">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L241">
         <v>3.5</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N241">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P241">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q241">
         <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S241">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA241">
         <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC241">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6944591</v>
+        <v>7741868</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,10 +22006,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22021,61 +22021,61 @@
         <v>51</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L242">
         <v>3.5</v>
       </c>
       <c r="M242">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N242">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q242">
         <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="AA242">
         <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6944001</v>
+        <v>6944079</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,76 +22718,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M250">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="N250">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O250">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="Q250">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
         <v>1.975</v>
       </c>
-      <c r="S250">
-        <v>1.875</v>
-      </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y250">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6944079</v>
+        <v>6944001</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K251">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O251">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
         <v>1.875</v>
       </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6944007</v>
+        <v>7790196</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L263">
+        <v>3.4</v>
+      </c>
+      <c r="M263">
+        <v>2.75</v>
+      </c>
+      <c r="N263">
+        <v>2.05</v>
+      </c>
+      <c r="O263">
+        <v>3.3</v>
+      </c>
+      <c r="P263">
         <v>3.6</v>
       </c>
-      <c r="M263">
+      <c r="Q263">
+        <v>-0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.775</v>
+      </c>
+      <c r="S263">
         <v>2.1</v>
       </c>
-      <c r="N263">
-        <v>3.2</v>
-      </c>
-      <c r="O263">
-        <v>3.6</v>
-      </c>
-      <c r="P263">
-        <v>2.15</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.975</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>-0.5</v>
       </c>
-      <c r="AB263">
-        <v>-1</v>
-      </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7790196</v>
+        <v>6944007</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
+        <v>2.1</v>
+      </c>
+      <c r="N264">
+        <v>3.2</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
+        <v>2.15</v>
+      </c>
+      <c r="Q264">
+        <v>0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.975</v>
+      </c>
+      <c r="S264">
+        <v>1.875</v>
+      </c>
+      <c r="T264">
         <v>2.75</v>
       </c>
-      <c r="N264">
-        <v>2.05</v>
-      </c>
-      <c r="O264">
-        <v>3.3</v>
-      </c>
-      <c r="P264">
-        <v>3.6</v>
-      </c>
-      <c r="Q264">
-        <v>-0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.775</v>
-      </c>
-      <c r="S264">
-        <v>2.1</v>
-      </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K273">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L273">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N273">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O273">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P273">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q273">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R273">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S273">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6944014</v>
+        <v>6944086</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,76 +24854,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H274">
         <v>2</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N274">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O274">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P274">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S274">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>1.875</v>
+      </c>
+      <c r="V274">
+        <v>1.975</v>
+      </c>
+      <c r="W274">
+        <v>-1</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
         <v>2.75</v>
       </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
-      <c r="V274">
-        <v>1.85</v>
-      </c>
-      <c r="W274">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X274">
-        <v>-1</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
       <c r="Z274">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6944017</v>
+        <v>6944018</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,34 +25477,34 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K281">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M281">
+        <v>4.75</v>
+      </c>
+      <c r="N281">
+        <v>1.8</v>
+      </c>
+      <c r="O281">
         <v>3.8</v>
-      </c>
-      <c r="N281">
-        <v>1.909</v>
-      </c>
-      <c r="O281">
-        <v>3.5</v>
       </c>
       <c r="P281">
         <v>4.2</v>
@@ -25513,40 +25513,40 @@
         <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X281">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6944018</v>
+        <v>6944017</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25566,34 +25566,34 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L282">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N282">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O282">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
         <v>4.2</v>
@@ -25602,40 +25602,40 @@
         <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W282">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7061066</v>
+        <v>8015566</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,61 +28681,61 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H317">
         <v>1</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K317">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="L317">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M317">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N317">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="O317">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P317">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S317">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T317">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y317">
         <v>-1</v>
@@ -28744,13 +28744,13 @@
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28758,7 +28758,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8015566</v>
+        <v>7061066</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28770,61 +28770,61 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F318" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H318">
         <v>1</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K318">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="L318">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M318">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N318">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R318">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S318">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U318">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V318">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X318">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
@@ -28833,161 +28833,13 @@
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB318">
         <v>-1</v>
       </c>
       <c r="AC318">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>7061065</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45386.60416666666</v>
-      </c>
-      <c r="F319" t="s">
-        <v>50</v>
-      </c>
-      <c r="G319" t="s">
-        <v>43</v>
-      </c>
-      <c r="K319">
-        <v>1.8</v>
-      </c>
-      <c r="L319">
-        <v>3.6</v>
-      </c>
-      <c r="M319">
-        <v>4</v>
-      </c>
-      <c r="N319">
-        <v>1.85</v>
-      </c>
-      <c r="O319">
-        <v>3.5</v>
-      </c>
-      <c r="P319">
-        <v>4.333</v>
-      </c>
-      <c r="Q319">
-        <v>-0.5</v>
-      </c>
-      <c r="R319">
-        <v>1.85</v>
-      </c>
-      <c r="S319">
-        <v>2</v>
-      </c>
-      <c r="T319">
-        <v>2.5</v>
-      </c>
-      <c r="U319">
-        <v>1.875</v>
-      </c>
-      <c r="V319">
-        <v>1.975</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>7070428</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45386.60416666666</v>
-      </c>
-      <c r="F320" t="s">
-        <v>38</v>
-      </c>
-      <c r="G320" t="s">
-        <v>40</v>
-      </c>
-      <c r="K320">
-        <v>2.625</v>
-      </c>
-      <c r="L320">
-        <v>3.1</v>
-      </c>
-      <c r="M320">
-        <v>2.625</v>
-      </c>
-      <c r="N320">
-        <v>2.55</v>
-      </c>
-      <c r="O320">
-        <v>3.3</v>
-      </c>
-      <c r="P320">
-        <v>2.8</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="R320">
-        <v>1.875</v>
-      </c>
-      <c r="S320">
-        <v>1.975</v>
-      </c>
-      <c r="T320">
-        <v>2.5</v>
-      </c>
-      <c r="U320">
-        <v>1.95</v>
-      </c>
-      <c r="V320">
-        <v>1.9</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -106,19 +106,19 @@
     <t>Konyaspor</t>
   </si>
   <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
+    <t>Kasimpasa</t>
   </si>
   <si>
     <t>Umraniyespor</t>
   </si>
   <si>
-    <t>Kasimpasa</t>
+    <t>Kayserispor</t>
   </si>
   <si>
     <t>Galatasaray</t>
@@ -133,10 +133,10 @@
     <t>Istanbul Basaksehir</t>
   </si>
   <si>
-    <t>Besiktas</t>
+    <t>Giresunspor</t>
   </si>
   <si>
-    <t>Giresunspor</t>
+    <t>Besiktas</t>
   </si>
   <si>
     <t>Istanbulspor</t>
@@ -172,10 +172,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5579166</v>
+        <v>5603423</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,43 +738,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>3.75</v>
@@ -786,19 +786,19 @@
         <v>1.9</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>0.95</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5603423</v>
+        <v>5579166</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,43 +827,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
       </c>
       <c r="K4">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>4.75</v>
-      </c>
       <c r="N4">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>3.75</v>
@@ -875,19 +875,19 @@
         <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0.95</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5575890</v>
+        <v>5579165</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,53 +916,53 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="N5">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>2.025</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
       <c r="W5">
         <v>-1</v>
       </c>
@@ -970,19 +970,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1005,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6">
         <v>2.375</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5579165</v>
+        <v>5575890</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,53 +1094,53 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="N7">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
         <v>1.9</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
@@ -1148,19 +1148,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
+        <v>0.825</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.95</v>
-      </c>
-      <c r="AB7">
-        <v>1.025</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
         <v>2.6</v>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5608342</v>
+        <v>5608341</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,73 +1539,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>1.909</v>
+      </c>
+      <c r="L12">
+        <v>3.75</v>
+      </c>
+      <c r="M12">
+        <v>3.3</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.6</v>
+      </c>
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.925</v>
+      </c>
+      <c r="S12">
+        <v>1.925</v>
+      </c>
+      <c r="T12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12">
-        <v>1.4</v>
-      </c>
-      <c r="L12">
-        <v>4.5</v>
-      </c>
-      <c r="M12">
-        <v>6.5</v>
-      </c>
-      <c r="N12">
-        <v>1.3</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>-1.5</v>
-      </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>3.5</v>
-      </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5608341</v>
+        <v>5608342</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,73 +1628,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
+        <v>1.825</v>
+      </c>
+      <c r="S13">
+        <v>2.025</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.925</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.925</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.875</v>
-      </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>1.025</v>
+      </c>
+      <c r="AB13">
         <v>0.925</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1806,7 +1806,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1892,7 +1892,7 @@
         <v>45149.625</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16">
         <v>1.65</v>
@@ -2070,7 +2070,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>2.2</v>
@@ -2147,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943774</v>
+        <v>6944035</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,76 +2159,76 @@
         <v>45150.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6944035</v>
+        <v>6943774</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,76 +2248,76 @@
         <v>45150.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>1.363</v>
@@ -2515,7 +2515,7 @@
         <v>45151.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
         <v>1.6</v>
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6944037</v>
+        <v>6943878</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>45152.625</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P24">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6943878</v>
+        <v>6944037</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,76 +2693,76 @@
         <v>45152.625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>52</v>
       </c>
       <c r="K25">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="N25">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2785,7 +2785,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
         <v>1.533</v>
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3316,7 +3316,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>43</v>
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>2.3</v>
@@ -3506,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3586,7 +3586,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3761,7 +3761,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>1.55</v>
@@ -3850,7 +3850,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -4028,7 +4028,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>50</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>2.3</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6944041</v>
+        <v>6943897</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>45170.625</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>52</v>
       </c>
       <c r="K43">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N43">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O43">
         <v>3.4</v>
       </c>
       <c r="P43">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6943897</v>
+        <v>6944041</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,76 +4384,76 @@
         <v>45170.625</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>53</v>
       </c>
       <c r="K44">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N44">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O44">
         <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
         <v>2.1</v>
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6944042</v>
+        <v>7134050</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,76 +4651,76 @@
         <v>45171.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y47">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7134050</v>
+        <v>6944042</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,76 +4740,76 @@
         <v>45171.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K48">
+        <v>4.75</v>
+      </c>
+      <c r="L48">
+        <v>4.2</v>
+      </c>
+      <c r="M48">
+        <v>1.55</v>
+      </c>
+      <c r="N48">
+        <v>5.25</v>
+      </c>
+      <c r="O48">
+        <v>4.5</v>
+      </c>
+      <c r="P48">
+        <v>1.45</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
         <v>1.85</v>
       </c>
-      <c r="L48">
-        <v>3.8</v>
-      </c>
-      <c r="M48">
-        <v>3.4</v>
-      </c>
-      <c r="N48">
-        <v>1.8</v>
-      </c>
-      <c r="O48">
-        <v>3.8</v>
-      </c>
-      <c r="P48">
-        <v>3.6</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.825</v>
-      </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4829,7 +4829,7 @@
         <v>45172.55208333334</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49">
         <v>1.444</v>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50">
         <v>4.2</v>
@@ -5010,7 +5010,7 @@
         <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5096,7 +5096,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>49</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K52">
         <v>1.85</v>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K54">
         <v>1.333</v>
@@ -5363,7 +5363,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K55">
         <v>1.55</v>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5553,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57">
         <v>1.4</v>
@@ -5630,10 +5630,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5722,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6943898</v>
+        <v>6943901</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,76 +5808,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
         <v>3.4</v>
       </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6943901</v>
+        <v>6943898</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
         <v>3.4</v>
       </c>
       <c r="P61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K62">
         <v>2.3</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
         <v>2.1</v>
@@ -6354,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
         <v>4.2</v>
@@ -6520,10 +6520,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K68">
         <v>1.444</v>
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K69">
         <v>5.5</v>
@@ -6698,10 +6698,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K70">
         <v>3.1</v>
@@ -6790,7 +6790,7 @@
         <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6799,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K72">
         <v>6</v>
@@ -6965,10 +6965,10 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K73">
         <v>3.3</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74">
         <v>1.45</v>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7321,7 +7321,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -7333,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77">
         <v>1.5</v>
@@ -7422,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78">
         <v>2.7</v>
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K79">
         <v>1.333</v>
@@ -7591,7 +7591,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7600,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
         <v>1.4</v>
@@ -7766,7 +7766,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>45</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K82">
         <v>1.833</v>
@@ -7858,7 +7858,7 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83">
         <v>2.9</v>
@@ -7944,7 +7944,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8122,10 +8122,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
         <v>30</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8223,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K87">
         <v>2.5</v>
@@ -8303,7 +8303,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7291519</v>
+        <v>6944048</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>0</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>52</v>
       </c>
       <c r="K89">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6944048</v>
+        <v>7291519</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>53</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N90">
+        <v>4.75</v>
+      </c>
+      <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
+        <v>1.7</v>
+      </c>
+      <c r="Q90">
+        <v>0.75</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.95</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.8</v>
+      </c>
+      <c r="V90">
         <v>2.05</v>
       </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>3.5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>2.025</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>0.7</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.95</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1.05</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.825</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -8656,7 +8656,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
         <v>1.2</v>
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K93">
         <v>2.5</v>
@@ -8834,7 +8834,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -8846,7 +8846,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K94">
         <v>5.5</v>
@@ -8923,7 +8923,7 @@
         <v>45220.3125</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>47</v>
@@ -8935,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K95">
         <v>2.3</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96">
         <v>2.65</v>
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
         <v>1.666</v>
@@ -9193,7 +9193,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K98">
         <v>1.727</v>
@@ -9282,7 +9282,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K99">
         <v>2.2</v>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K100">
         <v>2.8</v>
@@ -9469,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K101">
         <v>1.222</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6943921</v>
+        <v>6944051</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,58 +9635,58 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9695,16 +9695,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6944051</v>
+        <v>6943921</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,58 +9724,58 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
         <v>31</v>
       </c>
-      <c r="G104" t="s">
-        <v>45</v>
-      </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N104">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W104">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9784,16 +9784,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7378772</v>
+        <v>6943607</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,73 +9813,73 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>52</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
+        <v>3.75</v>
+      </c>
+      <c r="M105">
+        <v>4.2</v>
+      </c>
+      <c r="N105">
+        <v>1.909</v>
+      </c>
+      <c r="O105">
         <v>3.5</v>
       </c>
-      <c r="M105">
-        <v>3.2</v>
-      </c>
-      <c r="N105">
-        <v>2.375</v>
-      </c>
-      <c r="O105">
-        <v>3.4</v>
-      </c>
       <c r="P105">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6943607</v>
+        <v>7378772</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,73 +9902,73 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F106" t="s">
+        <v>48</v>
+      </c>
+      <c r="G106" t="s">
         <v>34</v>
       </c>
-      <c r="G106" t="s">
-        <v>41</v>
-      </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>53</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
+        <v>2</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
         <v>1.875</v>
       </c>
-      <c r="W106">
-        <v>0.909</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10003,7 +10003,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K107">
         <v>2.2</v>
@@ -10080,7 +10080,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
         <v>1.8</v>
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109">
         <v>5.5</v>
@@ -10261,7 +10261,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10359,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K111">
         <v>2.25</v>
@@ -10448,7 +10448,7 @@
         <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K112">
         <v>8</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K113">
         <v>2.2</v>
@@ -10614,7 +10614,7 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
         <v>49</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10706,7 +10706,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10804,7 +10804,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10893,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K117">
         <v>2.15</v>
@@ -10973,7 +10973,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10982,7 +10982,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K118">
         <v>1.4</v>
@@ -11062,7 +11062,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11329,7 +11329,7 @@
         <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11338,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K122">
         <v>3.6</v>
@@ -11415,7 +11415,7 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>45</v>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K123">
         <v>2.3</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11593,7 +11593,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K125">
         <v>1.727</v>
@@ -11694,7 +11694,7 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K126">
         <v>2.4</v>
@@ -11771,10 +11771,10 @@
         <v>45241.3125</v>
       </c>
       <c r="F127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127" t="s">
         <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11783,7 +11783,7 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K127">
         <v>2.2</v>
@@ -11872,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K129">
         <v>2.4</v>
@@ -12050,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K130">
         <v>5.75</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K131">
         <v>2.625</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K132">
         <v>1.75</v>
@@ -12305,7 +12305,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K133">
         <v>1.533</v>
@@ -12394,7 +12394,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.8</v>
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6943945</v>
+        <v>6944060</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
+        <v>2.2</v>
+      </c>
+      <c r="L136">
+        <v>3.4</v>
+      </c>
+      <c r="M136">
+        <v>3.2</v>
+      </c>
+      <c r="N136">
         <v>2.05</v>
       </c>
-      <c r="L136">
-        <v>3.5</v>
-      </c>
-      <c r="M136">
+      <c r="O136">
         <v>3.4</v>
       </c>
-      <c r="N136">
-        <v>2.1</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6944060</v>
+        <v>6943945</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>0</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>52</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
         <v>3.4</v>
       </c>
-      <c r="M137">
-        <v>3.2</v>
-      </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
         <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12762,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K138">
         <v>1.25</v>
@@ -12839,10 +12839,10 @@
         <v>45256.3125</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12931,7 +12931,7 @@
         <v>50</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12940,7 +12940,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K140">
         <v>3.25</v>
@@ -13118,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K142">
         <v>1.25</v>
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7471385</v>
+        <v>6943944</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,73 +13195,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K143">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O143">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
         <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6943944</v>
+        <v>7471385</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,73 +13284,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K146">
         <v>1.8</v>
@@ -13652,7 +13652,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K148">
         <v>2.4</v>
@@ -13729,7 +13729,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
         <v>50</v>
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K149">
         <v>1.7</v>
@@ -13830,7 +13830,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K150">
         <v>8.5</v>
@@ -13907,7 +13907,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>49</v>
@@ -13919,7 +13919,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K151">
         <v>2.2</v>
@@ -13996,10 +13996,10 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K152">
         <v>1.85</v>
@@ -14088,7 +14088,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K154">
         <v>1.25</v>
@@ -14266,7 +14266,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155">
         <v>1.3</v>
@@ -14364,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K156">
         <v>1.8</v>
@@ -14444,7 +14444,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -14453,7 +14453,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K157">
         <v>2.1</v>
@@ -14530,7 +14530,7 @@
         <v>45269.54166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>44</v>
@@ -14542,7 +14542,7 @@
         <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K158">
         <v>3.2</v>
@@ -14631,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K159">
         <v>2.6</v>
@@ -14708,7 +14708,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
         <v>43</v>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K160">
         <v>1.95</v>
@@ -14809,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K161">
         <v>1.85</v>
@@ -14889,7 +14889,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K162">
         <v>3</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7559194</v>
+        <v>7559193</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,34 +14975,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
         <v>3.5</v>
@@ -15011,40 +15011,40 @@
         <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7559193</v>
+        <v>7559194</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,34 +15064,34 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
+        <v>3.2</v>
+      </c>
+      <c r="N164">
+        <v>2.05</v>
+      </c>
+      <c r="O164">
         <v>3.5</v>
-      </c>
-      <c r="N164">
-        <v>2</v>
-      </c>
-      <c r="O164">
-        <v>3.6</v>
       </c>
       <c r="P164">
         <v>3.5</v>
@@ -15100,40 +15100,40 @@
         <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K165">
         <v>2.05</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6943613</v>
+        <v>6943962</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,76 +15242,76 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G166" t="s">
         <v>31</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O166">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA166">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6943962</v>
+        <v>6943613</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,76 +15331,76 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
         <v>30</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K167">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N167">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z167">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>45280.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -15432,7 +15432,7 @@
         <v>4</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K168">
         <v>5.5</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943964</v>
+        <v>6943961</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,61 +15509,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N169">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
@@ -15572,13 +15572,13 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943961</v>
+        <v>6943964</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,61 +15598,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
         <v>1.975</v>
       </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>3.25</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
       <c r="W170">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -15661,13 +15661,13 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943803</v>
+        <v>6943804</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O171">
+        <v>3.6</v>
+      </c>
+      <c r="P171">
         <v>3.2</v>
       </c>
-      <c r="P171">
-        <v>3.1</v>
-      </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
         <v>1.875</v>
       </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6943804</v>
+        <v>6943803</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45281.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>1.85</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>2.2</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
         <v>-0.5</v>
       </c>
-      <c r="R172">
-        <v>1.975</v>
-      </c>
-      <c r="S172">
-        <v>1.875</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.8</v>
-      </c>
-      <c r="V172">
-        <v>2.05</v>
-      </c>
-      <c r="W172">
-        <v>0.909</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N173">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O173">
+        <v>3.8</v>
+      </c>
+      <c r="P173">
+        <v>4.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>1.8</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>3.5</v>
       </c>
-      <c r="P173">
-        <v>2.875</v>
-      </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.925</v>
-      </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>2.025</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.5</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K175">
         <v>1.666</v>
@@ -16144,7 +16144,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K176">
         <v>2.05</v>
@@ -16221,7 +16221,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>38</v>
@@ -16313,7 +16313,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K178">
         <v>2.6</v>
@@ -16399,7 +16399,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
         <v>46</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K179">
         <v>2.2</v>
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K181">
         <v>2.2</v>
@@ -16666,7 +16666,7 @@
         <v>45285.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>47</v>
@@ -16847,7 +16847,7 @@
         <v>48</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16856,7 +16856,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K184">
         <v>3.1</v>
@@ -17111,10 +17111,10 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17123,7 +17123,7 @@
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K187">
         <v>1.6</v>
@@ -17212,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17292,7 +17292,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17381,7 +17381,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K190">
         <v>3.1</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K191">
         <v>2.15</v>
@@ -17556,7 +17556,7 @@
         <v>45298.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
         <v>37</v>
@@ -17568,7 +17568,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K192">
         <v>1.85</v>
@@ -17657,7 +17657,7 @@
         <v>5</v>
       </c>
       <c r="J193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K193">
         <v>10</v>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K194">
         <v>1.333</v>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K195">
         <v>3.1</v>
@@ -18001,7 +18001,7 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>38</v>
@@ -18013,7 +18013,7 @@
         <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K197">
         <v>2.375</v>
@@ -18093,7 +18093,7 @@
         <v>47</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18102,7 +18102,7 @@
         <v>4</v>
       </c>
       <c r="J198" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K198">
         <v>2.625</v>
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7589561</v>
+        <v>7589559</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,76 +18179,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K199">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N199">
         <v>2.1</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
         <v>3.4</v>
       </c>
       <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.825</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.875</v>
+      </c>
+      <c r="V199">
+        <v>1.975</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2.4</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>-0.5</v>
       </c>
-      <c r="R199">
-        <v>2</v>
-      </c>
-      <c r="S199">
-        <v>1.85</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.975</v>
-      </c>
-      <c r="V199">
-        <v>1.875</v>
-      </c>
-      <c r="W199">
-        <v>1.1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>-1</v>
-      </c>
-      <c r="Z199">
-        <v>1</v>
-      </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,7 +18256,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7589559</v>
+        <v>7589561</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18268,76 +18268,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L200">
         <v>3.5</v>
       </c>
       <c r="M200">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N200">
         <v>2.1</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P200">
         <v>3.4</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
         <v>1.875</v>
       </c>
-      <c r="V200">
-        <v>1.975</v>
-      </c>
       <c r="W200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X200">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA200">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K201">
         <v>1.285</v>
@@ -18446,7 +18446,7 @@
         <v>45301.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18624,7 +18624,7 @@
         <v>45302.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>50</v>
@@ -18636,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K204">
         <v>1.615</v>
@@ -18805,7 +18805,7 @@
         <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18814,7 +18814,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K206">
         <v>2.15</v>
@@ -18903,7 +18903,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K207">
         <v>1.95</v>
@@ -18983,7 +18983,7 @@
         <v>47</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K208">
         <v>2.2</v>
@@ -19069,7 +19069,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
         <v>36</v>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K209">
         <v>1.666</v>
@@ -19250,7 +19250,7 @@
         <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19348,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K212">
         <v>2.375</v>
@@ -19437,7 +19437,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K213">
         <v>7</v>
@@ -19517,7 +19517,7 @@
         <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19526,7 +19526,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
         <v>1.3</v>
@@ -19603,7 +19603,7 @@
         <v>45311.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>48</v>
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K215">
         <v>1.909</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K217">
         <v>2.3</v>
@@ -19873,7 +19873,7 @@
         <v>43</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>4</v>
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
         <v>4.2</v>
@@ -19959,7 +19959,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>42</v>
@@ -20315,7 +20315,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
         <v>35</v>
@@ -20327,7 +20327,7 @@
         <v>5</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K223">
         <v>4</v>
@@ -20404,7 +20404,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>41</v>
@@ -20416,7 +20416,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K224">
         <v>1.55</v>
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6943814</v>
+        <v>6943988</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,76 +20582,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N226">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O226">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P226">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
         <v>3</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W226">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6943988</v>
+        <v>6943814</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,76 +20671,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K227">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N227">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O227">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P227">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q227">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X227">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB227">
-        <v>-1</v>
-      </c>
       <c r="AC227">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K229">
         <v>2.3</v>
@@ -20950,7 +20950,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K230">
         <v>6</v>
@@ -21039,7 +21039,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K231">
         <v>1.95</v>
@@ -21119,7 +21119,7 @@
         <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21128,7 +21128,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K232">
         <v>2.1</v>
@@ -21217,7 +21217,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K233">
         <v>1.142</v>
@@ -21297,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21306,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K234">
         <v>2.625</v>
@@ -21472,7 +21472,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>48</v>
@@ -21484,7 +21484,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K236">
         <v>2</v>
@@ -21573,7 +21573,7 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K237">
         <v>2.55</v>
@@ -21653,7 +21653,7 @@
         <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K238">
         <v>3.2</v>
@@ -21751,7 +21751,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K239">
         <v>2.5</v>
@@ -21840,7 +21840,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K240">
         <v>1.181</v>
@@ -22006,7 +22006,7 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G242" t="s">
         <v>46</v>
@@ -22107,7 +22107,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K243">
         <v>1.2</v>
@@ -22184,10 +22184,10 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22196,7 +22196,7 @@
         <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K244">
         <v>1.727</v>
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K245">
         <v>2.4</v>
@@ -22463,7 +22463,7 @@
         <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K247">
         <v>5.75</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K249">
         <v>1.533</v>
@@ -22730,7 +22730,7 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K250">
         <v>5.5</v>
@@ -22810,7 +22810,7 @@
         <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -22899,7 +22899,7 @@
         <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -22908,7 +22908,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K252">
         <v>2.25</v>
@@ -22985,7 +22985,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G253" t="s">
         <v>45</v>
@@ -22997,7 +22997,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K253">
         <v>2.375</v>
@@ -23074,10 +23074,10 @@
         <v>45326.54166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K254">
         <v>1.95</v>
@@ -23163,10 +23163,10 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23175,7 +23175,7 @@
         <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K255">
         <v>2.1</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K256">
         <v>1.909</v>
@@ -23353,7 +23353,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K257">
         <v>1.3</v>
@@ -23442,7 +23442,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K258">
         <v>2.375</v>
@@ -23531,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K259">
         <v>2.55</v>
@@ -23620,7 +23620,7 @@
         <v>3</v>
       </c>
       <c r="J260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K260">
         <v>2.8</v>
@@ -23786,7 +23786,7 @@
         <v>45334.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G262" t="s">
         <v>48</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262">
         <v>1.727</v>
@@ -23875,10 +23875,10 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -23976,7 +23976,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K264">
         <v>2.5</v>
@@ -24053,7 +24053,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G265" t="s">
         <v>36</v>
@@ -24332,7 +24332,7 @@
         <v>3</v>
       </c>
       <c r="J268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K268">
         <v>6</v>
@@ -24412,7 +24412,7 @@
         <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H269">
         <v>3</v>
@@ -24501,7 +24501,7 @@
         <v>43</v>
       </c>
       <c r="G270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -24510,7 +24510,7 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K270">
         <v>3.6</v>
@@ -24688,7 +24688,7 @@
         <v>3</v>
       </c>
       <c r="J272" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K272">
         <v>5.5</v>
@@ -24768,7 +24768,7 @@
         <v>38</v>
       </c>
       <c r="G273" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H273">
         <v>2</v>
@@ -24777,7 +24777,7 @@
         <v>3</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K273">
         <v>1.8</v>
@@ -24854,7 +24854,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G274" t="s">
         <v>29</v>
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K274">
         <v>1.615</v>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K275">
         <v>1.95</v>
@@ -25032,7 +25032,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G276" t="s">
         <v>42</v>
@@ -25044,7 +25044,7 @@
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K276">
         <v>2.375</v>
@@ -25133,7 +25133,7 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K277">
         <v>2.8</v>
@@ -25213,7 +25213,7 @@
         <v>44</v>
       </c>
       <c r="G278" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K278">
         <v>1.2</v>
@@ -25311,7 +25311,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K279">
         <v>2.4</v>
@@ -25400,7 +25400,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
         <v>2.15</v>
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6944017</v>
+        <v>6944018</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,34 +25477,34 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G281" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K281">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M281">
+        <v>4.75</v>
+      </c>
+      <c r="N281">
+        <v>1.8</v>
+      </c>
+      <c r="O281">
         <v>3.8</v>
-      </c>
-      <c r="N281">
-        <v>1.909</v>
-      </c>
-      <c r="O281">
-        <v>3.5</v>
       </c>
       <c r="P281">
         <v>4.2</v>
@@ -25513,40 +25513,40 @@
         <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X281">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6944018</v>
+        <v>6944017</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25566,34 +25566,34 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L282">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N282">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O282">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
         <v>4.2</v>
@@ -25602,40 +25602,40 @@
         <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W282">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25658,7 +25658,7 @@
         <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -25667,7 +25667,7 @@
         <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K283">
         <v>5.5</v>
@@ -25756,7 +25756,7 @@
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K284">
         <v>1.3</v>
@@ -25833,7 +25833,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G285" t="s">
         <v>37</v>
@@ -26014,7 +26014,7 @@
         <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K287">
         <v>1.95</v>
@@ -26112,7 +26112,7 @@
         <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K288">
         <v>7</v>
@@ -26201,7 +26201,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K289">
         <v>2.3</v>
@@ -26290,7 +26290,7 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K290">
         <v>2.15</v>
@@ -26367,7 +26367,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G291" t="s">
         <v>35</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K291">
         <v>3.6</v>
@@ -26456,7 +26456,7 @@
         <v>45355.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
         <v>36</v>
@@ -26468,7 +26468,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K292">
         <v>1.909</v>
@@ -26557,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K293">
         <v>1.8</v>
@@ -26637,7 +26637,7 @@
         <v>45</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -26646,7 +26646,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K294">
         <v>2.7</v>
@@ -26735,7 +26735,7 @@
         <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K295">
         <v>1.285</v>
@@ -26824,7 +26824,7 @@
         <v>2</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K296">
         <v>2.45</v>
@@ -26904,7 +26904,7 @@
         <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27002,7 +27002,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K298">
         <v>2.1</v>
@@ -27079,7 +27079,7 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G299" t="s">
         <v>36</v>
@@ -27091,7 +27091,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K299">
         <v>1.85</v>
@@ -27168,7 +27168,7 @@
         <v>45361.3125</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27269,7 +27269,7 @@
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K301">
         <v>2</v>
@@ -27349,7 +27349,7 @@
         <v>41</v>
       </c>
       <c r="G302" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27358,7 +27358,7 @@
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K302">
         <v>4.2</v>
@@ -27447,7 +27447,7 @@
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K303">
         <v>1.181</v>
@@ -27527,7 +27527,7 @@
         <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H304">
         <v>2</v>
@@ -27536,7 +27536,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K304">
         <v>3.4</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K305">
         <v>1.666</v>
@@ -27794,7 +27794,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27803,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K307">
         <v>2</v>
@@ -27892,7 +27892,7 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K308">
         <v>2.6</v>
@@ -27969,7 +27969,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F309" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
         <v>37</v>
@@ -27981,7 +27981,7 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K309">
         <v>1.909</v>
@@ -28058,7 +28058,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G310" t="s">
         <v>46</v>
@@ -28070,7 +28070,7 @@
         <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K310">
         <v>1.8</v>
@@ -28159,7 +28159,7 @@
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K311">
         <v>1.95</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K312">
         <v>2.8</v>
@@ -28325,7 +28325,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
         <v>35</v>
@@ -28337,7 +28337,7 @@
         <v>4</v>
       </c>
       <c r="J313" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K313">
         <v>5.75</v>
@@ -28414,7 +28414,7 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G314" t="s">
         <v>44</v>
@@ -28426,7 +28426,7 @@
         <v>3</v>
       </c>
       <c r="J314" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K314">
         <v>4.75</v>
@@ -28515,7 +28515,7 @@
         <v>4</v>
       </c>
       <c r="J315" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K315">
         <v>3.75</v>
@@ -28604,7 +28604,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K316">
         <v>1.181</v>
@@ -28693,7 +28693,7 @@
         <v>3</v>
       </c>
       <c r="J317" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K317">
         <v>2.3</v>
@@ -28871,7 +28871,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K319">
         <v>2.55</v>
@@ -28936,7 +28936,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7054700</v>
+        <v>7083168</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28948,49 +28948,49 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F320" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G320" t="s">
         <v>31</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
         <v>52</v>
       </c>
       <c r="K320">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L320">
+        <v>6</v>
+      </c>
+      <c r="M320">
+        <v>8.5</v>
+      </c>
+      <c r="N320">
+        <v>1.285</v>
+      </c>
+      <c r="O320">
+        <v>6.5</v>
+      </c>
+      <c r="P320">
+        <v>8</v>
+      </c>
+      <c r="Q320">
+        <v>-1.75</v>
+      </c>
+      <c r="R320">
+        <v>2.025</v>
+      </c>
+      <c r="S320">
+        <v>1.825</v>
+      </c>
+      <c r="T320">
         <v>3.25</v>
-      </c>
-      <c r="M320">
-        <v>2.05</v>
-      </c>
-      <c r="N320">
-        <v>3.3</v>
-      </c>
-      <c r="O320">
-        <v>3.4</v>
-      </c>
-      <c r="P320">
-        <v>2.15</v>
-      </c>
-      <c r="Q320">
-        <v>0.25</v>
-      </c>
-      <c r="R320">
-        <v>1.975</v>
-      </c>
-      <c r="S320">
-        <v>1.875</v>
-      </c>
-      <c r="T320">
-        <v>2.25</v>
       </c>
       <c r="U320">
         <v>1.85</v>
@@ -28999,19 +28999,19 @@
         <v>2</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA320">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB320">
         <v>0.8500000000000001</v>
@@ -29025,7 +29025,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7083168</v>
+        <v>7054700</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29037,49 +29037,49 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F321" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G321" t="s">
         <v>30</v>
       </c>
       <c r="H321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J321" t="s">
         <v>53</v>
       </c>
       <c r="K321">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L321">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M321">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="N321">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O321">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P321">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="Q321">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R321">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T321">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
         <v>1.85</v>
@@ -29088,19 +29088,19 @@
         <v>2</v>
       </c>
       <c r="W321">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z321">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB321">
         <v>0.8500000000000001</v>
@@ -29126,10 +29126,10 @@
         <v>45385.60416666666</v>
       </c>
       <c r="F322" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" t="s">
         <v>32</v>
-      </c>
-      <c r="G322" t="s">
-        <v>34</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29138,7 +29138,7 @@
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K322">
         <v>2.1</v>
@@ -29203,7 +29203,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7070428</v>
+        <v>7061065</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29215,46 +29215,46 @@
         <v>45386.60416666666</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G323" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>51</v>
       </c>
       <c r="K323">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L323">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M323">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N323">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O323">
         <v>3.3</v>
       </c>
       <c r="P323">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
         <v>2.5</v>
@@ -29275,10 +29275,10 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB323">
         <v>-1</v>
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7061065</v>
+        <v>7070428</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,46 +29304,46 @@
         <v>45386.60416666666</v>
       </c>
       <c r="F324" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G324" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
         <v>51</v>
       </c>
       <c r="K324">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L324">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M324">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N324">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O324">
         <v>3.3</v>
       </c>
       <c r="P324">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R324">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S324">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T324">
         <v>2.5</v>
@@ -29364,10 +29364,10 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA324">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB324">
         <v>-1</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943896</v>
+        <v>6943892</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L50">
         <v>4</v>
       </c>
       <c r="M50">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y50">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.5125</v>
+      </c>
+      <c r="AA50">
         <v>-0.5</v>
       </c>
-      <c r="AA50">
-        <v>0.4875</v>
-      </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943892</v>
+        <v>6943896</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,76 +5007,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="L51">
         <v>4</v>
       </c>
       <c r="M51">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z51">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6943898</v>
+        <v>6943901</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,76 +5808,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
         <v>3.4</v>
       </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6943901</v>
+        <v>6943898</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
         <v>3.4</v>
       </c>
       <c r="P61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6943913</v>
+        <v>6943909</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,76 +7766,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O82">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6943909</v>
+        <v>6943913</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,76 +7855,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N83">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8021,7 +8021,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943916</v>
+        <v>6943917</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8033,16 +8033,16 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>53</v>
@@ -8057,34 +8057,34 @@
         <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.75</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>1.975</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
         <v>3</v>
       </c>
-      <c r="P85">
-        <v>3.1</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8093,16 +8093,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8110,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6943917</v>
+        <v>6943916</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8122,16 +8122,16 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
         <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>53</v>
@@ -8146,34 +8146,34 @@
         <v>3.5</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>1.875</v>
       </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>2.025</v>
-      </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8182,16 +8182,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N173">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O173">
+        <v>3.8</v>
+      </c>
+      <c r="P173">
+        <v>4.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>1.8</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
         <v>3.5</v>
       </c>
-      <c r="P173">
-        <v>2.875</v>
-      </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.925</v>
-      </c>
-      <c r="S173">
-        <v>1.925</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>2.025</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.5</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
         <v>4</v>
       </c>
-      <c r="M186">
-        <v>4.5</v>
-      </c>
       <c r="N186">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7589565</v>
+        <v>7589564</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,76 +17823,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K195">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L195">
         <v>3.5</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7589564</v>
+        <v>7589565</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,76 +17912,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
         <v>3.5</v>
       </c>
       <c r="M196">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6943988</v>
+        <v>6943814</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,76 +20582,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K226">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N226">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O226">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P226">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
         <v>3</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X226">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB226">
-        <v>-1</v>
-      </c>
       <c r="AC226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6943814</v>
+        <v>6943988</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,76 +20671,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K227">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O227">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P227">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,58 +21205,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>53</v>
       </c>
       <c r="K233">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L233">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N233">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O233">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21265,16 +21265,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,58 +21294,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
         <v>1</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>53</v>
       </c>
       <c r="K234">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M234">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N234">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,16 +21354,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6944591</v>
+        <v>7741868</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,10 +21917,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21932,61 +21932,61 @@
         <v>51</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L241">
         <v>3.5</v>
       </c>
       <c r="M241">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O241">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q241">
         <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="AA241">
         <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7741868</v>
+        <v>6944591</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,10 +22006,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G242" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22021,61 +22021,61 @@
         <v>51</v>
       </c>
       <c r="K242">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L242">
         <v>3.5</v>
       </c>
       <c r="M242">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N242">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O242">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q242">
         <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V242">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA242">
         <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC242">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,7 +22083,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6944077</v>
+        <v>6944078</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22095,76 +22095,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G243" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K243">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L243">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M243">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N243">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O243">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="P243">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q243">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
         <v>1.975</v>
       </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.875</v>
       </c>
-      <c r="T243">
-        <v>3.5</v>
-      </c>
-      <c r="U243">
-        <v>1.925</v>
-      </c>
-      <c r="V243">
-        <v>1.925</v>
-      </c>
       <c r="W243">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC243">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22172,7 +22172,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6944078</v>
+        <v>6944077</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22184,76 +22184,76 @@
         <v>45320.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K244">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M244">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N244">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O244">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="P244">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Q244">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R244">
+        <v>1.975</v>
+      </c>
+      <c r="S244">
+        <v>1.875</v>
+      </c>
+      <c r="T244">
+        <v>3.5</v>
+      </c>
+      <c r="U244">
         <v>1.925</v>
       </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.925</v>
       </c>
-      <c r="T244">
-        <v>3</v>
-      </c>
-      <c r="U244">
-        <v>1.975</v>
-      </c>
-      <c r="V244">
-        <v>1.875</v>
-      </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
+        <v>0.875</v>
+      </c>
+      <c r="AB244">
+        <v>-1</v>
+      </c>
+      <c r="AC244">
         <v>0.925</v>
-      </c>
-      <c r="AB244">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC244">
-        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -24486,7 +24486,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6943821</v>
+        <v>6943820</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24498,76 +24498,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K270">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M270">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N270">
         <v>3.1</v>
       </c>
       <c r="O270">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q270">
         <v>0.25</v>
       </c>
       <c r="R270">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S270">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T270">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U270">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V270">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y270">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA270">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC270">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24575,7 +24575,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6943820</v>
+        <v>6943821</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24587,76 +24587,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K271">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="L271">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N271">
         <v>3.1</v>
       </c>
       <c r="O271">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P271">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q271">
         <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S271">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T271">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z271">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB271">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -26533,7 +26533,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6944091</v>
+        <v>7885607</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26545,58 +26545,58 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
         <v>53</v>
       </c>
       <c r="K293">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N293">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O293">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S293">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
         <v>2.5</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>1.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -26605,16 +26605,16 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA293">
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26622,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7885607</v>
+        <v>6944091</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26634,58 +26634,58 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G294" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H294">
+        <v>3</v>
+      </c>
+      <c r="I294">
         <v>1</v>
-      </c>
-      <c r="I294">
-        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>53</v>
       </c>
       <c r="K294">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M294">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N294">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P294">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S294">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T294">
         <v>2.5</v>
       </c>
       <c r="U294">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W294">
-        <v>0.8500000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26694,16 +26694,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC294">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -28580,7 +28580,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8015566</v>
+        <v>7061066</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28592,76 +28592,76 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F316" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H316">
         <v>1</v>
       </c>
       <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>53</v>
+      </c>
+      <c r="K316">
+        <v>1.181</v>
+      </c>
+      <c r="L316">
+        <v>7.5</v>
+      </c>
+      <c r="M316">
+        <v>11</v>
+      </c>
+      <c r="N316">
+        <v>1.166</v>
+      </c>
+      <c r="O316">
+        <v>7.5</v>
+      </c>
+      <c r="P316">
+        <v>15</v>
+      </c>
+      <c r="Q316">
+        <v>-2</v>
+      </c>
+      <c r="R316">
+        <v>1.85</v>
+      </c>
+      <c r="S316">
+        <v>2</v>
+      </c>
+      <c r="T316">
+        <v>3.5</v>
+      </c>
+      <c r="U316">
+        <v>2</v>
+      </c>
+      <c r="V316">
+        <v>1.85</v>
+      </c>
+      <c r="W316">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X316">
+        <v>-1</v>
+      </c>
+      <c r="Y316">
+        <v>-1</v>
+      </c>
+      <c r="Z316">
+        <v>-1</v>
+      </c>
+      <c r="AA316">
         <v>1</v>
       </c>
-      <c r="J316" t="s">
-        <v>51</v>
-      </c>
-      <c r="K316">
-        <v>2</v>
-      </c>
-      <c r="L316">
-        <v>3.25</v>
-      </c>
-      <c r="M316">
-        <v>3.6</v>
-      </c>
-      <c r="N316">
-        <v>1.909</v>
-      </c>
-      <c r="O316">
-        <v>3.6</v>
-      </c>
-      <c r="P316">
-        <v>4.2</v>
-      </c>
-      <c r="Q316">
-        <v>-0.5</v>
-      </c>
-      <c r="R316">
-        <v>1.925</v>
-      </c>
-      <c r="S316">
-        <v>1.925</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>1.975</v>
-      </c>
-      <c r="V316">
-        <v>1.875</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
-      <c r="X316">
-        <v>2.6</v>
-      </c>
-      <c r="Y316">
-        <v>-1</v>
-      </c>
-      <c r="Z316">
-        <v>-1</v>
-      </c>
-      <c r="AA316">
-        <v>0.925</v>
-      </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28758,7 +28758,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7061066</v>
+        <v>8015566</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28770,61 +28770,61 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H318">
         <v>1</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K318">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="L318">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N318">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="O318">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q318">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T318">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W318">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y318">
         <v>-1</v>
@@ -28833,13 +28833,13 @@
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB318">
         <v>-1</v>
       </c>
       <c r="AC318">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29408,13 +29408,13 @@
         <v>5.5</v>
       </c>
       <c r="N325">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O325">
         <v>4</v>
       </c>
       <c r="P325">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q325">
         <v>-1</v>
@@ -29426,13 +29426,13 @@
         <v>1.875</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
+        <v>2.025</v>
+      </c>
+      <c r="V325">
         <v>1.825</v>
-      </c>
-      <c r="V325">
-        <v>2.025</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29488,7 +29488,7 @@
         <v>3.5</v>
       </c>
       <c r="P326">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q326">
         <v>-0.5</v>
@@ -29503,10 +29503,10 @@
         <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V326">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29556,13 +29556,13 @@
         <v>4</v>
       </c>
       <c r="N327">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O327">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P327">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q327">
         <v>-0.5</v>
@@ -29603,7 +29603,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7088772</v>
+        <v>7101409</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29615,46 +29615,46 @@
         <v>45395.54166666666</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K328">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L328">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N328">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O328">
         <v>3.75</v>
       </c>
       <c r="P328">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q328">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R328">
+        <v>2.025</v>
+      </c>
+      <c r="S328">
+        <v>1.825</v>
+      </c>
+      <c r="T328">
+        <v>2.5</v>
+      </c>
+      <c r="U328">
         <v>1.925</v>
       </c>
-      <c r="S328">
+      <c r="V328">
         <v>1.925</v>
-      </c>
-      <c r="T328">
-        <v>2.75</v>
-      </c>
-      <c r="U328">
-        <v>1.825</v>
-      </c>
-      <c r="V328">
-        <v>2.025</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29677,7 +29677,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7101409</v>
+        <v>7088772</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29689,46 +29689,46 @@
         <v>45395.54166666666</v>
       </c>
       <c r="F329" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G329" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K329">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L329">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M329">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N329">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O329">
         <v>3.6</v>
       </c>
       <c r="P329">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q329">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S329">
+        <v>1.925</v>
+      </c>
+      <c r="T329">
+        <v>2.75</v>
+      </c>
+      <c r="U329">
         <v>1.85</v>
       </c>
-      <c r="T329">
-        <v>2.5</v>
-      </c>
-      <c r="U329">
-        <v>1.925</v>
-      </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29778,7 +29778,7 @@
         <v>2.7</v>
       </c>
       <c r="N330">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O330">
         <v>3.4</v>
@@ -29825,7 +29825,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7088774</v>
+        <v>7088773</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29837,46 +29837,46 @@
         <v>45396.41666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G331" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K331">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M331">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N331">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P331">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S331">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
+        <v>2.025</v>
+      </c>
+      <c r="V331">
         <v>1.825</v>
-      </c>
-      <c r="V331">
-        <v>2.025</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29899,7 +29899,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7088773</v>
+        <v>7088774</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29911,46 +29911,46 @@
         <v>45396.41666666666</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G332" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K332">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L332">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N332">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O332">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q332">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R332">
+        <v>1.975</v>
+      </c>
+      <c r="S332">
+        <v>1.875</v>
+      </c>
+      <c r="T332">
+        <v>2.5</v>
+      </c>
+      <c r="U332">
+        <v>1.825</v>
+      </c>
+      <c r="V332">
         <v>2.025</v>
-      </c>
-      <c r="S332">
-        <v>1.825</v>
-      </c>
-      <c r="T332">
-        <v>2.75</v>
-      </c>
-      <c r="U332">
-        <v>2.025</v>
-      </c>
-      <c r="V332">
-        <v>1.825</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>1.4</v>
       </c>
       <c r="N333">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O333">
         <v>5</v>
@@ -30021,10 +30021,10 @@
         <v>3</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>5.5</v>
       </c>
       <c r="O334">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P334">
         <v>1.5</v>
@@ -30095,10 +30095,10 @@
         <v>3.25</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V334">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W334">
         <v>0</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Sivasspor</t>
+    <t>Fatih Karagumruk</t>
   </si>
   <si>
-    <t>Fatih Karagumruk</t>
+    <t>Sivasspor</t>
   </si>
   <si>
     <t>Istanbul Basaksehir</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5611974</v>
+        <v>5611973</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
+        <v>3.8</v>
+      </c>
+      <c r="P9">
+        <v>2.45</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.925</v>
+      </c>
+      <c r="T9">
         <v>3.5</v>
       </c>
-      <c r="P9">
-        <v>3.6</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>1.9</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5611973</v>
+        <v>5611974</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2337,7 +2337,7 @@
         <v>45151.55208333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
@@ -2693,7 +2693,7 @@
         <v>45152.625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6943884</v>
+        <v>6943600</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,10 +2782,10 @@
         <v>45156.625</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2797,40 +2797,40 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
         <v>3.4</v>
       </c>
       <c r="M26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O26">
         <v>3.4</v>
       </c>
       <c r="P26">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2842,16 +2842,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6943600</v>
+        <v>6943884</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,10 +2871,10 @@
         <v>45156.625</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2886,40 +2886,40 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L27">
         <v>3.4</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <v>3.4</v>
       </c>
       <c r="P27">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2931,16 +2931,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3230,7 +3230,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943882</v>
+        <v>6943777</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,40 +3316,40 @@
         <v>45158.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="N32">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P32">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -3358,22 +3358,22 @@
         <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y32">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
@@ -3382,10 +3382,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>1</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943777</v>
+        <v>6943882</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3405,40 +3405,40 @@
         <v>45158.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="Q33">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -3447,22 +3447,22 @@
         <v>1.85</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z33">
         <v>-1</v>
@@ -3471,10 +3471,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>45164.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4028,7 +4028,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4298,7 +4298,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5897,7 +5897,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>48</v>
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6943908</v>
+        <v>6943783</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,7 +6075,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6090,61 +6090,61 @@
         <v>51</v>
       </c>
       <c r="K63">
+        <v>2.8</v>
+      </c>
+      <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>2.5</v>
+      </c>
+      <c r="N63">
+        <v>2.3</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
+        <v>3.1</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>2.025</v>
+      </c>
+      <c r="S63">
+        <v>1.825</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>2.25</v>
       </c>
-      <c r="L63">
-        <v>3.4</v>
-      </c>
-      <c r="M63">
-        <v>3.1</v>
-      </c>
-      <c r="N63">
-        <v>1.95</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>-0.5</v>
       </c>
-      <c r="R63">
-        <v>1.95</v>
-      </c>
-      <c r="S63">
-        <v>1.9</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>2.5</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6943783</v>
+        <v>6943908</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,7 +6164,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -6179,61 +6179,61 @@
         <v>51</v>
       </c>
       <c r="K64">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
+        <v>3.1</v>
+      </c>
+      <c r="N64">
+        <v>1.95</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>3.8</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.9</v>
+      </c>
+      <c r="T64">
         <v>2.5</v>
       </c>
-      <c r="N64">
-        <v>2.3</v>
-      </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
-      <c r="P64">
-        <v>3.1</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6943905</v>
+        <v>6943904</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,49 +6609,49 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K69">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
         <v>1.95</v>
@@ -6660,25 +6660,25 @@
         <v>1.9</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6943904</v>
+        <v>6943905</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,49 +6698,49 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N70">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
+        <v>1.55</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
         <v>1.95</v>
       </c>
-      <c r="Q70">
-        <v>0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.875</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
         <v>1.95</v>
@@ -6749,25 +6749,25 @@
         <v>1.9</v>
       </c>
       <c r="W70">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7232,7 +7232,7 @@
         <v>45199.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>48</v>
@@ -7588,7 +7588,7 @@
         <v>45200.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -8125,7 +8125,7 @@
         <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8214,7 +8214,7 @@
         <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7291519</v>
+        <v>6944048</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6944048</v>
+        <v>7291519</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N90">
+        <v>4.75</v>
+      </c>
+      <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
+        <v>1.7</v>
+      </c>
+      <c r="Q90">
+        <v>0.75</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.95</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.8</v>
+      </c>
+      <c r="V90">
         <v>2.05</v>
       </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>3.5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>2.025</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>0.7</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.95</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1.05</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.825</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9279,7 +9279,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -9724,7 +9724,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9994,7 +9994,7 @@
         <v>45</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>33</v>
@@ -11059,7 +11059,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11151,7 +11151,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6944055</v>
+        <v>6944053</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,13 +11415,13 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11430,43 +11430,43 @@
         <v>53</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>3.1</v>
+      </c>
+      <c r="N123">
+        <v>1.95</v>
+      </c>
+      <c r="O123">
+        <v>3.5</v>
+      </c>
+      <c r="P123">
+        <v>3.8</v>
+      </c>
+      <c r="Q123">
+        <v>-0.5</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
         <v>2.75</v>
       </c>
-      <c r="N123">
-        <v>2.15</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3.4</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.8</v>
-      </c>
-      <c r="S123">
-        <v>2.05</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
       <c r="U123">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11475,7 +11475,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11484,7 +11484,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6944053</v>
+        <v>6944055</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,13 +11504,13 @@
         <v>45236.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11519,43 +11519,43 @@
         <v>53</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
+        <v>3.3</v>
+      </c>
+      <c r="M124">
+        <v>2.75</v>
+      </c>
+      <c r="N124">
+        <v>2.15</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
         <v>3.4</v>
       </c>
-      <c r="M124">
-        <v>3.1</v>
-      </c>
-      <c r="N124">
-        <v>1.95</v>
-      </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>3.8</v>
-      </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11564,7 +11564,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11573,7 +11573,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11860,10 +11860,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
         <v>37</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -13109,7 +13109,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13284,7 +13284,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13462,7 +13462,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -14177,7 +14177,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14355,7 +14355,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -15067,7 +15067,7 @@
         <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15156,7 +15156,7 @@
         <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6943613</v>
+        <v>6943962</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,76 +15242,76 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O166">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA166">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6943962</v>
+        <v>6943613</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,76 +15331,76 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K167">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N167">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z167">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15512,7 +15512,7 @@
         <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N173">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y173">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O174">
+        <v>3.8</v>
+      </c>
+      <c r="P174">
+        <v>4.5</v>
+      </c>
+      <c r="Q174">
+        <v>-1</v>
+      </c>
+      <c r="R174">
+        <v>2.05</v>
+      </c>
+      <c r="S174">
+        <v>1.8</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>2</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>3.5</v>
       </c>
-      <c r="P174">
-        <v>2.875</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.925</v>
-      </c>
-      <c r="S174">
-        <v>1.925</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>2.025</v>
-      </c>
-      <c r="V174">
-        <v>1.825</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>2.5</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>45283.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
@@ -16132,7 +16132,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>49</v>
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N183">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O183">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z183">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y184">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA184">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6943807</v>
+        <v>6944070</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,76 +17378,76 @@
         <v>45297.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K190">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L190">
         <v>3.4</v>
       </c>
       <c r="M190">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6944070</v>
+        <v>6943807</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45297.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
       <c r="J191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K191">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L191">
         <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P191">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.825</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17559,7 +17559,7 @@
         <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7589565</v>
+        <v>7589564</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,76 +17823,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K195">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L195">
         <v>3.5</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7589564</v>
+        <v>7589565</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,76 +17912,76 @@
         <v>45300.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
         <v>3.5</v>
       </c>
       <c r="M196">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,56 +18001,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J197" t="s">
         <v>52</v>
       </c>
       <c r="K197">
+        <v>2.625</v>
+      </c>
+      <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>2.4</v>
+      </c>
+      <c r="N197">
         <v>2.375</v>
-      </c>
-      <c r="L197">
-        <v>3.5</v>
-      </c>
-      <c r="M197">
-        <v>2.75</v>
-      </c>
-      <c r="N197">
-        <v>2.25</v>
       </c>
       <c r="O197">
         <v>3.6</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
         <v>2.75</v>
       </c>
       <c r="U197">
+        <v>1.975</v>
+      </c>
+      <c r="V197">
         <v>1.875</v>
       </c>
-      <c r="V197">
-        <v>1.975</v>
-      </c>
       <c r="W197">
         <v>-1</v>
       </c>
@@ -18058,19 +18058,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,56 +18090,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
         <v>52</v>
       </c>
       <c r="K198">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N198">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O198">
         <v>3.6</v>
       </c>
       <c r="P198">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
+        <v>1.875</v>
+      </c>
+      <c r="V198">
         <v>1.975</v>
       </c>
-      <c r="V198">
-        <v>1.875</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
@@ -18147,19 +18147,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7589559</v>
+        <v>7589561</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,76 +18179,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N199">
         <v>2.1</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
         <v>3.4</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
         <v>1.875</v>
       </c>
-      <c r="V199">
-        <v>1.975</v>
-      </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,7 +18256,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7589561</v>
+        <v>7589559</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18268,76 +18268,76 @@
         <v>45301.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K200">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L200">
         <v>3.5</v>
       </c>
       <c r="M200">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N200">
         <v>2.1</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
         <v>3.4</v>
       </c>
       <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.875</v>
+      </c>
+      <c r="V200">
+        <v>1.975</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2.4</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
         <v>-0.5</v>
       </c>
-      <c r="R200">
-        <v>2</v>
-      </c>
-      <c r="S200">
-        <v>1.85</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
-      <c r="W200">
-        <v>1.1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>1</v>
-      </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18535,7 +18535,7 @@
         <v>45302.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18983,7 +18983,7 @@
         <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19250,7 +19250,7 @@
         <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19781,7 +19781,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
         <v>38</v>
@@ -20048,7 +20048,7 @@
         <v>45312.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
         <v>49</v>
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6943989</v>
+        <v>6943992</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G228" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L228">
         <v>3.2</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N228">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P228">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.25</v>
       </c>
       <c r="U228">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W228">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
       </c>
       <c r="AC228">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6943992</v>
+        <v>6943989</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
         <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O229">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X229">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21030,7 +21030,7 @@
         <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6943618</v>
+        <v>6944076</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,58 +21205,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>53</v>
       </c>
       <c r="K233">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L233">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N233">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O233">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>0.1419999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21265,16 +21265,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6944076</v>
+        <v>6943618</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,58 +21294,58 @@
         <v>45316.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
         <v>1</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>53</v>
       </c>
       <c r="K234">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M234">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N234">
-        <v>2.375</v>
+        <v>1.142</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.375</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,16 +21354,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21650,7 +21650,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
         <v>47</v>
@@ -21739,7 +21739,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
         <v>40</v>
@@ -22276,7 +22276,7 @@
         <v>48</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         <v>42</v>
       </c>
       <c r="G246" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6944001</v>
+        <v>6944079</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,76 +22718,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M250">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="N250">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O250">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="Q250">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
         <v>1.975</v>
       </c>
-      <c r="S250">
-        <v>1.875</v>
-      </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y250">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6944079</v>
+        <v>6944001</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" t="s">
+        <v>52</v>
+      </c>
+      <c r="K251">
+        <v>5.5</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>1.571</v>
+      </c>
+      <c r="N251">
+        <v>6</v>
+      </c>
+      <c r="O251">
+        <v>4.2</v>
+      </c>
+      <c r="P251">
+        <v>1.533</v>
+      </c>
+      <c r="Q251">
         <v>1</v>
       </c>
-      <c r="I251">
-        <v>1</v>
-      </c>
-      <c r="J251" t="s">
-        <v>51</v>
-      </c>
-      <c r="K251">
-        <v>2.2</v>
-      </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.1</v>
-      </c>
-      <c r="N251">
-        <v>2.15</v>
-      </c>
-      <c r="O251">
-        <v>3.5</v>
-      </c>
-      <c r="P251">
-        <v>3.3</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
       <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
         <v>1.875</v>
       </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23252,7 +23252,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G256" t="s">
         <v>43</v>
@@ -23430,7 +23430,7 @@
         <v>45333.3125</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G258" t="s">
         <v>47</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6944007</v>
+        <v>7790196</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L263">
+        <v>3.4</v>
+      </c>
+      <c r="M263">
+        <v>2.75</v>
+      </c>
+      <c r="N263">
+        <v>2.05</v>
+      </c>
+      <c r="O263">
+        <v>3.3</v>
+      </c>
+      <c r="P263">
         <v>3.6</v>
       </c>
-      <c r="M263">
+      <c r="Q263">
+        <v>-0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.775</v>
+      </c>
+      <c r="S263">
         <v>2.1</v>
       </c>
-      <c r="N263">
-        <v>3.2</v>
-      </c>
-      <c r="O263">
-        <v>3.6</v>
-      </c>
-      <c r="P263">
-        <v>2.15</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.975</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>-0.5</v>
       </c>
-      <c r="AB263">
-        <v>-1</v>
-      </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7790196</v>
+        <v>6944007</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45334.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
+        <v>2.1</v>
+      </c>
+      <c r="N264">
+        <v>3.2</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
+        <v>2.15</v>
+      </c>
+      <c r="Q264">
+        <v>0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.975</v>
+      </c>
+      <c r="S264">
+        <v>1.875</v>
+      </c>
+      <c r="T264">
         <v>2.75</v>
       </c>
-      <c r="N264">
-        <v>2.05</v>
-      </c>
-      <c r="O264">
-        <v>3.3</v>
-      </c>
-      <c r="P264">
-        <v>3.6</v>
-      </c>
-      <c r="Q264">
-        <v>-0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.775</v>
-      </c>
-      <c r="S264">
-        <v>2.1</v>
-      </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24056,7 +24056,7 @@
         <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24234,7 +24234,7 @@
         <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K273">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L273">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N273">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O273">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P273">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q273">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R273">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S273">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6944014</v>
+        <v>6944086</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,76 +24854,76 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H274">
         <v>2</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N274">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O274">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P274">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S274">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>1.875</v>
+      </c>
+      <c r="V274">
+        <v>1.975</v>
+      </c>
+      <c r="W274">
+        <v>-1</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
         <v>2.75</v>
       </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
-      <c r="V274">
-        <v>1.85</v>
-      </c>
-      <c r="W274">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X274">
-        <v>-1</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
       <c r="Z274">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25388,7 +25388,7 @@
         <v>45347.3125</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G280" t="s">
         <v>43</v>
@@ -25477,7 +25477,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
         <v>45</v>
@@ -25836,7 +25836,7 @@
         <v>34</v>
       </c>
       <c r="G285" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>32</v>
       </c>
       <c r="G292" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -26812,7 +26812,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G296" t="s">
         <v>45</v>
@@ -27082,7 +27082,7 @@
         <v>33</v>
       </c>
       <c r="G299" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H299">
         <v>5</v>
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6944590</v>
+        <v>6944033</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,76 +27613,76 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F305" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G305" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N305">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="O305">
+        <v>3.3</v>
+      </c>
+      <c r="P305">
         <v>4.2</v>
       </c>
-      <c r="P305">
-        <v>5.75</v>
-      </c>
       <c r="Q305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V305">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC305">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6944033</v>
+        <v>6944590</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F306" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K306">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L306">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M306">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N306">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="O306">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P306">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R306">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S306">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T306">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X306">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA306">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27972,7 +27972,7 @@
         <v>32</v>
       </c>
       <c r="G309" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H309">
         <v>4</v>
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8015566</v>
+        <v>7061066</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,76 +28681,76 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H317">
         <v>1</v>
       </c>
       <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317" t="s">
+        <v>53</v>
+      </c>
+      <c r="K317">
+        <v>1.181</v>
+      </c>
+      <c r="L317">
+        <v>7.5</v>
+      </c>
+      <c r="M317">
+        <v>11</v>
+      </c>
+      <c r="N317">
+        <v>1.166</v>
+      </c>
+      <c r="O317">
+        <v>7.5</v>
+      </c>
+      <c r="P317">
+        <v>15</v>
+      </c>
+      <c r="Q317">
+        <v>-2</v>
+      </c>
+      <c r="R317">
+        <v>1.85</v>
+      </c>
+      <c r="S317">
+        <v>2</v>
+      </c>
+      <c r="T317">
+        <v>3.5</v>
+      </c>
+      <c r="U317">
+        <v>2</v>
+      </c>
+      <c r="V317">
+        <v>1.85</v>
+      </c>
+      <c r="W317">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X317">
+        <v>-1</v>
+      </c>
+      <c r="Y317">
+        <v>-1</v>
+      </c>
+      <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
         <v>1</v>
       </c>
-      <c r="J317" t="s">
-        <v>51</v>
-      </c>
-      <c r="K317">
-        <v>2</v>
-      </c>
-      <c r="L317">
-        <v>3.25</v>
-      </c>
-      <c r="M317">
-        <v>3.6</v>
-      </c>
-      <c r="N317">
-        <v>1.909</v>
-      </c>
-      <c r="O317">
-        <v>3.6</v>
-      </c>
-      <c r="P317">
-        <v>4.2</v>
-      </c>
-      <c r="Q317">
-        <v>-0.5</v>
-      </c>
-      <c r="R317">
-        <v>1.925</v>
-      </c>
-      <c r="S317">
-        <v>1.925</v>
-      </c>
-      <c r="T317">
-        <v>2.5</v>
-      </c>
-      <c r="U317">
-        <v>1.975</v>
-      </c>
-      <c r="V317">
-        <v>1.875</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
-      <c r="X317">
-        <v>2.6</v>
-      </c>
-      <c r="Y317">
-        <v>-1</v>
-      </c>
-      <c r="Z317">
-        <v>-1</v>
-      </c>
-      <c r="AA317">
-        <v>0.925</v>
-      </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28758,7 +28758,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7061066</v>
+        <v>8015566</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28770,61 +28770,61 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H318">
         <v>1</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K318">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="L318">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N318">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="O318">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="Q318">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T318">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W318">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y318">
         <v>-1</v>
@@ -28833,13 +28833,13 @@
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB318">
         <v>-1</v>
       </c>
       <c r="AC318">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28859,10 +28859,10 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F319" t="s">
+        <v>37</v>
+      </c>
+      <c r="G319" t="s">
         <v>36</v>
-      </c>
-      <c r="G319" t="s">
-        <v>37</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29396,7 +29396,7 @@
         <v>33</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -30105,7 +30105,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="F333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G333" t="s">
         <v>44</v>
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7115119</v>
+        <v>7129343</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30369,49 +30369,49 @@
         <v>28</v>
       </c>
       <c r="E336" s="2">
-        <v>45402.3125</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G336" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K336">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="L336">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M336">
-        <v>1.615</v>
+        <v>13</v>
       </c>
       <c r="N336">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="O336">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P336">
-        <v>1.666</v>
+        <v>11</v>
       </c>
       <c r="Q336">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R336">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S336">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V336">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W336">
         <v>0</v>
@@ -30434,7 +30434,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7124386</v>
+        <v>7124385</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30443,13 +30443,13 @@
         <v>28</v>
       </c>
       <c r="E337" s="2">
-        <v>45402.41666666666</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G337" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K337">
         <v>2.25</v>
@@ -30461,31 +30461,31 @@
         <v>3</v>
       </c>
       <c r="N337">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O337">
         <v>3.5</v>
       </c>
       <c r="P337">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
+        <v>1.8</v>
+      </c>
+      <c r="S337">
+        <v>2.05</v>
+      </c>
+      <c r="T337">
+        <v>2.75</v>
+      </c>
+      <c r="U337">
+        <v>1.975</v>
+      </c>
+      <c r="V337">
         <v>1.875</v>
-      </c>
-      <c r="S337">
-        <v>1.975</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
-      <c r="U337">
-        <v>1.825</v>
-      </c>
-      <c r="V337">
-        <v>2.025</v>
       </c>
       <c r="W337">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7133391</v>
+        <v>7129486</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30517,49 +30517,49 @@
         <v>28</v>
       </c>
       <c r="E338" s="2">
-        <v>45402.54166666666</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F338" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G338" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K338">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L338">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M338">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N338">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O338">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P338">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S338">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T338">
         <v>2.5</v>
       </c>
       <c r="U338">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V338">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W338">
         <v>0</v>
@@ -30582,7 +30582,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7129344</v>
+        <v>7129487</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30591,49 +30591,49 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45402.54166666666</v>
+        <v>45404.58333333334</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G339" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K339">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="L339">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="M339">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N339">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="O339">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P339">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="Q339">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S339">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T339">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U339">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V339">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30648,302 +30648,6 @@
         <v>0</v>
       </c>
       <c r="AA339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340">
-        <v>7119010</v>
-      </c>
-      <c r="C340" t="s">
-        <v>28</v>
-      </c>
-      <c r="D340" t="s">
-        <v>28</v>
-      </c>
-      <c r="E340" s="2">
-        <v>45403.3125</v>
-      </c>
-      <c r="F340" t="s">
-        <v>38</v>
-      </c>
-      <c r="G340" t="s">
-        <v>47</v>
-      </c>
-      <c r="K340">
-        <v>2.1</v>
-      </c>
-      <c r="L340">
-        <v>3.6</v>
-      </c>
-      <c r="M340">
-        <v>3.25</v>
-      </c>
-      <c r="N340">
-        <v>2.1</v>
-      </c>
-      <c r="O340">
-        <v>3.6</v>
-      </c>
-      <c r="P340">
-        <v>3.4</v>
-      </c>
-      <c r="Q340">
-        <v>-0.25</v>
-      </c>
-      <c r="R340">
-        <v>1.85</v>
-      </c>
-      <c r="S340">
-        <v>2</v>
-      </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>1.975</v>
-      </c>
-      <c r="V340">
-        <v>1.875</v>
-      </c>
-      <c r="W340">
-        <v>0</v>
-      </c>
-      <c r="X340">
-        <v>0</v>
-      </c>
-      <c r="Y340">
-        <v>0</v>
-      </c>
-      <c r="Z340">
-        <v>0</v>
-      </c>
-      <c r="AA340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341">
-        <v>7129343</v>
-      </c>
-      <c r="C341" t="s">
-        <v>28</v>
-      </c>
-      <c r="D341" t="s">
-        <v>28</v>
-      </c>
-      <c r="E341" s="2">
-        <v>45403.54166666666</v>
-      </c>
-      <c r="F341" t="s">
-        <v>35</v>
-      </c>
-      <c r="G341" t="s">
-        <v>43</v>
-      </c>
-      <c r="K341">
-        <v>1.2</v>
-      </c>
-      <c r="L341">
-        <v>6.5</v>
-      </c>
-      <c r="M341">
-        <v>13</v>
-      </c>
-      <c r="N341">
-        <v>1.222</v>
-      </c>
-      <c r="O341">
-        <v>6.5</v>
-      </c>
-      <c r="P341">
-        <v>13</v>
-      </c>
-      <c r="Q341">
-        <v>-2</v>
-      </c>
-      <c r="R341">
-        <v>1.95</v>
-      </c>
-      <c r="S341">
-        <v>1.9</v>
-      </c>
-      <c r="T341">
-        <v>3.5</v>
-      </c>
-      <c r="U341">
-        <v>1.9</v>
-      </c>
-      <c r="V341">
-        <v>1.95</v>
-      </c>
-      <c r="W341">
-        <v>0</v>
-      </c>
-      <c r="X341">
-        <v>0</v>
-      </c>
-      <c r="Y341">
-        <v>0</v>
-      </c>
-      <c r="Z341">
-        <v>0</v>
-      </c>
-      <c r="AA341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342">
-        <v>7124385</v>
-      </c>
-      <c r="C342" t="s">
-        <v>28</v>
-      </c>
-      <c r="D342" t="s">
-        <v>28</v>
-      </c>
-      <c r="E342" s="2">
-        <v>45403.54166666666</v>
-      </c>
-      <c r="F342" t="s">
-        <v>49</v>
-      </c>
-      <c r="G342" t="s">
-        <v>34</v>
-      </c>
-      <c r="K342">
-        <v>2.25</v>
-      </c>
-      <c r="L342">
-        <v>3.5</v>
-      </c>
-      <c r="M342">
-        <v>3</v>
-      </c>
-      <c r="N342">
-        <v>2.25</v>
-      </c>
-      <c r="O342">
-        <v>3.5</v>
-      </c>
-      <c r="P342">
-        <v>3.1</v>
-      </c>
-      <c r="Q342">
-        <v>-0.25</v>
-      </c>
-      <c r="R342">
-        <v>1.975</v>
-      </c>
-      <c r="S342">
-        <v>1.875</v>
-      </c>
-      <c r="T342">
-        <v>2.75</v>
-      </c>
-      <c r="U342">
-        <v>1.9</v>
-      </c>
-      <c r="V342">
-        <v>1.95</v>
-      </c>
-      <c r="W342">
-        <v>0</v>
-      </c>
-      <c r="X342">
-        <v>0</v>
-      </c>
-      <c r="Y342">
-        <v>0</v>
-      </c>
-      <c r="Z342">
-        <v>0</v>
-      </c>
-      <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>7129487</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45404.58333333334</v>
-      </c>
-      <c r="F343" t="s">
-        <v>36</v>
-      </c>
-      <c r="G343" t="s">
-        <v>44</v>
-      </c>
-      <c r="K343">
-        <v>5.5</v>
-      </c>
-      <c r="L343">
-        <v>4.6</v>
-      </c>
-      <c r="M343">
-        <v>1.5</v>
-      </c>
-      <c r="N343">
-        <v>8</v>
-      </c>
-      <c r="O343">
-        <v>4.75</v>
-      </c>
-      <c r="P343">
-        <v>1.4</v>
-      </c>
-      <c r="Q343">
-        <v>1.25</v>
-      </c>
-      <c r="R343">
-        <v>2</v>
-      </c>
-      <c r="S343">
-        <v>1.85</v>
-      </c>
-      <c r="T343">
-        <v>3</v>
-      </c>
-      <c r="U343">
-        <v>2.025</v>
-      </c>
-      <c r="V343">
-        <v>1.825</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -106,19 +106,19 @@
     <t>7248247</t>
   </si>
   <si>
-    <t>7223310</t>
+    <t>7223309</t>
   </si>
   <si>
-    <t>7223309</t>
+    <t>7223310</t>
   </si>
   <si>
     <t>7228053</t>
   </si>
   <si>
-    <t>7231027</t>
+    <t>7223307</t>
   </si>
   <si>
-    <t>7223307</t>
+    <t>7231027</t>
   </si>
   <si>
     <t>7223311</t>
@@ -3926,7 +3926,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943778</v>
+        <v>6943888</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -3935,49 +3935,49 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K40">
+        <v>3.5</v>
+      </c>
+      <c r="L40">
+        <v>2.875</v>
+      </c>
+      <c r="M40">
+        <v>2.25</v>
+      </c>
+      <c r="N40">
         <v>3.4</v>
       </c>
-      <c r="L40">
-        <v>2.8</v>
-      </c>
-      <c r="M40">
-        <v>2.5</v>
-      </c>
-      <c r="N40">
-        <v>3.3</v>
-      </c>
       <c r="O40">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T40">
         <v>1.925</v>
@@ -3986,25 +3986,25 @@
         <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>0.925</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4012,7 +4012,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6943888</v>
+        <v>6943778</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -4021,49 +4021,49 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J41">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O41">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T41">
         <v>1.925</v>
@@ -4072,25 +4072,25 @@
         <v>1.925</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4958,7 +4958,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6943902</v>
+        <v>6944043</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -4967,46 +4967,46 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M52">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N52">
         <v>3.4</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
         <v>2.5</v>
@@ -5018,25 +5018,25 @@
         <v>1.975</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5044,7 +5044,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6944043</v>
+        <v>6943902</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -5053,46 +5053,46 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J53">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N53">
         <v>3.4</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
         <v>2.5</v>
@@ -5104,25 +5104,25 @@
         <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5130,7 +5130,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943781</v>
+        <v>6943782</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -5139,58 +5139,58 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>61</v>
       </c>
       <c r="J54">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="N54">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="P54">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q54">
+        <v>1.975</v>
+      </c>
+      <c r="R54">
         <v>1.875</v>
       </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
       <c r="S54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5199,16 +5199,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5216,7 +5216,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943782</v>
+        <v>6943781</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5225,58 +5225,58 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
         <v>61</v>
       </c>
       <c r="J55">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M55">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P55">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q55">
+        <v>1.875</v>
+      </c>
+      <c r="R55">
         <v>1.975</v>
       </c>
-      <c r="R55">
-        <v>1.875</v>
-      </c>
       <c r="S55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5285,16 +5285,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5302,7 +5302,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6943602</v>
+        <v>6943900</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5311,49 +5311,49 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J56">
+        <v>1.4</v>
+      </c>
+      <c r="K56">
+        <v>4.333</v>
+      </c>
+      <c r="L56">
+        <v>7.5</v>
+      </c>
+      <c r="M56">
+        <v>1.4</v>
+      </c>
+      <c r="N56">
+        <v>4.333</v>
+      </c>
+      <c r="O56">
+        <v>7.5</v>
+      </c>
+      <c r="P56">
+        <v>-1.25</v>
+      </c>
+      <c r="Q56">
+        <v>1.9</v>
+      </c>
+      <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
         <v>3</v>
-      </c>
-      <c r="K56">
-        <v>3.25</v>
-      </c>
-      <c r="L56">
-        <v>2.3</v>
-      </c>
-      <c r="M56">
-        <v>3.4</v>
-      </c>
-      <c r="N56">
-        <v>3.25</v>
-      </c>
-      <c r="O56">
-        <v>2.1</v>
-      </c>
-      <c r="P56">
-        <v>0.25</v>
-      </c>
-      <c r="Q56">
-        <v>2.05</v>
-      </c>
-      <c r="R56">
-        <v>1.8</v>
-      </c>
-      <c r="S56">
-        <v>2.5</v>
       </c>
       <c r="T56">
         <v>1.975</v>
@@ -5362,25 +5362,25 @@
         <v>1.875</v>
       </c>
       <c r="V56">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5388,7 +5388,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6943900</v>
+        <v>6943602</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -5397,49 +5397,49 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57">
         <v>3</v>
       </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-      <c r="J57">
-        <v>1.4</v>
-      </c>
       <c r="K57">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L57">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="M57">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="N57">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O57">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="P57">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q57">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T57">
         <v>1.975</v>
@@ -5448,25 +5448,25 @@
         <v>1.875</v>
       </c>
       <c r="V57">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -7796,7 +7796,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943917</v>
+        <v>6943916</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -7805,16 +7805,16 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
         <v>61</v>
@@ -7829,34 +7829,34 @@
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>2.5</v>
+      </c>
+      <c r="T85">
         <v>1.975</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>1.875</v>
       </c>
-      <c r="S85">
-        <v>3</v>
-      </c>
-      <c r="T85">
-        <v>1.825</v>
-      </c>
-      <c r="U85">
-        <v>2.025</v>
-      </c>
       <c r="V85">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -7865,16 +7865,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7882,7 +7882,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6943916</v>
+        <v>6943917</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7891,16 +7891,16 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>61</v>
@@ -7915,34 +7915,34 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N86">
+        <v>3.3</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>-0.5</v>
+      </c>
+      <c r="Q86">
+        <v>1.975</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>3</v>
       </c>
-      <c r="O86">
-        <v>3.1</v>
-      </c>
-      <c r="P86">
-        <v>-0.25</v>
-      </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>2.5</v>
-      </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -7951,16 +7951,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -20266,7 +20266,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C230" t="s">
         <v>37</v>
@@ -20275,76 +20275,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F230" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J230">
+        <v>1.95</v>
+      </c>
+      <c r="K230">
+        <v>3.4</v>
+      </c>
+      <c r="L230">
+        <v>3.8</v>
+      </c>
+      <c r="M230">
+        <v>1.615</v>
+      </c>
+      <c r="N230">
+        <v>3.8</v>
+      </c>
+      <c r="O230">
         <v>6</v>
       </c>
-      <c r="K230">
-        <v>4</v>
-      </c>
-      <c r="L230">
-        <v>1.5</v>
-      </c>
-      <c r="M230">
-        <v>6</v>
-      </c>
-      <c r="N230">
-        <v>4.5</v>
-      </c>
-      <c r="O230">
-        <v>1.5</v>
-      </c>
       <c r="P230">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20352,7 +20352,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C231" t="s">
         <v>37</v>
@@ -20361,76 +20361,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="E231" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J231">
+        <v>6</v>
+      </c>
+      <c r="K231">
+        <v>4</v>
+      </c>
+      <c r="L231">
+        <v>1.5</v>
+      </c>
+      <c r="M231">
+        <v>6</v>
+      </c>
+      <c r="N231">
+        <v>4.5</v>
+      </c>
+      <c r="O231">
+        <v>1.5</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>2</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>2.75</v>
+      </c>
+      <c r="T231">
+        <v>1.9</v>
+      </c>
+      <c r="U231">
         <v>1.95</v>
       </c>
-      <c r="K231">
-        <v>3.4</v>
-      </c>
-      <c r="L231">
-        <v>3.8</v>
-      </c>
-      <c r="M231">
-        <v>1.615</v>
-      </c>
-      <c r="N231">
-        <v>3.8</v>
-      </c>
-      <c r="O231">
-        <v>6</v>
-      </c>
-      <c r="P231">
-        <v>-0.75</v>
-      </c>
-      <c r="Q231">
-        <v>1.8</v>
-      </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>2.5</v>
-      </c>
-      <c r="T231">
-        <v>1.875</v>
-      </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
       <c r="V231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y231">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -21556,7 +21556,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6944002</v>
+        <v>6943999</v>
       </c>
       <c r="C245" t="s">
         <v>37</v>
@@ -21565,76 +21565,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F245" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J245">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K245">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N245">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
         <v>2.25</v>
       </c>
       <c r="T245">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W245">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -21642,7 +21642,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6943999</v>
+        <v>6944002</v>
       </c>
       <c r="C246" t="s">
         <v>37</v>
@@ -21651,76 +21651,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J246">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K246">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N246">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O246">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q246">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
         <v>2.25</v>
       </c>
       <c r="T246">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA246">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -29554,7 +29554,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7129344</v>
+        <v>7133391</v>
       </c>
       <c r="C338" t="s">
         <v>37</v>
@@ -29563,76 +29563,76 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E338" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F338" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G338">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J338">
+        <v>2.25</v>
+      </c>
+      <c r="K338">
+        <v>3.3</v>
+      </c>
+      <c r="L338">
+        <v>3.2</v>
+      </c>
+      <c r="M338">
+        <v>2.3</v>
+      </c>
+      <c r="N338">
+        <v>3.3</v>
+      </c>
+      <c r="O338">
         <v>3.1</v>
       </c>
-      <c r="K338">
-        <v>3.5</v>
-      </c>
-      <c r="L338">
-        <v>2.2</v>
-      </c>
-      <c r="M338">
-        <v>3.4</v>
-      </c>
-      <c r="N338">
-        <v>3.6</v>
-      </c>
-      <c r="O338">
-        <v>2.05</v>
-      </c>
       <c r="P338">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q338">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R338">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S338">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T338">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U338">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V338">
         <v>-1</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X338">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z338">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA338">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="339" spans="1:28">
@@ -29640,7 +29640,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7133391</v>
+        <v>7129344</v>
       </c>
       <c r="C339" t="s">
         <v>37</v>
@@ -29649,76 +29649,76 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E339" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F339" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G339">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J339">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K339">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L339">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M339">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N339">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O339">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P339">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q339">
+        <v>2.025</v>
+      </c>
+      <c r="R339">
+        <v>1.825</v>
+      </c>
+      <c r="S339">
+        <v>2.75</v>
+      </c>
+      <c r="T339">
+        <v>1.875</v>
+      </c>
+      <c r="U339">
         <v>1.975</v>
       </c>
-      <c r="R339">
-        <v>1.875</v>
-      </c>
-      <c r="S339">
-        <v>2.5</v>
-      </c>
-      <c r="T339">
-        <v>1.925</v>
-      </c>
-      <c r="U339">
-        <v>1.925</v>
-      </c>
       <c r="V339">
         <v>-1</v>
       </c>
       <c r="W339">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y339">
+        <v>-1</v>
+      </c>
+      <c r="Z339">
+        <v>0.825</v>
+      </c>
+      <c r="AA339">
+        <v>0.4375</v>
+      </c>
+      <c r="AB339">
         <v>-0.5</v>
-      </c>
-      <c r="Z339">
-        <v>0.4375</v>
-      </c>
-      <c r="AA339">
-        <v>-1</v>
-      </c>
-      <c r="AB339">
-        <v>0.925</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -30758,7 +30758,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7154861</v>
+        <v>7154860</v>
       </c>
       <c r="C352" t="s">
         <v>37</v>
@@ -30767,73 +30767,73 @@
         <v>45410.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F352" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H352">
         <v>2</v>
       </c>
       <c r="I352" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J352">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="K352">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L352">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M352">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="N352">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O352">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q352">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R352">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S352">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T352">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V352">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W352">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z352">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB352">
         <v>-1</v>
@@ -30844,7 +30844,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7154860</v>
+        <v>7154861</v>
       </c>
       <c r="C353" t="s">
         <v>37</v>
@@ -30853,73 +30853,73 @@
         <v>45410.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F353" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H353">
         <v>2</v>
       </c>
       <c r="I353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J353">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K353">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L353">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M353">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="N353">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O353">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q353">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R353">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S353">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T353">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U353">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V353">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA353">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB353">
         <v>-1</v>
@@ -31046,7 +31046,7 @@
         <v>3.8</v>
       </c>
       <c r="O355">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P355">
         <v>-0.75</v>
@@ -31061,10 +31061,10 @@
         <v>3</v>
       </c>
       <c r="T355">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U355">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V355">
         <v>0</v>
@@ -31105,31 +31105,31 @@
         <v>3.6</v>
       </c>
       <c r="M356">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N356">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O356">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P356">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q356">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R356">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S356">
         <v>2.5</v>
       </c>
       <c r="T356">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U356">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V356">
         <v>0</v>
@@ -31170,31 +31170,31 @@
         <v>1.65</v>
       </c>
       <c r="M357">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N357">
         <v>4.5</v>
       </c>
       <c r="O357">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="P357">
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R357">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S357">
         <v>3.25</v>
       </c>
       <c r="T357">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U357">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V357">
         <v>0</v>
@@ -31220,31 +31220,31 @@
         <v>45416.54166666666</v>
       </c>
       <c r="E358" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F358" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J358">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="K358">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L358">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M358">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N358">
         <v>3.25</v>
       </c>
       <c r="O358">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="P358">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q358">
         <v>2.025</v>
@@ -31253,13 +31253,13 @@
         <v>1.825</v>
       </c>
       <c r="S358">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T358">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U358">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V358">
         <v>0</v>
@@ -31285,46 +31285,46 @@
         <v>45416.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F359" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J359">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="K359">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L359">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M359">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N359">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O359">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P359">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q359">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R359">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S359">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T359">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U359">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
         <v>0</v>
@@ -31365,22 +31365,22 @@
         <v>3.6</v>
       </c>
       <c r="M360">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N360">
         <v>3.5</v>
       </c>
       <c r="O360">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P360">
         <v>-0.5</v>
       </c>
       <c r="Q360">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R360">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S360">
         <v>2.75</v>
@@ -31415,46 +31415,46 @@
         <v>45417.54166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F361" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J361">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="K361">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="L361">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="M361">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="N361">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="O361">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R361">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S361">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T361">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U361">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V361">
         <v>0</v>
@@ -31480,46 +31480,46 @@
         <v>45417.54166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F362" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J362">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="K362">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="L362">
-        <v>3.3</v>
+        <v>15</v>
       </c>
       <c r="M362">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="N362">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="O362">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="P362">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="Q362">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R362">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S362">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T362">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U362">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V362">
         <v>0</v>
@@ -31560,22 +31560,22 @@
         <v>1.45</v>
       </c>
       <c r="M363">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N363">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="O363">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="P363">
         <v>1.25</v>
       </c>
       <c r="Q363">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R363">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S363">
         <v>2.75</v>
@@ -31628,28 +31628,28 @@
         <v>2.2</v>
       </c>
       <c r="N364">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O364">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P364">
         <v>-0.25</v>
       </c>
       <c r="Q364">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R364">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S364">
         <v>2.75</v>
       </c>
       <c r="T364">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U364">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
         <v>0</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -97,22 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7248248</t>
-  </si>
-  <si>
     <t>7256308</t>
-  </si>
-  <si>
-    <t>7252630</t>
-  </si>
-  <si>
-    <t>7252520</t>
-  </si>
-  <si>
-    <t>7261070</t>
-  </si>
-  <si>
-    <t>7256737</t>
   </si>
   <si>
     <t>7256307</t>
@@ -125,6 +110,21 @@
   </si>
   <si>
     <t>7252631</t>
+  </si>
+  <si>
+    <t>7252630</t>
+  </si>
+  <si>
+    <t>7248248</t>
+  </si>
+  <si>
+    <t>7256737</t>
+  </si>
+  <si>
+    <t>7252520</t>
+  </si>
+  <si>
+    <t>7261070</t>
   </si>
   <si>
     <t>Turkey Super Lig</t>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB375"/>
+  <dimension ref="A1:AB374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31885,46 +31885,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F365" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J365">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="K365">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L365">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M365">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="N365">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="O365">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="P365">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="Q365">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R365">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S365">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T365">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U365">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V365">
         <v>0</v>
@@ -31950,46 +31950,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F366" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J366">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="K366">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="L366">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="M366">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="N366">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="O366">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="P366">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Q366">
+        <v>1.825</v>
+      </c>
+      <c r="R366">
+        <v>2.025</v>
+      </c>
+      <c r="S366">
+        <v>2.5</v>
+      </c>
+      <c r="T366">
+        <v>1.875</v>
+      </c>
+      <c r="U366">
         <v>1.975</v>
-      </c>
-      <c r="R366">
-        <v>1.875</v>
-      </c>
-      <c r="S366">
-        <v>3.75</v>
-      </c>
-      <c r="T366">
-        <v>1.975</v>
-      </c>
-      <c r="U366">
-        <v>1.875</v>
       </c>
       <c r="V366">
         <v>0</v>
@@ -32015,46 +32015,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E367" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F367" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J367">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="K367">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L367">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N367">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O367">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P367">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q367">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R367">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S367">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T367">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U367">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V367">
         <v>0</v>
@@ -32080,46 +32080,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E368" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F368" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J368">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K368">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M368">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N368">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O368">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P368">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q368">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R368">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S368">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T368">
+        <v>2.05</v>
+      </c>
+      <c r="U368">
         <v>1.8</v>
-      </c>
-      <c r="U368">
-        <v>2.05</v>
       </c>
       <c r="V368">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E369" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F369" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J369">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="K369">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="L369">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M369">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="N369">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="O369">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="P369">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q369">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R369">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S369">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T369">
+        <v>2</v>
+      </c>
+      <c r="U369">
         <v>1.85</v>
-      </c>
-      <c r="U369">
-        <v>2</v>
       </c>
       <c r="V369">
         <v>0</v>
@@ -32210,46 +32210,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F370" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J370">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="K370">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="L370">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="M370">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N370">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O370">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="P370">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q370">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R370">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S370">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T370">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U370">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V370">
         <v>0</v>
@@ -32275,31 +32275,31 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F371" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J371">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K371">
+        <v>3.6</v>
+      </c>
+      <c r="L371">
+        <v>3.25</v>
+      </c>
+      <c r="M371">
+        <v>2.05</v>
+      </c>
+      <c r="N371">
+        <v>3.6</v>
+      </c>
+      <c r="O371">
         <v>3.4</v>
       </c>
-      <c r="L371">
-        <v>2.75</v>
-      </c>
-      <c r="M371">
-        <v>2.45</v>
-      </c>
-      <c r="N371">
-        <v>3.4</v>
-      </c>
-      <c r="O371">
-        <v>2.75</v>
-      </c>
       <c r="P371">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q371">
         <v>1.825</v>
@@ -32308,13 +32308,13 @@
         <v>2.025</v>
       </c>
       <c r="S371">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T371">
+        <v>1.975</v>
+      </c>
+      <c r="U371">
         <v>1.875</v>
-      </c>
-      <c r="U371">
-        <v>1.975</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -32340,31 +32340,31 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F372" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J372">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="K372">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="M372">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="N372">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O372">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="P372">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q372">
         <v>2</v>
@@ -32373,13 +32373,13 @@
         <v>1.85</v>
       </c>
       <c r="S372">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T372">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U372">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -32405,46 +32405,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E373" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F373" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J373">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K373">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L373">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N373">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O373">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P373">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q373">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R373">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S373">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T373">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V373">
         <v>0</v>
@@ -32470,46 +32470,46 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E374" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F374" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J374">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="K374">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="L374">
+        <v>13</v>
+      </c>
+      <c r="M374">
+        <v>1.166</v>
+      </c>
+      <c r="N374">
+        <v>7.5</v>
+      </c>
+      <c r="O374">
+        <v>13</v>
+      </c>
+      <c r="P374">
+        <v>-2</v>
+      </c>
+      <c r="Q374">
+        <v>1.825</v>
+      </c>
+      <c r="R374">
+        <v>2.025</v>
+      </c>
+      <c r="S374">
         <v>3.25</v>
       </c>
-      <c r="M374">
-        <v>2.25</v>
-      </c>
-      <c r="N374">
-        <v>3.2</v>
-      </c>
-      <c r="O374">
-        <v>3.25</v>
-      </c>
-      <c r="P374">
-        <v>-0.25</v>
-      </c>
-      <c r="Q374">
-        <v>1.975</v>
-      </c>
-      <c r="R374">
-        <v>1.875</v>
-      </c>
-      <c r="S374">
-        <v>2.25</v>
-      </c>
       <c r="T374">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U374">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -32518,71 +32518,6 @@
         <v>0</v>
       </c>
       <c r="X374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:24">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375" t="s">
-        <v>36</v>
-      </c>
-      <c r="C375" t="s">
-        <v>37</v>
-      </c>
-      <c r="D375" s="2">
-        <v>45424.54166666666</v>
-      </c>
-      <c r="E375" t="s">
-        <v>38</v>
-      </c>
-      <c r="F375" t="s">
-        <v>59</v>
-      </c>
-      <c r="J375">
-        <v>2.25</v>
-      </c>
-      <c r="K375">
-        <v>3.2</v>
-      </c>
-      <c r="L375">
-        <v>3.25</v>
-      </c>
-      <c r="M375">
-        <v>2.25</v>
-      </c>
-      <c r="N375">
-        <v>3.2</v>
-      </c>
-      <c r="O375">
-        <v>3.25</v>
-      </c>
-      <c r="P375">
-        <v>-0.25</v>
-      </c>
-      <c r="Q375">
-        <v>1.975</v>
-      </c>
-      <c r="R375">
-        <v>1.875</v>
-      </c>
-      <c r="S375">
-        <v>2.25</v>
-      </c>
-      <c r="T375">
-        <v>1.975</v>
-      </c>
-      <c r="U375">
-        <v>1.875</v>
-      </c>
-      <c r="V375">
-        <v>0</v>
-      </c>
-      <c r="W375">
-        <v>0</v>
-      </c>
-      <c r="X375">
         <v>0</v>
       </c>
     </row>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -106,22 +106,22 @@
     <t>7308637</t>
   </si>
   <si>
-    <t>7313296</t>
-  </si>
-  <si>
-    <t>7305651</t>
-  </si>
-  <si>
     <t>7305653</t>
   </si>
   <si>
     <t>7308638</t>
   </si>
   <si>
+    <t>7313296</t>
+  </si>
+  <si>
+    <t>7316866</t>
+  </si>
+  <si>
     <t>7316867</t>
   </si>
   <si>
-    <t>7316866</t>
+    <t>7305651</t>
   </si>
   <si>
     <t>Turkey Super Lig</t>
@@ -136,13 +136,13 @@
     <t>Umraniyespor</t>
   </si>
   <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
     <t>Kasimpasa</t>
   </si>
   <si>
     <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Adana Demirspor</t>
   </si>
   <si>
     <t>Galatasaray</t>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5579165</v>
+        <v>5579166</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -925,53 +925,53 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>61</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O5">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q5">
+        <v>1.8</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>3.75</v>
+      </c>
+      <c r="T5">
+        <v>1.95</v>
+      </c>
+      <c r="U5">
         <v>1.9</v>
       </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>3.25</v>
-      </c>
-      <c r="T5">
-        <v>2.025</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
       <c r="V5">
         <v>-1</v>
       </c>
@@ -979,16 +979,16 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
         <v>0.95</v>
-      </c>
-      <c r="AA5">
-        <v>1.025</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5575890</v>
+        <v>5579165</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1011,53 +1011,53 @@
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
       </c>
       <c r="J6">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O6">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="P6">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q6">
+        <v>1.9</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>3.25</v>
+      </c>
+      <c r="T6">
         <v>2.025</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>1.825</v>
       </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>1.9</v>
-      </c>
-      <c r="U6">
-        <v>1.95</v>
-      </c>
       <c r="V6">
         <v>-1</v>
       </c>
@@ -1065,19 +1065,19 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5579166</v>
+        <v>5575890</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1097,53 +1097,53 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>61</v>
       </c>
       <c r="J7">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T7">
+        <v>1.9</v>
+      </c>
+      <c r="U7">
         <v>1.95</v>
       </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
       <c r="V7">
         <v>-1</v>
       </c>
@@ -1151,19 +1151,19 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.95</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1269,7 +1269,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -2126,7 +2126,7 @@
         <v>45150.65625</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -2470,7 +2470,7 @@
         <v>45151.65625</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -2731,7 +2731,7 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3075,7 +3075,7 @@
         <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943882</v>
+        <v>6943777</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -3244,40 +3244,40 @@
         <v>45158.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J32">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="N32">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O32">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -3286,22 +3286,22 @@
         <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X32">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3310,10 +3310,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3321,7 +3321,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943777</v>
+        <v>6943882</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -3330,40 +3330,40 @@
         <v>45158.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J33">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="M33">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="O33">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="P33">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -3372,22 +3372,22 @@
         <v>1.85</v>
       </c>
       <c r="S33">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>1.85</v>
       </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
       <c r="V33">
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3396,10 +3396,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3407,7 +3407,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6943776</v>
+        <v>6943885</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -3416,46 +3416,46 @@
         <v>45159.625</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="K34">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M34">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O34">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S34">
         <v>2.75</v>
@@ -3470,16 +3470,16 @@
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3493,7 +3493,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6943885</v>
+        <v>6943776</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -3502,46 +3502,46 @@
         <v>45159.625</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J35">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="K35">
+        <v>4.2</v>
+      </c>
+      <c r="L35">
+        <v>1.571</v>
+      </c>
+      <c r="M35">
+        <v>4.2</v>
+      </c>
+      <c r="N35">
         <v>3.75</v>
       </c>
-      <c r="L35">
-        <v>2.375</v>
-      </c>
-      <c r="M35">
-        <v>2.8</v>
-      </c>
-      <c r="N35">
-        <v>3.4</v>
-      </c>
       <c r="O35">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q35">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R35">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S35">
         <v>2.75</v>
@@ -3556,16 +3556,16 @@
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3760,7 +3760,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
         <v>51</v>
@@ -4018,7 +4018,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
         <v>58</v>
@@ -4276,7 +4276,7 @@
         <v>45170.625</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
         <v>38</v>
@@ -4353,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943893</v>
+        <v>6943780</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -4362,76 +4362,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J45">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="M45">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
         <v>3.4</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q45">
+        <v>1.975</v>
+      </c>
+      <c r="R45">
+        <v>1.875</v>
+      </c>
+      <c r="S45">
+        <v>2.75</v>
+      </c>
+      <c r="T45">
         <v>1.925</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <v>1.925</v>
       </c>
-      <c r="S45">
-        <v>2.5</v>
-      </c>
-      <c r="T45">
-        <v>2.025</v>
-      </c>
-      <c r="U45">
-        <v>1.825</v>
-      </c>
       <c r="V45">
         <v>-1</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
         <v>0.925</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4439,7 +4439,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943780</v>
+        <v>6943893</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
@@ -4448,76 +4448,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J46">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L46">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N46">
         <v>3.4</v>
       </c>
       <c r="O46">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q46">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
         <v>-1</v>
       </c>
       <c r="W46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4537,7 +4537,7 @@
         <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4795,7 +4795,7 @@
         <v>56</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -5050,7 +5050,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
         <v>57</v>
@@ -5127,7 +5127,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943782</v>
+        <v>6943781</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
@@ -5136,58 +5136,58 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
         <v>60</v>
       </c>
       <c r="J54">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M54">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O54">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P54">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q54">
+        <v>1.875</v>
+      </c>
+      <c r="R54">
         <v>1.975</v>
       </c>
-      <c r="R54">
-        <v>1.875</v>
-      </c>
       <c r="S54">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5196,16 +5196,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5213,7 +5213,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943781</v>
+        <v>6943782</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
@@ -5222,58 +5222,58 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>60</v>
       </c>
       <c r="J55">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L55">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M55">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q55">
+        <v>1.975</v>
+      </c>
+      <c r="R55">
         <v>1.875</v>
       </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
       <c r="S55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5282,16 +5282,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5569,7 +5569,7 @@
         <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5643,7 +5643,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6943898</v>
+        <v>6943901</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -5652,76 +5652,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J60">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K60">
         <v>3.3</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N60">
         <v>3.4</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
         <v>2.5</v>
       </c>
       <c r="T60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5729,7 +5729,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6943901</v>
+        <v>6943898</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -5738,76 +5738,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J61">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K61">
         <v>3.3</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N61">
         <v>3.4</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
         <v>2.5</v>
       </c>
       <c r="T61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
         <v>-1</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6073,7 +6073,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7233795</v>
+        <v>6944045</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -6082,76 +6082,76 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J65">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M65">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="P65">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q65">
+        <v>1.95</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>2.75</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
         <v>1.85</v>
       </c>
-      <c r="R65">
-        <v>2</v>
-      </c>
-      <c r="S65">
-        <v>2.5</v>
-      </c>
-      <c r="T65">
-        <v>1.825</v>
-      </c>
-      <c r="U65">
-        <v>2.025</v>
-      </c>
       <c r="V65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6159,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6944045</v>
+        <v>7233795</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -6168,76 +6168,76 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J66">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="K66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
         <v>3.5</v>
       </c>
-      <c r="O66">
+      <c r="P66">
+        <v>-0.25</v>
+      </c>
+      <c r="Q66">
         <v>1.85</v>
       </c>
-      <c r="P66">
-        <v>0.5</v>
-      </c>
-      <c r="Q66">
-        <v>1.95</v>
-      </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
       <c r="Z66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6245,7 +6245,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943907</v>
+        <v>6943906</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -6254,76 +6254,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J67">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="L67">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="N67">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O67">
+        <v>8.5</v>
+      </c>
+      <c r="P67">
+        <v>-1.5</v>
+      </c>
+      <c r="Q67">
+        <v>1.975</v>
+      </c>
+      <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>3</v>
       </c>
-      <c r="P67">
-        <v>-0.25</v>
-      </c>
-      <c r="Q67">
+      <c r="T67">
+        <v>1.8</v>
+      </c>
+      <c r="U67">
         <v>2.05</v>
       </c>
-      <c r="R67">
-        <v>1.75</v>
-      </c>
-      <c r="S67">
-        <v>2.5</v>
-      </c>
-      <c r="T67">
-        <v>1.9</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
       <c r="V67">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6331,7 +6331,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943906</v>
+        <v>6943907</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -6340,76 +6340,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J68">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K68">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M68">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6426,10 +6426,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
         <v>40</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6770,7 +6770,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -7375,7 +7375,7 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7630,7 +7630,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
@@ -7716,7 +7716,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
         <v>46</v>
@@ -7793,7 +7793,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943917</v>
+        <v>6943916</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -7802,16 +7802,16 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
         <v>60</v>
@@ -7826,34 +7826,34 @@
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>2.5</v>
+      </c>
+      <c r="T85">
         <v>1.975</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>1.875</v>
       </c>
-      <c r="S85">
-        <v>3</v>
-      </c>
-      <c r="T85">
-        <v>1.825</v>
-      </c>
-      <c r="U85">
-        <v>2.025</v>
-      </c>
       <c r="V85">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -7862,16 +7862,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7879,7 +7879,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6943916</v>
+        <v>6943917</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -7888,16 +7888,16 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>60</v>
@@ -7912,34 +7912,34 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N86">
+        <v>3.3</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>-0.5</v>
+      </c>
+      <c r="Q86">
+        <v>1.975</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>3</v>
       </c>
-      <c r="O86">
-        <v>3.1</v>
-      </c>
-      <c r="P86">
-        <v>-0.25</v>
-      </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>2.5</v>
-      </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -7948,16 +7948,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8063,7 +8063,7 @@
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8481,7 +8481,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6943915</v>
+        <v>6943914</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -8490,76 +8490,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F93" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J93">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="K93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L93">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M93">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="N93">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O93">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="P93">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8567,7 +8567,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6943914</v>
+        <v>6943915</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
@@ -8576,76 +8576,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J94">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L94">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M94">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O94">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q94">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T94">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8662,7 +8662,7 @@
         <v>45220.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
         <v>55</v>
@@ -9009,7 +9009,7 @@
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6944051</v>
+        <v>6943921</v>
       </c>
       <c r="C103" t="s">
         <v>36</v>
@@ -9350,13 +9350,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9365,43 +9365,43 @@
         <v>60</v>
       </c>
       <c r="J103">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L103">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="M103">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="P103">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
         <v>2.75</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V103">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9410,16 +9410,16 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9427,7 +9427,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6943921</v>
+        <v>6944051</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
@@ -9436,13 +9436,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9451,43 +9451,43 @@
         <v>60</v>
       </c>
       <c r="J104">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="K104">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L104">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
         <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9525,7 +9525,7 @@
         <v>56</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
         <v>48</v>
@@ -9866,7 +9866,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -10115,7 +10115,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6943924</v>
+        <v>6943792</v>
       </c>
       <c r="C112" t="s">
         <v>36</v>
@@ -10124,76 +10124,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J112">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="K112">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="M112">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="N112">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="P112">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T112">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y112">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10201,7 +10201,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6943792</v>
+        <v>6943924</v>
       </c>
       <c r="C113" t="s">
         <v>36</v>
@@ -10210,76 +10210,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J113">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="K113">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="L113">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O113">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>2.1</v>
+      </c>
+      <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
+        <v>2.25</v>
+      </c>
+      <c r="T113">
         <v>1.85</v>
       </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>3.25</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10385,7 +10385,7 @@
         <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10729,7 +10729,7 @@
         <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11156,7 +11156,7 @@
         <v>45236.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
         <v>53</v>
@@ -11414,10 +11414,10 @@
         <v>45241.3125</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -12016,7 +12016,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
         <v>52</v>
@@ -12191,7 +12191,7 @@
         <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12446,10 +12446,10 @@
         <v>45256.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7471385</v>
+        <v>6943944</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
@@ -12790,73 +12790,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J143">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="K143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M143">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
         <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -12867,7 +12867,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6943944</v>
+        <v>7471385</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -12876,73 +12876,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J144">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O144">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
         <v>2.5</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13297,7 +13297,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6943798</v>
+        <v>6943797</v>
       </c>
       <c r="C149" t="s">
         <v>36</v>
@@ -13306,55 +13306,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F149" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="s">
         <v>61</v>
       </c>
       <c r="J149">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="K149">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L149">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="M149">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="P149">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q149">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
         <v>-1</v>
@@ -13363,19 +13363,19 @@
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13383,7 +13383,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943797</v>
+        <v>6943798</v>
       </c>
       <c r="C150" t="s">
         <v>36</v>
@@ -13392,55 +13392,55 @@
         <v>45262.54166666666</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150" t="s">
         <v>61</v>
       </c>
       <c r="J150">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="K150">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L150">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="M150">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="N150">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q150">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
         <v>-1</v>
@@ -13449,19 +13449,19 @@
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="Y150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13478,7 +13478,7 @@
         <v>45263.3125</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
         <v>57</v>
@@ -13567,7 +13567,7 @@
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13825,7 +13825,7 @@
         <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13997,7 +13997,7 @@
         <v>58</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G157">
         <v>4</v>
@@ -14252,7 +14252,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
         <v>51</v>
@@ -14857,7 +14857,7 @@
         <v>57</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14940,7 +14940,7 @@
         <v>45280.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
         <v>52</v>
@@ -15017,7 +15017,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943961</v>
+        <v>6943964</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
@@ -15026,61 +15026,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J169">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="K169">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="N169">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O169">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q169">
+        <v>2</v>
+      </c>
+      <c r="R169">
+        <v>1.85</v>
+      </c>
+      <c r="S169">
+        <v>2.75</v>
+      </c>
+      <c r="T169">
+        <v>1.875</v>
+      </c>
+      <c r="U169">
         <v>1.975</v>
       </c>
-      <c r="R169">
-        <v>1.875</v>
-      </c>
-      <c r="S169">
-        <v>3.25</v>
-      </c>
-      <c r="T169">
-        <v>1.9</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
       <c r="V169">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15089,13 +15089,13 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15103,7 +15103,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943964</v>
+        <v>6943961</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
@@ -15112,61 +15112,61 @@
         <v>45280.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J170">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M170">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="P170">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15175,13 +15175,13 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15361,7 +15361,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943965</v>
+        <v>6943966</v>
       </c>
       <c r="C173" t="s">
         <v>36</v>
@@ -15370,76 +15370,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J173">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="K173">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N173">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P173">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q173">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
         <v>-1</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X173">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z173">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15447,7 +15447,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6943966</v>
+        <v>6943965</v>
       </c>
       <c r="C174" t="s">
         <v>36</v>
@@ -15456,76 +15456,76 @@
         <v>45281.58333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J174">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M174">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N174">
+        <v>3.8</v>
+      </c>
+      <c r="O174">
+        <v>4.5</v>
+      </c>
+      <c r="P174">
+        <v>-1</v>
+      </c>
+      <c r="Q174">
+        <v>2.05</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2.75</v>
+      </c>
+      <c r="T174">
+        <v>1.85</v>
+      </c>
+      <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
+        <v>-1</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
         <v>3.5</v>
       </c>
-      <c r="O174">
-        <v>2.875</v>
-      </c>
-      <c r="P174">
-        <v>-0.25</v>
-      </c>
-      <c r="Q174">
-        <v>1.925</v>
-      </c>
-      <c r="R174">
-        <v>1.925</v>
-      </c>
-      <c r="S174">
-        <v>2.5</v>
-      </c>
-      <c r="T174">
-        <v>2.025</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>-1</v>
-      </c>
-      <c r="W174">
-        <v>2.5</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
       <c r="Y174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15803,7 +15803,7 @@
         <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15886,7 +15886,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
         <v>54</v>
@@ -16049,7 +16049,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C181" t="s">
         <v>36</v>
@@ -16058,73 +16058,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F181" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J181">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L181">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M181">
+        <v>2.55</v>
+      </c>
+      <c r="N181">
+        <v>3.2</v>
+      </c>
+      <c r="O181">
+        <v>2.7</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>1.9</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
         <v>2.25</v>
       </c>
-      <c r="N181">
-        <v>3.5</v>
-      </c>
-      <c r="O181">
-        <v>2.75</v>
-      </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-      <c r="Q181">
-        <v>1.775</v>
-      </c>
-      <c r="R181">
-        <v>2.1</v>
-      </c>
-      <c r="S181">
-        <v>3</v>
-      </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
         <v>-1</v>
@@ -16135,7 +16135,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C182" t="s">
         <v>36</v>
@@ -16144,73 +16144,73 @@
         <v>45285.45833333334</v>
       </c>
       <c r="E182" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G182">
+        <v>2</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182" t="s">
+        <v>59</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>3.5</v>
+      </c>
+      <c r="L182">
+        <v>3.25</v>
+      </c>
+      <c r="M182">
+        <v>2.25</v>
+      </c>
+      <c r="N182">
+        <v>3.5</v>
+      </c>
+      <c r="O182">
+        <v>2.75</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>1.775</v>
+      </c>
+      <c r="R182">
+        <v>2.1</v>
+      </c>
+      <c r="S182">
         <v>3</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182" t="s">
-        <v>60</v>
-      </c>
-      <c r="J182">
-        <v>2.2</v>
-      </c>
-      <c r="K182">
-        <v>3.4</v>
-      </c>
-      <c r="L182">
-        <v>3</v>
-      </c>
-      <c r="M182">
-        <v>2.55</v>
-      </c>
-      <c r="N182">
-        <v>3.2</v>
-      </c>
-      <c r="O182">
-        <v>2.7</v>
-      </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-      <c r="Q182">
-        <v>1.9</v>
-      </c>
-      <c r="R182">
-        <v>1.95</v>
-      </c>
-      <c r="S182">
-        <v>2.25</v>
-      </c>
       <c r="T182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB182">
         <v>-1</v>
@@ -16221,7 +16221,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C183" t="s">
         <v>36</v>
@@ -16230,76 +16230,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J183">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K183">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L183">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M183">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O183">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P183">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q183">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S183">
         <v>2.5</v>
       </c>
       <c r="T183">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X183">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16307,7 +16307,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C184" t="s">
         <v>36</v>
@@ -16316,76 +16316,76 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E184" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G184">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J184">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L184">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M184">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N184">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O184">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S184">
         <v>2.5</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
         <v>-1</v>
       </c>
       <c r="W184">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y184">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16479,7 +16479,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C186" t="s">
         <v>36</v>
@@ -16488,76 +16488,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J186">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M186">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P186">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q186">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
         <v>-1</v>
       </c>
       <c r="W186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16565,7 +16565,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C187" t="s">
         <v>36</v>
@@ -16574,76 +16574,76 @@
         <v>45296.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K187">
+        <v>3.5</v>
+      </c>
+      <c r="L187">
         <v>4</v>
       </c>
-      <c r="L187">
-        <v>4.5</v>
-      </c>
       <c r="M187">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q187">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
         <v>-1</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16749,7 +16749,7 @@
         <v>46</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -17004,7 +17004,7 @@
         <v>45298.3125</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
         <v>45</v>
@@ -17425,7 +17425,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C197" t="s">
         <v>36</v>
@@ -17434,56 +17434,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I197" t="s">
         <v>61</v>
       </c>
       <c r="J197">
+        <v>2.625</v>
+      </c>
+      <c r="K197">
+        <v>3.6</v>
+      </c>
+      <c r="L197">
+        <v>2.4</v>
+      </c>
+      <c r="M197">
         <v>2.375</v>
-      </c>
-      <c r="K197">
-        <v>3.5</v>
-      </c>
-      <c r="L197">
-        <v>2.75</v>
-      </c>
-      <c r="M197">
-        <v>2.25</v>
       </c>
       <c r="N197">
         <v>3.6</v>
       </c>
       <c r="O197">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
         <v>2.75</v>
       </c>
       <c r="T197">
+        <v>1.975</v>
+      </c>
+      <c r="U197">
         <v>1.875</v>
       </c>
-      <c r="U197">
-        <v>1.975</v>
-      </c>
       <c r="V197">
         <v>-1</v>
       </c>
@@ -17491,19 +17491,19 @@
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA197">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17511,7 +17511,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C198" t="s">
         <v>36</v>
@@ -17520,56 +17520,56 @@
         <v>45300.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198" t="s">
         <v>61</v>
       </c>
       <c r="J198">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="K198">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L198">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M198">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
         <v>3.6</v>
       </c>
       <c r="O198">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P198">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q198">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
         <v>2.75</v>
       </c>
       <c r="T198">
+        <v>1.875</v>
+      </c>
+      <c r="U198">
         <v>1.975</v>
       </c>
-      <c r="U198">
-        <v>1.875</v>
-      </c>
       <c r="V198">
         <v>-1</v>
       </c>
@@ -17577,19 +17577,19 @@
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17609,7 +17609,7 @@
         <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G199">
         <v>4</v>
@@ -17864,7 +17864,7 @@
         <v>45301.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F202" t="s">
         <v>48</v>
@@ -18211,7 +18211,7 @@
         <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G206">
         <v>3</v>
@@ -18383,7 +18383,7 @@
         <v>55</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18899,7 +18899,7 @@
         <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18982,7 +18982,7 @@
         <v>45311.3125</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
         <v>56</v>
@@ -19326,7 +19326,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
         <v>49</v>
@@ -19756,7 +19756,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F224" t="s">
         <v>48</v>
@@ -19919,7 +19919,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6943988</v>
+        <v>6943814</v>
       </c>
       <c r="C226" t="s">
         <v>36</v>
@@ -19928,76 +19928,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="E226" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J226">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="K226">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M226">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N226">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O226">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P226">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R226">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
         <v>3</v>
       </c>
       <c r="T226">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W226">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA226">
-        <v>-1</v>
-      </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20005,7 +20005,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6943814</v>
+        <v>6943988</v>
       </c>
       <c r="C227" t="s">
         <v>36</v>
@@ -20014,76 +20014,76 @@
         <v>45314.58333333334</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F227" t="s">
         <v>40</v>
       </c>
       <c r="G227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J227">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K227">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L227">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="N227">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O227">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P227">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
         <v>3</v>
       </c>
       <c r="T227">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20091,7 +20091,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6943992</v>
+        <v>6943989</v>
       </c>
       <c r="C228" t="s">
         <v>36</v>
@@ -20100,76 +20100,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="E228" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J228">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="K228">
         <v>3.2</v>
       </c>
       <c r="L228">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N228">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O228">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R228">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S228">
         <v>2.25</v>
       </c>
       <c r="T228">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W228">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
         <v>-0.5</v>
       </c>
       <c r="AB228">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20177,7 +20177,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6943989</v>
+        <v>6943992</v>
       </c>
       <c r="C229" t="s">
         <v>36</v>
@@ -20186,76 +20186,76 @@
         <v>45315.45833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J229">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="K229">
         <v>3.2</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M229">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N229">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S229">
         <v>2.25</v>
       </c>
       <c r="T229">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA229">
         <v>-0.5</v>
       </c>
       <c r="AB229">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20263,7 +20263,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C230" t="s">
         <v>36</v>
@@ -20272,76 +20272,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J230">
+        <v>1.95</v>
+      </c>
+      <c r="K230">
+        <v>3.4</v>
+      </c>
+      <c r="L230">
+        <v>3.8</v>
+      </c>
+      <c r="M230">
+        <v>1.615</v>
+      </c>
+      <c r="N230">
+        <v>3.8</v>
+      </c>
+      <c r="O230">
         <v>6</v>
       </c>
-      <c r="K230">
-        <v>4</v>
-      </c>
-      <c r="L230">
-        <v>1.5</v>
-      </c>
-      <c r="M230">
-        <v>6</v>
-      </c>
-      <c r="N230">
-        <v>4.5</v>
-      </c>
-      <c r="O230">
-        <v>1.5</v>
-      </c>
       <c r="P230">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20349,7 +20349,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C231" t="s">
         <v>36</v>
@@ -20358,76 +20358,76 @@
         <v>45315.58333333334</v>
       </c>
       <c r="E231" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J231">
+        <v>6</v>
+      </c>
+      <c r="K231">
+        <v>4</v>
+      </c>
+      <c r="L231">
+        <v>1.5</v>
+      </c>
+      <c r="M231">
+        <v>6</v>
+      </c>
+      <c r="N231">
+        <v>4.5</v>
+      </c>
+      <c r="O231">
+        <v>1.5</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>2</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>2.75</v>
+      </c>
+      <c r="T231">
+        <v>1.9</v>
+      </c>
+      <c r="U231">
         <v>1.95</v>
       </c>
-      <c r="K231">
-        <v>3.4</v>
-      </c>
-      <c r="L231">
-        <v>3.8</v>
-      </c>
-      <c r="M231">
-        <v>1.615</v>
-      </c>
-      <c r="N231">
-        <v>3.8</v>
-      </c>
-      <c r="O231">
-        <v>6</v>
-      </c>
-      <c r="P231">
-        <v>-0.75</v>
-      </c>
-      <c r="Q231">
-        <v>1.8</v>
-      </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>2.5</v>
-      </c>
-      <c r="T231">
-        <v>1.875</v>
-      </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
       <c r="V231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y231">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20447,7 +20447,7 @@
         <v>58</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20788,7 +20788,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="E236" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F236" t="s">
         <v>56</v>
@@ -21209,7 +21209,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6944591</v>
+        <v>7741868</v>
       </c>
       <c r="C241" t="s">
         <v>36</v>
@@ -21218,10 +21218,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21233,61 +21233,61 @@
         <v>59</v>
       </c>
       <c r="J241">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="K241">
         <v>3.5</v>
       </c>
       <c r="L241">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N241">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O241">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P241">
         <v>0.25</v>
       </c>
       <c r="Q241">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T241">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
         <v>-1</v>
       </c>
       <c r="W241">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="Z241">
         <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21295,7 +21295,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7741868</v>
+        <v>6944591</v>
       </c>
       <c r="C242" t="s">
         <v>36</v>
@@ -21304,10 +21304,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F242" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21319,61 +21319,61 @@
         <v>59</v>
       </c>
       <c r="J242">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="K242">
         <v>3.5</v>
       </c>
       <c r="L242">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M242">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N242">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O242">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P242">
         <v>0.25</v>
       </c>
       <c r="Q242">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R242">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U242">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V242">
         <v>-1</v>
       </c>
       <c r="W242">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="Z242">
         <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -21393,7 +21393,7 @@
         <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21553,7 +21553,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6944002</v>
+        <v>6943999</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
@@ -21562,76 +21562,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F245" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J245">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K245">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N245">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
         <v>2.25</v>
       </c>
       <c r="T245">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W245">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -21639,7 +21639,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6943999</v>
+        <v>6944002</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -21648,76 +21648,76 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J246">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K246">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N246">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O246">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q246">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
         <v>2.25</v>
       </c>
       <c r="T246">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA246">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21995,7 +21995,7 @@
         <v>57</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -22167,7 +22167,7 @@
         <v>51</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22250,7 +22250,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F253" t="s">
         <v>53</v>
@@ -22422,10 +22422,10 @@
         <v>45331.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -23196,7 +23196,7 @@
         <v>45334.58333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
         <v>47</v>
@@ -23282,7 +23282,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
         <v>44</v>
@@ -23629,7 +23629,7 @@
         <v>53</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -23703,7 +23703,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6943821</v>
+        <v>6943820</v>
       </c>
       <c r="C270" t="s">
         <v>36</v>
@@ -23712,76 +23712,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E270" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F270" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J270">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="K270">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L270">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="M270">
         <v>3.1</v>
       </c>
       <c r="N270">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P270">
         <v>0.25</v>
       </c>
       <c r="Q270">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R270">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S270">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V270">
         <v>-1</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X270">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z270">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -23789,7 +23789,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6943820</v>
+        <v>6943821</v>
       </c>
       <c r="C271" t="s">
         <v>36</v>
@@ -23798,76 +23798,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E271" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F271" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J271">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="K271">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L271">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="M271">
         <v>3.1</v>
       </c>
       <c r="N271">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O271">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P271">
         <v>0.25</v>
       </c>
       <c r="Q271">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R271">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S271">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T271">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
         <v>-1</v>
       </c>
       <c r="W271">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y271">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA271">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:28">
@@ -23973,7 +23973,7 @@
         <v>46</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -24228,7 +24228,7 @@
         <v>45346.3125</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F276" t="s">
         <v>49</v>
@@ -24403,7 +24403,7 @@
         <v>52</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G278">
         <v>2</v>
@@ -24661,7 +24661,7 @@
         <v>38</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -25002,7 +25002,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F285" t="s">
         <v>45</v>
@@ -25177,7 +25177,7 @@
         <v>55</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G287">
         <v>3</v>
@@ -25604,7 +25604,7 @@
         <v>45355.45833333334</v>
       </c>
       <c r="E292" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F292" t="s">
         <v>44</v>
@@ -25681,7 +25681,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7885607</v>
+        <v>6944091</v>
       </c>
       <c r="C293" t="s">
         <v>36</v>
@@ -25690,58 +25690,58 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F293" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="s">
         <v>60</v>
       </c>
       <c r="J293">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="K293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L293">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="M293">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="N293">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O293">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="P293">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q293">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S293">
         <v>2.5</v>
       </c>
       <c r="T293">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U293">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V293">
-        <v>0.8500000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="W293">
         <v>-1</v>
@@ -25750,16 +25750,16 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25767,7 +25767,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6944091</v>
+        <v>7885607</v>
       </c>
       <c r="C294" t="s">
         <v>36</v>
@@ -25776,58 +25776,58 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="s">
         <v>60</v>
       </c>
       <c r="J294">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="K294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L294">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="M294">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N294">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O294">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="P294">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q294">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R294">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
         <v>2.5</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25836,16 +25836,16 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -26037,7 +26037,7 @@
         <v>37</v>
       </c>
       <c r="F297" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -26292,7 +26292,7 @@
         <v>45361.3125</v>
       </c>
       <c r="E300" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F300" t="s">
         <v>56</v>
@@ -26381,7 +26381,7 @@
         <v>48</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -26897,7 +26897,7 @@
         <v>53</v>
       </c>
       <c r="F307" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -27066,7 +27066,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E309" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F309" t="s">
         <v>45</v>
@@ -27324,7 +27324,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E312" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F312" t="s">
         <v>43</v>
@@ -28098,10 +28098,10 @@
         <v>45385.60416666666</v>
       </c>
       <c r="E321" t="s">
+        <v>42</v>
+      </c>
+      <c r="F321" t="s">
         <v>41</v>
-      </c>
-      <c r="F321" t="s">
-        <v>40</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>52</v>
       </c>
       <c r="F322" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G322">
         <v>4</v>
@@ -28528,7 +28528,7 @@
         <v>45395.3125</v>
       </c>
       <c r="E326" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F326" t="s">
         <v>37</v>
@@ -28700,10 +28700,10 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E328" t="s">
+        <v>40</v>
+      </c>
+      <c r="F328" t="s">
         <v>42</v>
-      </c>
-      <c r="F328" t="s">
-        <v>41</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>58</v>
       </c>
       <c r="F338" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -29646,7 +29646,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E339" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F339" t="s">
         <v>38</v>
@@ -29821,7 +29821,7 @@
         <v>57</v>
       </c>
       <c r="F341" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G341">
         <v>2</v>
@@ -30162,7 +30162,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E345" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F345" t="s">
         <v>43</v>
@@ -30248,7 +30248,7 @@
         <v>45409.41666666666</v>
       </c>
       <c r="E346" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F346" t="s">
         <v>58</v>
@@ -30595,7 +30595,7 @@
         <v>51</v>
       </c>
       <c r="F350" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G350">
         <v>1</v>
@@ -31197,7 +31197,7 @@
         <v>48</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -31366,7 +31366,7 @@
         <v>45416.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F359" t="s">
         <v>44</v>
@@ -31455,7 +31455,7 @@
         <v>46</v>
       </c>
       <c r="F360" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G360">
         <v>4</v>
@@ -31701,7 +31701,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7223311</v>
+        <v>7223308</v>
       </c>
       <c r="C363" t="s">
         <v>36</v>
@@ -31710,76 +31710,76 @@
         <v>45418.58333333334</v>
       </c>
       <c r="E363" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J363">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="K363">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L363">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="M363">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="N363">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O363">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="P363">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q363">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R363">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S363">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T363">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U363">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V363">
         <v>-1</v>
       </c>
       <c r="W363">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X363">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y363">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB363">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:28">
@@ -31787,7 +31787,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7223308</v>
+        <v>7223311</v>
       </c>
       <c r="C364" t="s">
         <v>36</v>
@@ -31796,76 +31796,76 @@
         <v>45418.58333333334</v>
       </c>
       <c r="E364" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F364" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J364">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="K364">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L364">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="M364">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="N364">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O364">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="P364">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q364">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S364">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T364">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U364">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V364">
         <v>-1</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X364">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z364">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:28">
@@ -31873,7 +31873,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7256737</v>
+        <v>7256308</v>
       </c>
       <c r="C365" t="s">
         <v>36</v>
@@ -31882,49 +31882,49 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F365" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J365">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="K365">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="L365">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="M365">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="N365">
+        <v>7.5</v>
+      </c>
+      <c r="O365">
+        <v>15</v>
+      </c>
+      <c r="P365">
+        <v>-2.25</v>
+      </c>
+      <c r="Q365">
+        <v>2</v>
+      </c>
+      <c r="R365">
+        <v>1.85</v>
+      </c>
+      <c r="S365">
         <v>3.75</v>
-      </c>
-      <c r="O365">
-        <v>2.3</v>
-      </c>
-      <c r="P365">
-        <v>0.25</v>
-      </c>
-      <c r="Q365">
-        <v>1.8</v>
-      </c>
-      <c r="R365">
-        <v>2.05</v>
-      </c>
-      <c r="S365">
-        <v>3</v>
       </c>
       <c r="T365">
         <v>2.025</v>
@@ -31933,19 +31933,19 @@
         <v>1.825</v>
       </c>
       <c r="V365">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W365">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z365">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
         <v>-1</v>
@@ -31959,7 +31959,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7256308</v>
+        <v>7252633</v>
       </c>
       <c r="C366" t="s">
         <v>36</v>
@@ -31968,58 +31968,58 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F366" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="s">
         <v>60</v>
       </c>
       <c r="J366">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="K366">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="L366">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="M366">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="N366">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="O366">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P366">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q366">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R366">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S366">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T366">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U366">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V366">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W366">
         <v>-1</v>
@@ -32028,16 +32028,16 @@
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB366">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="367" spans="1:28">
@@ -32045,7 +32045,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7252633</v>
+        <v>7252632</v>
       </c>
       <c r="C367" t="s">
         <v>36</v>
@@ -32054,76 +32054,76 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E367" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F367" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H367">
         <v>1</v>
       </c>
       <c r="I367" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J367">
+        <v>3.4</v>
+      </c>
+      <c r="K367">
+        <v>3.4</v>
+      </c>
+      <c r="L367">
+        <v>2.1</v>
+      </c>
+      <c r="M367">
+        <v>3.2</v>
+      </c>
+      <c r="N367">
+        <v>3.4</v>
+      </c>
+      <c r="O367">
+        <v>2.15</v>
+      </c>
+      <c r="P367">
+        <v>0.25</v>
+      </c>
+      <c r="Q367">
         <v>1.95</v>
       </c>
-      <c r="K367">
-        <v>3.8</v>
-      </c>
-      <c r="L367">
-        <v>3.4</v>
-      </c>
-      <c r="M367">
-        <v>1.727</v>
-      </c>
-      <c r="N367">
-        <v>4.333</v>
-      </c>
-      <c r="O367">
-        <v>4</v>
-      </c>
-      <c r="P367">
-        <v>-0.75</v>
-      </c>
-      <c r="Q367">
+      <c r="R367">
         <v>1.9</v>
       </c>
-      <c r="R367">
-        <v>1.95</v>
-      </c>
       <c r="S367">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T367">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U367">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V367">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W367">
         <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y367">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA367">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:28">
@@ -32131,7 +32131,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7252632</v>
+        <v>7256737</v>
       </c>
       <c r="C368" t="s">
         <v>36</v>
@@ -32140,76 +32140,76 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E368" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F368" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368">
         <v>1</v>
       </c>
       <c r="I368" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J368">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="K368">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L368">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M368">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N368">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O368">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P368">
         <v>0.25</v>
       </c>
       <c r="Q368">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R368">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S368">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T368">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U368">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V368">
         <v>-1</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X368">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z368">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="369" spans="1:28">
@@ -32217,7 +32217,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7248248</v>
+        <v>7252631</v>
       </c>
       <c r="C369" t="s">
         <v>36</v>
@@ -32226,73 +32226,73 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E369" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F369" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H369">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I369" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J369">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K369">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L369">
         <v>3.25</v>
       </c>
       <c r="M369">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N369">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O369">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P369">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q369">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R369">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S369">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T369">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U369">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V369">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W369">
         <v>-1</v>
       </c>
       <c r="X369">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z369">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB369">
         <v>-1</v>
@@ -32303,7 +32303,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7252631</v>
+        <v>7248248</v>
       </c>
       <c r="C370" t="s">
         <v>36</v>
@@ -32312,73 +32312,73 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F370" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G370">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J370">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K370">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L370">
         <v>3.25</v>
       </c>
       <c r="M370">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N370">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O370">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P370">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R370">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S370">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T370">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U370">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V370">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y370">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA370">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB370">
         <v>-1</v>
@@ -32389,7 +32389,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7252520</v>
+        <v>7256307</v>
       </c>
       <c r="C371" t="s">
         <v>36</v>
@@ -32398,13 +32398,13 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F371" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G371">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H371">
         <v>1</v>
@@ -32413,43 +32413,43 @@
         <v>60</v>
       </c>
       <c r="J371">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="K371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M371">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="N371">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O371">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P371">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q371">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R371">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S371">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T371">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U371">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V371">
-        <v>0.7270000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="W371">
         <v>-1</v>
@@ -32458,13 +32458,13 @@
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Z371">
         <v>-1</v>
       </c>
       <c r="AA371">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB371">
         <v>-1</v>
@@ -32475,7 +32475,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7256307</v>
+        <v>7252520</v>
       </c>
       <c r="C372" t="s">
         <v>36</v>
@@ -32484,13 +32484,13 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F372" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H372">
         <v>1</v>
@@ -32499,43 +32499,43 @@
         <v>60</v>
       </c>
       <c r="J372">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="K372">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L372">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M372">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="N372">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O372">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P372">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q372">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R372">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S372">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T372">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.55</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W372">
         <v>-1</v>
@@ -32544,13 +32544,13 @@
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z372">
         <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB372">
         <v>-1</v>
@@ -32831,7 +32831,7 @@
         <v>54</v>
       </c>
       <c r="F376" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G376">
         <v>2</v>
@@ -32991,7 +32991,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7285062</v>
+        <v>7284053</v>
       </c>
       <c r="C378" t="s">
         <v>36</v>
@@ -33000,76 +33000,76 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E378" t="s">
+        <v>55</v>
+      </c>
+      <c r="F378" t="s">
         <v>41</v>
       </c>
-      <c r="F378" t="s">
-        <v>37</v>
-      </c>
       <c r="G378">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="s">
         <v>59</v>
       </c>
       <c r="J378">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="K378">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L378">
         <v>2.8</v>
       </c>
       <c r="M378">
+        <v>2.2</v>
+      </c>
+      <c r="N378">
+        <v>3.7</v>
+      </c>
+      <c r="O378">
         <v>2.9</v>
       </c>
-      <c r="N378">
-        <v>2.4</v>
-      </c>
-      <c r="O378">
-        <v>3.25</v>
-      </c>
       <c r="P378">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q378">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="T378">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U378">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
         <v>-1</v>
       </c>
       <c r="W378">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z378">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA378">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="379" spans="1:28">
@@ -33077,7 +33077,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7284053</v>
+        <v>7285062</v>
       </c>
       <c r="C379" t="s">
         <v>36</v>
@@ -33086,76 +33086,76 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="s">
         <v>59</v>
       </c>
       <c r="J379">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K379">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L379">
         <v>2.8</v>
       </c>
       <c r="M379">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N379">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="O379">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P379">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q379">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R379">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S379">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T379">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U379">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V379">
         <v>-1</v>
       </c>
       <c r="W379">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z379">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB379">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:28">
@@ -33249,7 +33249,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7280350</v>
+        <v>7280718</v>
       </c>
       <c r="C381" t="s">
         <v>36</v>
@@ -33258,61 +33258,61 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E381" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F381" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="s">
         <v>59</v>
       </c>
       <c r="J381">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="K381">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L381">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M381">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="N381">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="O381">
-        <v>5.75</v>
+        <v>4.1</v>
       </c>
       <c r="P381">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q381">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R381">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S381">
         <v>3</v>
       </c>
       <c r="T381">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U381">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V381">
         <v>-1</v>
       </c>
       <c r="W381">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -33321,13 +33321,13 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA381">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="382" spans="1:28">
@@ -33335,7 +33335,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7278582</v>
+        <v>7280350</v>
       </c>
       <c r="C382" t="s">
         <v>36</v>
@@ -33344,76 +33344,76 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E382" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F382" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="s">
         <v>59</v>
       </c>
       <c r="J382">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K382">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L382">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M382">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N382">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O382">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P382">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q382">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R382">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S382">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T382">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V382">
         <v>-1</v>
       </c>
       <c r="W382">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="X382">
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB382">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:28">
@@ -33421,7 +33421,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7280718</v>
+        <v>7278582</v>
       </c>
       <c r="C383" t="s">
         <v>36</v>
@@ -33430,76 +33430,76 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E383" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F383" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" t="s">
         <v>59</v>
       </c>
       <c r="J383">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K383">
+        <v>3.25</v>
+      </c>
+      <c r="L383">
+        <v>3.25</v>
+      </c>
+      <c r="M383">
+        <v>2.1</v>
+      </c>
+      <c r="N383">
         <v>3.3</v>
       </c>
-      <c r="L383">
-        <v>3.1</v>
-      </c>
-      <c r="M383">
-        <v>1.833</v>
-      </c>
-      <c r="N383">
-        <v>3.7</v>
-      </c>
       <c r="O383">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="P383">
+        <v>-0.25</v>
+      </c>
+      <c r="Q383">
+        <v>1.825</v>
+      </c>
+      <c r="R383">
+        <v>2.025</v>
+      </c>
+      <c r="S383">
+        <v>2.75</v>
+      </c>
+      <c r="T383">
+        <v>1.925</v>
+      </c>
+      <c r="U383">
+        <v>1.925</v>
+      </c>
+      <c r="V383">
+        <v>-1</v>
+      </c>
+      <c r="W383">
+        <v>2.3</v>
+      </c>
+      <c r="X383">
+        <v>-1</v>
+      </c>
+      <c r="Y383">
         <v>-0.5</v>
       </c>
-      <c r="Q383">
-        <v>1.875</v>
-      </c>
-      <c r="R383">
-        <v>1.975</v>
-      </c>
-      <c r="S383">
-        <v>3</v>
-      </c>
-      <c r="T383">
-        <v>2.025</v>
-      </c>
-      <c r="U383">
-        <v>1.825</v>
-      </c>
-      <c r="V383">
-        <v>-1</v>
-      </c>
-      <c r="W383">
-        <v>2.7</v>
-      </c>
-      <c r="X383">
-        <v>-1</v>
-      </c>
-      <c r="Y383">
-        <v>-1</v>
-      </c>
       <c r="Z383">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AA383">
         <v>-1</v>
       </c>
       <c r="AB383">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="384" spans="1:28">
@@ -33626,22 +33626,22 @@
         <v>4.5</v>
       </c>
       <c r="P385">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q385">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R385">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S385">
         <v>3.25</v>
       </c>
       <c r="T385">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U385">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V385">
         <v>0</v>
@@ -33735,7 +33735,7 @@
         <v>45</v>
       </c>
       <c r="F387" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J387">
         <v>1.909</v>
@@ -33768,10 +33768,10 @@
         <v>2.75</v>
       </c>
       <c r="T387">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U387">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V387">
         <v>0</v>
@@ -33797,46 +33797,46 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E388" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F388" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J388">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="K388">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L388">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M388">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="N388">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O388">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="P388">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q388">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R388">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S388">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T388">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U388">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
         <v>0</v>
@@ -33862,46 +33862,46 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E389" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F389" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J389">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K389">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L389">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M389">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N389">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O389">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="P389">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q389">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R389">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S389">
         <v>3</v>
       </c>
       <c r="T389">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U389">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V389">
         <v>0</v>
@@ -33927,46 +33927,46 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E390" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F390" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J390">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="K390">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L390">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M390">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="N390">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O390">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="P390">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q390">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R390">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S390">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T390">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U390">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V390">
         <v>0</v>
@@ -33992,46 +33992,46 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E391" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F391" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J391">
-        <v>3.4</v>
+        <v>1.071</v>
       </c>
       <c r="K391">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="L391">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M391">
-        <v>3.1</v>
+        <v>1.062</v>
       </c>
       <c r="N391">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="O391">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="P391">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="Q391">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R391">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S391">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T391">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U391">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V391">
         <v>0</v>
@@ -34072,22 +34072,22 @@
         <v>2.05</v>
       </c>
       <c r="M392">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N392">
         <v>1.95</v>
       </c>
       <c r="O392">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P392">
         <v>0.5</v>
       </c>
       <c r="Q392">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R392">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S392">
         <v>2.5</v>
@@ -34122,31 +34122,31 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E393" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F393" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J393">
-        <v>1.071</v>
+        <v>3.25</v>
       </c>
       <c r="K393">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="L393">
-        <v>13</v>
+        <v>1.85</v>
       </c>
       <c r="M393">
-        <v>1.05</v>
+        <v>3.3</v>
       </c>
       <c r="N393">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="O393">
-        <v>29</v>
+        <v>1.8</v>
       </c>
       <c r="P393">
-        <v>-3.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q393">
         <v>1.975</v>
@@ -34155,13 +34155,13 @@
         <v>1.875</v>
       </c>
       <c r="S393">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="T393">
+        <v>1.875</v>
+      </c>
+      <c r="U393">
         <v>1.975</v>
-      </c>
-      <c r="U393">
-        <v>1.875</v>
       </c>
       <c r="V393">
         <v>0</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -109,28 +109,28 @@
     <t>Konyaspor</t>
   </si>
   <si>
-    <t>Umraniyespor</t>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
   </si>
   <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Kasimpasa</t>
+    <t>Umraniyespor</t>
   </si>
   <si>
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Fatih Karagumruk</t>
+    <t>Sivasspor</t>
   </si>
   <si>
-    <t>Sivasspor</t>
+    <t>Fatih Karagumruk</t>
   </si>
   <si>
     <t>Istanbul Basaksehir</t>
@@ -142,10 +142,10 @@
     <t>Giresunspor</t>
   </si>
   <si>
-    <t>Besiktas</t>
+    <t>Istanbulspor</t>
   </si>
   <si>
-    <t>Istanbulspor</t>
+    <t>Besiktas</t>
   </si>
   <si>
     <t>Pendikspor</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5569871</v>
+        <v>5579165</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -744,59 +744,59 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>53</v>
       </c>
       <c r="L3">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
         <v>3.25</v>
       </c>
       <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
         <v>1.825</v>
       </c>
-      <c r="W3">
-        <v>2.025</v>
-      </c>
       <c r="X3">
         <v>-1</v>
       </c>
@@ -804,19 +804,19 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.375</v>
+        <v>0.7</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5579166</v>
+        <v>5603423</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -836,49 +836,49 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O4">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
         <v>3.75</v>
@@ -890,19 +890,19 @@
         <v>1.9</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
         <v>0.95</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5603423</v>
+        <v>5579166</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1020,49 +1020,49 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <v>1.75</v>
+      </c>
+      <c r="M6">
+        <v>3.75</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>1.5</v>
+      </c>
+      <c r="P6">
+        <v>4.5</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6">
-        <v>1.615</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4.75</v>
-      </c>
-      <c r="O6">
-        <v>1.363</v>
-      </c>
-      <c r="P6">
-        <v>5.25</v>
-      </c>
-      <c r="Q6">
-        <v>6.5</v>
-      </c>
       <c r="R6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>3.75</v>
@@ -1074,19 +1074,19 @@
         <v>1.9</v>
       </c>
       <c r="X6">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0.95</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5579165</v>
+        <v>5569871</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1112,59 +1112,59 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>53</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O7">
+        <v>2.625</v>
+      </c>
+      <c r="P7">
         <v>3.8</v>
       </c>
-      <c r="P7">
-        <v>4.2</v>
-      </c>
       <c r="Q7">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="R7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U7">
         <v>3.25</v>
       </c>
       <c r="V7">
+        <v>1.825</v>
+      </c>
+      <c r="W7">
         <v>2.025</v>
       </c>
-      <c r="W7">
-        <v>1.825</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1172,19 +1172,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7</v>
+        <v>1.375</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
+        <v>-1</v>
+      </c>
+      <c r="AD7">
         <v>1.025</v>
-      </c>
-      <c r="AD7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5611973</v>
+        <v>5611974</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,79 +1296,79 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O9">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U9">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X9">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
         <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5611974</v>
+        <v>5611973</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P10">
+        <v>3.8</v>
+      </c>
+      <c r="Q10">
+        <v>2.45</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.925</v>
+      </c>
+      <c r="T10">
+        <v>1.925</v>
+      </c>
+      <c r="U10">
         <v>3.5</v>
       </c>
-      <c r="Q10">
-        <v>3.6</v>
-      </c>
-      <c r="R10">
-        <v>-0.5</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>1.9</v>
-      </c>
-      <c r="U10">
-        <v>2.75</v>
-      </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1480,7 +1480,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1572,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5608342</v>
+        <v>5611970</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1756,76 +1756,76 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="M14">
+        <v>4.2</v>
+      </c>
+      <c r="N14">
         <v>4.5</v>
       </c>
-      <c r="N14">
-        <v>6.5</v>
-      </c>
       <c r="O14">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="P14">
+        <v>5.25</v>
+      </c>
+      <c r="Q14">
         <v>6</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
       </c>
       <c r="R14">
         <v>-1.5</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <v>-1</v>
@@ -1836,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5611970</v>
+        <v>5608342</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1848,76 +1848,76 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L15">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="O15">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="P15">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R15">
         <v>-1.5</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X15">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD15">
         <v>-1</v>
@@ -1937,7 +1937,7 @@
         <v>45149.625</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -2032,7 +2032,7 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -2204,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943774</v>
+        <v>6944035</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2213,82 +2213,82 @@
         <v>45150.65625</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="R19">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6944035</v>
+        <v>6943774</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2305,82 +2305,82 @@
         <v>45150.65625</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2397,7 +2397,7 @@
         <v>45151.55208333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -2581,7 +2581,7 @@
         <v>45151.65625</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
         <v>48</v>
@@ -2673,10 +2673,10 @@
         <v>45152.625</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>45156.625</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6944038</v>
+        <v>6943881</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,82 +3133,82 @@
         <v>45157.65625</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L29">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N29">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="O29">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q29">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R29">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X29">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>-1</v>
       </c>
       <c r="AD29">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3216,7 +3216,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6943881</v>
+        <v>6944038</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3225,82 +3225,82 @@
         <v>45157.65625</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L30">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="M30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="O30">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
       </c>
       <c r="AD30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3320,7 +3320,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>45158.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -3596,7 +3596,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>48</v>
@@ -3961,7 +3961,7 @@
         <v>45164.55208333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -4053,7 +4053,7 @@
         <v>45164.65625</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
@@ -4237,7 +4237,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -4424,7 +4424,7 @@
         <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4513,10 +4513,10 @@
         <v>45170.625</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943893</v>
+        <v>6943780</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4605,13 +4605,13 @@
         <v>45171.55208333334</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4623,64 +4623,64 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L45">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="P45">
         <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="R45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
+        <v>1.875</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>1.925</v>
       </c>
-      <c r="U45">
-        <v>2.5</v>
-      </c>
-      <c r="V45">
-        <v>2.025</v>
-      </c>
-      <c r="W45">
-        <v>1.825</v>
-      </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>-1</v>
+      </c>
+      <c r="AD45">
         <v>0.925</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
-      </c>
-      <c r="AD45">
-        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4688,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943780</v>
+        <v>6943893</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4697,13 +4697,13 @@
         <v>45171.55208333334</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4715,64 +4715,64 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L46">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P46">
         <v>3.4</v>
       </c>
       <c r="Q46">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
       </c>
       <c r="AD46">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -4780,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7134050</v>
+        <v>6944042</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4789,82 +4789,82 @@
         <v>45171.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L47">
+        <v>4.75</v>
+      </c>
+      <c r="M47">
+        <v>4.2</v>
+      </c>
+      <c r="N47">
+        <v>1.55</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>4.5</v>
+      </c>
+      <c r="Q47">
+        <v>1.45</v>
+      </c>
+      <c r="R47">
+        <v>1.25</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
       </c>
-      <c r="M47">
-        <v>3.8</v>
-      </c>
-      <c r="N47">
-        <v>3.4</v>
-      </c>
-      <c r="O47">
-        <v>1.8</v>
-      </c>
-      <c r="P47">
-        <v>3.8</v>
-      </c>
-      <c r="Q47">
-        <v>3.6</v>
-      </c>
-      <c r="R47">
-        <v>-0.5</v>
-      </c>
-      <c r="S47">
-        <v>1.825</v>
-      </c>
       <c r="T47">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6944042</v>
+        <v>7134050</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4881,82 +4881,82 @@
         <v>45171.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="M48">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N48">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q48">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="R48">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z48">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4973,10 +4973,10 @@
         <v>45172.55208333334</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -5160,7 +5160,7 @@
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5433,7 +5433,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
         <v>44</v>
@@ -5709,7 +5709,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -5804,7 +5804,7 @@
         <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5893,10 +5893,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5976,7 +5976,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6943901</v>
+        <v>6943898</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -5988,79 +5988,79 @@
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L60">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M60">
         <v>3.3</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O60">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P60">
         <v>3.4</v>
       </c>
       <c r="Q60">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="R60">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U60">
         <v>2.5</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6068,7 +6068,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6943898</v>
+        <v>6943901</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -6080,79 +6080,79 @@
         <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L61">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M61">
         <v>3.3</v>
       </c>
       <c r="N61">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O61">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P61">
         <v>3.4</v>
       </c>
       <c r="Q61">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="R61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U61">
         <v>2.5</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W61">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6172,7 +6172,7 @@
         <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6264,7 +6264,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6356,7 +6356,7 @@
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
         <v>33</v>
@@ -6813,10 +6813,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -7000,7 +7000,7 @@
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -7089,7 +7089,7 @@
         <v>45195.58333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
         <v>36</v>
@@ -7181,10 +7181,10 @@
         <v>45196.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -7457,7 +7457,7 @@
         <v>45199.3125</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
         <v>49</v>
@@ -7549,7 +7549,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
@@ -7641,7 +7641,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
         <v>47</v>
@@ -7825,10 +7825,10 @@
         <v>45200.3125</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
         <v>46</v>
@@ -8104,7 +8104,7 @@
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8377,10 +8377,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
         <v>32</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8472,7 +8472,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8929,10 +8929,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
         <v>42</v>
-      </c>
-      <c r="F92" t="s">
-        <v>43</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -9012,7 +9012,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6943914</v>
+        <v>6943915</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9021,82 +9021,82 @@
         <v>45207.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L93">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="P93">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q93">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="R93">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U93">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X93">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9104,7 +9104,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6943915</v>
+        <v>6943914</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9113,82 +9113,82 @@
         <v>45207.54166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L94">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O94">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="P94">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="R94">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T94">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U94">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9484,7 +9484,7 @@
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -9573,10 +9573,10 @@
         <v>45221.3125</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
         <v>40</v>
@@ -9932,7 +9932,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6943921</v>
+        <v>6944051</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9941,13 +9941,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9962,43 +9962,43 @@
         <v>54</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="R103">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U103">
         <v>2.75</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X103">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -10007,16 +10007,16 @@
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
         <v>-1</v>
       </c>
       <c r="AD103">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10024,7 +10024,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6944051</v>
+        <v>6943921</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10033,13 +10033,13 @@
         <v>45222.58333333334</v>
       </c>
       <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
         <v>34</v>
       </c>
-      <c r="F104" t="s">
-        <v>46</v>
-      </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10054,43 +10054,43 @@
         <v>54</v>
       </c>
       <c r="L104">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q104">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="R104">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
         <v>2.75</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X104">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -10099,16 +10099,16 @@
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10217,10 +10217,10 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -10312,7 +10312,7 @@
         <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10493,7 +10493,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
         <v>30</v>
@@ -10585,10 +10585,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>45229.58333333334</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
         <v>50</v>
@@ -11048,7 +11048,7 @@
         <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -11137,7 +11137,7 @@
         <v>45234.3125</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
         <v>44</v>
@@ -11324,7 +11324,7 @@
         <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -11413,10 +11413,10 @@
         <v>45235.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11508,7 +11508,7 @@
         <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11692,7 +11692,7 @@
         <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -11965,7 +11965,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
         <v>30</v>
@@ -12149,7 +12149,7 @@
         <v>45241.3125</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
         <v>33</v>
@@ -12232,7 +12232,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6944058</v>
+        <v>6943936</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12241,37 +12241,37 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M128">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O128">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P128">
         <v>3.3</v>
@@ -12283,10 +12283,10 @@
         <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U128">
         <v>2.5</v>
@@ -12298,19 +12298,19 @@
         <v>1.8</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
         <v>1.05</v>
@@ -12324,7 +12324,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6943936</v>
+        <v>6944058</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12333,37 +12333,37 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>3</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L129">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P129">
         <v>3.3</v>
@@ -12375,10 +12375,10 @@
         <v>-0.25</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
         <v>2.5</v>
@@ -12390,19 +12390,19 @@
         <v>1.8</v>
       </c>
       <c r="X129">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
         <v>1.05</v>
@@ -12612,7 +12612,7 @@
         <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12701,7 +12701,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
         <v>39</v>
@@ -12793,7 +12793,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>45</v>
@@ -12885,7 +12885,7 @@
         <v>45255.3125</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
         <v>49</v>
@@ -12980,7 +12980,7 @@
         <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -13256,7 +13256,7 @@
         <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13348,7 +13348,7 @@
         <v>51</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -13532,7 +13532,7 @@
         <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -13621,10 +13621,10 @@
         <v>45257.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -13805,10 +13805,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -14164,7 +14164,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6943797</v>
+        <v>6943798</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14173,61 +14173,61 @@
         <v>45262.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149" t="s">
         <v>53</v>
       </c>
       <c r="L149">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="M149">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="O149">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="P149">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q149">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="R149">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U149">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14236,19 +14236,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14256,7 +14256,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943798</v>
+        <v>6943797</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14265,61 +14265,61 @@
         <v>45262.54166666666</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
         <v>53</v>
       </c>
       <c r="L150">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="M150">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N150">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="P150">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q150">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="R150">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -14328,19 +14328,19 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14357,7 +14357,7 @@
         <v>45263.3125</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
         <v>50</v>
@@ -14449,7 +14449,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
         <v>33</v>
@@ -14544,7 +14544,7 @@
         <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14636,7 +14636,7 @@
         <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>4</v>
@@ -14728,7 +14728,7 @@
         <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -14820,7 +14820,7 @@
         <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -14912,7 +14912,7 @@
         <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>4</v>
@@ -15001,7 +15001,7 @@
         <v>45269.54166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F158" t="s">
         <v>45</v>
@@ -15093,7 +15093,7 @@
         <v>45270.3125</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
         <v>46</v>
@@ -15372,7 +15372,7 @@
         <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -15556,7 +15556,7 @@
         <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15648,7 +15648,7 @@
         <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -15740,7 +15740,7 @@
         <v>50</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -15829,10 +15829,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -16016,7 +16016,7 @@
         <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -16108,7 +16108,7 @@
         <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -16473,7 +16473,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F174" t="s">
         <v>46</v>
@@ -16565,10 +16565,10 @@
         <v>45283.3125</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -16657,7 +16657,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
         <v>50</v>
@@ -16749,7 +16749,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
         <v>39</v>
@@ -16933,7 +16933,7 @@
         <v>45284.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
         <v>47</v>
@@ -17108,7 +17108,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6944068</v>
+        <v>6943806</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17117,79 +17117,79 @@
         <v>45285.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L181">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N181">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O181">
+        <v>2.55</v>
+      </c>
+      <c r="P181">
+        <v>3.2</v>
+      </c>
+      <c r="Q181">
+        <v>2.7</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>1.95</v>
+      </c>
+      <c r="U181">
         <v>2.25</v>
       </c>
-      <c r="P181">
-        <v>3.5</v>
-      </c>
-      <c r="Q181">
-        <v>2.75</v>
-      </c>
-      <c r="R181">
-        <v>0</v>
-      </c>
-      <c r="S181">
-        <v>1.775</v>
-      </c>
-      <c r="T181">
-        <v>2.1</v>
-      </c>
-      <c r="U181">
-        <v>3</v>
-      </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD181">
         <v>-1</v>
@@ -17200,7 +17200,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6943806</v>
+        <v>6944068</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17209,79 +17209,79 @@
         <v>45285.45833333334</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G182">
+        <v>2</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>52</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>3.5</v>
+      </c>
+      <c r="N182">
+        <v>3.25</v>
+      </c>
+      <c r="O182">
+        <v>2.25</v>
+      </c>
+      <c r="P182">
+        <v>3.5</v>
+      </c>
+      <c r="Q182">
+        <v>2.75</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>1.775</v>
+      </c>
+      <c r="T182">
+        <v>2.1</v>
+      </c>
+      <c r="U182">
         <v>3</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182" t="s">
-        <v>54</v>
-      </c>
-      <c r="L182">
-        <v>2.2</v>
-      </c>
-      <c r="M182">
-        <v>3.4</v>
-      </c>
-      <c r="N182">
-        <v>3</v>
-      </c>
-      <c r="O182">
-        <v>2.55</v>
-      </c>
-      <c r="P182">
-        <v>3.2</v>
-      </c>
-      <c r="Q182">
-        <v>2.7</v>
-      </c>
-      <c r="R182">
-        <v>0</v>
-      </c>
-      <c r="S182">
-        <v>1.9</v>
-      </c>
-      <c r="T182">
-        <v>1.95</v>
-      </c>
-      <c r="U182">
-        <v>2.25</v>
-      </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X182">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD182">
         <v>-1</v>
@@ -17292,7 +17292,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17301,16 +17301,16 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -17319,64 +17319,64 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M183">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N183">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O183">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q183">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R183">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>2.5</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z183">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17384,7 +17384,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17393,16 +17393,16 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G184">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -17411,64 +17411,64 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L184">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P184">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q184">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U184">
         <v>2.5</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA184">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17577,10 +17577,10 @@
         <v>45296.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -17856,7 +17856,7 @@
         <v>39</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>51</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -18040,7 +18040,7 @@
         <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -18132,7 +18132,7 @@
         <v>33</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18221,7 +18221,7 @@
         <v>45298.41666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
         <v>45</v>
@@ -18592,7 +18592,7 @@
         <v>48</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -18681,7 +18681,7 @@
         <v>45300.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F198" t="s">
         <v>39</v>
@@ -18764,7 +18764,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7589559</v>
+        <v>7589561</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18773,82 +18773,82 @@
         <v>45301.45833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L199">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="M199">
         <v>3.5</v>
       </c>
       <c r="N199">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O199">
         <v>2.1</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
       </c>
       <c r="R199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V199">
+        <v>1.975</v>
+      </c>
+      <c r="W199">
         <v>1.875</v>
       </c>
-      <c r="W199">
-        <v>1.975</v>
-      </c>
       <c r="X199">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18856,7 +18856,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7589561</v>
+        <v>7589559</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18865,82 +18865,82 @@
         <v>45301.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L200">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="M200">
         <v>3.5</v>
       </c>
       <c r="N200">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O200">
         <v>2.1</v>
       </c>
       <c r="P200">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q200">
         <v>3.4</v>
       </c>
       <c r="R200">
+        <v>-0.25</v>
+      </c>
+      <c r="S200">
+        <v>1.825</v>
+      </c>
+      <c r="T200">
+        <v>2.025</v>
+      </c>
+      <c r="U200">
+        <v>2.25</v>
+      </c>
+      <c r="V200">
+        <v>1.875</v>
+      </c>
+      <c r="W200">
+        <v>1.975</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>2.4</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
         <v>-0.5</v>
       </c>
-      <c r="S200">
-        <v>2</v>
-      </c>
-      <c r="T200">
-        <v>1.85</v>
-      </c>
-      <c r="U200">
-        <v>2.5</v>
-      </c>
-      <c r="V200">
-        <v>1.975</v>
-      </c>
-      <c r="W200">
-        <v>1.875</v>
-      </c>
-      <c r="X200">
-        <v>1.1</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>-1</v>
-      </c>
-      <c r="AA200">
-        <v>1</v>
-      </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC200">
+        <v>-1</v>
+      </c>
+      <c r="AD200">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18948,7 +18948,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7589566</v>
+        <v>7589558</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18957,79 +18957,79 @@
         <v>45301.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G201">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L201">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="M201">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="O201">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="P201">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="R201">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="S201">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U201">
         <v>3.25</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X201">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC201">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD201">
         <v>-1</v>
@@ -19040,7 +19040,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7589558</v>
+        <v>7589566</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19049,79 +19049,79 @@
         <v>45301.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L202">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="M202">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N202">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="O202">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="P202">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q202">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="R202">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T202">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U202">
         <v>3.25</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y202">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD202">
         <v>-1</v>
@@ -19141,7 +19141,7 @@
         <v>45302.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F203" t="s">
         <v>36</v>
@@ -19233,7 +19233,7 @@
         <v>45302.58333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
         <v>51</v>
@@ -19328,7 +19328,7 @@
         <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -19592,7 +19592,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6943978</v>
+        <v>6943979</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19601,13 +19601,13 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19622,22 +19622,22 @@
         <v>54</v>
       </c>
       <c r="L208">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O208">
         <v>1.85</v>
       </c>
       <c r="P208">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q208">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="R208">
         <v>-0.5</v>
@@ -19652,10 +19652,10 @@
         <v>2.75</v>
       </c>
       <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
         <v>1.85</v>
-      </c>
-      <c r="W208">
-        <v>2</v>
       </c>
       <c r="X208">
         <v>0.8500000000000001</v>
@@ -19673,10 +19673,10 @@
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD208">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19684,7 +19684,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6943979</v>
+        <v>6943978</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19693,13 +19693,13 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19714,22 +19714,22 @@
         <v>54</v>
       </c>
       <c r="L209">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O209">
         <v>1.85</v>
       </c>
       <c r="P209">
+        <v>3.75</v>
+      </c>
+      <c r="Q209">
         <v>3.8</v>
-      </c>
-      <c r="Q209">
-        <v>4</v>
       </c>
       <c r="R209">
         <v>-0.5</v>
@@ -19744,10 +19744,10 @@
         <v>2.75</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>0.8500000000000001</v>
@@ -19765,10 +19765,10 @@
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD209">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19785,7 +19785,7 @@
         <v>45305.3125</v>
       </c>
       <c r="E210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
         <v>30</v>
@@ -19880,7 +19880,7 @@
         <v>47</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -19972,7 +19972,7 @@
         <v>51</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -20245,7 +20245,7 @@
         <v>45311.3125</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F215" t="s">
         <v>49</v>
@@ -20429,7 +20429,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F217" t="s">
         <v>39</v>
@@ -20524,7 +20524,7 @@
         <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G218">
         <v>4</v>
@@ -20613,7 +20613,7 @@
         <v>45311.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F219" t="s">
         <v>40</v>
@@ -20705,7 +20705,7 @@
         <v>45312.3125</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F220" t="s">
         <v>50</v>
@@ -20981,7 +20981,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="E223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
         <v>36</v>
@@ -21076,7 +21076,7 @@
         <v>33</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -21260,7 +21260,7 @@
         <v>44</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G226">
         <v>3</v>
@@ -21349,10 +21349,10 @@
         <v>45314.58333333334</v>
       </c>
       <c r="E227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -21536,7 +21536,7 @@
         <v>40</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -21616,7 +21616,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7729024</v>
+        <v>6943990</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21625,82 +21625,82 @@
         <v>45315.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L230">
+        <v>6</v>
+      </c>
+      <c r="M230">
+        <v>4</v>
+      </c>
+      <c r="N230">
+        <v>1.5</v>
+      </c>
+      <c r="O230">
+        <v>6</v>
+      </c>
+      <c r="P230">
+        <v>4.5</v>
+      </c>
+      <c r="Q230">
+        <v>1.5</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>1.85</v>
+      </c>
+      <c r="U230">
+        <v>2.75</v>
+      </c>
+      <c r="V230">
+        <v>1.9</v>
+      </c>
+      <c r="W230">
         <v>1.95</v>
       </c>
-      <c r="M230">
-        <v>3.4</v>
-      </c>
-      <c r="N230">
-        <v>3.8</v>
-      </c>
-      <c r="O230">
-        <v>1.615</v>
-      </c>
-      <c r="P230">
-        <v>3.8</v>
-      </c>
-      <c r="Q230">
-        <v>6</v>
-      </c>
-      <c r="R230">
-        <v>-0.75</v>
-      </c>
-      <c r="S230">
-        <v>1.8</v>
-      </c>
-      <c r="T230">
-        <v>2.05</v>
-      </c>
-      <c r="U230">
-        <v>2.5</v>
-      </c>
-      <c r="V230">
-        <v>1.875</v>
-      </c>
-      <c r="W230">
-        <v>1.975</v>
-      </c>
       <c r="X230">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA230">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -21708,7 +21708,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6943990</v>
+        <v>7729024</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21717,82 +21717,82 @@
         <v>45315.58333333334</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L231">
+        <v>1.95</v>
+      </c>
+      <c r="M231">
+        <v>3.4</v>
+      </c>
+      <c r="N231">
+        <v>3.8</v>
+      </c>
+      <c r="O231">
+        <v>1.615</v>
+      </c>
+      <c r="P231">
+        <v>3.8</v>
+      </c>
+      <c r="Q231">
         <v>6</v>
       </c>
-      <c r="M231">
-        <v>4</v>
-      </c>
-      <c r="N231">
-        <v>1.5</v>
-      </c>
-      <c r="O231">
-        <v>6</v>
-      </c>
-      <c r="P231">
-        <v>4.5</v>
-      </c>
-      <c r="Q231">
-        <v>1.5</v>
-      </c>
       <c r="R231">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U231">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB231">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21904,7 +21904,7 @@
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -21996,7 +21996,7 @@
         <v>48</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -22177,7 +22177,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
         <v>49</v>
@@ -22361,10 +22361,10 @@
         <v>45319.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22453,7 +22453,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F239" t="s">
         <v>48</v>
@@ -22628,7 +22628,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7741868</v>
+        <v>6944591</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22637,10 +22637,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -22652,67 +22652,67 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="s">
         <v>52</v>
       </c>
       <c r="L241">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="M241">
         <v>3.5</v>
       </c>
       <c r="N241">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q241">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="R241">
         <v>0.25</v>
       </c>
       <c r="S241">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W241">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB241">
         <v>-0.5</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD241">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22720,7 +22720,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6944591</v>
+        <v>7741868</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22729,10 +22729,10 @@
         <v>45320.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22744,67 +22744,67 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242" t="s">
         <v>52</v>
       </c>
       <c r="L242">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="M242">
         <v>3.5</v>
       </c>
       <c r="N242">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P242">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q242">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="R242">
         <v>0.25</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T242">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V242">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W242">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="AB242">
         <v>-0.5</v>
       </c>
       <c r="AC242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD242">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22812,7 +22812,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6944078</v>
+        <v>6944077</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22821,82 +22821,82 @@
         <v>45320.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G243">
         <v>2</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L243">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="M243">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N243">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="O243">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="P243">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q243">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="R243">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>1.875</v>
+      </c>
+      <c r="U243">
+        <v>3.5</v>
+      </c>
+      <c r="V243">
         <v>1.925</v>
       </c>
-      <c r="T243">
+      <c r="W243">
         <v>1.925</v>
       </c>
-      <c r="U243">
-        <v>3</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
-      <c r="W243">
-        <v>1.875</v>
-      </c>
       <c r="X243">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
+        <v>0.875</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+      <c r="AD243">
         <v>0.925</v>
-      </c>
-      <c r="AC243">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD243">
-        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22904,7 +22904,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6944077</v>
+        <v>6944078</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22913,82 +22913,82 @@
         <v>45320.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L244">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="M244">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N244">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="O244">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="P244">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q244">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="R244">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S244">
+        <v>1.925</v>
+      </c>
+      <c r="T244">
+        <v>1.925</v>
+      </c>
+      <c r="U244">
+        <v>3</v>
+      </c>
+      <c r="V244">
         <v>1.975</v>
       </c>
-      <c r="T244">
+      <c r="W244">
         <v>1.875</v>
       </c>
-      <c r="U244">
-        <v>3.5</v>
-      </c>
-      <c r="V244">
-        <v>1.925</v>
-      </c>
-      <c r="W244">
-        <v>1.925</v>
-      </c>
       <c r="X244">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23008,7 +23008,7 @@
         <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -23100,7 +23100,7 @@
         <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -23376,7 +23376,7 @@
         <v>39</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -23652,7 +23652,7 @@
         <v>44</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -23741,7 +23741,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E253" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F253" t="s">
         <v>46</v>
@@ -23833,10 +23833,10 @@
         <v>45326.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -23925,10 +23925,10 @@
         <v>45331.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -24017,7 +24017,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E256" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F256" t="s">
         <v>44</v>
@@ -24201,7 +24201,7 @@
         <v>45333.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F258" t="s">
         <v>48</v>
@@ -24385,7 +24385,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F260" t="s">
         <v>50</v>
@@ -24569,7 +24569,7 @@
         <v>45334.45833333334</v>
       </c>
       <c r="E262" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
         <v>49</v>
@@ -24664,7 +24664,7 @@
         <v>33</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -24845,10 +24845,10 @@
         <v>45338.58333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -24940,7 +24940,7 @@
         <v>47</v>
       </c>
       <c r="F266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G266">
         <v>2</v>
@@ -25032,7 +25032,7 @@
         <v>49</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25216,7 +25216,7 @@
         <v>46</v>
       </c>
       <c r="F269" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -25400,7 +25400,7 @@
         <v>44</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6944014</v>
+        <v>6944086</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25581,82 +25581,82 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E273" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G273">
         <v>2</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I273">
         <v>0</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L273">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M273">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N273">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O273">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="P273">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q273">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="R273">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S273">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T273">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U273">
+        <v>2.5</v>
+      </c>
+      <c r="V273">
+        <v>1.875</v>
+      </c>
+      <c r="W273">
+        <v>1.975</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
         <v>2.75</v>
       </c>
-      <c r="V273">
-        <v>2</v>
-      </c>
-      <c r="W273">
-        <v>1.85</v>
-      </c>
-      <c r="X273">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
-      <c r="Z273">
-        <v>-1</v>
-      </c>
       <c r="AA273">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD273">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25664,7 +25664,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25673,82 +25673,82 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F274" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G274">
         <v>2</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L274">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M274">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N274">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O274">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="P274">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q274">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="R274">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S274">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T274">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U274">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V274">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W274">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD274">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -26032,7 +26032,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6944016</v>
+        <v>6944015</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -26041,16 +26041,16 @@
         <v>45346.54166666666</v>
       </c>
       <c r="E278" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G278">
         <v>2</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -26062,43 +26062,43 @@
         <v>54</v>
       </c>
       <c r="L278">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="M278">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N278">
-        <v>12</v>
+        <v>2.875</v>
       </c>
       <c r="O278">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="P278">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q278">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="R278">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U278">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="V278">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W278">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X278">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y278">
         <v>-1</v>
@@ -26107,16 +26107,16 @@
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD278">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -26124,7 +26124,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6944015</v>
+        <v>6944016</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -26133,16 +26133,16 @@
         <v>45346.54166666666</v>
       </c>
       <c r="E279" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F279" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G279">
         <v>2</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -26154,43 +26154,43 @@
         <v>54</v>
       </c>
       <c r="L279">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="M279">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N279">
-        <v>2.875</v>
+        <v>12</v>
       </c>
       <c r="O279">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="P279">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q279">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="R279">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="S279">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T279">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U279">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="V279">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X279">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y279">
         <v>-1</v>
@@ -26199,16 +26199,16 @@
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD279">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -26225,7 +26225,7 @@
         <v>45347.3125</v>
       </c>
       <c r="E280" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F280" t="s">
         <v>44</v>
@@ -26317,7 +26317,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F281" t="s">
         <v>46</v>
@@ -26409,10 +26409,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E282" t="s">
+        <v>32</v>
+      </c>
+      <c r="F282" t="s">
         <v>34</v>
-      </c>
-      <c r="F282" t="s">
-        <v>32</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -26501,10 +26501,10 @@
         <v>45347.54166666666</v>
       </c>
       <c r="E283" t="s">
+        <v>42</v>
+      </c>
+      <c r="F283" t="s">
         <v>43</v>
-      </c>
-      <c r="F283" t="s">
-        <v>42</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -26685,10 +26685,10 @@
         <v>45352.58333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -26780,7 +26780,7 @@
         <v>40</v>
       </c>
       <c r="F286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -27044,7 +27044,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6943825</v>
+        <v>6943824</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27053,82 +27053,82 @@
         <v>45354.3125</v>
       </c>
       <c r="E289" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L289">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M289">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N289">
+        <v>3.1</v>
+      </c>
+      <c r="O289">
+        <v>2.25</v>
+      </c>
+      <c r="P289">
         <v>3.3</v>
       </c>
-      <c r="O289">
-        <v>2.15</v>
-      </c>
-      <c r="P289">
-        <v>3.4</v>
-      </c>
       <c r="Q289">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R289">
         <v>-0.25</v>
       </c>
       <c r="S289">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U289">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V289">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W289">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB289">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
         <v>-1</v>
       </c>
       <c r="AD289">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27136,7 +27136,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6943824</v>
+        <v>6943825</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -27145,82 +27145,82 @@
         <v>45354.3125</v>
       </c>
       <c r="E290" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F290" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L290">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M290">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O290">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P290">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q290">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R290">
         <v>-0.25</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T290">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U290">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V290">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X290">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC290">
         <v>-1</v>
       </c>
       <c r="AD290">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -27237,7 +27237,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
         <v>36</v>
@@ -27329,10 +27329,10 @@
         <v>45355.45833333334</v>
       </c>
       <c r="E292" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F292" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -27412,7 +27412,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7885607</v>
+        <v>6944091</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27421,19 +27421,19 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -27442,43 +27442,43 @@
         <v>54</v>
       </c>
       <c r="L293">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="M293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N293">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O293">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="P293">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="R293">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S293">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T293">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U293">
         <v>2.5</v>
       </c>
       <c r="V293">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W293">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X293">
-        <v>0.8500000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="Y293">
         <v>-1</v>
@@ -27487,16 +27487,16 @@
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB293">
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD293">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6944091</v>
+        <v>7885607</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,19 +27513,19 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -27534,43 +27534,43 @@
         <v>54</v>
       </c>
       <c r="L294">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="M294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N294">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O294">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q294">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="R294">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S294">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T294">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U294">
         <v>2.5</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X294">
-        <v>1.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y294">
         <v>-1</v>
@@ -27579,16 +27579,16 @@
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD294">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27697,7 +27697,7 @@
         <v>45360.3125</v>
       </c>
       <c r="E296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F296" t="s">
         <v>46</v>
@@ -27792,7 +27792,7 @@
         <v>30</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -27973,10 +27973,10 @@
         <v>45360.54166666666</v>
       </c>
       <c r="E299" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F299" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G299">
         <v>5</v>
@@ -28157,10 +28157,10 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F301" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -28436,7 +28436,7 @@
         <v>50</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -28516,7 +28516,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6944033</v>
+        <v>6944590</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28525,82 +28525,82 @@
         <v>45366.60416666666</v>
       </c>
       <c r="E305" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G305">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305">
         <v>0</v>
       </c>
       <c r="J305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L305">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="M305">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N305">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O305">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="P305">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q305">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="R305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T305">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U305">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y305">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB305">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD305">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28608,7 +28608,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6944590</v>
+        <v>6944033</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28617,82 +28617,82 @@
         <v>45366.60416666666</v>
       </c>
       <c r="E306" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F306" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G306">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
         <v>0</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L306">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="M306">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N306">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O306">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="P306">
+        <v>3.3</v>
+      </c>
+      <c r="Q306">
         <v>4.2</v>
       </c>
-      <c r="Q306">
-        <v>5.75</v>
-      </c>
       <c r="R306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S306">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U306">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X306">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD306">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28893,10 +28893,10 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E309" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F309" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G309">
         <v>4</v>
@@ -28985,7 +28985,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E310" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F310" t="s">
         <v>47</v>
@@ -29169,7 +29169,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E312" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F312" t="s">
         <v>36</v>
@@ -29353,7 +29353,7 @@
         <v>45368.60416666666</v>
       </c>
       <c r="E314" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F314" t="s">
         <v>45</v>
@@ -29445,7 +29445,7 @@
         <v>45384.45833333334</v>
       </c>
       <c r="E315" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F315" t="s">
         <v>48</v>
@@ -29528,7 +29528,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7061066</v>
+        <v>8015566</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29537,16 +29537,16 @@
         <v>45384.60416666666</v>
       </c>
       <c r="E316" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F316" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G316">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>1</v>
@@ -29555,49 +29555,49 @@
         <v>0</v>
       </c>
       <c r="K316" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L316">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="M316">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N316">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="O316">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="P316">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q316">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="R316">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U316">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W316">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X316">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z316">
         <v>-1</v>
@@ -29606,13 +29606,13 @@
         <v>-1</v>
       </c>
       <c r="AB316">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC316">
         <v>-1</v>
       </c>
       <c r="AD316">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -29620,7 +29620,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8015566</v>
+        <v>7061066</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -29629,16 +29629,16 @@
         <v>45384.60416666666</v>
       </c>
       <c r="E317" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F317" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G317">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -29647,49 +29647,49 @@
         <v>0</v>
       </c>
       <c r="K317" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L317">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="M317">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N317">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="O317">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="P317">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q317">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="R317">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S317">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T317">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U317">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W317">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y317">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
         <v>-1</v>
@@ -29698,13 +29698,13 @@
         <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC317">
         <v>-1</v>
       </c>
       <c r="AD317">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:30">
@@ -29813,10 +29813,10 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E319" t="s">
+        <v>37</v>
+      </c>
+      <c r="F319" t="s">
         <v>38</v>
-      </c>
-      <c r="F319" t="s">
-        <v>37</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -29908,7 +29908,7 @@
         <v>33</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>30</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -30092,7 +30092,7 @@
         <v>45</v>
       </c>
       <c r="F322" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G322">
         <v>4</v>
@@ -30184,7 +30184,7 @@
         <v>39</v>
       </c>
       <c r="F323" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -30365,10 +30365,10 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E325" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F325" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         <v>45395.3125</v>
       </c>
       <c r="E326" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F326" t="s">
         <v>30</v>
@@ -30641,7 +30641,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E328" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F328" t="s">
         <v>33</v>
@@ -30733,7 +30733,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E329" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F329" t="s">
         <v>51</v>
@@ -30920,7 +30920,7 @@
         <v>49</v>
       </c>
       <c r="F331" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G331">
         <v>0</v>
@@ -31101,7 +31101,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E333" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F333" t="s">
         <v>45</v>
@@ -31285,7 +31285,7 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F335" t="s">
         <v>40</v>
@@ -31377,10 +31377,10 @@
         <v>45402.3125</v>
       </c>
       <c r="E336" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F336" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -31564,7 +31564,7 @@
         <v>51</v>
       </c>
       <c r="F338" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -31656,7 +31656,7 @@
         <v>33</v>
       </c>
       <c r="F339" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G339">
         <v>1</v>
@@ -31932,7 +31932,7 @@
         <v>50</v>
       </c>
       <c r="F342" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G342">
         <v>2</v>
@@ -32113,7 +32113,7 @@
         <v>45404.58333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F344" t="s">
         <v>45</v>
@@ -32205,7 +32205,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E345" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F345" t="s">
         <v>36</v>
@@ -32297,7 +32297,7 @@
         <v>45409.41666666666</v>
       </c>
       <c r="E346" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F346" t="s">
         <v>51</v>
@@ -32389,7 +32389,7 @@
         <v>45409.41666666666</v>
       </c>
       <c r="E347" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -32484,7 +32484,7 @@
         <v>45</v>
       </c>
       <c r="F348" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G348">
         <v>2</v>
@@ -32760,7 +32760,7 @@
         <v>46</v>
       </c>
       <c r="F351" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G351">
         <v>6</v>
@@ -32849,7 +32849,7 @@
         <v>45410.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F352" t="s">
         <v>50</v>
@@ -33033,7 +33033,7 @@
         <v>45411.58333333334</v>
       </c>
       <c r="E354" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F354" t="s">
         <v>47</v>
@@ -33125,7 +33125,7 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E355" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F355" t="s">
         <v>48</v>
@@ -33309,10 +33309,10 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E357" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F357" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -33404,7 +33404,7 @@
         <v>33</v>
       </c>
       <c r="F358" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G358">
         <v>2</v>
@@ -33496,7 +33496,7 @@
         <v>51</v>
       </c>
       <c r="F359" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G359">
         <v>3</v>
@@ -33588,7 +33588,7 @@
         <v>39</v>
       </c>
       <c r="F360" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G360">
         <v>4</v>
@@ -33680,7 +33680,7 @@
         <v>36</v>
       </c>
       <c r="F361" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G361">
         <v>6</v>
@@ -33852,7 +33852,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7223311</v>
+        <v>7223308</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -33861,82 +33861,82 @@
         <v>45418.58333333334</v>
       </c>
       <c r="E363" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F363" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K363" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L363">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="M363">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N363">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="O363">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P363">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q363">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="R363">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S363">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T363">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U363">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V363">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W363">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA363">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD363">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -33944,7 +33944,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7223308</v>
+        <v>7223311</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -33953,82 +33953,82 @@
         <v>45418.58333333334</v>
       </c>
       <c r="E364" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F364" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K364" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L364">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="M364">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N364">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="O364">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="P364">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q364">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="R364">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S364">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T364">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U364">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W364">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X364">
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z364">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB364">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD364">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34036,7 +34036,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7261070</v>
+        <v>7252631</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34045,10 +34045,10 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F365" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G365">
         <v>3</v>
@@ -34057,7 +34057,7 @@
         <v>0</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -34066,43 +34066,43 @@
         <v>54</v>
       </c>
       <c r="L365">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="M365">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N365">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="O365">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="P365">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q365">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="R365">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S365">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T365">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U365">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="V365">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X365">
-        <v>0.181</v>
+        <v>1.2</v>
       </c>
       <c r="Y365">
         <v>-1</v>
@@ -34111,16 +34111,16 @@
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB365">
         <v>-1</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD365">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34128,7 +34128,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7252631</v>
+        <v>7261070</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34137,10 +34137,10 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F366" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G366">
         <v>3</v>
@@ -34149,7 +34149,7 @@
         <v>0</v>
       </c>
       <c r="I366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J366">
         <v>0</v>
@@ -34158,43 +34158,43 @@
         <v>54</v>
       </c>
       <c r="L366">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="M366">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N366">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="O366">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="P366">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q366">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="R366">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S366">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T366">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U366">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V366">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W366">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X366">
-        <v>1.2</v>
+        <v>0.181</v>
       </c>
       <c r="Y366">
         <v>-1</v>
@@ -34203,16 +34203,16 @@
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD366">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34505,7 +34505,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F370" t="s">
         <v>47</v>
@@ -34597,7 +34597,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F371" t="s">
         <v>50</v>
@@ -34689,7 +34689,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F372" t="s">
         <v>36</v>
@@ -34784,7 +34784,7 @@
         <v>46</v>
       </c>
       <c r="F373" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -34873,7 +34873,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E374" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F374" t="s">
         <v>39</v>
@@ -34965,10 +34965,10 @@
         <v>45429.45833333334</v>
       </c>
       <c r="E375" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F375" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G375">
         <v>1</v>
@@ -35060,7 +35060,7 @@
         <v>47</v>
       </c>
       <c r="F376" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G376">
         <v>2</v>
@@ -35140,7 +35140,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7285062</v>
+        <v>7278581</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35149,79 +35149,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E377" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F377" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K377" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L377">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="M377">
+        <v>3.2</v>
+      </c>
+      <c r="N377">
         <v>2.75</v>
       </c>
-      <c r="N377">
-        <v>2.8</v>
-      </c>
       <c r="O377">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P377">
+        <v>3.5</v>
+      </c>
+      <c r="Q377">
         <v>2.4</v>
       </c>
-      <c r="Q377">
-        <v>3.25</v>
-      </c>
       <c r="R377">
         <v>0</v>
       </c>
       <c r="S377">
+        <v>2.05</v>
+      </c>
+      <c r="T377">
         <v>1.8</v>
       </c>
-      <c r="T377">
-        <v>2.05</v>
-      </c>
       <c r="U377">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V377">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W377">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y377">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD377">
         <v>-1</v>
@@ -35232,7 +35232,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7278581</v>
+        <v>7285062</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -35241,79 +35241,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E378" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F378" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K378" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L378">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M378">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N378">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O378">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P378">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q378">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R378">
         <v>0</v>
       </c>
       <c r="S378">
+        <v>1.8</v>
+      </c>
+      <c r="T378">
         <v>2.05</v>
       </c>
-      <c r="T378">
-        <v>1.8</v>
-      </c>
       <c r="U378">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W378">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X378">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z378">
         <v>-1</v>
       </c>
       <c r="AA378">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC378">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD378">
         <v>-1</v>
@@ -35333,7 +35333,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F379" t="s">
         <v>49</v>
@@ -35612,7 +35612,7 @@
         <v>48</v>
       </c>
       <c r="F382" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -35704,7 +35704,7 @@
         <v>39</v>
       </c>
       <c r="F383" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>45437.41666666666</v>
       </c>
       <c r="E386" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F386" t="s">
         <v>51</v>
@@ -36069,7 +36069,7 @@
         <v>45437.54166666666</v>
       </c>
       <c r="E387" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F387" t="s">
         <v>33</v>
@@ -36161,10 +36161,10 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E388" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F388" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G388">
         <v>2</v>
@@ -36250,7 +36250,7 @@
         <v>45</v>
       </c>
       <c r="F389" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G389">
         <v>6</v>
@@ -36419,7 +36419,7 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E391" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F391" t="s">
         <v>40</v>
@@ -36505,7 +36505,7 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E392" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F392" t="s">
         <v>39</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -127,10 +127,10 @@
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Sivasspor</t>
+    <t>Fatih Karagumruk</t>
   </si>
   <si>
-    <t>Fatih Karagumruk</t>
+    <t>Sivasspor</t>
   </si>
   <si>
     <t>Istanbul Basaksehir</t>
@@ -142,10 +142,10 @@
     <t>Istanbulspor</t>
   </si>
   <si>
-    <t>Besiktas</t>
+    <t>Ankaragucu</t>
   </si>
   <si>
-    <t>Ankaragucu</t>
+    <t>Besiktas</t>
   </si>
   <si>
     <t>Pendikspor</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5611974</v>
+        <v>5611973</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,79 +1296,79 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P9">
+        <v>3.8</v>
+      </c>
+      <c r="Q9">
+        <v>2.45</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.925</v>
+      </c>
+      <c r="T9">
+        <v>1.925</v>
+      </c>
+      <c r="U9">
         <v>3.5</v>
       </c>
-      <c r="Q9">
-        <v>3.6</v>
-      </c>
-      <c r="R9">
-        <v>-0.5</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>1.9</v>
-      </c>
-      <c r="U9">
-        <v>2.75</v>
-      </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5611973</v>
+        <v>5611974</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O10">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q10">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U10">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X10">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
         <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5608342</v>
+        <v>5615571</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1756,79 +1756,79 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N14">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O14">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="R14">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U14">
         <v>3.5</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1836,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5615571</v>
+        <v>5608342</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1848,79 +1848,79 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="M15">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="O15">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U15">
         <v>3.5</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z15">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2032,7 +2032,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2397,7 +2397,7 @@
         <v>45151.55208333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -2765,10 +2765,10 @@
         <v>45152.625</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943882</v>
+        <v>6943777</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3409,46 +3409,46 @@
         <v>45158.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L32">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="O32">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="P32">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q32">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3457,22 +3457,22 @@
         <v>1.85</v>
       </c>
       <c r="U32">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z32">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3481,10 +3481,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3492,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943777</v>
+        <v>6943882</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3501,46 +3501,46 @@
         <v>45158.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N33">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="O33">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="P33">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="R33">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3549,22 +3549,22 @@
         <v>1.85</v>
       </c>
       <c r="U33">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
         <v>1.85</v>
       </c>
-      <c r="W33">
-        <v>2</v>
-      </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3573,10 +3573,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3685,7 +3685,7 @@
         <v>45159.625</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -4053,7 +4053,7 @@
         <v>45164.65625</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
@@ -4237,10 +4237,10 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4973,10 +4973,10 @@
         <v>45172.55208333334</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>45172.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
@@ -5804,7 +5804,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5985,7 +5985,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
@@ -6077,10 +6077,10 @@
         <v>45187.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6264,7 +6264,7 @@
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6356,7 +6356,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6629,7 +6629,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -6721,7 +6721,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -7184,7 +7184,7 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -7457,7 +7457,7 @@
         <v>45199.3125</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
         <v>49</v>
@@ -7736,7 +7736,7 @@
         <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>45200.3125</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
         <v>32</v>
@@ -8012,7 +8012,7 @@
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8472,7 +8472,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8561,7 +8561,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
         <v>31</v>
@@ -8929,7 +8929,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
         <v>41</v>
@@ -9484,7 +9484,7 @@
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -9573,7 +9573,7 @@
         <v>45221.3125</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
         <v>32</v>
@@ -9668,7 +9668,7 @@
         <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9941,7 +9941,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
@@ -10312,7 +10312,7 @@
         <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10585,7 +10585,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
         <v>35</v>
@@ -10677,7 +10677,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
         <v>51</v>
@@ -10953,7 +10953,7 @@
         <v>45229.58333333334</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
         <v>50</v>
@@ -11413,7 +11413,7 @@
         <v>45235.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
         <v>34</v>
@@ -11508,7 +11508,7 @@
         <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -11692,7 +11692,7 @@
         <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -11965,7 +11965,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
         <v>47</v>
@@ -12333,10 +12333,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
         <v>38</v>
-      </c>
-      <c r="F129" t="s">
-        <v>37</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -12609,7 +12609,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
         <v>39</v>
@@ -13072,7 +13072,7 @@
         <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>51</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -13532,7 +13532,7 @@
         <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -13713,7 +13713,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
         <v>35</v>
@@ -13796,7 +13796,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528345</v>
+        <v>6943610</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13805,79 +13805,79 @@
         <v>45261.58333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>3</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L145">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="N145">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q145">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R145">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
         <v>1.95</v>
-      </c>
-      <c r="T145">
-        <v>1.9</v>
       </c>
       <c r="U145">
         <v>2.5</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD145">
         <v>-1</v>
@@ -13888,7 +13888,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6943610</v>
+        <v>7528345</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13897,79 +13897,79 @@
         <v>45261.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G146">
         <v>3</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L146">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="M146">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="O146">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R146">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S146">
+        <v>1.95</v>
+      </c>
+      <c r="T146">
         <v>1.9</v>
-      </c>
-      <c r="T146">
-        <v>1.95</v>
       </c>
       <c r="U146">
         <v>2.5</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X146">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD146">
         <v>-1</v>
@@ -14541,10 +14541,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" t="s">
         <v>43</v>
-      </c>
-      <c r="F153" t="s">
-        <v>42</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14636,7 +14636,7 @@
         <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154">
         <v>4</v>
@@ -14820,7 +14820,7 @@
         <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -15001,7 +15001,7 @@
         <v>45269.54166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F158" t="s">
         <v>45</v>
@@ -15461,7 +15461,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
         <v>48</v>
@@ -15556,7 +15556,7 @@
         <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15648,7 +15648,7 @@
         <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -16016,7 +16016,7 @@
         <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -16381,7 +16381,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
         <v>49</v>
@@ -16473,7 +16473,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F174" t="s">
         <v>46</v>
@@ -16565,7 +16565,7 @@
         <v>45283.3125</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
         <v>41</v>
@@ -16657,7 +16657,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
         <v>50</v>
@@ -17304,7 +17304,7 @@
         <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -17396,7 +17396,7 @@
         <v>49</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -17568,7 +17568,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6943976</v>
+        <v>6943975</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17577,82 +17577,82 @@
         <v>45296.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L186">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="M186">
+        <v>3.5</v>
+      </c>
+      <c r="N186">
         <v>4</v>
       </c>
-      <c r="N186">
-        <v>4.5</v>
-      </c>
       <c r="O186">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="R186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17660,7 +17660,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6943975</v>
+        <v>6943976</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17669,82 +17669,82 @@
         <v>45296.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M187">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N187">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O187">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="R187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S187">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD187">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17948,7 +17948,7 @@
         <v>51</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -18037,7 +18037,7 @@
         <v>45297.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
         <v>35</v>
@@ -18132,7 +18132,7 @@
         <v>31</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18500,7 +18500,7 @@
         <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -18684,7 +18684,7 @@
         <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -18865,7 +18865,7 @@
         <v>45301.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F200" t="s">
         <v>31</v>
@@ -19141,7 +19141,7 @@
         <v>45302.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F203" t="s">
         <v>36</v>
@@ -19325,7 +19325,7 @@
         <v>45304.3125</v>
       </c>
       <c r="E205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
         <v>32</v>
@@ -19601,10 +19601,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -19972,7 +19972,7 @@
         <v>51</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -20337,7 +20337,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
         <v>39</v>
@@ -20524,7 +20524,7 @@
         <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G218">
         <v>4</v>
@@ -20616,7 +20616,7 @@
         <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20705,7 +20705,7 @@
         <v>45312.3125</v>
       </c>
       <c r="E220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F220" t="s">
         <v>50</v>
@@ -21257,7 +21257,7 @@
         <v>45314.58333333334</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F226" t="s">
         <v>34</v>
@@ -21533,10 +21533,10 @@
         <v>45315.45833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -21628,7 +21628,7 @@
         <v>47</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -22361,10 +22361,10 @@
         <v>45319.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22453,7 +22453,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F239" t="s">
         <v>48</v>
@@ -22548,7 +22548,7 @@
         <v>45</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -23005,10 +23005,10 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -23100,7 +23100,7 @@
         <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -23833,7 +23833,7 @@
         <v>45326.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F254" t="s">
         <v>35</v>
@@ -24017,7 +24017,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E256" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F256" t="s">
         <v>44</v>
@@ -24201,7 +24201,7 @@
         <v>45333.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F258" t="s">
         <v>48</v>
@@ -24296,7 +24296,7 @@
         <v>30</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24756,7 +24756,7 @@
         <v>31</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -24848,7 +24848,7 @@
         <v>32</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -25032,7 +25032,7 @@
         <v>49</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25489,7 +25489,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F272" t="s">
         <v>36</v>
@@ -25581,7 +25581,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E273" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F273" t="s">
         <v>30</v>
@@ -25860,7 +25860,7 @@
         <v>31</v>
       </c>
       <c r="F276" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -26225,7 +26225,7 @@
         <v>45347.3125</v>
       </c>
       <c r="E280" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F280" t="s">
         <v>44</v>
@@ -26409,7 +26409,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F282" t="s">
         <v>46</v>
@@ -26504,7 +26504,7 @@
         <v>41</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>32</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -26777,7 +26777,7 @@
         <v>45353.3125</v>
       </c>
       <c r="E286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F286" t="s">
         <v>41</v>
@@ -27044,7 +27044,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6943825</v>
+        <v>6943824</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27053,82 +27053,82 @@
         <v>45354.3125</v>
       </c>
       <c r="E289" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L289">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M289">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N289">
+        <v>3.1</v>
+      </c>
+      <c r="O289">
+        <v>2.25</v>
+      </c>
+      <c r="P289">
         <v>3.3</v>
       </c>
-      <c r="O289">
-        <v>2.15</v>
-      </c>
-      <c r="P289">
-        <v>3.4</v>
-      </c>
       <c r="Q289">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R289">
         <v>-0.25</v>
       </c>
       <c r="S289">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U289">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V289">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W289">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB289">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
         <v>-1</v>
       </c>
       <c r="AD289">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27136,7 +27136,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6943824</v>
+        <v>6943825</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -27145,82 +27145,82 @@
         <v>45354.3125</v>
       </c>
       <c r="E290" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F290" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L290">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M290">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O290">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P290">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q290">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R290">
         <v>-0.25</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T290">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U290">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V290">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X290">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC290">
         <v>-1</v>
       </c>
       <c r="AD290">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -27237,7 +27237,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
         <v>36</v>
@@ -27332,7 +27332,7 @@
         <v>34</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -27412,7 +27412,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6944091</v>
+        <v>7885607</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27421,19 +27421,19 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -27442,43 +27442,43 @@
         <v>54</v>
       </c>
       <c r="L293">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="M293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N293">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O293">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="P293">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q293">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="R293">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S293">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T293">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U293">
         <v>2.5</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X293">
-        <v>1.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y293">
         <v>-1</v>
@@ -27487,16 +27487,16 @@
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB293">
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD293">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7885607</v>
+        <v>6944091</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,19 +27513,19 @@
         <v>45355.58333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -27534,43 +27534,43 @@
         <v>54</v>
       </c>
       <c r="L294">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="M294">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N294">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O294">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="P294">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="R294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S294">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T294">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U294">
         <v>2.5</v>
       </c>
       <c r="V294">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X294">
-        <v>0.8500000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="Y294">
         <v>-1</v>
@@ -27579,16 +27579,16 @@
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD294">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27697,7 +27697,7 @@
         <v>45360.3125</v>
       </c>
       <c r="E296" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F296" t="s">
         <v>46</v>
@@ -27884,7 +27884,7 @@
         <v>35</v>
       </c>
       <c r="F298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G298">
         <v>5</v>
@@ -28160,7 +28160,7 @@
         <v>51</v>
       </c>
       <c r="F301" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G301">
         <v>2</v>
@@ -28436,7 +28436,7 @@
         <v>50</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -28617,7 +28617,7 @@
         <v>45366.60416666666</v>
       </c>
       <c r="E306" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F306" t="s">
         <v>30</v>
@@ -28801,7 +28801,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E308" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F308" t="s">
         <v>39</v>
@@ -28896,7 +28896,7 @@
         <v>34</v>
       </c>
       <c r="F309" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G309">
         <v>4</v>
@@ -28985,7 +28985,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E310" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F310" t="s">
         <v>47</v>
@@ -29540,7 +29540,7 @@
         <v>47</v>
       </c>
       <c r="F316" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -29813,10 +29813,10 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E319" t="s">
+        <v>38</v>
+      </c>
+      <c r="F319" t="s">
         <v>37</v>
-      </c>
-      <c r="F319" t="s">
-        <v>38</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -30276,7 +30276,7 @@
         <v>39</v>
       </c>
       <c r="F324" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -30368,7 +30368,7 @@
         <v>35</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30549,7 +30549,7 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E327" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F327" t="s">
         <v>50</v>
@@ -30733,7 +30733,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E329" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F329" t="s">
         <v>51</v>
@@ -31101,7 +31101,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E333" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F333" t="s">
         <v>45</v>
@@ -31285,10 +31285,10 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E335" t="s">
+        <v>43</v>
+      </c>
+      <c r="F335" t="s">
         <v>42</v>
-      </c>
-      <c r="F335" t="s">
-        <v>43</v>
       </c>
       <c r="G335">
         <v>2</v>
@@ -31380,7 +31380,7 @@
         <v>41</v>
       </c>
       <c r="F336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -32113,7 +32113,7 @@
         <v>45404.58333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F344" t="s">
         <v>45</v>
@@ -32288,7 +32288,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7154858</v>
+        <v>7158506</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -32297,10 +32297,10 @@
         <v>45409.41666666666</v>
       </c>
       <c r="E346" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F346" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G346">
         <v>1</v>
@@ -32309,7 +32309,7 @@
         <v>0</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346">
         <v>0</v>
@@ -32321,40 +32321,40 @@
         <v>2.3</v>
       </c>
       <c r="M346">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N346">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O346">
+        <v>3</v>
+      </c>
+      <c r="P346">
+        <v>3.2</v>
+      </c>
+      <c r="Q346">
+        <v>2.4</v>
+      </c>
+      <c r="R346">
+        <v>0.25</v>
+      </c>
+      <c r="S346">
+        <v>1.775</v>
+      </c>
+      <c r="T346">
+        <v>2.1</v>
+      </c>
+      <c r="U346">
         <v>2.25</v>
       </c>
-      <c r="P346">
-        <v>3.3</v>
-      </c>
-      <c r="Q346">
-        <v>3.2</v>
-      </c>
-      <c r="R346">
-        <v>-0.25</v>
-      </c>
-      <c r="S346">
-        <v>1.975</v>
-      </c>
-      <c r="T346">
-        <v>1.875</v>
-      </c>
-      <c r="U346">
-        <v>2.5</v>
-      </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W346">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X346">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -32363,7 +32363,7 @@
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB346">
         <v>-1</v>
@@ -32372,7 +32372,7 @@
         <v>-1</v>
       </c>
       <c r="AD346">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="347" spans="1:30">
@@ -32380,7 +32380,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7158506</v>
+        <v>7154858</v>
       </c>
       <c r="C347" t="s">
         <v>29</v>
@@ -32389,10 +32389,10 @@
         <v>45409.41666666666</v>
       </c>
       <c r="E347" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G347">
         <v>1</v>
@@ -32401,7 +32401,7 @@
         <v>0</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347">
         <v>0</v>
@@ -32413,40 +32413,40 @@
         <v>2.3</v>
       </c>
       <c r="M347">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O347">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P347">
+        <v>3.3</v>
+      </c>
+      <c r="Q347">
         <v>3.2</v>
       </c>
-      <c r="Q347">
-        <v>2.4</v>
-      </c>
       <c r="R347">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S347">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T347">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="U347">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V347">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W347">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X347">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -32455,7 +32455,7 @@
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB347">
         <v>-1</v>
@@ -32464,7 +32464,7 @@
         <v>-1</v>
       </c>
       <c r="AD347">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -32576,7 +32576,7 @@
         <v>45</v>
       </c>
       <c r="F349" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -32840,7 +32840,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7154861</v>
+        <v>7154860</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -32849,79 +32849,79 @@
         <v>45410.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H352">
         <v>2</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K352" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L352">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="M352">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N352">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O352">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="P352">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q352">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="R352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S352">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U352">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V352">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y352">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB352">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD352">
         <v>-1</v>
@@ -32932,7 +32932,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7154860</v>
+        <v>7154861</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -32941,79 +32941,79 @@
         <v>45410.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F353" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H353">
         <v>2</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L353">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="M353">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N353">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O353">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="P353">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q353">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="R353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T353">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U353">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V353">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W353">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X353">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC353">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD353">
         <v>-1</v>
@@ -33033,7 +33033,7 @@
         <v>45411.58333333334</v>
       </c>
       <c r="E354" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F354" t="s">
         <v>47</v>
@@ -33125,7 +33125,7 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E355" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F355" t="s">
         <v>46</v>
@@ -33217,7 +33217,7 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E356" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F356" t="s">
         <v>48</v>
@@ -33496,7 +33496,7 @@
         <v>31</v>
       </c>
       <c r="F359" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G359">
         <v>2</v>
@@ -33772,7 +33772,7 @@
         <v>36</v>
       </c>
       <c r="F362" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G362">
         <v>6</v>
@@ -34229,7 +34229,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E367" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F367" t="s">
         <v>36</v>
@@ -34416,7 +34416,7 @@
         <v>49</v>
       </c>
       <c r="F369" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G369">
         <v>2</v>
@@ -34600,7 +34600,7 @@
         <v>46</v>
       </c>
       <c r="F371" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G371">
         <v>1</v>
@@ -34689,7 +34689,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F372" t="s">
         <v>39</v>
@@ -34968,7 +34968,7 @@
         <v>41</v>
       </c>
       <c r="F375" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G375">
         <v>1</v>
@@ -35149,7 +35149,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E377" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F377" t="s">
         <v>49</v>
@@ -35333,7 +35333,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F379" t="s">
         <v>44</v>
@@ -35704,7 +35704,7 @@
         <v>50</v>
       </c>
       <c r="F383" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G383">
         <v>3</v>
@@ -35977,7 +35977,7 @@
         <v>45437.41666666666</v>
       </c>
       <c r="E386" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F386" t="s">
         <v>51</v>
@@ -36069,7 +36069,7 @@
         <v>45437.54166666666</v>
       </c>
       <c r="E387" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F387" t="s">
         <v>31</v>
@@ -36164,7 +36164,7 @@
         <v>32</v>
       </c>
       <c r="F388" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G388">
         <v>2</v>
@@ -36422,7 +36422,7 @@
         <v>35</v>
       </c>
       <c r="F391" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G391">
         <v>4</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -2664,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6944037</v>
+        <v>6943878</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2673,82 +2673,82 @@
         <v>45152.625</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="R24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X24">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA24">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>-1</v>
       </c>
       <c r="AD24">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2756,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6943878</v>
+        <v>6944037</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2765,82 +2765,82 @@
         <v>45152.625</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N25">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T25">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6943881</v>
+        <v>6944038</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,82 +3133,82 @@
         <v>45157.65625</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L29">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="M29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="O29">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="P29">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U29">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
         <v>-1</v>
       </c>
       <c r="AD29">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3216,7 +3216,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6944038</v>
+        <v>6943881</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3225,82 +3225,82 @@
         <v>45157.65625</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L30">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N30">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="O30">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q30">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R30">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X30">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
         <v>-1</v>
       </c>
       <c r="AD30">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3400,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943777</v>
+        <v>6943882</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3409,46 +3409,46 @@
         <v>45158.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="R32">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3457,22 +3457,22 @@
         <v>1.85</v>
       </c>
       <c r="U32">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
         <v>1.85</v>
       </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3481,10 +3481,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3492,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943882</v>
+        <v>6943777</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3501,46 +3501,46 @@
         <v>45158.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="O33">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="P33">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q33">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3549,22 +3549,22 @@
         <v>1.85</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z33">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3573,10 +3573,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -4136,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943778</v>
+        <v>6943888</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4145,55 +4145,55 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M40">
+        <v>3.5</v>
+      </c>
+      <c r="N40">
+        <v>2.875</v>
+      </c>
+      <c r="O40">
+        <v>2.25</v>
+      </c>
+      <c r="P40">
         <v>3.4</v>
       </c>
-      <c r="N40">
-        <v>2.8</v>
-      </c>
-      <c r="O40">
-        <v>2.5</v>
-      </c>
-      <c r="P40">
-        <v>3.3</v>
-      </c>
       <c r="Q40">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V40">
         <v>1.925</v>
@@ -4202,25 +4202,25 @@
         <v>1.925</v>
       </c>
       <c r="X40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC40">
+        <v>-1</v>
+      </c>
+      <c r="AD40">
         <v>0.925</v>
-      </c>
-      <c r="AD40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4228,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6943888</v>
+        <v>6943778</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4237,55 +4237,55 @@
         <v>45165.55208333334</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L41">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q41">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="R41">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V41">
         <v>1.925</v>
@@ -4294,25 +4294,25 @@
         <v>1.925</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -10392,7 +10392,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6944052</v>
+        <v>6943928</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
@@ -10401,16 +10401,16 @@
         <v>45227.54166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10419,64 +10419,64 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L108">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="M108">
+        <v>3.75</v>
+      </c>
+      <c r="N108">
         <v>4.2</v>
       </c>
-      <c r="N108">
-        <v>1.55</v>
-      </c>
       <c r="O108">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="P108">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q108">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="R108">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S108">
+        <v>1.975</v>
+      </c>
+      <c r="T108">
         <v>1.875</v>
       </c>
-      <c r="T108">
-        <v>1.975</v>
-      </c>
       <c r="U108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD108">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:30">
@@ -10484,7 +10484,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943928</v>
+        <v>6944052</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -10493,16 +10493,16 @@
         <v>45227.54166666666</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -10511,64 +10511,64 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L109">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="M109">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N109">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="O109">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="P109">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q109">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="R109">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S109">
+        <v>1.875</v>
+      </c>
+      <c r="T109">
         <v>1.975</v>
       </c>
-      <c r="T109">
-        <v>1.875</v>
-      </c>
       <c r="U109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X109">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -15728,7 +15728,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6943613</v>
+        <v>6943962</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15737,82 +15737,82 @@
         <v>45279.58333333334</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L166">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N166">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="P166">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q166">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="R166">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U166">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z166">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB166">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD166">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15820,7 +15820,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6943962</v>
+        <v>6943613</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15829,82 +15829,82 @@
         <v>45279.58333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L167">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="M167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="R167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA167">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD167">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -17292,7 +17292,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6943967</v>
+        <v>6943805</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17301,16 +17301,16 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -17319,64 +17319,64 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M183">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N183">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O183">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q183">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R183">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>2.5</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z183">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17384,7 +17384,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6943805</v>
+        <v>6943967</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17393,16 +17393,16 @@
         <v>45285.58333333334</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G184">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -17411,64 +17411,64 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L184">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P184">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q184">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U184">
         <v>2.5</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA184">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -18580,7 +18580,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7589567</v>
+        <v>7589560</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18589,62 +18589,62 @@
         <v>45300.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
         <v>53</v>
       </c>
       <c r="L197">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N197">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O197">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P197">
         <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R197">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U197">
         <v>2.75</v>
       </c>
       <c r="V197">
+        <v>1.875</v>
+      </c>
+      <c r="W197">
         <v>1.975</v>
       </c>
-      <c r="W197">
-        <v>1.875</v>
-      </c>
       <c r="X197">
         <v>-1</v>
       </c>
@@ -18652,19 +18652,19 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18672,7 +18672,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7589560</v>
+        <v>7589567</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18681,62 +18681,62 @@
         <v>45300.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K198" t="s">
         <v>53</v>
       </c>
       <c r="L198">
+        <v>2.625</v>
+      </c>
+      <c r="M198">
+        <v>3.6</v>
+      </c>
+      <c r="N198">
+        <v>2.4</v>
+      </c>
+      <c r="O198">
         <v>2.375</v>
-      </c>
-      <c r="M198">
-        <v>3.5</v>
-      </c>
-      <c r="N198">
-        <v>2.75</v>
-      </c>
-      <c r="O198">
-        <v>2.25</v>
       </c>
       <c r="P198">
         <v>3.6</v>
       </c>
       <c r="Q198">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R198">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U198">
         <v>2.75</v>
       </c>
       <c r="V198">
+        <v>1.975</v>
+      </c>
+      <c r="W198">
         <v>1.875</v>
       </c>
-      <c r="W198">
-        <v>1.975</v>
-      </c>
       <c r="X198">
         <v>-1</v>
       </c>
@@ -18744,19 +18744,19 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18764,7 +18764,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7589559</v>
+        <v>7589561</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18773,82 +18773,82 @@
         <v>45301.45833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L199">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="M199">
         <v>3.5</v>
       </c>
       <c r="N199">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O199">
         <v>2.1</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q199">
         <v>3.4</v>
       </c>
       <c r="R199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V199">
+        <v>1.975</v>
+      </c>
+      <c r="W199">
         <v>1.875</v>
       </c>
-      <c r="W199">
-        <v>1.975</v>
-      </c>
       <c r="X199">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18856,7 +18856,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7589561</v>
+        <v>7589559</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18865,82 +18865,82 @@
         <v>45301.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L200">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="M200">
         <v>3.5</v>
       </c>
       <c r="N200">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O200">
         <v>2.1</v>
       </c>
       <c r="P200">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q200">
         <v>3.4</v>
       </c>
       <c r="R200">
+        <v>-0.25</v>
+      </c>
+      <c r="S200">
+        <v>1.825</v>
+      </c>
+      <c r="T200">
+        <v>2.025</v>
+      </c>
+      <c r="U200">
+        <v>2.25</v>
+      </c>
+      <c r="V200">
+        <v>1.875</v>
+      </c>
+      <c r="W200">
+        <v>1.975</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>2.4</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
         <v>-0.5</v>
       </c>
-      <c r="S200">
-        <v>2</v>
-      </c>
-      <c r="T200">
-        <v>1.85</v>
-      </c>
-      <c r="U200">
-        <v>2.5</v>
-      </c>
-      <c r="V200">
-        <v>1.975</v>
-      </c>
-      <c r="W200">
-        <v>1.875</v>
-      </c>
-      <c r="X200">
-        <v>1.1</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>-1</v>
-      </c>
-      <c r="AA200">
-        <v>1</v>
-      </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC200">
+        <v>-1</v>
+      </c>
+      <c r="AD200">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18948,7 +18948,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7589558</v>
+        <v>7589566</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18957,79 +18957,79 @@
         <v>45301.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L201">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N201">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="O201">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q201">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="R201">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T201">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U201">
         <v>3.25</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y201">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD201">
         <v>-1</v>
@@ -19040,7 +19040,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7589566</v>
+        <v>7589558</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19049,79 +19049,79 @@
         <v>45301.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G202">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L202">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="M202">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="O202">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="P202">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q202">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="R202">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="S202">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U202">
         <v>3.25</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X202">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD202">
         <v>-1</v>
@@ -22352,7 +22352,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6943997</v>
+        <v>6943995</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22361,13 +22361,13 @@
         <v>45319.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F238" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -22382,43 +22382,43 @@
         <v>54</v>
       </c>
       <c r="L238">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N238">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O238">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
         <v>3.3</v>
       </c>
       <c r="Q238">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="R238">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U238">
         <v>2.5</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X238">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -22427,16 +22427,16 @@
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AD238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6943995</v>
+        <v>6943997</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,13 +22453,13 @@
         <v>45319.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22474,43 +22474,43 @@
         <v>54</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M239">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N239">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="P239">
         <v>3.3</v>
       </c>
       <c r="Q239">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
         <v>2.5</v>
       </c>
       <c r="V239">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X239">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y239">
         <v>-1</v>
@@ -22519,16 +22519,16 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22812,7 +22812,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6944078</v>
+        <v>6944077</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22821,82 +22821,82 @@
         <v>45320.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G243">
         <v>2</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L243">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="M243">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N243">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="O243">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="P243">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q243">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="R243">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>1.875</v>
+      </c>
+      <c r="U243">
+        <v>3.5</v>
+      </c>
+      <c r="V243">
         <v>1.925</v>
       </c>
-      <c r="T243">
+      <c r="W243">
         <v>1.925</v>
       </c>
-      <c r="U243">
-        <v>3</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
-      <c r="W243">
-        <v>1.875</v>
-      </c>
       <c r="X243">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
+        <v>0.875</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+      <c r="AD243">
         <v>0.925</v>
-      </c>
-      <c r="AC243">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD243">
-        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22904,7 +22904,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6944077</v>
+        <v>6944078</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22913,82 +22913,82 @@
         <v>45320.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L244">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="M244">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N244">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="O244">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="P244">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q244">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="R244">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S244">
+        <v>1.925</v>
+      </c>
+      <c r="T244">
+        <v>1.925</v>
+      </c>
+      <c r="U244">
+        <v>3</v>
+      </c>
+      <c r="V244">
         <v>1.975</v>
       </c>
-      <c r="T244">
+      <c r="W244">
         <v>1.875</v>
       </c>
-      <c r="U244">
-        <v>3.5</v>
-      </c>
-      <c r="V244">
-        <v>1.925</v>
-      </c>
-      <c r="W244">
-        <v>1.925</v>
-      </c>
       <c r="X244">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23456,7 +23456,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6944001</v>
+        <v>6944079</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23465,16 +23465,16 @@
         <v>45325.54166666666</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -23483,64 +23483,64 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L250">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="M250">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N250">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O250">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P250">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q250">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="R250">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S250">
+        <v>1.875</v>
+      </c>
+      <c r="T250">
         <v>1.975</v>
       </c>
-      <c r="T250">
-        <v>1.875</v>
-      </c>
       <c r="U250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z250">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC250">
         <v>-1</v>
       </c>
       <c r="AD250">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23548,7 +23548,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6944079</v>
+        <v>6944001</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23557,16 +23557,16 @@
         <v>45325.54166666666</v>
       </c>
       <c r="E251" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -23575,64 +23575,64 @@
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L251">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M251">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N251">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="P251">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q251">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="R251">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S251">
+        <v>1.975</v>
+      </c>
+      <c r="T251">
         <v>1.875</v>
       </c>
-      <c r="T251">
-        <v>1.975</v>
-      </c>
       <c r="U251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC251">
         <v>-1</v>
       </c>
       <c r="AD251">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -25572,7 +25572,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6944086</v>
+        <v>6944014</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25581,82 +25581,82 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E273" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G273">
         <v>2</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273">
         <v>0</v>
       </c>
       <c r="J273">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L273">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M273">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N273">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O273">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="P273">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q273">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="R273">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S273">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V273">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W273">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD273">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25664,7 +25664,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6944014</v>
+        <v>6944086</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25673,82 +25673,82 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G274">
         <v>2</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L274">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N274">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O274">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="P274">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q274">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="R274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S274">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T274">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U274">
+        <v>2.5</v>
+      </c>
+      <c r="V274">
+        <v>1.875</v>
+      </c>
+      <c r="W274">
+        <v>1.975</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
         <v>2.75</v>
       </c>
-      <c r="V274">
-        <v>2</v>
-      </c>
-      <c r="W274">
-        <v>1.85</v>
-      </c>
-      <c r="X274">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
-      <c r="Z274">
-        <v>-1</v>
-      </c>
       <c r="AA274">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -26308,7 +26308,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6944017</v>
+        <v>6944018</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26317,16 +26317,16 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -26335,22 +26335,22 @@
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L281">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="M281">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N281">
+        <v>4.75</v>
+      </c>
+      <c r="O281">
+        <v>1.8</v>
+      </c>
+      <c r="P281">
         <v>3.8</v>
-      </c>
-      <c r="O281">
-        <v>1.909</v>
-      </c>
-      <c r="P281">
-        <v>3.5</v>
       </c>
       <c r="Q281">
         <v>4.2</v>
@@ -26359,40 +26359,40 @@
         <v>-0.5</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y281">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
         <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
         <v>-1</v>
       </c>
       <c r="AD281">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26400,7 +26400,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6944018</v>
+        <v>6944017</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26409,16 +26409,16 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G282">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -26427,22 +26427,22 @@
         <v>0</v>
       </c>
       <c r="K282" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L282">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="M282">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N282">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O282">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P282">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q282">
         <v>4.2</v>
@@ -26451,40 +26451,40 @@
         <v>-0.5</v>
       </c>
       <c r="S282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U282">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X282">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC282">
         <v>-1</v>
       </c>
       <c r="AD282">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -28148,7 +28148,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6943827</v>
+        <v>7915793</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -28157,82 +28157,82 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="J301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K301" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L301">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="M301">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N301">
+        <v>1.75</v>
+      </c>
+      <c r="O301">
+        <v>3.6</v>
+      </c>
+      <c r="P301">
         <v>3.8</v>
       </c>
-      <c r="O301">
-        <v>2.1</v>
-      </c>
-      <c r="P301">
-        <v>3.2</v>
-      </c>
       <c r="Q301">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="R301">
+        <v>0.5</v>
+      </c>
+      <c r="S301">
+        <v>1.925</v>
+      </c>
+      <c r="T301">
+        <v>1.925</v>
+      </c>
+      <c r="U301">
+        <v>2.75</v>
+      </c>
+      <c r="V301">
+        <v>1.825</v>
+      </c>
+      <c r="W301">
+        <v>2.025</v>
+      </c>
+      <c r="X301">
+        <v>-1</v>
+      </c>
+      <c r="Y301">
+        <v>-1</v>
+      </c>
+      <c r="Z301">
+        <v>0.95</v>
+      </c>
+      <c r="AA301">
+        <v>-1</v>
+      </c>
+      <c r="AB301">
+        <v>0.925</v>
+      </c>
+      <c r="AC301">
+        <v>0.4125</v>
+      </c>
+      <c r="AD301">
         <v>-0.5</v>
-      </c>
-      <c r="S301">
-        <v>2.05</v>
-      </c>
-      <c r="T301">
-        <v>1.8</v>
-      </c>
-      <c r="U301">
-        <v>2.25</v>
-      </c>
-      <c r="V301">
-        <v>2</v>
-      </c>
-      <c r="W301">
-        <v>1.85</v>
-      </c>
-      <c r="X301">
-        <v>1.1</v>
-      </c>
-      <c r="Y301">
-        <v>-1</v>
-      </c>
-      <c r="Z301">
-        <v>-1</v>
-      </c>
-      <c r="AA301">
-        <v>1.05</v>
-      </c>
-      <c r="AB301">
-        <v>-1</v>
-      </c>
-      <c r="AC301">
-        <v>1</v>
-      </c>
-      <c r="AD301">
-        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:30">
@@ -28240,7 +28240,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7915793</v>
+        <v>6943827</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28249,82 +28249,82 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L302">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="M302">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N302">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="P302">
+        <v>3.2</v>
+      </c>
+      <c r="Q302">
         <v>3.8</v>
       </c>
-      <c r="Q302">
-        <v>1.95</v>
-      </c>
       <c r="R302">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S302">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T302">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U302">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V302">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB302">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AD302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28884,7 +28884,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7947708</v>
+        <v>6944031</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -28893,79 +28893,79 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E309" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F309" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G309">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K309" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L309">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M309">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N309">
         <v>4</v>
       </c>
       <c r="O309">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q309">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="R309">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S309">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U309">
         <v>2.5</v>
       </c>
       <c r="V309">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W309">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X309">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA309">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC309">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD309">
         <v>-1</v>
@@ -28976,7 +28976,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6944031</v>
+        <v>7947708</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -28985,79 +28985,79 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E310" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F310" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G310">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K310" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L310">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M310">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N310">
         <v>4</v>
       </c>
       <c r="O310">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P310">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q310">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="R310">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S310">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U310">
         <v>2.5</v>
       </c>
       <c r="V310">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W310">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB310">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AD310">
         <v>-1</v>
@@ -29988,7 +29988,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7054700</v>
+        <v>7083168</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -29997,55 +29997,55 @@
         <v>45385.60416666666</v>
       </c>
       <c r="E321" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F321" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321">
         <v>1</v>
       </c>
       <c r="K321" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L321">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="M321">
+        <v>6</v>
+      </c>
+      <c r="N321">
+        <v>8.5</v>
+      </c>
+      <c r="O321">
+        <v>1.285</v>
+      </c>
+      <c r="P321">
+        <v>6.5</v>
+      </c>
+      <c r="Q321">
+        <v>8</v>
+      </c>
+      <c r="R321">
+        <v>-1.75</v>
+      </c>
+      <c r="S321">
+        <v>2.025</v>
+      </c>
+      <c r="T321">
+        <v>1.825</v>
+      </c>
+      <c r="U321">
         <v>3.25</v>
-      </c>
-      <c r="N321">
-        <v>2.05</v>
-      </c>
-      <c r="O321">
-        <v>3.3</v>
-      </c>
-      <c r="P321">
-        <v>3.4</v>
-      </c>
-      <c r="Q321">
-        <v>2.15</v>
-      </c>
-      <c r="R321">
-        <v>0.25</v>
-      </c>
-      <c r="S321">
-        <v>1.975</v>
-      </c>
-      <c r="T321">
-        <v>1.875</v>
-      </c>
-      <c r="U321">
-        <v>2.25</v>
       </c>
       <c r="V321">
         <v>1.85</v>
@@ -30054,19 +30054,19 @@
         <v>2</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB321">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
         <v>0.8500000000000001</v>
@@ -30080,7 +30080,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7083168</v>
+        <v>7054700</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -30089,55 +30089,55 @@
         <v>45385.60416666666</v>
       </c>
       <c r="E322" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F322" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G322">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322">
         <v>1</v>
       </c>
       <c r="K322" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L322">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N322">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="O322">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="P322">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q322">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="R322">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U322">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V322">
         <v>1.85</v>
@@ -30146,19 +30146,19 @@
         <v>2</v>
       </c>
       <c r="X322">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA322">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC322">
         <v>0.8500000000000001</v>
@@ -30172,7 +30172,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7061065</v>
+        <v>7070428</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -30181,52 +30181,52 @@
         <v>45386.60416666666</v>
       </c>
       <c r="E323" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F323" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>0</v>
       </c>
       <c r="J323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K323" t="s">
         <v>52</v>
       </c>
       <c r="L323">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="M323">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N323">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O323">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="P323">
         <v>3.3</v>
       </c>
       <c r="Q323">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="R323">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T323">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U323">
         <v>2.5</v>
@@ -30247,10 +30247,10 @@
         <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB323">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -30264,7 +30264,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7070428</v>
+        <v>7061065</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -30273,52 +30273,52 @@
         <v>45386.60416666666</v>
       </c>
       <c r="E324" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F324" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324">
         <v>0</v>
       </c>
       <c r="J324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K324" t="s">
         <v>52</v>
       </c>
       <c r="L324">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="M324">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N324">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O324">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="P324">
         <v>3.3</v>
       </c>
       <c r="Q324">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="R324">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S324">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T324">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U324">
         <v>2.5</v>
@@ -30339,10 +30339,10 @@
         <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB324">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC324">
         <v>-1</v>
@@ -30632,7 +30632,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7101409</v>
+        <v>7088772</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -30641,19 +30641,19 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E328" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F328" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328">
         <v>0</v>
@@ -30662,46 +30662,46 @@
         <v>52</v>
       </c>
       <c r="L328">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="M328">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N328">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O328">
         <v>1.8</v>
       </c>
       <c r="P328">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q328">
         <v>4.5</v>
       </c>
       <c r="R328">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S328">
+        <v>1.825</v>
+      </c>
+      <c r="T328">
         <v>2.025</v>
       </c>
-      <c r="T328">
-        <v>1.825</v>
-      </c>
       <c r="U328">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W328">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X328">
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z328">
         <v>-1</v>
@@ -30710,13 +30710,13 @@
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
         <v>-1</v>
       </c>
       <c r="AD328">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -30724,7 +30724,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7088772</v>
+        <v>7101409</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -30733,19 +30733,19 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E329" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F329" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329">
         <v>0</v>
@@ -30754,47 +30754,47 @@
         <v>52</v>
       </c>
       <c r="L329">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="M329">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N329">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O329">
         <v>1.8</v>
       </c>
       <c r="P329">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q329">
         <v>4.5</v>
       </c>
       <c r="R329">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S329">
+        <v>2.025</v>
+      </c>
+      <c r="T329">
         <v>1.825</v>
       </c>
-      <c r="T329">
-        <v>2.025</v>
-      </c>
       <c r="U329">
+        <v>2.5</v>
+      </c>
+      <c r="V329">
+        <v>1.95</v>
+      </c>
+      <c r="W329">
+        <v>1.9</v>
+      </c>
+      <c r="X329">
+        <v>-1</v>
+      </c>
+      <c r="Y329">
         <v>2.75</v>
       </c>
-      <c r="V329">
-        <v>1.85</v>
-      </c>
-      <c r="W329">
-        <v>2</v>
-      </c>
-      <c r="X329">
-        <v>-1</v>
-      </c>
-      <c r="Y329">
-        <v>2.6</v>
-      </c>
       <c r="Z329">
         <v>-1</v>
       </c>
@@ -30802,13 +30802,13 @@
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC329">
         <v>-1</v>
       </c>
       <c r="AD329">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -34128,7 +34128,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7256307</v>
+        <v>7261070</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34137,19 +34137,19 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F366" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G366">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J366">
         <v>0</v>
@@ -34158,43 +34158,43 @@
         <v>54</v>
       </c>
       <c r="L366">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="M366">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="N366">
-        <v>2.75</v>
+        <v>13</v>
       </c>
       <c r="O366">
-        <v>2.55</v>
+        <v>1.181</v>
       </c>
       <c r="P366">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q366">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="R366">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="S366">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T366">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U366">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="V366">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W366">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X366">
-        <v>1.55</v>
+        <v>0.181</v>
       </c>
       <c r="Y366">
         <v>-1</v>
@@ -34203,16 +34203,16 @@
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD366">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34220,7 +34220,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7261070</v>
+        <v>7256737</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -34229,82 +34229,82 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E367" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F367" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367" t="s">
+        <v>52</v>
+      </c>
+      <c r="L367">
+        <v>2.8</v>
+      </c>
+      <c r="M367">
+        <v>3.5</v>
+      </c>
+      <c r="N367">
+        <v>2.375</v>
+      </c>
+      <c r="O367">
+        <v>2.75</v>
+      </c>
+      <c r="P367">
+        <v>3.75</v>
+      </c>
+      <c r="Q367">
+        <v>2.3</v>
+      </c>
+      <c r="R367">
+        <v>0.25</v>
+      </c>
+      <c r="S367">
+        <v>1.8</v>
+      </c>
+      <c r="T367">
+        <v>2.05</v>
+      </c>
+      <c r="U367">
         <v>3</v>
       </c>
-      <c r="H367">
-        <v>0</v>
-      </c>
-      <c r="I367">
-        <v>2</v>
-      </c>
-      <c r="J367">
-        <v>0</v>
-      </c>
-      <c r="K367" t="s">
-        <v>54</v>
-      </c>
-      <c r="L367">
-        <v>1.166</v>
-      </c>
-      <c r="M367">
-        <v>7.5</v>
-      </c>
-      <c r="N367">
-        <v>13</v>
-      </c>
-      <c r="O367">
-        <v>1.181</v>
-      </c>
-      <c r="P367">
-        <v>8</v>
-      </c>
-      <c r="Q367">
-        <v>11</v>
-      </c>
-      <c r="R367">
-        <v>-2.25</v>
-      </c>
-      <c r="S367">
-        <v>2</v>
-      </c>
-      <c r="T367">
-        <v>1.85</v>
-      </c>
-      <c r="U367">
-        <v>3.75</v>
-      </c>
       <c r="V367">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W367">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X367">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z367">
         <v>-1</v>
       </c>
       <c r="AA367">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC367">
         <v>-1</v>
       </c>
       <c r="AD367">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -34312,7 +34312,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7256737</v>
+        <v>7256307</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -34321,13 +34321,13 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E368" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F368" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -34339,64 +34339,64 @@
         <v>0</v>
       </c>
       <c r="K368" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L368">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="M368">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N368">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O368">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="P368">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q368">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="R368">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S368">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T368">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U368">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V368">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W368">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X368">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y368">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB368">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD368">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:30">
@@ -34404,7 +34404,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7252632</v>
+        <v>7252633</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
@@ -34413,13 +34413,13 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E369" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F369" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H369">
         <v>1</v>
@@ -34431,64 +34431,64 @@
         <v>1</v>
       </c>
       <c r="K369" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L369">
+        <v>1.95</v>
+      </c>
+      <c r="M369">
+        <v>3.8</v>
+      </c>
+      <c r="N369">
         <v>3.4</v>
       </c>
-      <c r="M369">
-        <v>3.4</v>
-      </c>
-      <c r="N369">
-        <v>2.1</v>
-      </c>
       <c r="O369">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="P369">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q369">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R369">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S369">
+        <v>1.9</v>
+      </c>
+      <c r="T369">
         <v>1.95</v>
       </c>
-      <c r="T369">
-        <v>1.9</v>
-      </c>
       <c r="U369">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V369">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W369">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X369">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y369">
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB369">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC369">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD369">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="370" spans="1:30">
@@ -34496,7 +34496,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7252630</v>
+        <v>7248248</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -34505,61 +34505,61 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F370" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G370">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370">
+        <v>6</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
         <v>3</v>
-      </c>
-      <c r="I370">
-        <v>1</v>
-      </c>
-      <c r="J370">
-        <v>1</v>
       </c>
       <c r="K370" t="s">
         <v>53</v>
       </c>
       <c r="L370">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="M370">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N370">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O370">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="P370">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q370">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="R370">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S370">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T370">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U370">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V370">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W370">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -34568,16 +34568,16 @@
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="AA370">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB370">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC370">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD370">
         <v>-1</v>
@@ -34588,7 +34588,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7248248</v>
+        <v>7252632</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -34597,62 +34597,62 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F371" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J371">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K371" t="s">
         <v>53</v>
       </c>
       <c r="L371">
+        <v>3.4</v>
+      </c>
+      <c r="M371">
+        <v>3.4</v>
+      </c>
+      <c r="N371">
         <v>2.1</v>
       </c>
-      <c r="M371">
-        <v>3.6</v>
-      </c>
-      <c r="N371">
-        <v>3.25</v>
-      </c>
       <c r="O371">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="P371">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q371">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="R371">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S371">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T371">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U371">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V371">
+        <v>2</v>
+      </c>
+      <c r="W371">
         <v>1.85</v>
       </c>
-      <c r="W371">
-        <v>2</v>
-      </c>
       <c r="X371">
         <v>-1</v>
       </c>
@@ -34660,19 +34660,19 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="AA371">
         <v>-1</v>
       </c>
       <c r="AB371">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC371">
+        <v>-1</v>
+      </c>
+      <c r="AD371">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD371">
-        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:30">
@@ -34680,7 +34680,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7252633</v>
+        <v>7252630</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -34689,82 +34689,82 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F372" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G372">
         <v>2</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372">
         <v>1</v>
       </c>
       <c r="K372" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L372">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="M372">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N372">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O372">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="P372">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q372">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="R372">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S372">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T372">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U372">
         <v>3.25</v>
       </c>
       <c r="V372">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W372">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X372">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA372">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
       <c r="AB372">
         <v>-0.5</v>
       </c>
       <c r="AC372">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD372">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:30">
@@ -36410,7 +36410,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7316867</v>
+        <v>7305653</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -36419,73 +36419,73 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E391" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G391">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H391">
+        <v>2</v>
+      </c>
+      <c r="K391" t="s">
+        <v>54</v>
+      </c>
+      <c r="L391">
+        <v>2.875</v>
+      </c>
+      <c r="M391">
+        <v>3.4</v>
+      </c>
+      <c r="N391">
+        <v>2.1</v>
+      </c>
+      <c r="O391">
+        <v>2.875</v>
+      </c>
+      <c r="P391">
+        <v>3.8</v>
+      </c>
+      <c r="Q391">
+        <v>2.25</v>
+      </c>
+      <c r="R391">
+        <v>0.25</v>
+      </c>
+      <c r="S391">
+        <v>1.8</v>
+      </c>
+      <c r="T391">
+        <v>2.05</v>
+      </c>
+      <c r="U391">
         <v>3</v>
       </c>
-      <c r="K391" t="s">
-        <v>53</v>
-      </c>
-      <c r="L391">
-        <v>10</v>
-      </c>
-      <c r="M391">
-        <v>1.909</v>
-      </c>
-      <c r="N391">
-        <v>2.05</v>
-      </c>
-      <c r="O391">
-        <v>7</v>
-      </c>
-      <c r="P391">
-        <v>2.7</v>
-      </c>
-      <c r="Q391">
-        <v>1.833</v>
-      </c>
-      <c r="R391">
-        <v>0.5</v>
-      </c>
-      <c r="S391">
-        <v>1.975</v>
-      </c>
-      <c r="T391">
+      <c r="V391">
+        <v>2.025</v>
+      </c>
+      <c r="W391">
+        <v>1.825</v>
+      </c>
+      <c r="X391">
         <v>1.875</v>
       </c>
-      <c r="U391">
-        <v>2.75</v>
-      </c>
-      <c r="V391">
-        <v>1.975</v>
-      </c>
-      <c r="W391">
-        <v>1.875</v>
-      </c>
-      <c r="X391">
-        <v>-1</v>
-      </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB391">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC391">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD391">
         <v>-1</v>
@@ -36582,7 +36582,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7316866</v>
+        <v>7316867</v>
       </c>
       <c r="C393" t="s">
         <v>29</v>
@@ -36591,73 +36591,73 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E393" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F393" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G393">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K393" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L393">
-        <v>1.071</v>
+        <v>10</v>
       </c>
       <c r="M393">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="N393">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="O393">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="P393">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q393">
-        <v>41</v>
+        <v>1.833</v>
       </c>
       <c r="R393">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="S393">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T393">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U393">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V393">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W393">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X393">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA393">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC393">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD393">
         <v>-1</v>
@@ -36668,7 +36668,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7305653</v>
+        <v>7316866</v>
       </c>
       <c r="C394" t="s">
         <v>29</v>
@@ -36677,58 +36677,58 @@
         <v>45438.54166666666</v>
       </c>
       <c r="E394" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F394" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G394">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K394" t="s">
         <v>54</v>
       </c>
       <c r="L394">
-        <v>2.875</v>
+        <v>1.071</v>
       </c>
       <c r="M394">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="N394">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="O394">
-        <v>2.875</v>
+        <v>1.03</v>
       </c>
       <c r="P394">
-        <v>3.8</v>
+        <v>17</v>
       </c>
       <c r="Q394">
-        <v>2.25</v>
+        <v>41</v>
       </c>
       <c r="R394">
-        <v>0.25</v>
+        <v>-3.75</v>
       </c>
       <c r="S394">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T394">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U394">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V394">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W394">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X394">
-        <v>1.875</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="Y394">
         <v>-1</v>
@@ -36737,13 +36737,13 @@
         <v>-1</v>
       </c>
       <c r="AA394">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB394">
         <v>-1</v>
       </c>
       <c r="AC394">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD394">
         <v>-1</v>

--- a/Turkey Super Lig/Turkey Super Lig.xlsx
+++ b/Turkey Super Lig/Turkey Super Lig.xlsx
@@ -139,13 +139,13 @@
     <t>Besiktas</t>
   </si>
   <si>
-    <t>Istanbulspor</t>
+    <t>Giresunspor</t>
   </si>
   <si>
     <t>Ankaragucu</t>
   </si>
   <si>
-    <t>Giresunspor</t>
+    <t>Istanbulspor</t>
   </si>
   <si>
     <t>Pendikspor</t>
@@ -1112,7 +1112,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5611970</v>
+        <v>5608341</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1664,10 +1664,10 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1682,43 +1682,43 @@
         <v>54</v>
       </c>
       <c r="L13">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O13">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="P13">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>1.925</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>1.875</v>
       </c>
-      <c r="U13">
-        <v>3.25</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>1.85</v>
-      </c>
       <c r="X13">
-        <v>0.333</v>
+        <v>1.1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1727,16 +1727,16 @@
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1836,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5608341</v>
+        <v>5611970</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1848,10 +1848,10 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1866,43 +1866,43 @@
         <v>54</v>
       </c>
       <c r="L15">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X15">
-        <v>1.1</v>
+        <v>0.333</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1911,16 +1911,16 @@
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6944036</v>
+        <v>6943599</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2029,82 +2029,82 @@
         <v>45150.55208333334</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L17">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="O17">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U17">
         <v>2.75</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943599</v>
+        <v>6944036</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2121,82 +2121,82 @@
         <v>45150.55208333334</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L18">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="O18">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="P18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="R18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U18">
         <v>2.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2204,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943774</v>
+        <v>6944035</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2213,82 +2213,82 @@
         <v>45150.65625</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="R19">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6944035</v>
+        <v>6943774</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2305,82 +2305,82 @@
         <v>45150.65625</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2664,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6944037</v>
+        <v>6943878</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2673,82 +2673,82 @@
         <v>45152.625</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="R24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X24">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA24">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>-1</v>
       </c>
       <c r="AD24">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2756,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6943878</v>
+        <v>6944037</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2765,82 +2765,82 @@
         <v>45152.625</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N25">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T25">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2857,7 +2857,7 @@
         <v>45156.625</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
         <v>31</v>
@@ -3400,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943777</v>
+        <v>6943882</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3409,46 +3409,46 @@
         <v>45158.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="R32">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3457,22 +3457,22 @@
         <v>1.85</v>
       </c>
       <c r="U32">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
         <v>1.85</v>
       </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3481,10 +3481,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3492,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943882</v>
+        <v>6943777</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3501,46 +3501,46 @@
         <v>45158.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="O33">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="P33">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q33">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3549,22 +3549,22 @@
         <v>1.85</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z33">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3573,10 +3573,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -5709,7 +5709,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -6172,7 +6172,7 @@
         <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -7089,7 +7089,7 @@
         <v>45195.58333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
         <v>36</v>
@@ -7549,7 +7549,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
         <v>47</v>
@@ -8932,7 +8932,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -9288,7 +9288,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943920</v>
+        <v>6943790</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9297,16 +9297,16 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -9315,64 +9315,64 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L96">
-        <v>2.65</v>
+        <v>1.666</v>
       </c>
       <c r="M96">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="P96">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U96">
         <v>2.5</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X96">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9380,7 +9380,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6943790</v>
+        <v>6943920</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9389,16 +9389,16 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9407,64 +9407,64 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L97">
-        <v>1.666</v>
+        <v>2.65</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N97">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q97">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="R97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U97">
         <v>2.5</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9665,7 +9665,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -9748,7 +9748,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6943789</v>
+        <v>6943922</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9757,67 +9757,67 @@
         <v>45221.54166666666</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L101">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="M101">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="O101">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q101">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="R101">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U101">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9826,13 +9826,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9840,7 +9840,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6943922</v>
+        <v>6943789</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9849,67 +9849,67 @@
         <v>45221.54166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>52</v>
+      </c>
+      <c r="L102">
+        <v>2.25</v>
+      </c>
+      <c r="M102">
+        <v>3.3</v>
+      </c>
+      <c r="N102">
         <v>3</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" t="s">
-        <v>54</v>
-      </c>
-      <c r="L102">
-        <v>1.222</v>
-      </c>
-      <c r="M102">
-        <v>6</v>
-      </c>
-      <c r="N102">
-        <v>9.5</v>
-      </c>
       <c r="O102">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="P102">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q102">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="R102">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>1.95</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
         <v>2.025</v>
       </c>
-      <c r="T102">
+      <c r="W102">
         <v>1.825</v>
       </c>
-      <c r="U102">
-        <v>3.5</v>
-      </c>
-      <c r="V102">
-        <v>2</v>
-      </c>
-      <c r="W102">
-        <v>1.85</v>
-      </c>
       <c r="X102">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9918,13 +9918,13 @@
         <v>-0.5</v>
      